--- a/client/文件上传模版/测试任务更新模版.xlsx
+++ b/client/文件上传模版/测试任务更新模版.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="23940"/>
+    <workbookView windowHeight="22260"/>
   </bookViews>
   <sheets>
     <sheet name="模版" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="39">
   <si>
     <t>负责人</t>
   </si>
@@ -44,7 +44,7 @@
     <t>测试状态</t>
   </si>
   <si>
-    <t>测试进度</t>
+    <t>进度</t>
   </si>
   <si>
     <t>提测时间</t>
@@ -71,49 +71,52 @@
     <t>美国2</t>
   </si>
   <si>
+    <t>美国2VIP用户权益</t>
+  </si>
+  <si>
+    <t>未提测</t>
+  </si>
+  <si>
+    <t>美国2 - 产品体验优化0723</t>
+  </si>
+  <si>
+    <t>评审 - 弱导流区分尾号测试</t>
+  </si>
+  <si>
     <t>美国2 - 救济金优化：游戏内曝光+领取后引导复购</t>
   </si>
   <si>
     <t>测试中</t>
   </si>
   <si>
+    <t>王然</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
-    <t>美国2 - 首充后发短信引导用户回归</t>
-  </si>
-  <si>
-    <t>已上线</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
     <t>美国</t>
   </si>
   <si>
-    <t>线上数据异常排查</t>
-  </si>
-  <si>
-    <t>已完成</t>
-  </si>
-  <si>
-    <t>王然</t>
-  </si>
-  <si>
-    <t>美国2 - 周卡功能</t>
-  </si>
-  <si>
-    <t>美国2 - 损失返利储蓄罐</t>
-  </si>
-  <si>
-    <t>美国2-弱时间免费旋转放大到每天AB测试</t>
+    <t>美国一H5 - 支付流程埋点（远浩提的）</t>
+  </si>
+  <si>
+    <t>美国 - IOS添加日历引导次留</t>
+  </si>
+  <si>
+    <t>美国2 -APK内引导打开firebase通知</t>
+  </si>
+  <si>
+    <t>美国裂变方案</t>
+  </si>
+  <si>
+    <t>测试用例与研发自测用例完成</t>
   </si>
   <si>
     <t>美国2 - 新增虚拟隐私信用卡</t>
   </si>
   <si>
-    <t>未提测</t>
+    <t>暂停</t>
   </si>
   <si>
     <t>古鹏鹏</t>
@@ -122,40 +125,39 @@
     <t>IGT游戏测试</t>
   </si>
   <si>
+    <t>美国二H5 - VIP阶梯礼包放开到全网 - 不抢曝光</t>
+  </si>
+  <si>
+    <t>【评审】美国2疯传</t>
+  </si>
+  <si>
+    <t>【评审】美国2默认押注变更需求</t>
+  </si>
+  <si>
     <t>墨西哥</t>
   </si>
   <si>
-    <t>墨西哥 - 引导新注册用户提款并充值流程移植</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>客服OA</t>
-  </si>
-  <si>
-    <t>客服OA - TG图片转URL和客服评分逻辑优化</t>
-  </si>
-  <si>
-    <t>归因测试</t>
-  </si>
-  <si>
-    <t>线上问题修复回归</t>
+    <t>墨西哥 - 提升最低下注金额AB测</t>
+  </si>
+  <si>
+    <t>墨西哥 - 压低 JACKPOT 和 FREECASH 提款金额</t>
+  </si>
+  <si>
+    <t>墨西哥H5 - 体验优化 - 文案统一为 Deposit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="6">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss"/>
-    <numFmt numFmtId="177" formatCode="yyyy/m/d\ h:mm:ss.0"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -168,12 +170,6 @@
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -527,7 +523,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -554,30 +550,6 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -690,152 +662,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -845,26 +817,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -881,23 +841,11 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1220,10 +1168,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:K13"/>
+      <selection activeCell="A1" sqref="A1:K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.5" customHeight="1"/>
@@ -1250,22 +1198,22 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
@@ -1279,360 +1227,371 @@
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="12">
-        <v>0.6</v>
-      </c>
-      <c r="G2" s="13">
-        <v>45861.875</v>
-      </c>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="11">
-        <v>2</v>
-      </c>
-      <c r="K2" s="5"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="10">
+        <v>45869</v>
+      </c>
+      <c r="I2" s="10"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="3"/>
     </row>
     <row r="3" customHeight="1" spans="1:11">
       <c r="A3" s="3"/>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="12">
-        <v>1</v>
-      </c>
-      <c r="G3" s="13">
-        <v>45861.8611111111</v>
-      </c>
-      <c r="H3" s="14">
-        <v>45862</v>
-      </c>
-      <c r="I3" s="13">
-        <v>45863.7396064815</v>
-      </c>
-      <c r="J3" s="11">
-        <v>3</v>
-      </c>
-      <c r="K3" s="5"/>
+      <c r="E3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="3"/>
     </row>
     <row r="4" customHeight="1" spans="1:11">
       <c r="A4" s="3"/>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:11">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="F5" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="G5" s="9">
+        <v>45861.875</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" ht="18" customHeight="1" spans="1:11">
+      <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="C6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="11">
-        <v>2</v>
-      </c>
-      <c r="K4" s="5"/>
-    </row>
-    <row r="5" ht="18" customHeight="1" spans="1:11">
-      <c r="A5" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="12">
-        <v>1</v>
-      </c>
-      <c r="G5" s="13">
-        <v>45860.625</v>
-      </c>
-      <c r="H5" s="14">
-        <v>45862</v>
-      </c>
-      <c r="I5" s="13">
-        <v>45863.7396064815</v>
-      </c>
-      <c r="J5" s="11">
-        <v>3.5</v>
-      </c>
-      <c r="K5" s="5"/>
-    </row>
-    <row r="6" customHeight="1" spans="1:11">
-      <c r="A6" s="5"/>
-      <c r="B6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="12">
-        <v>1</v>
-      </c>
-      <c r="G6" s="13">
-        <v>45855.4388888889</v>
-      </c>
-      <c r="H6" s="14">
-        <v>45862</v>
-      </c>
-      <c r="I6" s="13">
-        <v>45863.7396064815</v>
-      </c>
-      <c r="J6" s="11">
-        <v>3.5</v>
-      </c>
-      <c r="K6" s="5"/>
+      <c r="E6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="11">
+        <v>45868</v>
+      </c>
+      <c r="I6" s="10"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="3"/>
     </row>
     <row r="7" customHeight="1" spans="1:11">
-      <c r="A7" s="5"/>
+      <c r="A7" s="3"/>
       <c r="B7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>13</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C7" s="5"/>
       <c r="D7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="12">
-        <v>1</v>
-      </c>
-      <c r="G7" s="13">
-        <v>45861.7305555556</v>
-      </c>
-      <c r="H7" s="14">
-        <v>45862</v>
-      </c>
-      <c r="I7" s="13">
-        <v>45863.7396064815</v>
-      </c>
-      <c r="J7" s="11">
-        <v>1</v>
-      </c>
-      <c r="K7" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="3"/>
     </row>
-    <row r="8" customHeight="1" spans="1:11">
-      <c r="A8" s="5"/>
+    <row r="8" ht="18" customHeight="1" spans="1:11">
+      <c r="A8" s="3"/>
       <c r="B8" s="4" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="11">
+        <v>45870</v>
+      </c>
+      <c r="I8" s="10"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" customHeight="1" spans="1:11">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="5"/>
-    </row>
-    <row r="9" ht="18" customHeight="1" spans="1:11">
-      <c r="A9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="5"/>
     </row>
     <row r="10" customHeight="1" spans="1:11">
       <c r="A10" s="3"/>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" ht="18" customHeight="1" spans="1:11">
+      <c r="A11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="12">
-        <v>1</v>
-      </c>
-      <c r="G10" s="13">
-        <v>45861.4583333333</v>
-      </c>
-      <c r="H10" s="14">
-        <v>45862</v>
-      </c>
-      <c r="I10" s="13">
-        <v>45863.6611111111</v>
-      </c>
-      <c r="J10" s="11">
-        <v>4</v>
-      </c>
-      <c r="K10" s="5"/>
-    </row>
-    <row r="11" customHeight="1" spans="1:11">
-      <c r="A11" s="3"/>
-      <c r="B11" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="17">
-        <v>1</v>
-      </c>
-      <c r="G11" s="18">
-        <v>45862.4583333333</v>
-      </c>
-      <c r="H11" s="19">
-        <v>45863</v>
-      </c>
-      <c r="I11" s="20">
-        <v>45863.4791666667</v>
-      </c>
-      <c r="J11" s="16">
-        <v>2</v>
-      </c>
+      <c r="E11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="7"/>
       <c r="K11" s="3"/>
     </row>
     <row r="12" customHeight="1" spans="1:11">
       <c r="A12" s="3"/>
-      <c r="B12" s="3" t="s">
-        <v>33</v>
+      <c r="B12" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="17">
-        <v>1</v>
-      </c>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="16">
-        <v>0.5</v>
-      </c>
+      <c r="D12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="10">
+        <v>45867</v>
+      </c>
+      <c r="I12" s="10"/>
+      <c r="J12" s="7"/>
       <c r="K12" s="3"/>
     </row>
     <row r="13" customHeight="1" spans="1:11">
       <c r="A13" s="3"/>
-      <c r="B13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="5" t="s">
+      <c r="B13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" customHeight="1" spans="1:11">
+      <c r="A14" s="3"/>
+      <c r="B14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="10">
+        <v>45867</v>
+      </c>
+      <c r="I14" s="10"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" ht="18" customHeight="1" spans="1:11">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11">
+        <v>45870</v>
+      </c>
+      <c r="I15" s="10"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" customHeight="1" spans="1:11">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="12">
-        <v>1</v>
-      </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="11">
-        <v>1</v>
-      </c>
-      <c r="K13" s="5"/>
+      <c r="E16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="3"/>
+    </row>
+    <row r="17" customHeight="1" spans="1:11">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="A9:A13"/>
+  <mergeCells count="12">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A11:A17"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H15:H17"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A14:A160" errorStyle="information">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A18:A147" errorStyle="information">
       <formula1>"王雪斌,王然,古鹏鹏"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B14:B1048576" errorStyle="information">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B18:B1048576" errorStyle="information">
       <formula1>"A,B,C,S"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C14:C1048576" errorStyle="information">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C18:C1048576" errorStyle="information">
       <formula1>"美国,美国2,墨西哥,秘鲁,巴西,智利,分包系统,客服OA,运营系统,加拿大,澳大利亚,巴西2"</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="E14:E1048576">
+    <dataValidation type="list" sqref="E18:E1048576">
       <formula1>"测试中,未提测,已上线,已完成"</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="between" allowBlank="1" sqref="G14:I1048576"/>
+    <dataValidation type="date" operator="between" allowBlank="1" sqref="G18:I1048576"/>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="美国2 - 救济金优化：游戏内曝光+领取后引导复购" tooltip="https://alidocs.dingtalk.com/i/nodes/ZgpG2NdyVXr4QDbGf37vLwp18MwvDqPk?doc_type=wiki_doc&amp;utm_scene=team_space"/>
-    <hyperlink ref="D5" r:id="rId2" display="美国2 - 周卡功能" tooltip="https://alidocs.dingtalk.com/i/nodes/kDnRL6jAJM3oNxdvUDDnjDNMWyMoPYe1?doc_type=wiki_doc"/>
-    <hyperlink ref="D6" r:id="rId3" display="美国2 - 损失返利储蓄罐" tooltip="https://alidocs.dingtalk.com/i/nodes/R1zknDm0WR3ozGdjU9g5djeqVBQEx5rG?doc_type=wiki_doc&amp;iframeQuery=utm_source=portal&amp;utm_medium=portal_recent&amp;rnd=0.3251364584280112"/>
-    <hyperlink ref="D7" r:id="rId4" display="美国2-弱时间免费旋转放大到每天AB测试" tooltip="https://alidocs.dingtalk.com/i/nodes/ZX6GRezwJl7bY4dKUnMqKO3GVdqbropQ?doc_type=wiki_doc&amp;utm_scene=team_space"/>
-    <hyperlink ref="D10" r:id="rId5" display="墨西哥 - 引导新注册用户提款并充值流程移植" tooltip="https://alidocs.dingtalk.com/i/nodes/dQPGYqjpJYgvRMQoid62NPq6Wakx1Z5N?doc_type=wiki_doc&amp;iframeQuery=utm_source=portal&amp;utm_medium=portal_recent&amp;rnd=0.4970446489189584"/>
+    <hyperlink ref="D5" r:id="rId1" display="美国2 - 救济金优化：游戏内曝光+领取后引导复购" tooltip="https://alidocs.dingtalk.com/i/nodes/ZgpG2NdyVXr4QDbGf37vLwp18MwvDqPk?doc_type=wiki_doc&amp;utm_scene=team_space"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/client/文件上传模版/测试任务更新模版.xlsx
+++ b/client/文件上传模版/测试任务更新模版.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="41">
   <si>
     <t>负责人</t>
   </si>
@@ -56,7 +56,10 @@
     <t>实际上线时间</t>
   </si>
   <si>
-    <t>实际耗时（h）</t>
+    <t>测试实际耗时（h）</t>
+  </si>
+  <si>
+    <t>用例耗时（h）</t>
   </si>
   <si>
     <t>备注</t>
@@ -83,12 +86,12 @@
     <t>评审 - 弱导流区分尾号测试</t>
   </si>
   <si>
+    <t>测试中</t>
+  </si>
+  <si>
     <t>美国2 - 救济金优化：游戏内曝光+领取后引导复购</t>
   </si>
   <si>
-    <t>测试中</t>
-  </si>
-  <si>
     <t>王然</t>
   </si>
   <si>
@@ -104,19 +107,22 @@
     <t>美国 - IOS添加日历引导次留</t>
   </si>
   <si>
+    <t>测试用例完成80%</t>
+  </si>
+  <si>
     <t>美国2 -APK内引导打开firebase通知</t>
   </si>
   <si>
     <t>美国裂变方案</t>
   </si>
   <si>
-    <t>测试用例与研发自测用例完成</t>
-  </si>
-  <si>
     <t>美国2 - 新增虚拟隐私信用卡</t>
   </si>
   <si>
     <t>暂停</t>
+  </si>
+  <si>
+    <t>评论引流线上回归+投放链测试+会议+需求评审</t>
   </si>
   <si>
     <t>古鹏鹏</t>
@@ -1168,10 +1174,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:K17"/>
+      <selection activeCell="A1" sqref="A1:L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.5" customHeight="1"/>
@@ -1185,7 +1191,7 @@
     <col min="10" max="10" width="13.5166666666667" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:11">
+    <row r="1" customHeight="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1216,25 +1222,28 @@
       <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" ht="18" customHeight="1" spans="1:11">
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" ht="18" customHeight="1" spans="1:12">
       <c r="A2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="9"/>
@@ -1243,78 +1252,90 @@
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="3"/>
-    </row>
-    <row r="3" customHeight="1" spans="1:11">
+      <c r="K2" s="7"/>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:12">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="3"/>
       <c r="D3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="9"/>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
       <c r="J3" s="7"/>
-      <c r="K3" s="3"/>
-    </row>
-    <row r="4" customHeight="1" spans="1:11">
+      <c r="K3" s="7"/>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:12">
       <c r="A4" s="3"/>
       <c r="B4" s="4"/>
       <c r="C4" s="3"/>
       <c r="D4" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="9"/>
+        <v>19</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="9">
+        <v>45861.6255787037</v>
+      </c>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="3"/>
-    </row>
-    <row r="5" customHeight="1" spans="1:11">
+      <c r="J4" s="7">
+        <v>1</v>
+      </c>
+      <c r="K4" s="7"/>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:12">
       <c r="A5" s="3"/>
       <c r="B5" s="4"/>
       <c r="C5" s="3"/>
       <c r="D5" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="8">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="G5" s="9">
         <v>45861.875</v>
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="3"/>
-    </row>
-    <row r="6" ht="18" customHeight="1" spans="1:11">
-      <c r="A6" s="3" t="s">
-        <v>20</v>
+      <c r="J5" s="7">
+        <v>2</v>
+      </c>
+      <c r="K5" s="7"/>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" ht="18" customHeight="1" spans="1:12">
+      <c r="A6" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="9"/>
@@ -1323,40 +1344,46 @@
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="7"/>
-      <c r="K6" s="3"/>
-    </row>
-    <row r="7" customHeight="1" spans="1:11">
-      <c r="A7" s="3"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:12">
+      <c r="A7" s="5"/>
       <c r="B7" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="9"/>
       <c r="H7" s="11"/>
       <c r="I7" s="10"/>
       <c r="J7" s="7"/>
-      <c r="K7" s="3"/>
-    </row>
-    <row r="8" ht="18" customHeight="1" spans="1:11">
-      <c r="A8" s="3"/>
+      <c r="K7" s="7">
+        <v>4</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" ht="18" customHeight="1" spans="1:12">
+      <c r="A8" s="5"/>
       <c r="B8" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="9"/>
@@ -1365,230 +1392,274 @@
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="7"/>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" customHeight="1" spans="1:11">
-      <c r="A9" s="3"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" customHeight="1" spans="1:12">
+      <c r="A9" s="5"/>
       <c r="B9" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="9"/>
       <c r="H9" s="11"/>
       <c r="I9" s="10"/>
       <c r="J9" s="7"/>
-      <c r="K9" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="1:11">
-      <c r="A10" s="3"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:12">
+      <c r="A10" s="5"/>
       <c r="B10" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="12"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
       <c r="J10" s="7"/>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" ht="18" customHeight="1" spans="1:11">
-      <c r="A11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="K10" s="7"/>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" ht="18" customHeight="1" spans="1:12">
+      <c r="A11" s="5"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="3"/>
       <c r="D11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>19</v>
-      </c>
+      <c r="E11" s="7"/>
       <c r="F11" s="8"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="3"/>
-    </row>
-    <row r="12" customHeight="1" spans="1:11">
-      <c r="A12" s="3"/>
+      <c r="J11" s="7">
+        <v>4</v>
+      </c>
+      <c r="K11" s="7"/>
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" ht="18" customHeight="1" spans="1:12">
+      <c r="A12" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="B12" s="4" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F12" s="8"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="10">
-        <v>45867</v>
-      </c>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
       <c r="I12" s="10"/>
       <c r="J12" s="7"/>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" customHeight="1" spans="1:11">
+      <c r="K12" s="7"/>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:12">
       <c r="A13" s="3"/>
       <c r="B13" s="4" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="10"/>
+        <v>19</v>
+      </c>
+      <c r="F13" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="G13" s="9">
+        <v>45866.6112615741</v>
+      </c>
+      <c r="H13" s="10">
+        <v>45867</v>
+      </c>
       <c r="I13" s="10"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" customHeight="1" spans="1:11">
+      <c r="J13" s="7">
+        <v>3</v>
+      </c>
+      <c r="K13" s="7">
+        <v>1</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" customHeight="1" spans="1:12">
       <c r="A14" s="3"/>
       <c r="B14" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="9"/>
-      <c r="H14" s="10">
-        <v>45867</v>
-      </c>
+      <c r="H14" s="10"/>
       <c r="I14" s="10"/>
       <c r="J14" s="7"/>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" ht="18" customHeight="1" spans="1:11">
+      <c r="K14" s="7">
+        <v>2</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" ht="18" customHeight="1" spans="1:12">
       <c r="A15" s="3"/>
-      <c r="B15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>35</v>
+      <c r="B15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>36</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11">
-        <v>45870</v>
+        <v>19</v>
+      </c>
+      <c r="F15" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="G15" s="9">
+        <v>45866.4033101852</v>
+      </c>
+      <c r="H15" s="10">
+        <v>45867</v>
       </c>
       <c r="I15" s="10"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" customHeight="1" spans="1:11">
+      <c r="J15" s="7">
+        <v>2</v>
+      </c>
+      <c r="K15" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" ht="18" customHeight="1" spans="1:12">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="5"/>
+        <v>22</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="D16" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
+      <c r="H16" s="11">
+        <v>45870</v>
+      </c>
       <c r="I16" s="10"/>
       <c r="J16" s="7"/>
-      <c r="K16" s="3"/>
-    </row>
-    <row r="17" customHeight="1" spans="1:11">
+      <c r="K16" s="7"/>
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" customHeight="1" spans="1:12">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="10"/>
       <c r="H17" s="11"/>
       <c r="I17" s="10"/>
       <c r="J17" s="7"/>
-      <c r="K17" s="3"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" customHeight="1" spans="1:12">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="A11:A17"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="A12:A18"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="C2:C5"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C16:C18"/>
     <mergeCell ref="H2:H5"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="H16:H18"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A18:A147" errorStyle="information">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A19:A147" errorStyle="information">
       <formula1>"王雪斌,王然,古鹏鹏"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B18:B1048576" errorStyle="information">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B19:B1048576" errorStyle="information">
       <formula1>"A,B,C,S"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C18:C1048576" errorStyle="information">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C19:C1048576" errorStyle="information">
       <formula1>"美国,美国2,墨西哥,秘鲁,巴西,智利,分包系统,客服OA,运营系统,加拿大,澳大利亚,巴西2"</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="E18:E1048576">
+    <dataValidation type="list" sqref="E19:E1048576">
       <formula1>"测试中,未提测,已上线,已完成"</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="between" allowBlank="1" sqref="G18:I1048576"/>
+    <dataValidation type="date" operator="between" allowBlank="1" sqref="G19:I1048576"/>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="D5" r:id="rId1" display="美国2 - 救济金优化：游戏内曝光+领取后引导复购" tooltip="https://alidocs.dingtalk.com/i/nodes/ZgpG2NdyVXr4QDbGf37vLwp18MwvDqPk?doc_type=wiki_doc&amp;utm_scene=team_space"/>

--- a/client/文件上传模版/测试任务更新模版.xlsx
+++ b/client/文件上传模版/测试任务更新模版.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="43">
   <si>
     <t>负责人</t>
   </si>
@@ -68,12 +68,27 @@
     <t>王雪斌</t>
   </si>
   <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>美国一推送迁移测试</t>
+  </si>
+  <si>
+    <t>测试中</t>
+  </si>
+  <si>
     <t>B</t>
   </si>
   <si>
     <t>美国2</t>
   </si>
   <si>
+    <t>落地页唤起Google包测试</t>
+  </si>
+  <si>
     <t>美国2VIP用户权益</t>
   </si>
   <si>
@@ -86,30 +101,18 @@
     <t>评审 - 弱导流区分尾号测试</t>
   </si>
   <si>
-    <t>测试中</t>
-  </si>
-  <si>
     <t>美国2 - 救济金优化：游戏内曝光+领取后引导复购</t>
   </si>
   <si>
     <t>王然</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>美国</t>
-  </si>
-  <si>
     <t>美国一H5 - 支付流程埋点（远浩提的）</t>
   </si>
   <si>
     <t>美国 - IOS添加日历引导次留</t>
   </si>
   <si>
-    <t>测试用例完成80%</t>
-  </si>
-  <si>
     <t>美国2 -APK内引导打开firebase通知</t>
   </si>
   <si>
@@ -122,7 +125,7 @@
     <t>暂停</t>
   </si>
   <si>
-    <t>评论引流线上回归+投放链测试+会议+需求评审</t>
+    <t>事故复盘+需求评审+会议</t>
   </si>
   <si>
     <t>古鹏鹏</t>
@@ -132,6 +135,9 @@
   </si>
   <si>
     <t>美国二H5 - VIP阶梯礼包放开到全网 - 不抢曝光</t>
+  </si>
+  <si>
+    <t>已上线</t>
   </si>
   <si>
     <t>【评审】美国2疯传</t>
@@ -813,7 +819,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -823,14 +829,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1174,10 +1183,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:L18"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.5" customHeight="1"/>
@@ -1204,25 +1213,25 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
@@ -1236,433 +1245,485 @@
       <c r="B2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="10">
+      <c r="F2" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="G2" s="10">
+        <v>45867.4172800926</v>
+      </c>
+      <c r="H2" s="11">
+        <v>45868</v>
+      </c>
+      <c r="I2" s="11"/>
+      <c r="J2" s="8">
+        <v>2</v>
+      </c>
+      <c r="K2" s="8"/>
+      <c r="L2" s="5"/>
+    </row>
+    <row r="3" ht="18" customHeight="1" spans="1:12">
+      <c r="A3" s="3"/>
+      <c r="B3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="G3" s="10">
+        <v>45867.4172800926</v>
+      </c>
+      <c r="H3" s="12">
         <v>45869</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="3"/>
-    </row>
-    <row r="3" customHeight="1" spans="1:12">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="3"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="8">
+        <v>3</v>
+      </c>
+      <c r="K3" s="8"/>
+      <c r="L3" s="5"/>
     </row>
     <row r="4" customHeight="1" spans="1:12">
       <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
+      <c r="B4" s="6"/>
       <c r="C4" s="3"/>
       <c r="D4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="G4" s="9">
-        <v>45861.6255787037</v>
-      </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="7">
-        <v>1</v>
-      </c>
-      <c r="K4" s="7"/>
-      <c r="L4" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="5"/>
     </row>
     <row r="5" customHeight="1" spans="1:12">
       <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
+      <c r="B5" s="6"/>
       <c r="C5" s="3"/>
       <c r="D5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="8">
+        <v>22</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="5"/>
+    </row>
+    <row r="6" ht="18" customHeight="1" spans="1:12">
+      <c r="A6" s="3"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="10">
+        <v>45861.6255787037</v>
+      </c>
+      <c r="H6" s="12"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="5"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:12">
+      <c r="A7" s="3"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="9">
         <v>0.9</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G7" s="10">
         <v>45861.875</v>
       </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="7">
-        <v>2</v>
-      </c>
-      <c r="K5" s="7"/>
-      <c r="L5" s="3"/>
-    </row>
-    <row r="6" ht="18" customHeight="1" spans="1:12">
-      <c r="A6" s="5" t="s">
+      <c r="H7" s="12"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="8">
+        <v>1</v>
+      </c>
+      <c r="K7" s="8"/>
+      <c r="L7" s="5"/>
+    </row>
+    <row r="8" ht="18" customHeight="1" spans="1:12">
+      <c r="A8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="11">
+      <c r="F8" s="9"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="12">
         <v>45868</v>
       </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="3"/>
-    </row>
-    <row r="7" customHeight="1" spans="1:12">
-      <c r="A7" s="5"/>
-      <c r="B7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7">
-        <v>4</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" ht="18" customHeight="1" spans="1:12">
-      <c r="A8" s="5"/>
-      <c r="B8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="11">
-        <v>45870</v>
-      </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="3"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="5"/>
     </row>
     <row r="9" customHeight="1" spans="1:12">
-      <c r="A9" s="5"/>
+      <c r="A9" s="3"/>
       <c r="B9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="5"/>
+      <c r="C9" s="3"/>
       <c r="D9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" customHeight="1" spans="1:12">
-      <c r="A10" s="5"/>
+        <v>27</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="10">
+        <v>45867.4895833333</v>
+      </c>
+      <c r="H9" s="12"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="8">
+        <v>4</v>
+      </c>
+      <c r="K9" s="8">
+        <v>2</v>
+      </c>
+      <c r="L9" s="5"/>
+    </row>
+    <row r="10" ht="18" customHeight="1" spans="1:12">
+      <c r="A10" s="3"/>
       <c r="B10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="12">
+        <v>45870</v>
+      </c>
+      <c r="I10" s="11"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="5"/>
     </row>
     <row r="11" ht="18" customHeight="1" spans="1:12">
-      <c r="A11" s="5"/>
-      <c r="B11" s="4"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="C11" s="3"/>
       <c r="D11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="5"/>
+    </row>
+    <row r="12" ht="18" customHeight="1" spans="1:12">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="7">
-        <v>4</v>
-      </c>
-      <c r="K11" s="7"/>
-      <c r="L11" s="3"/>
-    </row>
-    <row r="12" ht="18" customHeight="1" spans="1:12">
-      <c r="A12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="3"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="5"/>
     </row>
     <row r="13" customHeight="1" spans="1:12">
       <c r="A13" s="3"/>
-      <c r="B13" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="5"/>
       <c r="D13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="8">
+        <v>2</v>
+      </c>
+      <c r="K13" s="8"/>
+      <c r="L13" s="5"/>
+    </row>
+    <row r="14" ht="18" customHeight="1" spans="1:12">
+      <c r="A14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="G13" s="9">
-        <v>45866.6112615741</v>
-      </c>
-      <c r="H13" s="10">
-        <v>45867</v>
-      </c>
-      <c r="I13" s="10"/>
-      <c r="J13" s="7">
-        <v>3</v>
-      </c>
-      <c r="K13" s="7">
-        <v>1</v>
-      </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" customHeight="1" spans="1:12">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7">
-        <v>2</v>
-      </c>
-      <c r="L14" s="3"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="5"/>
     </row>
     <row r="15" ht="18" customHeight="1" spans="1:12">
       <c r="A15" s="3"/>
       <c r="B15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>14</v>
+      <c r="C15" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="D15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="G15" s="9">
-        <v>45866.4033101852</v>
-      </c>
-      <c r="H15" s="10">
+      <c r="F15" s="9">
+        <v>1</v>
+      </c>
+      <c r="G15" s="10">
+        <v>45866.6112615741</v>
+      </c>
+      <c r="H15" s="11">
         <v>45867</v>
       </c>
-      <c r="I15" s="10"/>
-      <c r="J15" s="7">
-        <v>2</v>
-      </c>
-      <c r="K15" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="L15" s="3"/>
+      <c r="I15" s="11">
+        <v>45867</v>
+      </c>
+      <c r="J15" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="K15" s="8"/>
+      <c r="L15" s="5"/>
     </row>
     <row r="16" ht="18" customHeight="1" spans="1:12">
       <c r="A16" s="3"/>
-      <c r="B16" s="3" t="s">
-        <v>22</v>
+      <c r="B16" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="C16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="8"/>
+      <c r="E16" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="9"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="11">
-        <v>45870</v>
-      </c>
-      <c r="I16" s="10"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="3"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="5"/>
     </row>
     <row r="17" customHeight="1" spans="1:12">
       <c r="A17" s="3"/>
-      <c r="B17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="5"/>
+      <c r="B17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="D17" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="9">
+        <v>1</v>
+      </c>
+      <c r="G17" s="10">
+        <v>45866.4033101852</v>
+      </c>
+      <c r="H17" s="11">
+        <v>45867</v>
+      </c>
+      <c r="I17" s="11">
+        <v>45867</v>
+      </c>
+      <c r="J17" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="K17" s="8"/>
+      <c r="L17" s="5"/>
+    </row>
+    <row r="18" ht="18" customHeight="1" spans="1:12">
+      <c r="A18" s="3"/>
+      <c r="B18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" customHeight="1" spans="1:12">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="5"/>
       <c r="D18" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="3"/>
+      <c r="E18" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="9"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="12">
+        <v>45870</v>
+      </c>
+      <c r="I18" s="11"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="5"/>
+    </row>
+    <row r="19" customHeight="1" spans="1:12">
+      <c r="A19" s="3"/>
+      <c r="B19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="9"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="5"/>
+    </row>
+    <row r="20" customHeight="1" spans="1:12">
+      <c r="A20" s="3"/>
+      <c r="B20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="9"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="A12:A18"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="A14:A20"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C3:C7"/>
     <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="H3:H7"/>
     <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="H18:H20"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A19:A147" errorStyle="information">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A21:A147" errorStyle="information">
       <formula1>"王雪斌,王然,古鹏鹏"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B19:B1048576" errorStyle="information">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B21:B1048576" errorStyle="information">
       <formula1>"A,B,C,S"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C19:C1048576" errorStyle="information">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C21:C1048576" errorStyle="information">
       <formula1>"美国,美国2,墨西哥,秘鲁,巴西,智利,分包系统,客服OA,运营系统,加拿大,澳大利亚,巴西2"</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="E19:E1048576">
+    <dataValidation type="list" sqref="E21:E1048576">
       <formula1>"测试中,未提测,已上线,已完成"</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="between" allowBlank="1" sqref="G19:I1048576"/>
+    <dataValidation type="date" operator="between" allowBlank="1" sqref="G21:I1048576"/>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" display="美国2 - 救济金优化：游戏内曝光+领取后引导复购" tooltip="https://alidocs.dingtalk.com/i/nodes/ZgpG2NdyVXr4QDbGf37vLwp18MwvDqPk?doc_type=wiki_doc&amp;utm_scene=team_space"/>
+    <hyperlink ref="D7" r:id="rId1" display="美国2 - 救济金优化：游戏内曝光+领取后引导复购" tooltip="https://alidocs.dingtalk.com/i/nodes/ZgpG2NdyVXr4QDbGf37vLwp18MwvDqPk?doc_type=wiki_doc&amp;utm_scene=team_space"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/client/文件上传模版/测试任务更新模版.xlsx
+++ b/client/文件上传模版/测试任务更新模版.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="43">
   <si>
     <t>负责人</t>
   </si>
@@ -68,6 +68,18 @@
     <t>王雪斌</t>
   </si>
   <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>美国2</t>
+  </si>
+  <si>
+    <t>美国2-发送短信内容修改测试</t>
+  </si>
+  <si>
+    <t>测试中</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
@@ -77,15 +89,6 @@
     <t>美国一推送迁移测试</t>
   </si>
   <si>
-    <t>测试中</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>美国2</t>
-  </si>
-  <si>
     <t>落地页唤起Google包测试</t>
   </si>
   <si>
@@ -113,6 +116,9 @@
     <t>美国 - IOS添加日历引导次留</t>
   </si>
   <si>
+    <t>产品调整重新测试</t>
+  </si>
+  <si>
     <t>美国2 -APK内引导打开firebase通知</t>
   </si>
   <si>
@@ -125,7 +131,10 @@
     <t>暂停</t>
   </si>
   <si>
-    <t>事故复盘+需求评审+会议</t>
+    <t>数值优化功能关闭测试+会议</t>
+  </si>
+  <si>
+    <t>已完成</t>
   </si>
   <si>
     <t>古鹏鹏</t>
@@ -134,16 +143,7 @@
     <t>IGT游戏测试</t>
   </si>
   <si>
-    <t>美国二H5 - VIP阶梯礼包放开到全网 - 不抢曝光</t>
-  </si>
-  <si>
-    <t>已上线</t>
-  </si>
-  <si>
     <t>【评审】美国2疯传</t>
-  </si>
-  <si>
-    <t>【评审】美国2默认押注变更需求</t>
   </si>
   <si>
     <t>墨西哥</t>
@@ -819,7 +819,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -858,6 +858,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1183,10 +1186,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="A1" sqref="A1:L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.5" customHeight="1"/>
@@ -1255,27 +1258,25 @@
         <v>16</v>
       </c>
       <c r="F2" s="9">
-        <v>0.8</v>
-      </c>
-      <c r="G2" s="10">
-        <v>45867.4172800926</v>
-      </c>
+        <v>0.9</v>
+      </c>
+      <c r="G2" s="10"/>
       <c r="H2" s="11">
-        <v>45868</v>
+        <v>45869</v>
       </c>
       <c r="I2" s="11"/>
       <c r="J2" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K2" s="8"/>
       <c r="L2" s="5"/>
     </row>
-    <row r="3" ht="18" customHeight="1" spans="1:12">
+    <row r="3" customHeight="1" spans="1:12">
       <c r="A3" s="3"/>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -1285,34 +1286,42 @@
         <v>16</v>
       </c>
       <c r="F3" s="9">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="G3" s="10">
         <v>45867.4172800926</v>
       </c>
-      <c r="H3" s="12">
-        <v>45869</v>
+      <c r="H3" s="11">
+        <v>45868</v>
       </c>
       <c r="I3" s="11"/>
-      <c r="J3" s="8">
-        <v>3</v>
-      </c>
+      <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="5"/>
     </row>
-    <row r="4" customHeight="1" spans="1:12">
+    <row r="4" ht="18" customHeight="1" spans="1:12">
       <c r="A4" s="3"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="3"/>
+      <c r="B4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="D4" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="12"/>
+        <v>16</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="G4" s="10">
+        <v>45867.4172800926</v>
+      </c>
+      <c r="H4" s="12">
+        <v>45869</v>
+      </c>
       <c r="I4" s="11"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -1323,20 +1332,22 @@
       <c r="B5" s="6"/>
       <c r="C5" s="3"/>
       <c r="D5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>21</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="10"/>
       <c r="H5" s="12"/>
       <c r="I5" s="11"/>
       <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
+      <c r="K5" s="8">
+        <v>2</v>
+      </c>
       <c r="L5" s="5"/>
     </row>
-    <row r="6" ht="18" customHeight="1" spans="1:12">
+    <row r="6" customHeight="1" spans="1:12">
       <c r="A6" s="3"/>
       <c r="B6" s="6"/>
       <c r="C6" s="3"/>
@@ -1347,14 +1358,16 @@
         <v>16</v>
       </c>
       <c r="F6" s="9">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="G6" s="10">
-        <v>45861.6255787037</v>
+        <v>45868.575</v>
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="11"/>
-      <c r="J6" s="8"/>
+      <c r="J6" s="8">
+        <v>2</v>
+      </c>
       <c r="K6" s="8"/>
       <c r="L6" s="5"/>
     </row>
@@ -1372,129 +1385,139 @@
         <v>0.9</v>
       </c>
       <c r="G7" s="10">
-        <v>45861.875</v>
+        <v>45861.6255787037</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="11"/>
-      <c r="J7" s="8">
-        <v>1</v>
-      </c>
+      <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="5"/>
     </row>
-    <row r="8" ht="18" customHeight="1" spans="1:12">
-      <c r="A8" s="3" t="s">
+    <row r="8" customHeight="1" spans="1:12">
+      <c r="A8" s="3"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="E8" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="12">
-        <v>45868</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="G8" s="10">
+        <v>45861.875</v>
+      </c>
+      <c r="H8" s="12"/>
       <c r="I8" s="11"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="5"/>
     </row>
-    <row r="9" customHeight="1" spans="1:12">
-      <c r="A9" s="3"/>
+    <row r="9" ht="18" customHeight="1" spans="1:12">
+      <c r="A9" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="B9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="D9" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="9"/>
+        <v>16</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0.3</v>
+      </c>
       <c r="G9" s="10">
-        <v>45867.4895833333</v>
-      </c>
-      <c r="H9" s="12"/>
+        <v>45868.6923611111</v>
+      </c>
+      <c r="H9" s="12">
+        <v>45868</v>
+      </c>
       <c r="I9" s="11"/>
       <c r="J9" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K9" s="8">
         <v>2</v>
       </c>
       <c r="L9" s="5"/>
     </row>
-    <row r="10" ht="18" customHeight="1" spans="1:12">
+    <row r="10" customHeight="1" spans="1:12">
       <c r="A10" s="3"/>
       <c r="B10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>18</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C10" s="3"/>
       <c r="D10" s="4" t="s">
         <v>28</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="12">
-        <v>45870</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="G10" s="10">
+        <v>45867.4895833333</v>
+      </c>
+      <c r="H10" s="12"/>
       <c r="I10" s="11"/>
-      <c r="J10" s="8"/>
+      <c r="J10" s="8">
+        <v>3</v>
+      </c>
       <c r="K10" s="8"/>
-      <c r="L10" s="5"/>
+      <c r="L10" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="11" ht="18" customHeight="1" spans="1:12">
       <c r="A11" s="3"/>
       <c r="B11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="D11" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F11" s="9"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="12"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="12">
+        <v>45870</v>
+      </c>
       <c r="I11" s="11"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="5"/>
     </row>
-    <row r="12" ht="18" customHeight="1" spans="1:12">
+    <row r="12" customHeight="1" spans="1:12">
       <c r="A12" s="3"/>
       <c r="B12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>18</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C12" s="3"/>
       <c r="D12" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F12" s="9"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="11"/>
+      <c r="G12" s="10">
+        <v>45868.4902777778</v>
+      </c>
+      <c r="H12" s="12"/>
       <c r="I12" s="11"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
@@ -1502,91 +1525,83 @@
     </row>
     <row r="13" customHeight="1" spans="1:12">
       <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="5"/>
+      <c r="B13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="D13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="8"/>
+      <c r="E13" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="F13" s="9"/>
-      <c r="G13" s="11"/>
+      <c r="G13" s="14"/>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
-      <c r="J13" s="8">
-        <v>2</v>
-      </c>
+      <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="5"/>
     </row>
-    <row r="14" ht="18" customHeight="1" spans="1:12">
-      <c r="A14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>18</v>
-      </c>
+    <row r="14" customHeight="1" spans="1:12">
+      <c r="A14" s="3"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
       <c r="D14" s="4" t="s">
         <v>34</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
-      <c r="J14" s="8"/>
+      <c r="J14" s="8">
+        <v>1</v>
+      </c>
       <c r="K14" s="8"/>
       <c r="L14" s="5"/>
     </row>
     <row r="15" ht="18" customHeight="1" spans="1:12">
-      <c r="A15" s="3"/>
+      <c r="A15" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="B15" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="9">
-        <v>1</v>
-      </c>
-      <c r="G15" s="10">
-        <v>45866.6112615741</v>
-      </c>
-      <c r="H15" s="11">
-        <v>45867</v>
-      </c>
-      <c r="I15" s="11">
-        <v>45867</v>
-      </c>
-      <c r="J15" s="8">
-        <v>3.5</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F15" s="9"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="5"/>
     </row>
-    <row r="16" ht="18" customHeight="1" spans="1:12">
-      <c r="A16" s="3"/>
+    <row r="16" customHeight="1" spans="1:12">
+      <c r="A16" s="5"/>
       <c r="B16" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="10"/>
@@ -1596,134 +1611,122 @@
       <c r="K16" s="8"/>
       <c r="L16" s="5"/>
     </row>
-    <row r="17" customHeight="1" spans="1:12">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4" t="s">
+    <row r="17" ht="18" customHeight="1" spans="1:12">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>18</v>
+      <c r="C17" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="F17" s="9">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="G17" s="10">
-        <v>45866.4033101852</v>
-      </c>
-      <c r="H17" s="11">
-        <v>45867</v>
-      </c>
-      <c r="I17" s="11">
-        <v>45867</v>
-      </c>
+        <v>45868.5833333333</v>
+      </c>
+      <c r="H17" s="12">
+        <v>45870</v>
+      </c>
+      <c r="I17" s="11"/>
       <c r="J17" s="8">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="K17" s="8"/>
       <c r="L17" s="5"/>
     </row>
-    <row r="18" ht="18" customHeight="1" spans="1:12">
-      <c r="A18" s="3"/>
+    <row r="18" customHeight="1" spans="1:12">
+      <c r="A18" s="5"/>
       <c r="B18" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>39</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C18" s="3"/>
       <c r="D18" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="12">
-        <v>45870</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F18" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="G18" s="10">
+        <v>45868.7916666667</v>
+      </c>
+      <c r="H18" s="12"/>
       <c r="I18" s="11"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
+      <c r="J18" s="8">
+        <v>2</v>
+      </c>
+      <c r="K18" s="8">
+        <v>2</v>
+      </c>
       <c r="L18" s="5"/>
     </row>
     <row r="19" customHeight="1" spans="1:12">
-      <c r="A19" s="3"/>
+      <c r="A19" s="5"/>
       <c r="B19" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="F19" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="G19" s="10">
+        <v>45868.7916666667</v>
+      </c>
       <c r="H19" s="12"/>
       <c r="I19" s="11"/>
-      <c r="J19" s="8"/>
+      <c r="J19" s="8">
+        <v>1</v>
+      </c>
       <c r="K19" s="8"/>
       <c r="L19" s="5"/>
     </row>
-    <row r="20" customHeight="1" spans="1:12">
-      <c r="A20" s="3"/>
-      <c r="B20" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="5"/>
-    </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="A14:A20"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="H3:H7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="H4:H8"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H17:H19"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A21:A147" errorStyle="information">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A20:A128" errorStyle="information">
       <formula1>"王雪斌,王然,古鹏鹏"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B21:B1048576" errorStyle="information">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B20:B1048576" errorStyle="information">
       <formula1>"A,B,C,S"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C21:C1048576" errorStyle="information">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C20:C1048576" errorStyle="information">
       <formula1>"美国,美国2,墨西哥,秘鲁,巴西,智利,分包系统,客服OA,运营系统,加拿大,澳大利亚,巴西2"</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="E21:E1048576">
+    <dataValidation type="list" sqref="E20:E1048576">
       <formula1>"测试中,未提测,已上线,已完成"</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="between" allowBlank="1" sqref="G21:I1048576"/>
+    <dataValidation type="date" operator="between" allowBlank="1" sqref="G20:I1048576"/>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D7" r:id="rId1" display="美国2 - 救济金优化：游戏内曝光+领取后引导复购" tooltip="https://alidocs.dingtalk.com/i/nodes/ZgpG2NdyVXr4QDbGf37vLwp18MwvDqPk?doc_type=wiki_doc&amp;utm_scene=team_space"/>
+    <hyperlink ref="D8" r:id="rId1" display="美国2 - 救济金优化：游戏内曝光+领取后引导复购" tooltip="https://alidocs.dingtalk.com/i/nodes/ZgpG2NdyVXr4QDbGf37vLwp18MwvDqPk?doc_type=wiki_doc&amp;utm_scene=team_space"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/client/文件上传模版/测试任务更新模版.xlsx
+++ b/client/文件上传模版/测试任务更新模版.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="46">
   <si>
     <t>负责人</t>
   </si>
@@ -74,54 +74,60 @@
     <t>美国2</t>
   </si>
   <si>
+    <t>美国2VIP用户权益</t>
+  </si>
+  <si>
+    <t>测试中</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>美国一推送迁移测试</t>
+  </si>
+  <si>
+    <t>已上线</t>
+  </si>
+  <si>
+    <t>Google包配合测试</t>
+  </si>
+  <si>
+    <t>已完成</t>
+  </si>
+  <si>
     <t>美国2-发送短信内容修改测试</t>
   </si>
   <si>
-    <t>测试中</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>美国</t>
-  </si>
-  <si>
-    <t>美国一推送迁移测试</t>
-  </si>
-  <si>
     <t>落地页唤起Google包测试</t>
   </si>
   <si>
-    <t>美国2VIP用户权益</t>
+    <t>美国2 - 产品体验优化0723</t>
+  </si>
+  <si>
+    <t>评审 - 弱导流区分尾号测试</t>
+  </si>
+  <si>
+    <t>美国2 - 救济金优化：游戏内曝光+领取后引导复购</t>
+  </si>
+  <si>
+    <t>王然</t>
+  </si>
+  <si>
+    <t>美国一H5 - 支付流程埋点（远浩提的）</t>
+  </si>
+  <si>
+    <t>美国 - IOS添加日历引导次留</t>
+  </si>
+  <si>
+    <t>美国2 -APK内引导打开firebase通知</t>
   </si>
   <si>
     <t>未提测</t>
   </si>
   <si>
-    <t>美国2 - 产品体验优化0723</t>
-  </si>
-  <si>
-    <t>评审 - 弱导流区分尾号测试</t>
-  </si>
-  <si>
-    <t>美国2 - 救济金优化：游戏内曝光+领取后引导复购</t>
-  </si>
-  <si>
-    <t>王然</t>
-  </si>
-  <si>
-    <t>美国一H5 - 支付流程埋点（远浩提的）</t>
-  </si>
-  <si>
-    <t>美国 - IOS添加日历引导次留</t>
-  </si>
-  <si>
-    <t>产品调整重新测试</t>
-  </si>
-  <si>
-    <t>美国2 -APK内引导打开firebase通知</t>
-  </si>
-  <si>
     <t>美国裂变方案</t>
   </si>
   <si>
@@ -131,10 +137,7 @@
     <t>暂停</t>
   </si>
   <si>
-    <t>数值优化功能关闭测试+会议</t>
-  </si>
-  <si>
-    <t>已完成</t>
+    <t>会议+其他</t>
   </si>
   <si>
     <t>古鹏鹏</t>
@@ -156,6 +159,12 @@
   </si>
   <si>
     <t>墨西哥H5 - 体验优化 - 文案统一为 Deposit</t>
+  </si>
+  <si>
+    <t>加拿大</t>
+  </si>
+  <si>
+    <t>投放链测试</t>
   </si>
 </sst>
 </file>
@@ -535,7 +544,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -568,6 +577,17 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -695,7 +715,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -707,34 +727,34 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -819,7 +839,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -832,6 +852,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -853,6 +879,9 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -864,6 +893,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1186,10 +1218,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:L19"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.5" customHeight="1"/>
@@ -1216,25 +1248,25 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="9" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
@@ -1251,483 +1283,529 @@
       <c r="C2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="11">
-        <v>45869</v>
-      </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="8">
-        <v>1</v>
-      </c>
-      <c r="K2" s="8"/>
-      <c r="L2" s="5"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="12">
+        <v>45869.5965277778</v>
+      </c>
+      <c r="H2" s="13"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="7"/>
     </row>
     <row r="3" customHeight="1" spans="1:12">
       <c r="A3" s="3"/>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="G3" s="10">
+      <c r="E3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="11">
+        <v>1</v>
+      </c>
+      <c r="G3" s="12">
         <v>45867.4172800926</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="14">
         <v>45868</v>
       </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="5"/>
+      <c r="I3" s="12">
+        <v>45869.8680555556</v>
+      </c>
+      <c r="J3" s="10">
+        <v>1</v>
+      </c>
+      <c r="K3" s="10"/>
+      <c r="L3" s="7"/>
     </row>
     <row r="4" ht="18" customHeight="1" spans="1:12">
       <c r="A4" s="3"/>
       <c r="B4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="11"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="K4" s="10"/>
+      <c r="L4" s="7"/>
+    </row>
+    <row r="5" ht="18" customHeight="1" spans="1:12">
+      <c r="A5" s="3"/>
+      <c r="B5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="G4" s="10">
-        <v>45867.4172800926</v>
-      </c>
-      <c r="H4" s="12">
+      <c r="F5" s="11">
+        <v>1</v>
+      </c>
+      <c r="G5" s="12"/>
+      <c r="H5" s="15">
         <v>45869</v>
       </c>
-      <c r="I4" s="11"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="5"/>
-    </row>
-    <row r="5" customHeight="1" spans="1:12">
-      <c r="A5" s="3"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8">
-        <v>2</v>
-      </c>
-      <c r="L5" s="5"/>
+      <c r="I5" s="18">
+        <v>45869.8680555556</v>
+      </c>
+      <c r="J5" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="K5" s="10"/>
+      <c r="L5" s="7"/>
     </row>
     <row r="6" customHeight="1" spans="1:12">
       <c r="A6" s="3"/>
-      <c r="B6" s="6"/>
+      <c r="B6" s="8"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="9">
-        <v>0.7</v>
-      </c>
-      <c r="G6" s="10">
-        <v>45868.575</v>
-      </c>
-      <c r="H6" s="12"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="8">
-        <v>2</v>
-      </c>
-      <c r="K6" s="8"/>
-      <c r="L6" s="5"/>
+      <c r="D6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="11">
+        <v>1</v>
+      </c>
+      <c r="G6" s="12">
+        <v>45867.4172800926</v>
+      </c>
+      <c r="H6" s="15"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="10"/>
+      <c r="L6" s="7"/>
     </row>
     <row r="7" customHeight="1" spans="1:12">
       <c r="A7" s="3"/>
-      <c r="B7" s="6"/>
+      <c r="B7" s="8"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="G7" s="10">
-        <v>45861.6255787037</v>
-      </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="5"/>
+      <c r="D7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="11">
+        <v>1</v>
+      </c>
+      <c r="G7" s="12">
+        <v>45868.575</v>
+      </c>
+      <c r="H7" s="15"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="K7" s="10"/>
+      <c r="L7" s="7"/>
     </row>
     <row r="8" customHeight="1" spans="1:12">
       <c r="A8" s="3"/>
-      <c r="B8" s="6"/>
+      <c r="B8" s="8"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="8" t="s">
+      <c r="D8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="11">
+        <v>1</v>
+      </c>
+      <c r="G8" s="12">
+        <v>45861.6255787037</v>
+      </c>
+      <c r="H8" s="15"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="K8" s="10"/>
+      <c r="L8" s="7"/>
+    </row>
+    <row r="9" ht="18" customHeight="1" spans="1:12">
+      <c r="A9" s="3"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="11">
+        <v>1</v>
+      </c>
+      <c r="G9" s="12">
+        <v>45861.875</v>
+      </c>
+      <c r="H9" s="15"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="10">
+        <v>3</v>
+      </c>
+      <c r="K9" s="10"/>
+      <c r="L9" s="7"/>
+    </row>
+    <row r="10" ht="18" customHeight="1" spans="1:12">
+      <c r="A10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="G8" s="10">
-        <v>45861.875</v>
-      </c>
-      <c r="H8" s="12"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="5"/>
-    </row>
-    <row r="9" ht="18" customHeight="1" spans="1:12">
-      <c r="A9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="G9" s="10">
+      <c r="F10" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="G10" s="12">
         <v>45868.6923611111</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H10" s="15">
         <v>45868</v>
       </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="8">
-        <v>2</v>
-      </c>
-      <c r="K9" s="8">
-        <v>2</v>
-      </c>
-      <c r="L9" s="5"/>
-    </row>
-    <row r="10" customHeight="1" spans="1:12">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="G10" s="10">
-        <v>45867.4895833333</v>
-      </c>
-      <c r="H10" s="12"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="8">
+      <c r="I10" s="14"/>
+      <c r="J10" s="10">
         <v>3</v>
       </c>
-      <c r="K10" s="8"/>
-      <c r="L10" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="K10" s="10"/>
+      <c r="L10" s="7"/>
     </row>
     <row r="11" ht="18" customHeight="1" spans="1:12">
       <c r="A11" s="3"/>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="3"/>
+      <c r="D11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="11">
+        <v>1</v>
+      </c>
+      <c r="G11" s="12">
+        <v>45867.4895833333</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="10">
+        <v>5</v>
+      </c>
+      <c r="K11" s="10"/>
+      <c r="L11" s="7"/>
+    </row>
+    <row r="12" ht="18" customHeight="1" spans="1:12">
+      <c r="A12" s="3"/>
+      <c r="B12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="12">
+      <c r="D12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="15">
         <v>45870</v>
       </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="5"/>
-    </row>
-    <row r="12" customHeight="1" spans="1:12">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10">
-        <v>45868.4902777778</v>
-      </c>
-      <c r="H12" s="12"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="5"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="7"/>
     </row>
     <row r="13" customHeight="1" spans="1:12">
       <c r="A13" s="3"/>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="4" t="s">
+      <c r="C13" s="3"/>
+      <c r="D13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="5"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="12">
+        <v>45868.4902777778</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="7"/>
     </row>
     <row r="14" customHeight="1" spans="1:12">
       <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="4" t="s">
+      <c r="B14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="8">
+      <c r="F14" s="11"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="7"/>
+    </row>
+    <row r="15" ht="18" customHeight="1" spans="1:12">
+      <c r="A15" s="3"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="10">
         <v>1</v>
       </c>
-      <c r="K14" s="8"/>
-      <c r="L14" s="5"/>
-    </row>
-    <row r="15" ht="18" customHeight="1" spans="1:12">
-      <c r="A15" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="4" t="s">
+      <c r="K15" s="10"/>
+      <c r="L15" s="7"/>
+    </row>
+    <row r="16" ht="18" customHeight="1" spans="1:12">
+      <c r="A16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="8" t="s">
+      <c r="D16" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="5"/>
-    </row>
-    <row r="16" customHeight="1" spans="1:12">
-      <c r="A16" s="5"/>
-      <c r="B16" s="4" t="s">
+      <c r="F16" s="11"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="7"/>
+    </row>
+    <row r="17" ht="18" customHeight="1" spans="1:12">
+      <c r="A17" s="3"/>
+      <c r="B17" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C17" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="8" t="s">
+      <c r="D17" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="11"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="7"/>
+    </row>
+    <row r="18" ht="18" customHeight="1" spans="1:12">
+      <c r="A18" s="3"/>
+      <c r="B18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="G18" s="12">
+        <v>45868.5833333333</v>
+      </c>
+      <c r="H18" s="15">
+        <v>45870</v>
+      </c>
+      <c r="I18" s="14"/>
+      <c r="J18" s="10">
+        <v>2</v>
+      </c>
+      <c r="K18" s="10"/>
+      <c r="L18" s="7"/>
+    </row>
+    <row r="19" customHeight="1" spans="1:12">
+      <c r="A19" s="3"/>
+      <c r="B19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="G19" s="12">
+        <v>45868.7916666667</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="10">
+        <v>4</v>
+      </c>
+      <c r="K19" s="10"/>
+      <c r="L19" s="7"/>
+    </row>
+    <row r="20" customHeight="1" spans="1:12">
+      <c r="A20" s="3"/>
+      <c r="B20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="G20" s="12">
+        <v>45868.7916666667</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="10">
+        <v>2</v>
+      </c>
+      <c r="K20" s="10"/>
+      <c r="L20" s="7"/>
+    </row>
+    <row r="21" customHeight="1" spans="1:12">
+      <c r="A21" s="3"/>
+      <c r="B21" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="5"/>
-    </row>
-    <row r="17" ht="18" customHeight="1" spans="1:12">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="G17" s="10">
-        <v>45868.5833333333</v>
-      </c>
-      <c r="H17" s="12">
-        <v>45870</v>
-      </c>
-      <c r="I17" s="11"/>
-      <c r="J17" s="8">
-        <v>4</v>
-      </c>
-      <c r="K17" s="8"/>
-      <c r="L17" s="5"/>
-    </row>
-    <row r="18" customHeight="1" spans="1:12">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="9">
-        <v>0.4</v>
-      </c>
-      <c r="G18" s="10">
-        <v>45868.7916666667</v>
-      </c>
-      <c r="H18" s="12"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="8">
-        <v>2</v>
-      </c>
-      <c r="K18" s="8">
-        <v>2</v>
-      </c>
-      <c r="L18" s="5"/>
-    </row>
-    <row r="19" customHeight="1" spans="1:12">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="9">
+      <c r="F21" s="11"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="10">
         <v>0.5</v>
       </c>
-      <c r="G19" s="10">
-        <v>45868.7916666667</v>
-      </c>
-      <c r="H19" s="12"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="8">
-        <v>1</v>
-      </c>
-      <c r="K19" s="8"/>
-      <c r="L19" s="5"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="H4:H8"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H17:H19"/>
+  <mergeCells count="13">
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="H5:H9"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="I5:I9"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A20:A128" errorStyle="information">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A22:A128" errorStyle="information">
       <formula1>"王雪斌,王然,古鹏鹏"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B20:B1048576" errorStyle="information">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B22:B1048576" errorStyle="information">
       <formula1>"A,B,C,S"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C20:C1048576" errorStyle="information">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C22:C1048576" errorStyle="information">
       <formula1>"美国,美国2,墨西哥,秘鲁,巴西,智利,分包系统,客服OA,运营系统,加拿大,澳大利亚,巴西2"</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="E20:E1048576">
+    <dataValidation type="list" sqref="E22:E1048576">
       <formula1>"测试中,未提测,已上线,已完成"</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="between" allowBlank="1" sqref="G20:I1048576"/>
+    <dataValidation type="date" operator="between" allowBlank="1" sqref="G22:I1048576"/>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="D8" r:id="rId1" display="美国2 - 救济金优化：游戏内曝光+领取后引导复购" tooltip="https://alidocs.dingtalk.com/i/nodes/ZgpG2NdyVXr4QDbGf37vLwp18MwvDqPk?doc_type=wiki_doc&amp;utm_scene=team_space"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/client/文件上传模版/测试任务更新模版.xlsx
+++ b/client/文件上传模版/测试任务更新模版.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="43">
   <si>
     <t>负责人</t>
   </si>
@@ -83,34 +83,28 @@
     <t>A</t>
   </si>
   <si>
+    <t>积胜</t>
+  </si>
+  <si>
+    <t>投放主页私域转化+msg测试</t>
+  </si>
+  <si>
+    <t>已完成</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
     <t>美国</t>
   </si>
   <si>
-    <t>美国一推送迁移测试</t>
+    <t>美国一h5us4fs_086 引导游戏弹窗回滚</t>
   </si>
   <si>
     <t>已上线</t>
   </si>
   <si>
-    <t>Google包配合测试</t>
-  </si>
-  <si>
-    <t>已完成</t>
-  </si>
-  <si>
-    <t>美国2-发送短信内容修改测试</t>
-  </si>
-  <si>
-    <t>落地页唤起Google包测试</t>
-  </si>
-  <si>
-    <t>美国2 - 产品体验优化0723</t>
-  </si>
-  <si>
-    <t>评审 - 弱导流区分尾号测试</t>
-  </si>
-  <si>
-    <t>美国2 - 救济金优化：游戏内曝光+领取后引导复购</t>
+    <t>4/7/8 号谷歌包更新测试</t>
   </si>
   <si>
     <t>王然</t>
@@ -119,9 +113,6 @@
     <t>美国一H5 - 支付流程埋点（远浩提的）</t>
   </si>
   <si>
-    <t>美国 - IOS添加日历引导次留</t>
-  </si>
-  <si>
     <t>美国2 -APK内引导打开firebase通知</t>
   </si>
   <si>
@@ -137,7 +128,7 @@
     <t>暂停</t>
   </si>
   <si>
-    <t>会议+其他</t>
+    <t>支付埋点上线后线上异常跟进+</t>
   </si>
   <si>
     <t>古鹏鹏</t>
@@ -146,6 +137,12 @@
     <t>IGT游戏测试</t>
   </si>
   <si>
+    <t>加拿大</t>
+  </si>
+  <si>
+    <t>加拿大限时首充推荐档位bug修复上线</t>
+  </si>
+  <si>
     <t>【评审】美国2疯传</t>
   </si>
   <si>
@@ -159,12 +156,6 @@
   </si>
   <si>
     <t>墨西哥H5 - 体验优化 - 文案统一为 Deposit</t>
-  </si>
-  <si>
-    <t>加拿大</t>
-  </si>
-  <si>
-    <t>投放链测试</t>
   </si>
 </sst>
 </file>
@@ -839,7 +830,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -864,9 +855,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -893,9 +881,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1218,10 +1203,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="A1" sqref="A1:L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.5" customHeight="1"/>
@@ -1248,25 +1233,25 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="8" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
@@ -1286,17 +1271,21 @@
       <c r="D2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="12">
+      <c r="F2" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="G2" s="11">
         <v>45869.5965277778</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="13"/>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2" s="9"/>
       <c r="L2" s="7"/>
     </row>
     <row r="3" customHeight="1" spans="1:12">
@@ -1310,255 +1299,245 @@
       <c r="D3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="10">
         <v>1</v>
       </c>
-      <c r="G3" s="12">
-        <v>45867.4172800926</v>
-      </c>
-      <c r="H3" s="14">
-        <v>45868</v>
-      </c>
-      <c r="I3" s="12">
-        <v>45869.8680555556</v>
-      </c>
-      <c r="J3" s="10">
-        <v>1</v>
-      </c>
-      <c r="K3" s="10"/>
+      <c r="G3" s="11">
+        <v>45869.4843634259</v>
+      </c>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3">
+        <v>0.5</v>
+      </c>
+      <c r="K3" s="9"/>
       <c r="L3" s="7"/>
     </row>
-    <row r="4" ht="18" customHeight="1" spans="1:12">
+    <row r="4" customHeight="1" spans="1:12">
       <c r="A4" s="3"/>
       <c r="B4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="D4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="10">
+        <v>23</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="10">
+        <v>1</v>
+      </c>
+      <c r="G4" s="11">
+        <v>45869.8750231481</v>
+      </c>
+      <c r="H4" s="13">
+        <v>45870</v>
+      </c>
+      <c r="I4" s="13"/>
+      <c r="J4">
         <v>0.5</v>
       </c>
-      <c r="K4" s="10"/>
+      <c r="K4" s="9"/>
       <c r="L4" s="7"/>
     </row>
-    <row r="5" ht="18" customHeight="1" spans="1:12">
+    <row r="5" customHeight="1" spans="1:12">
       <c r="A5" s="3"/>
-      <c r="B5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>14</v>
+      <c r="B5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="10">
         <v>1</v>
       </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="15">
-        <v>45869</v>
-      </c>
-      <c r="I5" s="18">
-        <v>45869.8680555556</v>
-      </c>
-      <c r="J5" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="K5" s="10"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" s="9"/>
       <c r="L5" s="7"/>
     </row>
-    <row r="6" customHeight="1" spans="1:12">
-      <c r="A6" s="3"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="3"/>
+    <row r="6" ht="18" customHeight="1" spans="1:12">
+      <c r="A6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="D6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <v>1</v>
       </c>
-      <c r="G6" s="12">
-        <v>45867.4172800926</v>
-      </c>
-      <c r="H6" s="15"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="K6" s="10"/>
+      <c r="G6" s="11">
+        <v>45868.6923611111</v>
+      </c>
+      <c r="H6" s="14">
+        <v>45868</v>
+      </c>
+      <c r="I6" s="14">
+        <v>45870</v>
+      </c>
+      <c r="J6">
+        <v>4.5</v>
+      </c>
+      <c r="K6" s="9"/>
       <c r="L6" s="7"/>
     </row>
-    <row r="7" customHeight="1" spans="1:12">
+    <row r="7" ht="18" customHeight="1" spans="1:12">
       <c r="A7" s="3"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="3"/>
+      <c r="B7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="D7" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="11">
-        <v>1</v>
-      </c>
-      <c r="G7" s="12">
-        <v>45868.575</v>
-      </c>
-      <c r="H7" s="15"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="10">
-        <v>1.5</v>
-      </c>
-      <c r="K7" s="10"/>
+        <v>28</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="14">
+        <v>45870</v>
+      </c>
+      <c r="I7" s="13"/>
+      <c r="J7"/>
+      <c r="K7" s="9"/>
       <c r="L7" s="7"/>
     </row>
     <row r="8" customHeight="1" spans="1:12">
       <c r="A8" s="3"/>
-      <c r="B8" s="8"/>
+      <c r="B8" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="C8" s="3"/>
       <c r="D8" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="11">
-        <v>1</v>
-      </c>
-      <c r="G8" s="12">
-        <v>45861.6255787037</v>
-      </c>
-      <c r="H8" s="15"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="10">
-        <v>1.5</v>
-      </c>
-      <c r="K8" s="10"/>
+        <v>30</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11">
+        <v>45868.4902777778</v>
+      </c>
+      <c r="H8" s="14"/>
+      <c r="I8" s="13"/>
+      <c r="J8"/>
+      <c r="K8" s="9"/>
       <c r="L8" s="7"/>
     </row>
-    <row r="9" ht="18" customHeight="1" spans="1:12">
+    <row r="9" customHeight="1" spans="1:12">
       <c r="A9" s="3"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="3"/>
+      <c r="B9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D9" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="11">
-        <v>1</v>
-      </c>
-      <c r="G9" s="12">
-        <v>45861.875</v>
-      </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="10">
-        <v>3</v>
-      </c>
-      <c r="K9" s="10"/>
+        <v>31</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9"/>
+      <c r="K9" s="9"/>
       <c r="L9" s="7"/>
     </row>
-    <row r="10" ht="18" customHeight="1" spans="1:12">
-      <c r="A10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>18</v>
-      </c>
+    <row r="10" customHeight="1" spans="1:12">
+      <c r="A10" s="3"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
       <c r="D10" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="G10" s="12">
-        <v>45868.6923611111</v>
-      </c>
-      <c r="H10" s="15">
-        <v>45868</v>
-      </c>
-      <c r="I10" s="14"/>
-      <c r="J10" s="10">
-        <v>3</v>
-      </c>
-      <c r="K10" s="10"/>
+        <v>33</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10" s="9"/>
       <c r="L10" s="7"/>
     </row>
     <row r="11" ht="18" customHeight="1" spans="1:12">
-      <c r="A11" s="3"/>
+      <c r="A11" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="B11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D11" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="11">
-        <v>1</v>
-      </c>
-      <c r="G11" s="12">
-        <v>45867.4895833333</v>
-      </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="10">
-        <v>5</v>
-      </c>
-      <c r="K11" s="10"/>
+        <v>35</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11"/>
+      <c r="K11" s="9"/>
       <c r="L11" s="7"/>
     </row>
-    <row r="12" ht="18" customHeight="1" spans="1:12">
+    <row r="12" customHeight="1" spans="1:12">
       <c r="A12" s="3"/>
       <c r="B12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="15">
-        <v>45870</v>
-      </c>
-      <c r="I12" s="14"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
+        <v>37</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12"/>
+      <c r="K12" s="9"/>
       <c r="L12" s="7"/>
     </row>
     <row r="13" customHeight="1" spans="1:12">
@@ -1566,245 +1545,135 @@
       <c r="B13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="3"/>
+      <c r="C13" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D13" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="12">
-        <v>45868.4902777778</v>
-      </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
+        <v>38</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13"/>
+      <c r="K13" s="9"/>
       <c r="L13" s="7"/>
     </row>
-    <row r="14" customHeight="1" spans="1:12">
+    <row r="14" ht="18" customHeight="1" spans="1:12">
       <c r="A14" s="3"/>
-      <c r="B14" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>14</v>
+      <c r="B14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
+        <v>40</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="10">
+        <v>1</v>
+      </c>
+      <c r="G14" s="11">
+        <v>45868.5833333333</v>
+      </c>
+      <c r="H14" s="14">
+        <v>45870</v>
+      </c>
+      <c r="I14" s="11">
+        <v>45870.7986111111</v>
+      </c>
+      <c r="J14">
+        <v>3</v>
+      </c>
+      <c r="K14" s="9"/>
       <c r="L14" s="7"/>
     </row>
-    <row r="15" ht="18" customHeight="1" spans="1:12">
+    <row r="15" customHeight="1" spans="1:12">
       <c r="A15" s="3"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="7"/>
+      <c r="B15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="3"/>
       <c r="D15" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="14"/>
+        <v>41</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="10">
+        <v>1</v>
+      </c>
+      <c r="G15" s="11">
+        <v>45868.7916666667</v>
+      </c>
       <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="10">
-        <v>1</v>
-      </c>
-      <c r="K15" s="10"/>
+      <c r="I15" s="11">
+        <v>45870.7986111111</v>
+      </c>
+      <c r="J15">
+        <v>4</v>
+      </c>
+      <c r="K15" s="9"/>
       <c r="L15" s="7"/>
     </row>
-    <row r="16" ht="18" customHeight="1" spans="1:12">
-      <c r="A16" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="6" t="s">
+    <row r="16" customHeight="1" spans="1:12">
+      <c r="A16" s="3"/>
+      <c r="B16" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="C16" s="3"/>
       <c r="D16" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="14"/>
+        <v>42</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="10">
+        <v>1</v>
+      </c>
+      <c r="G16" s="11">
+        <v>45868.7916666667</v>
+      </c>
       <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
+      <c r="I16" s="11">
+        <v>45870.7986111111</v>
+      </c>
+      <c r="J16">
+        <v>1.5</v>
+      </c>
+      <c r="K16" s="9"/>
       <c r="L16" s="7"/>
     </row>
-    <row r="17" ht="18" customHeight="1" spans="1:12">
-      <c r="A17" s="3"/>
-      <c r="B17" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="7"/>
-    </row>
-    <row r="18" ht="18" customHeight="1" spans="1:12">
-      <c r="A18" s="3"/>
-      <c r="B18" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="11">
-        <v>0.9</v>
-      </c>
-      <c r="G18" s="12">
-        <v>45868.5833333333</v>
-      </c>
-      <c r="H18" s="15">
-        <v>45870</v>
-      </c>
-      <c r="I18" s="14"/>
-      <c r="J18" s="10">
-        <v>2</v>
-      </c>
-      <c r="K18" s="10"/>
-      <c r="L18" s="7"/>
-    </row>
-    <row r="19" customHeight="1" spans="1:12">
-      <c r="A19" s="3"/>
-      <c r="B19" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="11">
-        <v>0.8</v>
-      </c>
-      <c r="G19" s="12">
-        <v>45868.7916666667</v>
-      </c>
-      <c r="H19" s="15"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="10">
-        <v>4</v>
-      </c>
-      <c r="K19" s="10"/>
-      <c r="L19" s="7"/>
-    </row>
-    <row r="20" customHeight="1" spans="1:12">
-      <c r="A20" s="3"/>
-      <c r="B20" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="11">
-        <v>0.9</v>
-      </c>
-      <c r="G20" s="12">
-        <v>45868.7916666667</v>
-      </c>
-      <c r="H20" s="15"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="10">
-        <v>2</v>
-      </c>
-      <c r="K20" s="10"/>
-      <c r="L20" s="7"/>
-    </row>
-    <row r="21" customHeight="1" spans="1:12">
-      <c r="A21" s="3"/>
-      <c r="B21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="11"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="K21" s="10"/>
-      <c r="L21" s="7"/>
-    </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="B5:B9"/>
-    <mergeCell ref="C5:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="H5:H9"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="I5:I9"/>
+  <mergeCells count="7">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H14:H16"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A22:A128" errorStyle="information">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A17:A108" errorStyle="information">
       <formula1>"王雪斌,王然,古鹏鹏"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B22:B1048576" errorStyle="information">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B17:B1048576" errorStyle="information">
       <formula1>"A,B,C,S"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C22:C1048576" errorStyle="information">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C17:C1048576" errorStyle="information">
       <formula1>"美国,美国2,墨西哥,秘鲁,巴西,智利,分包系统,客服OA,运营系统,加拿大,澳大利亚,巴西2"</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="E22:E1048576">
+    <dataValidation type="list" sqref="E17:E1048576">
       <formula1>"测试中,未提测,已上线,已完成"</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="between" allowBlank="1" sqref="G22:I1048576"/>
+    <dataValidation type="date" operator="between" allowBlank="1" sqref="G17:I1048576"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/client/文件上传模版/测试任务更新模版.xlsx
+++ b/client/文件上传模版/测试任务更新模版.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="40">
   <si>
     <t>负责人</t>
   </si>
@@ -47,12 +47,18 @@
     <t>进度</t>
   </si>
   <si>
+    <t>预计提测时间</t>
+  </si>
+  <si>
     <t>提测时间</t>
   </si>
   <si>
     <t>预计上线时间</t>
   </si>
   <si>
+    <t>困难与障碍</t>
+  </si>
+  <si>
     <t>实际上线时间</t>
   </si>
   <si>
@@ -62,64 +68,49 @@
     <t>用例耗时（h）</t>
   </si>
   <si>
-    <t>备注</t>
-  </si>
-  <si>
     <t>王雪斌</t>
   </si>
   <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>巴西</t>
+  </si>
+  <si>
+    <t>巴西DNS封禁保活</t>
+  </si>
+  <si>
+    <t>测试中</t>
+  </si>
+  <si>
+    <t>美国2</t>
+  </si>
+  <si>
+    <t>评审 - 限制仅美国IP可发起充值 - 美国/美国2</t>
+  </si>
+  <si>
+    <t>未提测</t>
+  </si>
+  <si>
     <t>B</t>
   </si>
   <si>
-    <t>美国2</t>
-  </si>
-  <si>
-    <t>美国2VIP用户权益</t>
-  </si>
-  <si>
-    <t>测试中</t>
+    <t>评审 - 诱导流程优化：乾坤大挪移1 - 美国2</t>
+  </si>
+  <si>
+    <t>周卡需求优化</t>
+  </si>
+  <si>
+    <t>评审 - 诱导流程优化：乾坤大挪移2 - 美国2</t>
+  </si>
+  <si>
+    <t>王然</t>
   </si>
   <si>
     <t>A</t>
   </si>
   <si>
-    <t>积胜</t>
-  </si>
-  <si>
-    <t>投放主页私域转化+msg测试</t>
-  </si>
-  <si>
-    <t>已完成</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>美国</t>
-  </si>
-  <si>
-    <t>美国一h5us4fs_086 引导游戏弹窗回滚</t>
-  </si>
-  <si>
-    <t>已上线</t>
-  </si>
-  <si>
-    <t>4/7/8 号谷歌包更新测试</t>
-  </si>
-  <si>
-    <t>王然</t>
-  </si>
-  <si>
-    <t>美国一H5 - 支付流程埋点（远浩提的）</t>
-  </si>
-  <si>
-    <t>美国2 -APK内引导打开firebase通知</t>
-  </si>
-  <si>
-    <t>未提测</t>
-  </si>
-  <si>
-    <t>美国裂变方案</t>
+    <t>美国2 -APK内引导打开firebase通知（客户端更新）</t>
   </si>
   <si>
     <t>美国2 - 新增虚拟隐私信用卡</t>
@@ -128,7 +119,10 @@
     <t>暂停</t>
   </si>
   <si>
-    <t>支付埋点上线后线上异常跟进+</t>
+    <t>评审 - 数值刺激感优化0731 - 美国2</t>
+  </si>
+  <si>
+    <t>美国二19.9礼包深挖</t>
   </si>
   <si>
     <t>古鹏鹏</t>
@@ -137,25 +131,22 @@
     <t>IGT游戏测试</t>
   </si>
   <si>
-    <t>加拿大</t>
-  </si>
-  <si>
-    <t>加拿大限时首充推荐档位bug修复上线</t>
-  </si>
-  <si>
     <t>【评审】美国2疯传</t>
   </si>
   <si>
     <t>墨西哥</t>
   </si>
   <si>
-    <t>墨西哥 - 提升最低下注金额AB测</t>
-  </si>
-  <si>
-    <t>墨西哥 - 压低 JACKPOT 和 FREECASH 提款金额</t>
-  </si>
-  <si>
-    <t>墨西哥H5 - 体验优化 - 文案统一为 Deposit</t>
+    <t>墨西哥 - VIP充值返利活动</t>
+  </si>
+  <si>
+    <t>周五发布存在风险</t>
+  </si>
+  <si>
+    <t>墨西哥 - 新增H5内引导用户绑定FB</t>
+  </si>
+  <si>
+    <t>【评审】墨西哥视讯对接</t>
   </si>
 </sst>
 </file>
@@ -169,7 +160,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -182,6 +173,12 @@
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="default"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -547,6 +544,17 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -568,18 +576,9 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <bottom style="thin">
         <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -685,152 +684,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -840,47 +839,44 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1203,10 +1199,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:L16"/>
+      <selection activeCell="A1" sqref="A1:M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.5" customHeight="1"/>
@@ -1217,10 +1213,9 @@
     <col min="7" max="7" width="18.2666666666667" style="1" customWidth="1"/>
     <col min="8" max="8" width="11.6" style="1" customWidth="1"/>
     <col min="9" max="9" width="16.025" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5166666666667" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:12">
+    <row r="1" customHeight="1" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1233,447 +1228,430 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="9" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="9" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" ht="18" customHeight="1" spans="1:12">
+    <row r="2" ht="18" customHeight="1" spans="1:13">
       <c r="A2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="13">
+        <v>45876</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:13">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="G2" s="11">
-        <v>45869.5965277778</v>
-      </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="13"/>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="7"/>
-    </row>
-    <row r="3" customHeight="1" spans="1:12">
-      <c r="A3" s="3"/>
-      <c r="B3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="10">
-        <v>1</v>
-      </c>
+      <c r="F3" s="10"/>
       <c r="G3" s="11">
-        <v>45869.4843634259</v>
-      </c>
-      <c r="H3" s="13"/>
+        <v>45876</v>
+      </c>
+      <c r="H3" s="12"/>
       <c r="I3" s="13"/>
-      <c r="J3">
-        <v>0.5</v>
-      </c>
-      <c r="K3" s="9"/>
-      <c r="L3" s="7"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
     </row>
-    <row r="4" customHeight="1" spans="1:12">
+    <row r="4" customHeight="1" spans="1:13">
       <c r="A4" s="3"/>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="G4" s="11">
+        <v>45873</v>
+      </c>
+      <c r="H4" s="12">
+        <v>45874.5833333333</v>
+      </c>
+      <c r="I4" s="13">
+        <v>45877</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:13">
+      <c r="A5" s="3"/>
+      <c r="B5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="G5" s="11">
+        <v>45875</v>
+      </c>
+      <c r="H5" s="12">
+        <v>45875.4861111111</v>
+      </c>
+      <c r="I5" s="13">
+        <v>45877</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:13">
+      <c r="A6" s="3"/>
+      <c r="B6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="10">
-        <v>1</v>
-      </c>
-      <c r="G4" s="11">
-        <v>45869.8750231481</v>
-      </c>
-      <c r="H4" s="13">
-        <v>45870</v>
-      </c>
-      <c r="I4" s="13"/>
-      <c r="J4">
-        <v>0.5</v>
-      </c>
-      <c r="K4" s="9"/>
-      <c r="L4" s="7"/>
+      <c r="E6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="11">
+        <v>45875</v>
+      </c>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
     </row>
-    <row r="5" customHeight="1" spans="1:12">
-      <c r="A5" s="3"/>
-      <c r="B5" s="6" t="s">
+    <row r="7" ht="18" customHeight="1" spans="1:13">
+      <c r="A7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="F7" s="10"/>
+      <c r="G7" s="11">
+        <v>45869</v>
+      </c>
+      <c r="H7" s="14"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:13">
+      <c r="A8" s="5"/>
+      <c r="B8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="10">
-        <v>1</v>
-      </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5" s="9"/>
-      <c r="L5" s="7"/>
-    </row>
-    <row r="6" ht="18" customHeight="1" spans="1:12">
-      <c r="A6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="10">
-        <v>1</v>
-      </c>
-      <c r="G6" s="11">
-        <v>45868.6923611111</v>
-      </c>
-      <c r="H6" s="14">
-        <v>45868</v>
-      </c>
-      <c r="I6" s="14">
-        <v>45870</v>
-      </c>
-      <c r="J6">
-        <v>4.5</v>
-      </c>
-      <c r="K6" s="9"/>
-      <c r="L6" s="7"/>
-    </row>
-    <row r="7" ht="18" customHeight="1" spans="1:12">
-      <c r="A7" s="3"/>
-      <c r="B7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="D8" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E8" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="14">
-        <v>45870</v>
-      </c>
-      <c r="I7" s="13"/>
-      <c r="J7"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="7"/>
-    </row>
-    <row r="8" customHeight="1" spans="1:12">
-      <c r="A8" s="3"/>
-      <c r="B8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>16</v>
-      </c>
       <c r="F8" s="10"/>
-      <c r="G8" s="11">
-        <v>45868.4902777778</v>
-      </c>
+      <c r="G8" s="5"/>
       <c r="H8" s="14"/>
       <c r="I8" s="13"/>
-      <c r="J8"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="7"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
     </row>
-    <row r="9" customHeight="1" spans="1:12">
-      <c r="A9" s="3"/>
-      <c r="B9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>14</v>
+    <row r="9" customHeight="1" spans="1:13">
+      <c r="A9" s="5"/>
+      <c r="B9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="D9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="13">
+        <v>45874</v>
+      </c>
+      <c r="H9" s="12">
+        <v>45874.6597222222</v>
+      </c>
+      <c r="I9" s="13"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:13">
+      <c r="A10" s="5"/>
+      <c r="B10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="7"/>
-    </row>
-    <row r="10" customHeight="1" spans="1:12">
-      <c r="A10" s="3"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="8" t="s">
         <v>20</v>
       </c>
       <c r="F10" s="10"/>
-      <c r="G10" s="13"/>
+      <c r="G10" s="11">
+        <v>45878</v>
+      </c>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10" s="9"/>
-      <c r="L10" s="7"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
     </row>
-    <row r="11" ht="18" customHeight="1" spans="1:12">
-      <c r="A11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>14</v>
+    <row r="11" ht="18" customHeight="1" spans="1:13">
+      <c r="A11" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>16</v>
+        <v>33</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="F11" s="10"/>
-      <c r="G11" s="13"/>
+      <c r="G11" s="8"/>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
-      <c r="J11"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="7"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
     </row>
-    <row r="12" customHeight="1" spans="1:12">
-      <c r="A12" s="3"/>
-      <c r="B12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="7" t="s">
+    <row r="12" customHeight="1" spans="1:13">
+      <c r="A12" s="8"/>
+      <c r="B12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="G12" s="13">
+        <v>45874</v>
+      </c>
+      <c r="H12" s="12">
+        <v>45874.4277083333</v>
+      </c>
+      <c r="I12" s="13">
+        <v>45876</v>
+      </c>
+      <c r="J12" s="5"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:13">
+      <c r="A13" s="8"/>
+      <c r="B13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="7"/>
-    </row>
-    <row r="13" customHeight="1" spans="1:12">
-      <c r="A13" s="3"/>
-      <c r="B13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>29</v>
+      <c r="E13" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="F13" s="10"/>
-      <c r="G13" s="11"/>
+      <c r="G13" s="15">
+        <v>45875</v>
+      </c>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
-      <c r="J13"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="7"/>
+      <c r="J13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K13" s="13"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
     </row>
-    <row r="14" ht="18" customHeight="1" spans="1:12">
-      <c r="A14" s="3"/>
-      <c r="B14" s="7" t="s">
+    <row r="14" customHeight="1" spans="1:13">
+      <c r="A14" s="8"/>
+      <c r="B14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="F14" s="10"/>
+      <c r="G14" s="11">
+        <v>45875</v>
+      </c>
+      <c r="H14" s="12">
+        <v>45875.8333333333</v>
+      </c>
+      <c r="I14" s="13"/>
+      <c r="J14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K14" s="13"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+    </row>
+    <row r="15" customHeight="1" spans="1:13">
+      <c r="A15" s="8"/>
+      <c r="B15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="10">
-        <v>1</v>
-      </c>
-      <c r="G14" s="11">
-        <v>45868.5833333333</v>
-      </c>
-      <c r="H14" s="14">
-        <v>45870</v>
-      </c>
-      <c r="I14" s="11">
-        <v>45870.7986111111</v>
-      </c>
-      <c r="J14">
-        <v>3</v>
-      </c>
-      <c r="K14" s="9"/>
-      <c r="L14" s="7"/>
-    </row>
-    <row r="15" customHeight="1" spans="1:12">
-      <c r="A15" s="3"/>
-      <c r="B15" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="10">
-        <v>1</v>
-      </c>
-      <c r="G15" s="11">
-        <v>45868.7916666667</v>
-      </c>
-      <c r="H15" s="14"/>
-      <c r="I15" s="11">
-        <v>45870.7986111111</v>
-      </c>
-      <c r="J15">
-        <v>4</v>
-      </c>
-      <c r="K15" s="9"/>
-      <c r="L15" s="7"/>
-    </row>
-    <row r="16" customHeight="1" spans="1:12">
-      <c r="A16" s="3"/>
-      <c r="B16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="10">
-        <v>1</v>
-      </c>
-      <c r="G16" s="11">
-        <v>45868.7916666667</v>
-      </c>
-      <c r="H16" s="14"/>
-      <c r="I16" s="11">
-        <v>45870.7986111111</v>
-      </c>
-      <c r="J16">
-        <v>1.5</v>
-      </c>
-      <c r="K16" s="9"/>
-      <c r="L16" s="7"/>
+      <c r="E15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="H14:H16"/>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A15"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A17:A108" errorStyle="information">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A16:A67" errorStyle="information">
       <formula1>"王雪斌,王然,古鹏鹏"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B17:B1048576" errorStyle="information">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B16:B1048576" errorStyle="information">
       <formula1>"A,B,C,S"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C17:C1048576" errorStyle="information">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C16:C1048576" errorStyle="information">
       <formula1>"美国,美国2,墨西哥,秘鲁,巴西,智利,分包系统,客服OA,运营系统,加拿大,澳大利亚,巴西2"</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="E17:E1048576">
+    <dataValidation type="list" sqref="E16:E1048576">
       <formula1>"测试中,未提测,已上线,已完成"</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="between" allowBlank="1" sqref="G17:I1048576"/>
+    <dataValidation type="date" operator="between" allowBlank="1" sqref="G16:I1048576"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/client/文件上传模版/测试任务更新模版.xlsx
+++ b/client/文件上传模版/测试任务更新模版.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="41">
   <si>
     <t>负责人</t>
   </si>
@@ -89,19 +89,22 @@
     <t>评审 - 限制仅美国IP可发起充值 - 美国/美国2</t>
   </si>
   <si>
+    <t>已上线</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>评审 - 诱导流程优化：乾坤大挪移1 - 美国2</t>
+  </si>
+  <si>
+    <t>周卡需求优化</t>
+  </si>
+  <si>
+    <t>评审 - 诱导流程优化：乾坤大挪移2 - 美国2</t>
+  </si>
+  <si>
     <t>未提测</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>评审 - 诱导流程优化：乾坤大挪移1 - 美国2</t>
-  </si>
-  <si>
-    <t>周卡需求优化</t>
-  </si>
-  <si>
-    <t>评审 - 诱导流程优化：乾坤大挪移2 - 美国2</t>
   </si>
   <si>
     <t>王然</t>
@@ -1202,7 +1205,7 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:M15"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.5" customHeight="1"/>
@@ -1213,6 +1216,7 @@
     <col min="7" max="7" width="18.2666666666667" style="1" customWidth="1"/>
     <col min="8" max="8" width="11.6" style="1" customWidth="1"/>
     <col min="9" max="9" width="16.025" style="1" customWidth="1"/>
+    <col min="11" max="11" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:13">
@@ -1272,7 +1276,9 @@
       <c r="E2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="10"/>
+      <c r="F2" s="10">
+        <v>0.7</v>
+      </c>
       <c r="G2" s="11"/>
       <c r="H2" s="12"/>
       <c r="I2" s="13">
@@ -1280,7 +1286,9 @@
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="13"/>
-      <c r="L2" s="8"/>
+      <c r="L2" s="8">
+        <v>4.5</v>
+      </c>
       <c r="M2" s="8"/>
     </row>
     <row r="3" customHeight="1" spans="1:13">
@@ -1297,15 +1305,21 @@
       <c r="E3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="10"/>
+      <c r="F3" s="10">
+        <v>1</v>
+      </c>
       <c r="G3" s="11">
         <v>45876</v>
       </c>
       <c r="H3" s="12"/>
       <c r="I3" s="13"/>
       <c r="J3" s="5"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="8"/>
+      <c r="K3" s="12">
+        <v>45876.4166666667</v>
+      </c>
+      <c r="L3" s="8">
+        <v>1</v>
+      </c>
       <c r="M3" s="8"/>
     </row>
     <row r="4" customHeight="1" spans="1:13">
@@ -1323,7 +1337,7 @@
         <v>17</v>
       </c>
       <c r="F4" s="10">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="G4" s="11">
         <v>45873</v>
@@ -1336,7 +1350,9 @@
       </c>
       <c r="J4" s="5"/>
       <c r="K4" s="13"/>
-      <c r="L4" s="8"/>
+      <c r="L4" s="8">
+        <v>2</v>
+      </c>
       <c r="M4" s="8"/>
     </row>
     <row r="5" customHeight="1" spans="1:13">
@@ -1354,7 +1370,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="10">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="G5" s="11">
         <v>45875</v>
@@ -1367,7 +1383,9 @@
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="13"/>
-      <c r="L5" s="8"/>
+      <c r="L5" s="8">
+        <v>1</v>
+      </c>
       <c r="M5" s="8"/>
     </row>
     <row r="6" customHeight="1" spans="1:13">
@@ -1382,7 +1400,7 @@
         <v>24</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="11">
@@ -1397,29 +1415,35 @@
     </row>
     <row r="7" ht="18" customHeight="1" spans="1:13">
       <c r="A7" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="10"/>
+      <c r="F7" s="10">
+        <v>0.9</v>
+      </c>
       <c r="G7" s="11">
         <v>45869</v>
       </c>
       <c r="H7" s="14"/>
-      <c r="I7" s="13"/>
+      <c r="I7" s="13">
+        <v>45877</v>
+      </c>
       <c r="J7" s="5"/>
       <c r="K7" s="13"/>
-      <c r="L7" s="8"/>
+      <c r="L7" s="8">
+        <v>7</v>
+      </c>
       <c r="M7" s="8"/>
     </row>
     <row r="8" customHeight="1" spans="1:13">
@@ -1431,10 +1455,10 @@
         <v>18</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="5"/>
@@ -1448,13 +1472,13 @@
     <row r="9" customHeight="1" spans="1:13">
       <c r="A9" s="5"/>
       <c r="B9" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>17</v>
@@ -1481,10 +1505,10 @@
         <v>18</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="11">
@@ -1499,7 +1523,7 @@
     </row>
     <row r="11" ht="18" customHeight="1" spans="1:13">
       <c r="A11" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>21</v>
@@ -1508,7 +1532,7 @@
         <v>18</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>17</v>
@@ -1531,13 +1555,13 @@
         <v>18</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>17</v>
       </c>
       <c r="F12" s="10">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="G12" s="13">
         <v>45874</v>
@@ -1546,11 +1570,13 @@
         <v>45874.4277083333</v>
       </c>
       <c r="I12" s="13">
-        <v>45876</v>
+        <v>45877</v>
       </c>
       <c r="J12" s="5"/>
       <c r="K12" s="13"/>
-      <c r="L12" s="8"/>
+      <c r="L12" s="8">
+        <v>2</v>
+      </c>
       <c r="M12" s="8"/>
     </row>
     <row r="13" customHeight="1" spans="1:13">
@@ -1559,25 +1585,31 @@
         <v>21</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="10"/>
+        <v>17</v>
+      </c>
+      <c r="F13" s="10">
+        <v>0.3</v>
+      </c>
       <c r="G13" s="15">
         <v>45875</v>
       </c>
-      <c r="H13" s="13"/>
+      <c r="H13" s="12">
+        <v>45876.5</v>
+      </c>
       <c r="I13" s="13"/>
       <c r="J13" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K13" s="13"/>
-      <c r="L13" s="8"/>
+      <c r="L13" s="8">
+        <v>2</v>
+      </c>
       <c r="M13" s="8"/>
     </row>
     <row r="14" customHeight="1" spans="1:13">
@@ -1586,15 +1618,17 @@
         <v>21</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="10"/>
+      <c r="F14" s="10">
+        <v>0.9</v>
+      </c>
       <c r="G14" s="11">
         <v>45875</v>
       </c>
@@ -1603,10 +1637,12 @@
       </c>
       <c r="I14" s="13"/>
       <c r="J14" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K14" s="13"/>
-      <c r="L14" s="8"/>
+      <c r="L14" s="8">
+        <v>4</v>
+      </c>
       <c r="M14" s="8"/>
     </row>
     <row r="15" customHeight="1" spans="1:13">
@@ -1615,13 +1651,13 @@
         <v>21</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="8"/>

--- a/client/文件上传模版/测试任务更新模版.xlsx
+++ b/client/文件上传模版/测试任务更新模版.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="41">
   <si>
     <t>负责人</t>
   </si>
@@ -71,85 +71,85 @@
     <t>王雪斌</t>
   </si>
   <si>
-    <t>S</t>
+    <t>B</t>
+  </si>
+  <si>
+    <t>美国2</t>
+  </si>
+  <si>
+    <t>美国二H5 - PG/PP游戏大厅弹窗横屏修复 &amp; 子游戏全屏问题修复</t>
+  </si>
+  <si>
+    <t>未提测</t>
+  </si>
+  <si>
+    <t>美国2 - 充值弹窗序列优化</t>
+  </si>
+  <si>
+    <t>测试中</t>
+  </si>
+  <si>
+    <t>美国2 - 诱导流程优化：乾坤大挪移2</t>
+  </si>
+  <si>
+    <t>王然</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>美国2 -APK内引导打开firebase通知（前端问题修复）</t>
+  </si>
+  <si>
+    <t>已上线</t>
+  </si>
+  <si>
+    <t>美国二19.9礼包深挖</t>
+  </si>
+  <si>
+    <t>美国2 - 新增虚拟隐私信用卡</t>
+  </si>
+  <si>
+    <t>暂停</t>
+  </si>
+  <si>
+    <t>需求评审+会议</t>
+  </si>
+  <si>
+    <t>已完成</t>
+  </si>
+  <si>
+    <t>古鹏鹏</t>
+  </si>
+  <si>
+    <t>IGT游戏测试</t>
+  </si>
+  <si>
+    <t>【评审】美国2疯传</t>
+  </si>
+  <si>
+    <t>墨西哥</t>
+  </si>
+  <si>
+    <t>墨西哥 - VIP充值返利活动</t>
+  </si>
+  <si>
+    <t>未完成测试，延期发布</t>
+  </si>
+  <si>
+    <t>墨西哥 - 新增H5内引导用户绑定FB</t>
+  </si>
+  <si>
+    <t>【评审】墨西哥视讯对接</t>
+  </si>
+  <si>
+    <t>评审 - 小丑数值优化线上测试 - 墨西哥</t>
   </si>
   <si>
     <t>巴西</t>
   </si>
   <si>
-    <t>巴西DNS封禁保活</t>
-  </si>
-  <si>
-    <t>测试中</t>
-  </si>
-  <si>
-    <t>美国2</t>
-  </si>
-  <si>
-    <t>评审 - 限制仅美国IP可发起充值 - 美国/美国2</t>
-  </si>
-  <si>
-    <t>已上线</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>评审 - 诱导流程优化：乾坤大挪移1 - 美国2</t>
-  </si>
-  <si>
-    <t>周卡需求优化</t>
-  </si>
-  <si>
-    <t>评审 - 诱导流程优化：乾坤大挪移2 - 美国2</t>
-  </si>
-  <si>
-    <t>未提测</t>
-  </si>
-  <si>
-    <t>王然</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>美国2 -APK内引导打开firebase通知（客户端更新）</t>
-  </si>
-  <si>
-    <t>美国2 - 新增虚拟隐私信用卡</t>
-  </si>
-  <si>
-    <t>暂停</t>
-  </si>
-  <si>
-    <t>评审 - 数值刺激感优化0731 - 美国2</t>
-  </si>
-  <si>
-    <t>美国二19.9礼包深挖</t>
-  </si>
-  <si>
-    <t>古鹏鹏</t>
-  </si>
-  <si>
-    <t>IGT游戏测试</t>
-  </si>
-  <si>
-    <t>【评审】美国2疯传</t>
-  </si>
-  <si>
-    <t>墨西哥</t>
-  </si>
-  <si>
-    <t>墨西哥 - VIP充值返利活动</t>
-  </si>
-  <si>
-    <t>周五发布存在风险</t>
-  </si>
-  <si>
-    <t>墨西哥 - 新增H5内引导用户绑定FB</t>
-  </si>
-  <si>
-    <t>【评审】墨西哥视讯对接</t>
+    <t>投放链归因测试</t>
   </si>
 </sst>
 </file>
@@ -163,7 +163,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -173,6 +173,13 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF404040"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -535,12 +542,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -570,18 +592,14 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -687,152 +705,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -842,44 +860,68 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1205,7 +1247,7 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.5" customHeight="1"/>
@@ -1217,6 +1259,7 @@
     <col min="8" max="8" width="11.6" style="1" customWidth="1"/>
     <col min="9" max="9" width="16.025" style="1" customWidth="1"/>
     <col min="11" max="11" width="20" customWidth="1"/>
+    <col min="13" max="13" width="22.9333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:13">
@@ -1232,31 +1275,31 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="13" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="13" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1267,28 +1310,26 @@
       <c r="B2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="13">
-        <v>45876</v>
-      </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="8">
-        <v>4.5</v>
-      </c>
+      <c r="F2" s="14"/>
+      <c r="G2" s="15">
+        <v>45881</v>
+      </c>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16">
+        <v>45883</v>
+      </c>
+      <c r="J2" s="4"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="8"/>
       <c r="M2" s="8"/>
     </row>
     <row r="3" customHeight="1" spans="1:13">
@@ -1296,386 +1337,396 @@
       <c r="B3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="10">
-        <v>1</v>
-      </c>
-      <c r="G3" s="11">
-        <v>45876</v>
-      </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="12">
-        <v>45876.4166666667</v>
-      </c>
+      <c r="F3" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="G3" s="15">
+        <v>45880</v>
+      </c>
+      <c r="H3" s="17">
+        <v>45880.6875</v>
+      </c>
+      <c r="I3" s="16">
+        <v>45883</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="K3" s="16"/>
       <c r="L3" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M3" s="8"/>
     </row>
-    <row r="4" customHeight="1" spans="1:13">
+    <row r="4" ht="18" customHeight="1" spans="1:13">
       <c r="A4" s="3"/>
-      <c r="B4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>18</v>
+      <c r="B4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="G4" s="11">
-        <v>45873</v>
-      </c>
-      <c r="H4" s="12">
-        <v>45874.5833333333</v>
-      </c>
-      <c r="I4" s="13">
-        <v>45877</v>
-      </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="8">
-        <v>2</v>
-      </c>
-      <c r="M4" s="8"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="15">
+        <v>45881</v>
+      </c>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16">
+        <v>45883</v>
+      </c>
+      <c r="J4" s="4"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" customHeight="1" spans="1:13">
-      <c r="A5" s="3"/>
-      <c r="B5" s="7" t="s">
+    <row r="5" ht="18" customHeight="1" spans="1:13">
+      <c r="A5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>18</v>
+      <c r="B5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>23</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="G5" s="11">
-        <v>45875</v>
-      </c>
-      <c r="H5" s="12">
-        <v>45875.4861111111</v>
-      </c>
-      <c r="I5" s="13">
+        <v>24</v>
+      </c>
+      <c r="F5" s="14">
+        <v>1</v>
+      </c>
+      <c r="G5" s="15">
+        <v>45869</v>
+      </c>
+      <c r="H5" s="18"/>
+      <c r="I5" s="16">
         <v>45877</v>
       </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="13"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="17">
+        <v>45880.8541666667</v>
+      </c>
       <c r="L5" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M5" s="8"/>
     </row>
     <row r="6" customHeight="1" spans="1:13">
       <c r="A6" s="3"/>
-      <c r="B6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>18</v>
+      <c r="B6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="11">
-        <v>45875</v>
-      </c>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="13"/>
+        <v>17</v>
+      </c>
+      <c r="F6" s="14"/>
+      <c r="G6" s="15">
+        <v>45878</v>
+      </c>
+      <c r="H6" s="17"/>
+      <c r="I6" s="16">
+        <v>45883</v>
+      </c>
+      <c r="J6" s="4"/>
+      <c r="K6" s="16"/>
       <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
+      <c r="M6" s="8">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="7" ht="18" customHeight="1" spans="1:13">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3"/>
+      <c r="B7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="E7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="G7" s="11">
-        <v>45869</v>
-      </c>
-      <c r="H7" s="14"/>
-      <c r="I7" s="13">
-        <v>45877</v>
-      </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="8">
-        <v>7</v>
-      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="8"/>
       <c r="M7" s="8"/>
     </row>
     <row r="8" customHeight="1" spans="1:13">
-      <c r="A8" s="5"/>
-      <c r="B8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="A8" s="3"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="4"/>
       <c r="D8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="8"/>
+      <c r="F8" s="14">
+        <v>1</v>
+      </c>
+      <c r="G8" s="15">
+        <v>45881</v>
+      </c>
+      <c r="H8" s="15">
+        <v>45881</v>
+      </c>
+      <c r="I8" s="16"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="8">
+        <v>1</v>
+      </c>
       <c r="M8" s="8"/>
     </row>
-    <row r="9" customHeight="1" spans="1:13">
-      <c r="A9" s="5"/>
+    <row r="9" ht="18" customHeight="1" spans="1:13">
+      <c r="A9" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="B9" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>31</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="13">
-        <v>45874</v>
-      </c>
-      <c r="H9" s="12">
-        <v>45874.6597222222</v>
-      </c>
-      <c r="I9" s="13"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="13"/>
+        <v>19</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="16"/>
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
     </row>
     <row r="10" customHeight="1" spans="1:13">
-      <c r="A10" s="5"/>
+      <c r="A10" s="8"/>
       <c r="B10" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>32</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11">
+        <v>24</v>
+      </c>
+      <c r="F10" s="14">
+        <v>1</v>
+      </c>
+      <c r="G10" s="16">
+        <v>45874</v>
+      </c>
+      <c r="H10" s="17">
+        <v>45874.4277083333</v>
+      </c>
+      <c r="I10" s="16">
         <v>45878</v>
       </c>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="8"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="17">
+        <v>45880.875</v>
+      </c>
+      <c r="L10" s="8">
+        <v>3</v>
+      </c>
       <c r="M10" s="8"/>
     </row>
-    <row r="11" ht="18" customHeight="1" spans="1:13">
-      <c r="A11" s="8" t="s">
+    <row r="11" customHeight="1" spans="1:13">
+      <c r="A11" s="8"/>
+      <c r="B11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>34</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="8"/>
+        <v>24</v>
+      </c>
+      <c r="F11" s="14">
+        <v>1</v>
+      </c>
+      <c r="G11" s="15">
+        <v>45875</v>
+      </c>
+      <c r="H11" s="17">
+        <v>45876.5</v>
+      </c>
+      <c r="I11" s="16">
+        <v>45877</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K11" s="17">
+        <v>45880.8958333333</v>
+      </c>
+      <c r="L11" s="8">
+        <v>4</v>
+      </c>
       <c r="M11" s="8"/>
     </row>
     <row r="12" customHeight="1" spans="1:13">
       <c r="A12" s="8"/>
-      <c r="B12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>18</v>
+      <c r="B12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="D12" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="14">
+        <v>1</v>
+      </c>
+      <c r="G12" s="15">
+        <v>45875</v>
+      </c>
+      <c r="H12" s="17">
+        <v>45875.8333333333</v>
+      </c>
+      <c r="I12" s="16">
+        <v>45877</v>
+      </c>
+      <c r="J12" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="G12" s="13">
-        <v>45874</v>
-      </c>
-      <c r="H12" s="12">
-        <v>45874.4277083333</v>
-      </c>
-      <c r="I12" s="13">
-        <v>45877</v>
-      </c>
-      <c r="J12" s="5"/>
-      <c r="K12" s="13"/>
+      <c r="K12" s="17">
+        <v>45880.8958333333</v>
+      </c>
       <c r="L12" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M12" s="8"/>
     </row>
     <row r="13" customHeight="1" spans="1:13">
       <c r="A13" s="8"/>
-      <c r="B13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="6" t="s">
+      <c r="B13" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="G13" s="15">
-        <v>45875</v>
-      </c>
-      <c r="H13" s="12">
-        <v>45876.5</v>
-      </c>
-      <c r="I13" s="13"/>
-      <c r="J13" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="K13" s="13"/>
-      <c r="L13" s="8">
-        <v>2</v>
-      </c>
-      <c r="M13" s="8"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
     </row>
     <row r="14" customHeight="1" spans="1:13">
       <c r="A14" s="8"/>
-      <c r="B14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="G14" s="11">
-        <v>45875</v>
-      </c>
-      <c r="H14" s="12">
-        <v>45875.8333333333</v>
-      </c>
-      <c r="I14" s="13"/>
-      <c r="J14" s="5" t="s">
+      <c r="B14" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K14" s="13"/>
-      <c r="L14" s="8">
-        <v>4</v>
-      </c>
-      <c r="M14" s="8"/>
+      <c r="E14" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="20"/>
+      <c r="G14" s="22">
+        <v>45880</v>
+      </c>
+      <c r="H14" s="23">
+        <v>45880.7291666667</v>
+      </c>
+      <c r="I14" s="21"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
     </row>
     <row r="15" customHeight="1" spans="1:13">
       <c r="A15" s="8"/>
-      <c r="B15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="6" t="s">
+      <c r="B15" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="10"/>
+        <v>29</v>
+      </c>
+      <c r="F15" s="14">
+        <v>1</v>
+      </c>
       <c r="G15" s="8"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="8"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="8">
+        <v>0.3</v>
+      </c>
       <c r="M15" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A9:A15"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A16:A67" errorStyle="information">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A16:A53" errorStyle="information">
       <formula1>"王雪斌,王然,古鹏鹏"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B16:B1048576" errorStyle="information">

--- a/client/文件上传模版/测试任务更新模版.xlsx
+++ b/client/文件上传模版/测试任务更新模版.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="22260"/>
+    <workbookView windowHeight="22240"/>
   </bookViews>
   <sheets>
     <sheet name="模版" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="43">
   <si>
     <t>负责人</t>
   </si>
@@ -80,76 +80,82 @@
     <t>美国二H5 - PG/PP游戏大厅弹窗横屏修复 &amp; 子游戏全屏问题修复</t>
   </si>
   <si>
+    <t>测试中</t>
+  </si>
+  <si>
+    <t>美国2 - 充值弹窗序列优化</t>
+  </si>
+  <si>
+    <t>代码优化修改，需要重新测试</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>谷歌7号包升级测试</t>
+  </si>
+  <si>
+    <t>已完成</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>7usslot更新注册引导进入游戏弹窗回滚</t>
+  </si>
+  <si>
+    <t>已上线</t>
+  </si>
+  <si>
+    <t>美国2 - 诱导流程优化：乾坤大挪移2</t>
+  </si>
+  <si>
     <t>未提测</t>
   </si>
   <si>
-    <t>美国2 - 充值弹窗序列优化</t>
-  </si>
-  <si>
-    <t>测试中</t>
-  </si>
-  <si>
-    <t>美国2 - 诱导流程优化：乾坤大挪移2</t>
-  </si>
-  <si>
     <t>王然</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>美国2 -APK内引导打开firebase通知（前端问题修复）</t>
-  </si>
-  <si>
-    <t>已上线</t>
-  </si>
-  <si>
     <t>美国二19.9礼包深挖</t>
   </si>
   <si>
+    <t>评审 - 19.99和次日领10活动减税测试 - 美国2</t>
+  </si>
+  <si>
     <t>美国2 - 新增虚拟隐私信用卡</t>
   </si>
   <si>
     <t>暂停</t>
   </si>
   <si>
-    <t>需求评审+会议</t>
-  </si>
-  <si>
-    <t>已完成</t>
-  </si>
-  <si>
     <t>古鹏鹏</t>
   </si>
   <si>
     <t>IGT游戏测试</t>
   </si>
   <si>
-    <t>【评审】美国2疯传</t>
+    <t>评审 - 短信召回发送MVP - 美国2</t>
+  </si>
+  <si>
+    <t>评审 - 短信次日发送MVP - 美国2</t>
+  </si>
+  <si>
+    <t>评审 - plinko游戏自研移植 - 美国2</t>
   </si>
   <si>
     <t>墨西哥</t>
   </si>
   <si>
-    <t>墨西哥 - VIP充值返利活动</t>
-  </si>
-  <si>
-    <t>未完成测试，延期发布</t>
-  </si>
-  <si>
-    <t>墨西哥 - 新增H5内引导用户绑定FB</t>
-  </si>
-  <si>
     <t>【评审】墨西哥视讯对接</t>
   </si>
   <si>
-    <t>评审 - 小丑数值优化线上测试 - 墨西哥</t>
-  </si>
-  <si>
-    <t>巴西</t>
-  </si>
-  <si>
     <t>投放链归因测试</t>
+  </si>
+  <si>
+    <t>疯传需求问题验证</t>
   </si>
 </sst>
 </file>
@@ -542,7 +548,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -575,6 +581,17 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -726,7 +743,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -738,34 +755,34 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -850,7 +867,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -872,8 +889,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -881,13 +898,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -899,28 +916,25 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1244,10 +1258,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.5" customHeight="1"/>
@@ -1303,7 +1317,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" ht="18" customHeight="1" spans="1:13">
+    <row r="2" ht="17.6" customHeight="1" spans="1:13">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -1319,17 +1333,23 @@
       <c r="E2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="14"/>
+      <c r="F2" s="14">
+        <v>0.9</v>
+      </c>
       <c r="G2" s="15">
         <v>45881</v>
       </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16">
+      <c r="H2" s="16">
+        <v>45881.7916666667</v>
+      </c>
+      <c r="I2" s="18">
         <v>45883</v>
       </c>
       <c r="J2" s="4"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="8"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="8">
+        <v>1</v>
+      </c>
       <c r="M2" s="8"/>
     </row>
     <row r="3" customHeight="1" spans="1:13">
@@ -1344,88 +1364,90 @@
         <v>18</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F3" s="14">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="G3" s="15">
         <v>45880</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H3" s="16">
         <v>45880.6875</v>
       </c>
-      <c r="I3" s="16">
+      <c r="I3" s="18">
         <v>45883</v>
       </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="16"/>
+      <c r="J3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="18"/>
       <c r="L3" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M3" s="8"/>
     </row>
-    <row r="4" ht="18" customHeight="1" spans="1:13">
+    <row r="4" customHeight="1" spans="1:13">
       <c r="A4" s="3"/>
       <c r="B4" s="4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>20</v>
+      <c r="D4" t="s">
+        <v>21</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="14"/>
+        <v>22</v>
+      </c>
+      <c r="F4" s="14">
+        <v>1</v>
+      </c>
       <c r="G4" s="15">
         <v>45881</v>
       </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16">
-        <v>45883</v>
-      </c>
+      <c r="H4" s="16">
+        <v>45881.9239814815</v>
+      </c>
+      <c r="I4" s="18"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8">
+      <c r="K4" s="18"/>
+      <c r="L4" s="8">
         <v>1</v>
       </c>
+      <c r="M4" s="8"/>
     </row>
     <row r="5" ht="18" customHeight="1" spans="1:13">
-      <c r="A5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>22</v>
+      <c r="A5" s="3"/>
+      <c r="B5" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="14">
-        <v>1</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="F5" s="14"/>
       <c r="G5" s="15">
-        <v>45869</v>
-      </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="16">
-        <v>45877</v>
+        <v>45882</v>
+      </c>
+      <c r="H5" s="15">
+        <v>45882</v>
+      </c>
+      <c r="I5" s="15">
+        <v>45882</v>
       </c>
       <c r="J5" s="4"/>
-      <c r="K5" s="17">
-        <v>45880.8541666667</v>
+      <c r="K5" s="16">
+        <v>45882.8333333333</v>
       </c>
       <c r="L5" s="8">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="M5" s="8"/>
     </row>
@@ -1438,257 +1460,247 @@
         <v>15</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="F6" s="14"/>
       <c r="G6" s="15">
-        <v>45878</v>
-      </c>
-      <c r="H6" s="17"/>
-      <c r="I6" s="16">
+        <v>45881</v>
+      </c>
+      <c r="H6" s="16"/>
+      <c r="I6" s="18">
         <v>45883</v>
       </c>
       <c r="J6" s="4"/>
-      <c r="K6" s="16"/>
+      <c r="K6" s="18"/>
       <c r="L6" s="8"/>
-      <c r="M6" s="8">
-        <v>1.5</v>
-      </c>
+      <c r="M6" s="8"/>
     </row>
     <row r="7" ht="18" customHeight="1" spans="1:13">
-      <c r="A7" s="3"/>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="16"/>
+        <v>17</v>
+      </c>
+      <c r="F7" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="G7" s="15">
+        <v>45878</v>
+      </c>
+      <c r="H7" s="16">
+        <v>45881.4584027778</v>
+      </c>
+      <c r="I7" s="18">
+        <v>45883</v>
+      </c>
       <c r="J7" s="4"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="8"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="8">
+        <v>7</v>
+      </c>
       <c r="M7" s="8"/>
     </row>
     <row r="8" customHeight="1" spans="1:13">
-      <c r="A8" s="3"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="4"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="D8" s="6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="14">
-        <v>1</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F8" s="14"/>
       <c r="G8" s="15">
         <v>45881</v>
       </c>
-      <c r="H8" s="15">
-        <v>45881</v>
-      </c>
-      <c r="I8" s="16"/>
+      <c r="H8" s="16">
+        <v>45881.875</v>
+      </c>
+      <c r="I8" s="18">
+        <v>45883</v>
+      </c>
       <c r="J8" s="4"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="8">
-        <v>1</v>
-      </c>
+      <c r="K8" s="18"/>
+      <c r="L8" s="8"/>
       <c r="M8" s="8"/>
     </row>
     <row r="9" ht="18" customHeight="1" spans="1:13">
-      <c r="A9" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="7" t="s">
+      <c r="A9" s="7"/>
+      <c r="B9" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="F9" s="14"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="18"/>
       <c r="J9" s="4"/>
-      <c r="K9" s="16"/>
+      <c r="K9" s="18"/>
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
     </row>
-    <row r="10" customHeight="1" spans="1:13">
-      <c r="A10" s="8"/>
-      <c r="B10" s="7" t="s">
+    <row r="10" ht="18" customHeight="1" spans="1:13">
+      <c r="A10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="14">
-        <v>1</v>
-      </c>
-      <c r="G10" s="16">
-        <v>45874</v>
-      </c>
-      <c r="H10" s="17">
-        <v>45874.4277083333</v>
-      </c>
-      <c r="I10" s="16">
-        <v>45878</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F10" s="14"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="17">
-        <v>45880.875</v>
-      </c>
-      <c r="L10" s="8">
-        <v>3</v>
-      </c>
+      <c r="K10" s="18"/>
+      <c r="L10" s="8"/>
       <c r="M10" s="8"/>
     </row>
     <row r="11" customHeight="1" spans="1:13">
       <c r="A11" s="8"/>
-      <c r="B11" s="7" t="s">
-        <v>14</v>
+      <c r="B11" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="14">
-        <v>1</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="F11" s="14"/>
       <c r="G11" s="15">
-        <v>45875</v>
-      </c>
-      <c r="H11" s="17">
-        <v>45876.5</v>
-      </c>
-      <c r="I11" s="16">
-        <v>45877</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K11" s="17">
-        <v>45880.8958333333</v>
-      </c>
-      <c r="L11" s="8">
-        <v>4</v>
-      </c>
+        <v>45882</v>
+      </c>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18">
+        <v>45883</v>
+      </c>
+      <c r="J11" s="4"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="8"/>
       <c r="M11" s="8"/>
     </row>
     <row r="12" customHeight="1" spans="1:13">
       <c r="A12" s="8"/>
-      <c r="B12" s="7" t="s">
-        <v>14</v>
+      <c r="B12" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F12" s="14">
         <v>1</v>
       </c>
       <c r="G12" s="15">
-        <v>45875</v>
-      </c>
-      <c r="H12" s="17">
-        <v>45875.8333333333</v>
-      </c>
-      <c r="I12" s="16">
-        <v>45877</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K12" s="17">
-        <v>45880.8958333333</v>
+        <v>45881</v>
+      </c>
+      <c r="H12" s="16">
+        <v>45881.875</v>
+      </c>
+      <c r="I12" s="18">
+        <v>45882</v>
+      </c>
+      <c r="J12" s="4"/>
+      <c r="K12" s="16">
+        <v>45882.8055555556</v>
       </c>
       <c r="L12" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M12" s="8"/>
     </row>
     <row r="13" customHeight="1" spans="1:13">
       <c r="A13" s="8"/>
       <c r="B13" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="20"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
+        <v>20</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="14"/>
+      <c r="G13" s="15">
+        <v>45881</v>
+      </c>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18">
+        <v>45884</v>
+      </c>
+      <c r="J13" s="4"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
     </row>
     <row r="14" customHeight="1" spans="1:13">
       <c r="A14" s="8"/>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>40</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F14" s="20"/>
-      <c r="G14" s="22">
-        <v>45880</v>
-      </c>
-      <c r="H14" s="23">
-        <v>45880.7291666667</v>
-      </c>
-      <c r="I14" s="21"/>
+      <c r="G14" s="21">
+        <v>45888</v>
+      </c>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
       <c r="J14" s="3"/>
-      <c r="K14" s="21"/>
+      <c r="K14" s="22"/>
       <c r="L14" s="19"/>
       <c r="M14" s="19"/>
     </row>
@@ -1697,48 +1709,75 @@
       <c r="B15" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="20"/>
+      <c r="G15" s="15">
+        <v>45882</v>
+      </c>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="M15" s="19"/>
+    </row>
+    <row r="16" customHeight="1" spans="1:13">
+      <c r="A16" s="8"/>
+      <c r="B16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="14">
+      <c r="D16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="14"/>
+      <c r="G16" s="15">
+        <v>45882</v>
+      </c>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="8">
         <v>1</v>
       </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="8">
-        <v>0.3</v>
-      </c>
-      <c r="M15" s="8"/>
+      <c r="M16" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A16"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A16:A53" errorStyle="information">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A17:A38" errorStyle="information">
       <formula1>"王雪斌,王然,古鹏鹏"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B16:B1048576" errorStyle="information">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B17:B1048576" errorStyle="information">
       <formula1>"A,B,C,S"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C16:C1048576" errorStyle="information">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C17:C1048576" errorStyle="information">
       <formula1>"美国,美国2,墨西哥,秘鲁,巴西,智利,分包系统,客服OA,运营系统,加拿大,澳大利亚,巴西2"</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="E16:E1048576">
+    <dataValidation type="list" sqref="E17:E1048576">
       <formula1>"测试中,未提测,已上线,已完成"</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="between" allowBlank="1" sqref="G16:I1048576"/>
+    <dataValidation type="date" operator="between" allowBlank="1" sqref="G17:I1048576"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/client/文件上传模版/测试任务更新模版.xlsx
+++ b/client/文件上传模版/测试任务更新模版.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>负责人</t>
   </si>
@@ -77,54 +77,27 @@
     <t>美国2</t>
   </si>
   <si>
-    <t>美国二H5 - PG/PP游戏大厅弹窗横屏修复 &amp; 子游戏全屏问题修复</t>
+    <t>美国2 - 诱导流程优化：乾坤大挪移2</t>
   </si>
   <si>
     <t>测试中</t>
   </si>
   <si>
-    <t>美国2 - 充值弹窗序列优化</t>
-  </si>
-  <si>
-    <t>代码优化修改，需要重新测试</t>
+    <t>王然</t>
   </si>
   <si>
     <t>A</t>
   </si>
   <si>
-    <t>谷歌7号包升级测试</t>
-  </si>
-  <si>
-    <t>已完成</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>美国</t>
-  </si>
-  <si>
-    <t>7usslot更新注册引导进入游戏弹窗回滚</t>
-  </si>
-  <si>
-    <t>已上线</t>
-  </si>
-  <si>
-    <t>美国2 - 诱导流程优化：乾坤大挪移2</t>
+    <t>美国3</t>
+  </si>
+  <si>
+    <t>美国3 - 新增产品</t>
   </si>
   <si>
     <t>未提测</t>
   </si>
   <si>
-    <t>王然</t>
-  </si>
-  <si>
-    <t>美国二19.9礼包深挖</t>
-  </si>
-  <si>
-    <t>评审 - 19.99和次日领10活动减税测试 - 美国2</t>
-  </si>
-  <si>
     <t>美国2 - 新增虚拟隐私信用卡</t>
   </si>
   <si>
@@ -137,25 +110,16 @@
     <t>IGT游戏测试</t>
   </si>
   <si>
-    <t>评审 - 短信召回发送MVP - 美国2</t>
-  </si>
-  <si>
-    <t>评审 - 短信次日发送MVP - 美国2</t>
-  </si>
-  <si>
-    <t>评审 - plinko游戏自研移植 - 美国2</t>
-  </si>
-  <si>
     <t>墨西哥</t>
   </si>
   <si>
     <t>【评审】墨西哥视讯对接</t>
   </si>
   <si>
-    <t>投放链归因测试</t>
-  </si>
-  <si>
-    <t>疯传需求问题验证</t>
+    <t>巴西</t>
+  </si>
+  <si>
+    <t>疯传需求移植</t>
   </si>
 </sst>
 </file>
@@ -169,7 +133,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -179,13 +143,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF404040"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -566,9 +523,7 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -581,7 +536,9 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -722,152 +679,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -877,64 +834,58 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1258,13 +1209,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="A1" sqref="A1:M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="6"/>
   <cols>
     <col min="3" max="3" width="15.625" customWidth="1"/>
     <col min="4" max="4" width="50.875" customWidth="1"/>
@@ -1289,35 +1240,35 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" ht="17.6" customHeight="1" spans="1:13">
+    <row r="2" customHeight="1" spans="1:13">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -1330,454 +1281,170 @@
       <c r="D2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="14">
-        <v>0.9</v>
-      </c>
-      <c r="G2" s="15">
+      <c r="F2" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="G2" s="13">
         <v>45881</v>
       </c>
-      <c r="H2" s="16">
-        <v>45881.7916666667</v>
-      </c>
-      <c r="I2" s="18">
+      <c r="H2" s="14">
+        <v>45884.6298611111</v>
+      </c>
+      <c r="I2" s="16">
         <v>45883</v>
       </c>
       <c r="J2" s="4"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="8">
-        <v>1</v>
-      </c>
-      <c r="M2" s="8"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="3">
+        <v>3</v>
+      </c>
+      <c r="M2" s="3"/>
     </row>
-    <row r="3" customHeight="1" spans="1:13">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4" t="s">
-        <v>14</v>
+    <row r="3" ht="18" customHeight="1" spans="1:13">
+      <c r="A3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="14">
-        <v>0.8</v>
-      </c>
-      <c r="G3" s="15">
-        <v>45880</v>
-      </c>
-      <c r="H3" s="16">
-        <v>45880.6875</v>
-      </c>
-      <c r="I3" s="18">
-        <v>45883</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="18"/>
-      <c r="L3" s="8">
+        <v>20</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3">
         <v>4</v>
       </c>
-      <c r="M3" s="8"/>
     </row>
     <row r="4" customHeight="1" spans="1:13">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4" t="s">
-        <v>20</v>
+      <c r="A4" s="6"/>
+      <c r="B4" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="14">
-        <v>1</v>
-      </c>
-      <c r="G4" s="15">
-        <v>45881</v>
-      </c>
-      <c r="H4" s="16">
-        <v>45881.9239814815</v>
-      </c>
-      <c r="I4" s="18"/>
+      <c r="D4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="16"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="8">
-        <v>1</v>
-      </c>
-      <c r="M4" s="8"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
     </row>
     <row r="5" ht="18" customHeight="1" spans="1:13">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4" t="s">
-        <v>23</v>
+      <c r="A5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="15">
-        <v>45882</v>
-      </c>
-      <c r="H5" s="15">
-        <v>45882</v>
-      </c>
-      <c r="I5" s="15">
-        <v>45882</v>
-      </c>
+      <c r="E5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
       <c r="J5" s="4"/>
-      <c r="K5" s="16">
-        <v>45882.8333333333</v>
-      </c>
-      <c r="L5" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="M5" s="8"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
     </row>
     <row r="6" customHeight="1" spans="1:13">
       <c r="A6" s="3"/>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="C6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="D6" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="15">
-        <v>45881</v>
-      </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="18">
-        <v>45883</v>
-      </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
+      <c r="E6" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="18"/>
+      <c r="G6" s="19">
+        <v>45888</v>
+      </c>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
     </row>
-    <row r="7" ht="18" customHeight="1" spans="1:13">
-      <c r="A7" s="7" t="s">
-        <v>29</v>
-      </c>
+    <row r="7" customHeight="1" spans="1:13">
+      <c r="A7" s="3"/>
       <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="14">
-        <v>0.8</v>
-      </c>
-      <c r="G7" s="15">
-        <v>45878</v>
-      </c>
-      <c r="H7" s="16">
-        <v>45881.4584027778</v>
-      </c>
-      <c r="I7" s="18">
-        <v>45883</v>
-      </c>
+      <c r="E7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
       <c r="J7" s="4"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="8">
-        <v>7</v>
-      </c>
-      <c r="M7" s="8"/>
-    </row>
-    <row r="8" customHeight="1" spans="1:13">
-      <c r="A8" s="7"/>
-      <c r="B8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="15">
-        <v>45881</v>
-      </c>
-      <c r="H8" s="16">
-        <v>45881.875</v>
-      </c>
-      <c r="I8" s="18">
-        <v>45883</v>
-      </c>
-      <c r="J8" s="4"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-    </row>
-    <row r="9" ht="18" customHeight="1" spans="1:13">
-      <c r="A9" s="7"/>
-      <c r="B9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-    </row>
-    <row r="10" ht="18" customHeight="1" spans="1:13">
-      <c r="A10" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-    </row>
-    <row r="11" customHeight="1" spans="1:13">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="15">
-        <v>45882</v>
-      </c>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18">
-        <v>45883</v>
-      </c>
-      <c r="J11" s="4"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-    </row>
-    <row r="12" customHeight="1" spans="1:13">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="14">
-        <v>1</v>
-      </c>
-      <c r="G12" s="15">
-        <v>45881</v>
-      </c>
-      <c r="H12" s="16">
-        <v>45881.875</v>
-      </c>
-      <c r="I12" s="18">
-        <v>45882</v>
-      </c>
-      <c r="J12" s="4"/>
-      <c r="K12" s="16">
-        <v>45882.8055555556</v>
-      </c>
-      <c r="L12" s="8">
-        <v>5</v>
-      </c>
-      <c r="M12" s="8"/>
-    </row>
-    <row r="13" customHeight="1" spans="1:13">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="15">
-        <v>45881</v>
-      </c>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18">
-        <v>45884</v>
-      </c>
-      <c r="J13" s="4"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-    </row>
-    <row r="14" customHeight="1" spans="1:13">
-      <c r="A14" s="8"/>
-      <c r="B14" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="20"/>
-      <c r="G14" s="21">
-        <v>45888</v>
-      </c>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-    </row>
-    <row r="15" customHeight="1" spans="1:13">
-      <c r="A15" s="8"/>
-      <c r="B15" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="20"/>
-      <c r="G15" s="15">
-        <v>45882</v>
-      </c>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="19">
-        <v>0.3</v>
-      </c>
-      <c r="M15" s="19"/>
-    </row>
-    <row r="16" customHeight="1" spans="1:13">
-      <c r="A16" s="8"/>
-      <c r="B16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="15">
-        <v>45882</v>
-      </c>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="8">
-        <v>1</v>
-      </c>
-      <c r="M16" s="8"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A16"/>
+  <mergeCells count="2">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A7"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A17:A38" errorStyle="information">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A8" errorStyle="information">
       <formula1>"王雪斌,王然,古鹏鹏"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B17:B1048576" errorStyle="information">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B8:B1048576" errorStyle="information">
       <formula1>"A,B,C,S"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C17:C1048576" errorStyle="information">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C8:C1048576" errorStyle="information">
       <formula1>"美国,美国2,墨西哥,秘鲁,巴西,智利,分包系统,客服OA,运营系统,加拿大,澳大利亚,巴西2"</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="E17:E1048576">
+    <dataValidation type="list" sqref="E8:E1048576">
       <formula1>"测试中,未提测,已上线,已完成"</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="between" allowBlank="1" sqref="G17:I1048576"/>
+    <dataValidation type="date" operator="between" allowBlank="1" sqref="G8:I1048576"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/client/文件上传模版/测试任务更新模版.xlsx
+++ b/client/文件上传模版/测试任务更新模版.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="22240"/>
+    <workbookView windowHeight="22260"/>
   </bookViews>
   <sheets>
     <sheet name="模版" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
   <si>
     <t>负责人</t>
   </si>
@@ -86,7 +86,13 @@
     <t>王然</t>
   </si>
   <si>
-    <t>A</t>
+    <t>评审 - IOS引导添加日历优化 - 美国</t>
+  </si>
+  <si>
+    <t>未提测</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
   <si>
     <t>美国3</t>
@@ -95,15 +101,18 @@
     <t>美国3 - 新增产品</t>
   </si>
   <si>
-    <t>未提测</t>
-  </si>
-  <si>
     <t>美国2 - 新增虚拟隐私信用卡</t>
   </si>
   <si>
     <t>暂停</t>
   </si>
   <si>
+    <t>会议+需求评审+数值优化下线测试</t>
+  </si>
+  <si>
+    <t>已完成</t>
+  </si>
+  <si>
     <t>古鹏鹏</t>
   </si>
   <si>
@@ -120,6 +129,18 @@
   </si>
   <si>
     <t>疯传需求移植</t>
+  </si>
+  <si>
+    <t>小丑数值优化测试关闭</t>
+  </si>
+  <si>
+    <t>美国2,墨西哥,巴西</t>
+  </si>
+  <si>
+    <t>谷歌包下架强导流开启回归验证</t>
+  </si>
+  <si>
+    <t>线上bug*2修改测试</t>
   </si>
 </sst>
 </file>
@@ -824,7 +845,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -857,6 +878,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1209,13 +1236,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:M7"/>
+      <selection activeCell="A1" sqref="A1:M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.5" customHeight="1"/>
   <cols>
     <col min="3" max="3" width="15.625" customWidth="1"/>
     <col min="4" max="4" width="50.875" customWidth="1"/>
@@ -1240,31 +1267,31 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="13" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="13" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1284,22 +1311,22 @@
       <c r="E2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="12">
-        <v>0.2</v>
-      </c>
-      <c r="G2" s="13">
+      <c r="F2" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="G2" s="15">
         <v>45881</v>
       </c>
-      <c r="H2" s="14">
+      <c r="H2" s="16">
         <v>45884.6298611111</v>
       </c>
-      <c r="I2" s="16">
-        <v>45883</v>
+      <c r="I2" s="18">
+        <v>45889</v>
       </c>
       <c r="J2" s="4"/>
-      <c r="K2" s="16"/>
+      <c r="K2" s="18"/>
       <c r="L2" s="3">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="M2" s="3"/>
     </row>
@@ -1308,143 +1335,285 @@
         <v>18</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="16"/>
+      <c r="F3" s="14">
+        <v>0.7</v>
+      </c>
+      <c r="G3" s="15">
+        <v>45887</v>
+      </c>
+      <c r="H3" s="16">
+        <v>45887.4909722222</v>
+      </c>
+      <c r="I3" s="18">
+        <v>45889</v>
+      </c>
       <c r="J3" s="4"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3">
+      <c r="K3" s="18"/>
+      <c r="L3" s="3">
         <v>4</v>
       </c>
+      <c r="M3" s="3"/>
     </row>
     <row r="4" customHeight="1" spans="1:13">
       <c r="A4" s="6"/>
       <c r="B4" s="5" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="12"/>
+        <v>20</v>
+      </c>
+      <c r="F4" s="14"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="16"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="18"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="16"/>
+      <c r="K4" s="18"/>
       <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
+      <c r="M4" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" ht="18" customHeight="1" spans="1:13">
-      <c r="A5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
+        <v>25</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="18"/>
       <c r="J5" s="4"/>
-      <c r="K5" s="16"/>
+      <c r="K5" s="18"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
     </row>
     <row r="6" customHeight="1" spans="1:13">
-      <c r="A6" s="3"/>
-      <c r="B6" s="8" t="s">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="14">
+        <v>1</v>
+      </c>
+      <c r="G6" s="15"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="3">
+        <v>2</v>
+      </c>
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" ht="18" customHeight="1" spans="1:13">
+      <c r="A7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="18"/>
-      <c r="G6" s="19">
-        <v>45888</v>
-      </c>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-    </row>
-    <row r="7" customHeight="1" spans="1:13">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="C7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="E7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
+        <v>17</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
       <c r="J7" s="4"/>
-      <c r="K7" s="16"/>
+      <c r="K7" s="18"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
     </row>
+    <row r="8" customHeight="1" spans="1:13">
+      <c r="A8" s="3"/>
+      <c r="B8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="20"/>
+      <c r="G8" s="21">
+        <v>45888</v>
+      </c>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+    </row>
+    <row r="9" customHeight="1" spans="1:13">
+      <c r="A9" s="3"/>
+      <c r="B9" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="20"/>
+      <c r="G9" s="21">
+        <v>45887</v>
+      </c>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:13">
+      <c r="A10" s="3"/>
+      <c r="B10" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="16">
+        <v>45887.6666666667</v>
+      </c>
+      <c r="I10" s="16">
+        <v>45888.625</v>
+      </c>
+      <c r="J10" s="4"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="3">
+        <v>2</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:13">
+      <c r="A11" s="3"/>
+      <c r="B11" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="20"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="19">
+        <v>2</v>
+      </c>
+      <c r="M11" s="19"/>
+    </row>
+    <row r="12" customHeight="1" spans="1:13">
+      <c r="A12" s="3"/>
+      <c r="B12" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="16">
+        <v>45887.8333333333</v>
+      </c>
+      <c r="I12" s="16">
+        <v>45888.625</v>
+      </c>
+      <c r="J12" s="4"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A12"/>
   </mergeCells>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A8" errorStyle="information">
-      <formula1>"王雪斌,王然,古鹏鹏"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B8:B1048576" errorStyle="information">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B13:B1048576" errorStyle="information">
       <formula1>"A,B,C,S"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C8:C1048576" errorStyle="information">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C13:C1048576" errorStyle="information">
       <formula1>"美国,美国2,墨西哥,秘鲁,巴西,智利,分包系统,客服OA,运营系统,加拿大,澳大利亚,巴西2"</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="E8:E1048576">
+    <dataValidation type="list" sqref="E13:E1048576">
       <formula1>"测试中,未提测,已上线,已完成"</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="between" allowBlank="1" sqref="G8:I1048576"/>
+    <dataValidation type="date" operator="between" allowBlank="1" sqref="G13:I1048576"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/client/文件上传模版/测试任务更新模版.xlsx
+++ b/client/文件上传模版/测试任务更新模版.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="43">
   <si>
     <t>负责人</t>
   </si>
@@ -83,15 +83,30 @@
     <t>测试中</t>
   </si>
   <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>美国2修复线上游戏问题验证</t>
+  </si>
+  <si>
+    <t>评审 - 短信促活常态化 - 美国2</t>
+  </si>
+  <si>
+    <t>未提测</t>
+  </si>
+  <si>
     <t>王然</t>
   </si>
   <si>
+    <t>197 IGT空中的幸运之轮数值优化</t>
+  </si>
+  <si>
+    <t>已上线</t>
+  </si>
+  <si>
     <t>评审 - IOS引导添加日历优化 - 美国</t>
   </si>
   <si>
-    <t>未提测</t>
-  </si>
-  <si>
     <t>S</t>
   </si>
   <si>
@@ -107,40 +122,40 @@
     <t>暂停</t>
   </si>
   <si>
-    <t>会议+需求评审+数值优化下线测试</t>
+    <t>古鹏鹏</t>
+  </si>
+  <si>
+    <t>IGT游戏测试</t>
+  </si>
+  <si>
+    <t>墨西哥</t>
+  </si>
+  <si>
+    <t>【评审】墨西哥视讯对接</t>
+  </si>
+  <si>
+    <t>巴西2</t>
+  </si>
+  <si>
+    <t>疯传需求移植</t>
+  </si>
+  <si>
+    <t>小丑数值优化测试关闭</t>
+  </si>
+  <si>
+    <t>线上bug*2修改测试</t>
+  </si>
+  <si>
+    <t>提升最低下注金额AB测关闭</t>
+  </si>
+  <si>
+    <t>美国,美国2,墨西哥</t>
+  </si>
+  <si>
+    <t>会员充值返利线上bug修复</t>
   </si>
   <si>
     <t>已完成</t>
-  </si>
-  <si>
-    <t>古鹏鹏</t>
-  </si>
-  <si>
-    <t>IGT游戏测试</t>
-  </si>
-  <si>
-    <t>墨西哥</t>
-  </si>
-  <si>
-    <t>【评审】墨西哥视讯对接</t>
-  </si>
-  <si>
-    <t>巴西</t>
-  </si>
-  <si>
-    <t>疯传需求移植</t>
-  </si>
-  <si>
-    <t>小丑数值优化测试关闭</t>
-  </si>
-  <si>
-    <t>美国2,墨西哥,巴西</t>
-  </si>
-  <si>
-    <t>谷歌包下架强导流开启回归验证</t>
-  </si>
-  <si>
-    <t>线上bug*2修改测试</t>
   </si>
 </sst>
 </file>
@@ -526,7 +541,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -560,17 +575,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -721,7 +725,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -733,34 +737,34 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -858,6 +862,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -865,23 +872,17 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -913,6 +914,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1236,10 +1240,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:M12"/>
+      <selection activeCell="A1" sqref="A1:M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.5" customHeight="1"/>
@@ -1267,280 +1271,284 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="12" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:13">
+    <row r="2" ht="18" customHeight="1" spans="1:13">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="14">
-        <v>0.8</v>
-      </c>
-      <c r="G2" s="15">
+      <c r="F2" s="13">
+        <v>0.9</v>
+      </c>
+      <c r="G2" s="14">
         <v>45881</v>
       </c>
-      <c r="H2" s="16">
+      <c r="H2" s="15">
         <v>45884.6298611111</v>
       </c>
-      <c r="I2" s="18">
+      <c r="I2" s="17">
         <v>45889</v>
       </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="18"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="17"/>
       <c r="L2" s="3">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="M2" s="3"/>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:13">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="14">
-        <v>0.7</v>
-      </c>
-      <c r="G3" s="15">
-        <v>45887</v>
-      </c>
-      <c r="H3" s="16">
-        <v>45887.4909722222</v>
-      </c>
-      <c r="I3" s="18">
-        <v>45889</v>
-      </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="18"/>
+        <v>17</v>
+      </c>
+      <c r="F3" s="13">
+        <v>0.9</v>
+      </c>
+      <c r="G3" s="14"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="17"/>
       <c r="L3" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M3" s="3"/>
     </row>
     <row r="4" customHeight="1" spans="1:13">
-      <c r="A4" s="6"/>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="3"/>
+      <c r="B4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="18"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="14">
+        <v>45888</v>
+      </c>
+      <c r="H4" s="15"/>
+      <c r="I4" s="17">
+        <v>45890</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="17"/>
       <c r="L4" s="3"/>
-      <c r="M4" s="3">
-        <v>4</v>
-      </c>
+      <c r="M4" s="3"/>
     </row>
     <row r="5" ht="18" customHeight="1" spans="1:13">
-      <c r="A5" s="6"/>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="3"/>
+      <c r="F5" s="13">
+        <v>1</v>
+      </c>
+      <c r="G5" s="14"/>
+      <c r="H5" s="15">
+        <v>45887.8333333333</v>
+      </c>
+      <c r="I5" s="17">
+        <v>45888</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="15">
+        <v>45888.75</v>
+      </c>
+      <c r="L5" s="3">
+        <v>5</v>
+      </c>
       <c r="M5" s="3"/>
     </row>
     <row r="6" customHeight="1" spans="1:13">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="5" t="s">
-        <v>26</v>
+      <c r="A6" s="3"/>
+      <c r="B6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="14">
-        <v>1</v>
-      </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="3">
-        <v>2</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0.7</v>
+      </c>
+      <c r="G6" s="14">
+        <v>45887</v>
+      </c>
+      <c r="H6" s="15">
+        <v>45887.4909722222</v>
+      </c>
+      <c r="I6" s="17">
+        <v>45889</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="3"/>
       <c r="M6" s="3"/>
     </row>
     <row r="7" ht="18" customHeight="1" spans="1:13">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="3"/>
+      <c r="B7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>29</v>
-      </c>
       <c r="E7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="18"/>
+        <v>21</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="17"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
     </row>
     <row r="8" customHeight="1" spans="1:13">
       <c r="A8" s="3"/>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="F8" s="13"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" ht="18" customHeight="1" spans="1:13">
+      <c r="A9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="21">
-        <v>45888</v>
-      </c>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-    </row>
-    <row r="9" customHeight="1" spans="1:13">
-      <c r="A9" s="3"/>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="21">
-        <v>45887</v>
-      </c>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
+      <c r="E9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
     </row>
     <row r="10" customHeight="1" spans="1:13">
       <c r="A10" s="3"/>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="C10" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="14">
-        <v>0.9</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="16">
-        <v>45887.6666666667</v>
-      </c>
-      <c r="I10" s="16">
-        <v>45888.625</v>
-      </c>
-      <c r="J10" s="4"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="3">
-        <v>2</v>
-      </c>
-      <c r="M10" s="3"/>
+      <c r="E10" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20">
+        <v>45888</v>
+      </c>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
     </row>
     <row r="11" customHeight="1" spans="1:13">
       <c r="A11" s="3"/>
@@ -1553,67 +1561,159 @@
       <c r="D11" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
+      <c r="E11" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="19"/>
+      <c r="G11" s="20">
+        <v>45887</v>
+      </c>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
       <c r="J11" s="9"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="19">
-        <v>2</v>
-      </c>
-      <c r="M11" s="19"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
     </row>
     <row r="12" customHeight="1" spans="1:13">
       <c r="A12" s="3"/>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="4" t="s">
+      <c r="C12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="14">
-        <v>0.9</v>
+        <v>24</v>
+      </c>
+      <c r="F12" s="13">
+        <v>1</v>
       </c>
       <c r="G12" s="3"/>
-      <c r="H12" s="16">
-        <v>45887.8333333333</v>
-      </c>
-      <c r="I12" s="16">
+      <c r="H12" s="15">
+        <v>45887.6666666667</v>
+      </c>
+      <c r="I12" s="15">
         <v>45888.625</v>
       </c>
-      <c r="J12" s="4"/>
-      <c r="K12" s="18"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="15">
+        <v>45888.6277777778</v>
+      </c>
       <c r="L12" s="3">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="M12" s="3"/>
     </row>
+    <row r="13" customHeight="1" spans="1:13">
+      <c r="A13" s="3"/>
+      <c r="B13" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="19">
+        <v>1</v>
+      </c>
+      <c r="G13" s="18"/>
+      <c r="H13" s="22">
+        <v>45887.8333333333</v>
+      </c>
+      <c r="I13" s="22">
+        <v>45888.625</v>
+      </c>
+      <c r="J13" s="9"/>
+      <c r="K13" s="22">
+        <v>45888.6979166667</v>
+      </c>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+    </row>
+    <row r="14" customHeight="1" spans="1:13">
+      <c r="A14" s="3"/>
+      <c r="B14" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="19">
+        <v>1</v>
+      </c>
+      <c r="G14" s="18"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="22">
+        <v>45888.625</v>
+      </c>
+      <c r="J14" s="9"/>
+      <c r="K14" s="22">
+        <v>45888.6875</v>
+      </c>
+      <c r="L14" s="18">
+        <v>2</v>
+      </c>
+      <c r="M14" s="18"/>
+    </row>
+    <row r="15" customHeight="1" spans="1:13">
+      <c r="A15" s="3"/>
+      <c r="B15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="13"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="15">
+        <v>45888.6638888889</v>
+      </c>
+      <c r="L15" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A12"/>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A9:A15"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B13:B1048576" errorStyle="information">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B16:B1048576" errorStyle="information">
       <formula1>"A,B,C,S"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C13:C1048576" errorStyle="information">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C16:C1048576" errorStyle="information">
       <formula1>"美国,美国2,墨西哥,秘鲁,巴西,智利,分包系统,客服OA,运营系统,加拿大,澳大利亚,巴西2"</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="E13:E1048576">
+    <dataValidation type="list" sqref="E16:E1048576">
       <formula1>"测试中,未提测,已上线,已完成"</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="between" allowBlank="1" sqref="G13:I1048576"/>
+    <dataValidation type="date" operator="between" allowBlank="1" sqref="G16:I1048576"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/client/文件上传模版/测试任务更新模版.xlsx
+++ b/client/文件上传模版/测试任务更新模版.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="22260"/>
+    <workbookView windowHeight="23960"/>
   </bookViews>
   <sheets>
     <sheet name="模版" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="42">
   <si>
     <t>负责人</t>
   </si>
@@ -62,6 +62,9 @@
     <t>实际上线时间</t>
   </si>
   <si>
+    <t>预计耗时（用例+测试）</t>
+  </si>
+  <si>
     <t>测试实际耗时（h）</t>
   </si>
   <si>
@@ -77,58 +80,61 @@
     <t>美国2</t>
   </si>
   <si>
-    <t>美国2 - 诱导流程优化：乾坤大挪移2</t>
+    <t>评审 - 短信促活常态化 - 美国2</t>
+  </si>
+  <si>
+    <t>已上线</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>墨西哥</t>
+  </si>
+  <si>
+    <t>墨西哥谷歌7号包测试</t>
+  </si>
+  <si>
+    <t>已完成</t>
+  </si>
+  <si>
+    <t>【评审】美国2游戏内引导用户发短信召回</t>
+  </si>
+  <si>
+    <t>未提测</t>
+  </si>
+  <si>
+    <t>王然</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>美国3</t>
+  </si>
+  <si>
+    <t>美国3 - 新增产品</t>
+  </si>
+  <si>
+    <t>周卡/裂变开放全量</t>
+  </si>
+  <si>
+    <t>美国2 - 新增虚拟隐私信用卡</t>
+  </si>
+  <si>
+    <t>暂停</t>
+  </si>
+  <si>
+    <t>首次充值不足9.99诱导提现bug修复</t>
   </si>
   <si>
     <t>测试中</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>美国2修复线上游戏问题验证</t>
-  </si>
-  <si>
-    <t>评审 - 短信促活常态化 - 美国2</t>
-  </si>
-  <si>
-    <t>未提测</t>
-  </si>
-  <si>
-    <t>王然</t>
-  </si>
-  <si>
-    <t>197 IGT空中的幸运之轮数值优化</t>
-  </si>
-  <si>
-    <t>已上线</t>
-  </si>
-  <si>
-    <t>评审 - IOS引导添加日历优化 - 美国</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>美国3</t>
-  </si>
-  <si>
-    <t>美国3 - 新增产品</t>
-  </si>
-  <si>
-    <t>美国2 - 新增虚拟隐私信用卡</t>
-  </si>
-  <si>
-    <t>暂停</t>
-  </si>
-  <si>
     <t>古鹏鹏</t>
   </si>
   <si>
-    <t>IGT游戏测试</t>
-  </si>
-  <si>
-    <t>墨西哥</t>
+    <t>IGT游戏测试*37</t>
   </si>
   <si>
     <t>【评审】墨西哥视讯对接</t>
@@ -140,22 +146,13 @@
     <t>疯传需求移植</t>
   </si>
   <si>
-    <t>小丑数值优化测试关闭</t>
-  </si>
-  <si>
-    <t>线上bug*2修改测试</t>
-  </si>
-  <si>
-    <t>提升最低下注金额AB测关闭</t>
-  </si>
-  <si>
-    <t>美国,美国2,墨西哥</t>
-  </si>
-  <si>
-    <t>会员充值返利线上bug修复</t>
-  </si>
-  <si>
-    <t>已完成</t>
+    <t>墨西哥 - 充100提100：VIP充值返利活动 新起号段全量放开</t>
+  </si>
+  <si>
+    <t>分包系统</t>
+  </si>
+  <si>
+    <t>充值回调自动化</t>
   </si>
 </sst>
 </file>
@@ -541,7 +538,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -563,6 +560,19 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -578,16 +588,14 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -725,7 +733,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -737,34 +745,34 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -859,49 +867,52 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -914,9 +925,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1240,10 +1248,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:M15"/>
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.5" customHeight="1"/>
@@ -1255,10 +1263,12 @@
     <col min="8" max="8" width="11.6" style="1" customWidth="1"/>
     <col min="9" max="9" width="16.025" style="1" customWidth="1"/>
     <col min="11" max="11" width="20" customWidth="1"/>
+    <col min="12" max="12" width="24.2666666666667" customWidth="1"/>
     <col min="13" max="13" width="22.9333333333333" customWidth="1"/>
+    <col min="14" max="14" width="14.8666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:13">
+    <row r="1" customHeight="1" spans="1:14">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1271,449 +1281,414 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="13" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="13" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="13" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" ht="18" customHeight="1" spans="1:13">
+    <row r="2" ht="18" customHeight="1" spans="1:14">
       <c r="A2" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="14">
+        <v>1</v>
+      </c>
+      <c r="G2" s="15">
+        <v>45888</v>
+      </c>
+      <c r="H2" s="16"/>
+      <c r="I2" s="18">
+        <v>45890</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="16">
+        <v>45890.6597222222</v>
+      </c>
+      <c r="L2" s="8">
+        <v>5</v>
+      </c>
+      <c r="M2" s="8">
+        <v>3</v>
+      </c>
+      <c r="N2" s="8"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:14">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="14">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="M3" s="8">
+        <v>1</v>
+      </c>
+      <c r="N3" s="8"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:14">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="13">
+      <c r="D4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="5" ht="18" customHeight="1" spans="1:14">
+      <c r="A5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="8">
+        <v>50</v>
+      </c>
+      <c r="M5" s="8">
+        <v>2</v>
+      </c>
+      <c r="N5" s="8"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:14">
+      <c r="A6" s="7"/>
+      <c r="B6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="14">
+        <v>1</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="16">
+        <v>45890.6875</v>
+      </c>
+      <c r="L6" s="8">
+        <v>4</v>
+      </c>
+      <c r="M6" s="8">
+        <v>4</v>
+      </c>
+      <c r="N6" s="8"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:14">
+      <c r="A7" s="7"/>
+      <c r="B7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:14">
+      <c r="A8" s="7"/>
+      <c r="B8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="G8" s="15"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="8">
+        <v>2</v>
+      </c>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+    </row>
+    <row r="9" ht="18" customHeight="1" spans="1:14">
+      <c r="A9" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="14">
+        <v>0.7</v>
+      </c>
+      <c r="G9" s="15"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="8">
+        <v>8</v>
+      </c>
+      <c r="M9" s="8">
+        <v>2</v>
+      </c>
+      <c r="N9" s="8"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:14">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="20"/>
+      <c r="G10" s="21">
+        <v>45888</v>
+      </c>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="19">
+        <v>8</v>
+      </c>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:14">
+      <c r="A11" s="8"/>
+      <c r="B11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="20">
         <v>0.9</v>
       </c>
-      <c r="G2" s="14">
-        <v>45881</v>
-      </c>
-      <c r="H2" s="15">
-        <v>45884.6298611111</v>
-      </c>
-      <c r="I2" s="17">
-        <v>45889</v>
-      </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="3">
-        <v>2</v>
-      </c>
-      <c r="M2" s="3"/>
+      <c r="G11" s="21">
+        <v>45887</v>
+      </c>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22">
+        <v>45890</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="19">
+        <v>8</v>
+      </c>
+      <c r="M11" s="19">
+        <v>5</v>
+      </c>
+      <c r="N11" s="19"/>
     </row>
-    <row r="3" ht="18" customHeight="1" spans="1:13">
-      <c r="A3" s="3"/>
-      <c r="B3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="5" t="s">
+    <row r="12" customHeight="1" spans="1:14">
+      <c r="A12" s="8"/>
+      <c r="B12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="13">
+      <c r="C12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="20">
         <v>0.9</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="3">
-        <v>2</v>
-      </c>
-      <c r="M3" s="3"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="19">
+        <v>1</v>
+      </c>
+      <c r="M12" s="19">
+        <v>1.5</v>
+      </c>
+      <c r="N12" s="19"/>
     </row>
-    <row r="4" customHeight="1" spans="1:13">
-      <c r="A4" s="3"/>
-      <c r="B4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="5" t="s">
+    <row r="13" customHeight="1" spans="1:14">
+      <c r="A13" s="8"/>
+      <c r="B13" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="14">
-        <v>45888</v>
-      </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="17">
-        <v>45890</v>
-      </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-    </row>
-    <row r="5" ht="18" customHeight="1" spans="1:13">
-      <c r="A5" s="3" t="s">
+      <c r="C13" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="13">
+      <c r="F13" s="14">
         <v>1</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="15">
-        <v>45887.8333333333</v>
-      </c>
-      <c r="I5" s="17">
-        <v>45888</v>
-      </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="15">
-        <v>45888.75</v>
-      </c>
-      <c r="L5" s="3">
-        <v>5</v>
-      </c>
-      <c r="M5" s="3"/>
-    </row>
-    <row r="6" customHeight="1" spans="1:13">
-      <c r="A6" s="3"/>
-      <c r="B6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="13">
-        <v>0.7</v>
-      </c>
-      <c r="G6" s="14">
-        <v>45887</v>
-      </c>
-      <c r="H6" s="15">
-        <v>45887.4909722222</v>
-      </c>
-      <c r="I6" s="17">
-        <v>45889</v>
-      </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-    </row>
-    <row r="7" ht="18" customHeight="1" spans="1:13">
-      <c r="A7" s="3"/>
-      <c r="B7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-    </row>
-    <row r="8" customHeight="1" spans="1:13">
-      <c r="A8" s="3"/>
-      <c r="B8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" ht="18" customHeight="1" spans="1:13">
-      <c r="A9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" customHeight="1" spans="1:13">
-      <c r="A10" s="3"/>
-      <c r="B10" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20">
-        <v>45888</v>
-      </c>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-    </row>
-    <row r="11" customHeight="1" spans="1:13">
-      <c r="A11" s="3"/>
-      <c r="B11" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="20">
-        <v>45887</v>
-      </c>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-    </row>
-    <row r="12" customHeight="1" spans="1:13">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="13">
-        <v>1</v>
-      </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="15">
-        <v>45887.6666666667</v>
-      </c>
-      <c r="I12" s="15">
-        <v>45888.625</v>
-      </c>
-      <c r="J12" s="5"/>
-      <c r="K12" s="15">
-        <v>45888.6277777778</v>
-      </c>
-      <c r="L12" s="3">
+      <c r="G13" s="8"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8">
         <v>1.5</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" customHeight="1" spans="1:13">
-      <c r="A13" s="3"/>
-      <c r="B13" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="19">
-        <v>1</v>
-      </c>
-      <c r="G13" s="18"/>
-      <c r="H13" s="22">
-        <v>45887.8333333333</v>
-      </c>
-      <c r="I13" s="22">
-        <v>45888.625</v>
-      </c>
-      <c r="J13" s="9"/>
-      <c r="K13" s="22">
-        <v>45888.6979166667</v>
-      </c>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-    </row>
-    <row r="14" customHeight="1" spans="1:13">
-      <c r="A14" s="3"/>
-      <c r="B14" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="19">
-        <v>1</v>
-      </c>
-      <c r="G14" s="18"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="22">
-        <v>45888.625</v>
-      </c>
-      <c r="J14" s="9"/>
-      <c r="K14" s="22">
-        <v>45888.6875</v>
-      </c>
-      <c r="L14" s="18">
-        <v>2</v>
-      </c>
-      <c r="M14" s="18"/>
-    </row>
-    <row r="15" customHeight="1" spans="1:13">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="15">
-        <v>45888.6638888889</v>
-      </c>
-      <c r="L15" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="M15" s="3"/>
+      <c r="N13" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A8"/>
-    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="A9:A13"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B16:B1048576" errorStyle="information">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B14:B1048576" errorStyle="information">
       <formula1>"A,B,C,S"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C16:C1048576" errorStyle="information">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C14:C1048576" errorStyle="information">
       <formula1>"美国,美国2,墨西哥,秘鲁,巴西,智利,分包系统,客服OA,运营系统,加拿大,澳大利亚,巴西2"</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="E16:E1048576">
+    <dataValidation type="list" sqref="E14:E1048576">
       <formula1>"测试中,未提测,已上线,已完成"</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="between" allowBlank="1" sqref="G16:I1048576"/>
+    <dataValidation type="date" operator="between" allowBlank="1" sqref="G14:I1048576"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/client/文件上传模版/测试任务更新模版.xlsx
+++ b/client/文件上传模版/测试任务更新模版.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="23960"/>
+    <workbookView windowHeight="22260"/>
   </bookViews>
   <sheets>
     <sheet name="模版" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
   <si>
     <t>负责人</t>
   </si>
@@ -80,63 +80,57 @@
     <t>美国2</t>
   </si>
   <si>
-    <t>评审 - 短信促活常态化 - 美国2</t>
+    <t>【评审】美国2游戏内引导用户发短信召回</t>
+  </si>
+  <si>
+    <t>未提测</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>4号Google包升级测试</t>
+  </si>
+  <si>
+    <t>已完成</t>
+  </si>
+  <si>
+    <t>王然</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>美国3</t>
+  </si>
+  <si>
+    <t>美国3 - 新增产品</t>
+  </si>
+  <si>
+    <t>美国2 - 新增虚拟隐私信用卡</t>
+  </si>
+  <si>
+    <t>暂停</t>
+  </si>
+  <si>
+    <t>首次充值不足9.99诱导提现bug修复</t>
   </si>
   <si>
     <t>已上线</t>
   </si>
   <si>
-    <t>A</t>
+    <t>古鹏鹏</t>
+  </si>
+  <si>
+    <t>IGT游戏测试*37</t>
+  </si>
+  <si>
+    <t>测试中</t>
   </si>
   <si>
     <t>墨西哥</t>
   </si>
   <si>
-    <t>墨西哥谷歌7号包测试</t>
-  </si>
-  <si>
-    <t>已完成</t>
-  </si>
-  <si>
-    <t>【评审】美国2游戏内引导用户发短信召回</t>
-  </si>
-  <si>
-    <t>未提测</t>
-  </si>
-  <si>
-    <t>王然</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>美国3</t>
-  </si>
-  <si>
-    <t>美国3 - 新增产品</t>
-  </si>
-  <si>
-    <t>周卡/裂变开放全量</t>
-  </si>
-  <si>
-    <t>美国2 - 新增虚拟隐私信用卡</t>
-  </si>
-  <si>
-    <t>暂停</t>
-  </si>
-  <si>
-    <t>首次充值不足9.99诱导提现bug修复</t>
-  </si>
-  <si>
-    <t>测试中</t>
-  </si>
-  <si>
-    <t>古鹏鹏</t>
-  </si>
-  <si>
-    <t>IGT游戏测试*37</t>
-  </si>
-  <si>
     <t>【评审】墨西哥视讯对接</t>
   </si>
   <si>
@@ -147,12 +141,6 @@
   </si>
   <si>
     <t>墨西哥 - 充100提100：VIP充值返利活动 新起号段全量放开</t>
-  </si>
-  <si>
-    <t>分包系统</t>
-  </si>
-  <si>
-    <t>充值回调自动化</t>
   </si>
 </sst>
 </file>
@@ -556,6 +544,17 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -585,17 +584,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -857,7 +845,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -867,13 +855,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -882,37 +864,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -921,10 +906,10 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1248,10 +1233,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+      <selection activeCell="A1" sqref="A1:N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.5" customHeight="1"/>
@@ -1281,34 +1266,34 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="12" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="N1" s="12" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1325,30 +1310,22 @@
       <c r="D2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="14">
-        <v>1</v>
-      </c>
-      <c r="G2" s="15">
-        <v>45888</v>
-      </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="18">
-        <v>45890</v>
-      </c>
+      <c r="F2" s="13"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="17"/>
       <c r="J2" s="5"/>
-      <c r="K2" s="16">
-        <v>45890.6597222222</v>
-      </c>
-      <c r="L2" s="8">
-        <v>5</v>
-      </c>
-      <c r="M2" s="8">
-        <v>3</v>
-      </c>
-      <c r="N2" s="8"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="7">
+        <v>16</v>
+      </c>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" customHeight="1" spans="1:14">
       <c r="A3" s="3"/>
@@ -1356,88 +1333,86 @@
         <v>19</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="13"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="7">
+        <v>1</v>
+      </c>
+      <c r="M3" s="7">
+        <v>1</v>
+      </c>
+      <c r="N3" s="7"/>
+    </row>
+    <row r="4" ht="18" customHeight="1" spans="1:14">
+      <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="14">
-        <v>1</v>
-      </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="M3" s="8">
-        <v>1</v>
-      </c>
-      <c r="N3" s="8"/>
+      <c r="B4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="15">
+        <v>45892</v>
+      </c>
+      <c r="H4" s="14"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="7">
+        <v>50</v>
+      </c>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7">
+        <v>4</v>
+      </c>
     </row>
-    <row r="4" customHeight="1" spans="1:14">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4" t="s">
+    <row r="5" customHeight="1" spans="1:14">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="5" ht="18" customHeight="1" spans="1:14">
-      <c r="A5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="D5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="E5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="14"/>
+      <c r="F5" s="13"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="18"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="17"/>
       <c r="J5" s="5"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="8">
-        <v>50</v>
-      </c>
-      <c r="M5" s="8">
-        <v>2</v>
-      </c>
-      <c r="N5" s="8"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
     </row>
     <row r="6" customHeight="1" spans="1:14">
-      <c r="A6" s="7"/>
+      <c r="A6" s="3"/>
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
@@ -1445,31 +1420,31 @@
         <v>16</v>
       </c>
       <c r="D6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="14">
+      <c r="F6" s="13">
         <v>1</v>
       </c>
-      <c r="G6" s="5"/>
+      <c r="G6" s="16"/>
       <c r="H6" s="17"/>
-      <c r="I6" s="18"/>
+      <c r="I6" s="17"/>
       <c r="J6" s="5"/>
-      <c r="K6" s="16">
-        <v>45890.6875</v>
-      </c>
-      <c r="L6" s="8">
-        <v>4</v>
-      </c>
-      <c r="M6" s="8">
-        <v>4</v>
-      </c>
-      <c r="N6" s="8"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="7">
+        <v>2</v>
+      </c>
+      <c r="M6" s="7">
+        <v>2</v>
+      </c>
+      <c r="N6" s="7"/>
     </row>
-    <row r="7" customHeight="1" spans="1:14">
-      <c r="A7" s="7"/>
+    <row r="7" ht="18" customHeight="1" spans="1:14">
+      <c r="A7" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="B7" s="4" t="s">
         <v>15</v>
       </c>
@@ -1477,218 +1452,140 @@
         <v>16</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="5"/>
+      <c r="E7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="13">
+        <v>0.85</v>
+      </c>
+      <c r="G7" s="16"/>
       <c r="H7" s="17"/>
-      <c r="I7" s="18"/>
+      <c r="I7" s="17"/>
       <c r="J7" s="5"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="7">
+        <v>8</v>
+      </c>
+      <c r="M7" s="7">
+        <v>2</v>
+      </c>
+      <c r="N7" s="7"/>
     </row>
     <row r="8" customHeight="1" spans="1:14">
       <c r="A8" s="7"/>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="8" t="s">
+      <c r="C8" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="8">
-        <v>2</v>
-      </c>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
+      <c r="D8" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="19"/>
+      <c r="G8" s="15">
+        <v>45888</v>
+      </c>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="18">
+        <v>8</v>
+      </c>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
     </row>
-    <row r="9" ht="18" customHeight="1" spans="1:14">
-      <c r="A9" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="4" t="s">
+    <row r="9" customHeight="1" spans="1:14">
+      <c r="A9" s="7"/>
+      <c r="B9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="C9" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="14">
-        <v>0.7</v>
-      </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="8">
+      <c r="D9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="19">
+        <v>1</v>
+      </c>
+      <c r="G9" s="15">
+        <v>45887</v>
+      </c>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20">
+        <v>45890</v>
+      </c>
+      <c r="J9" s="9"/>
+      <c r="K9" s="21">
+        <v>45891.7083333333</v>
+      </c>
+      <c r="L9" s="18">
         <v>8</v>
       </c>
-      <c r="M9" s="8">
-        <v>2</v>
-      </c>
-      <c r="N9" s="8"/>
+      <c r="M9" s="18">
+        <v>4</v>
+      </c>
+      <c r="N9" s="18"/>
     </row>
     <row r="10" customHeight="1" spans="1:14">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9" t="s">
+      <c r="A10" s="7"/>
+      <c r="B10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="21">
-        <v>45888</v>
-      </c>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="19">
-        <v>8</v>
-      </c>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-    </row>
-    <row r="11" customHeight="1" spans="1:14">
-      <c r="A11" s="8"/>
-      <c r="B11" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="C10" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="20">
-        <v>0.9</v>
-      </c>
-      <c r="G11" s="21">
-        <v>45887</v>
-      </c>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22">
-        <v>45890</v>
-      </c>
-      <c r="J11" s="3"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="19">
-        <v>8</v>
-      </c>
-      <c r="M11" s="19">
-        <v>5</v>
-      </c>
-      <c r="N11" s="19"/>
-    </row>
-    <row r="12" customHeight="1" spans="1:14">
-      <c r="A12" s="8"/>
-      <c r="B12" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="20">
-        <v>0.9</v>
-      </c>
-      <c r="G12" s="19"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="19">
+      <c r="E10" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="19">
         <v>1</v>
       </c>
-      <c r="M12" s="19">
+      <c r="G10" s="18"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="21">
+        <v>45891.6111111111</v>
+      </c>
+      <c r="L10" s="18">
+        <v>1</v>
+      </c>
+      <c r="M10" s="18">
         <v>1.5</v>
       </c>
-      <c r="N12" s="19"/>
-    </row>
-    <row r="13" customHeight="1" spans="1:14">
-      <c r="A13" s="8"/>
-      <c r="B13" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="14">
-        <v>1</v>
-      </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="N13" s="8"/>
+      <c r="N10" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A10"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B14:B1048576" errorStyle="information">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B11:B1048576" errorStyle="information">
       <formula1>"A,B,C,S"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C14:C1048576" errorStyle="information">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C11:C1048576" errorStyle="information">
       <formula1>"美国,美国2,墨西哥,秘鲁,巴西,智利,分包系统,客服OA,运营系统,加拿大,澳大利亚,巴西2"</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="E14:E1048576">
+    <dataValidation type="list" sqref="E11:E1048576">
       <formula1>"测试中,未提测,已上线,已完成"</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="between" allowBlank="1" sqref="G14:I1048576"/>
+    <dataValidation type="date" operator="between" allowBlank="1" sqref="G11:I1048576"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/client/文件上传模版/测试任务更新模版.xlsx
+++ b/client/文件上传模版/测试任务更新模版.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
   <si>
     <t>负责人</t>
   </si>
@@ -86,61 +86,70 @@
     <t>未提测</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>4号Google包升级测试</t>
+    <t>美国二H5 - 非VIP 野牛数值刺激感优化</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>美国3</t>
+  </si>
+  <si>
+    <t>配合美国三产品测试</t>
+  </si>
+  <si>
+    <t>测试中</t>
+  </si>
+  <si>
+    <t>优化周卡功能相关埋点</t>
+  </si>
+  <si>
+    <t>已上线</t>
+  </si>
+  <si>
+    <t>王然</t>
+  </si>
+  <si>
+    <t>美国3 - 新增产品</t>
+  </si>
+  <si>
+    <t>美国2 - 新增虚拟隐私信用卡</t>
+  </si>
+  <si>
+    <t>暂停</t>
+  </si>
+  <si>
+    <t>古鹏鹏</t>
+  </si>
+  <si>
+    <t>IGT游戏测试*38</t>
+  </si>
+  <si>
+    <t>iOS工具包归因测试</t>
+  </si>
+  <si>
+    <t>墨西哥</t>
+  </si>
+  <si>
+    <t>【评审】墨西哥视讯对接</t>
+  </si>
+  <si>
+    <t>美国2召回礼包</t>
+  </si>
+  <si>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>评审 - 新增H5内引导用户绑定FB - 美国</t>
+  </si>
+  <si>
+    <t>美国,美国2</t>
+  </si>
+  <si>
+    <t>投放链归因测试</t>
   </si>
   <si>
     <t>已完成</t>
-  </si>
-  <si>
-    <t>王然</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>美国3</t>
-  </si>
-  <si>
-    <t>美国3 - 新增产品</t>
-  </si>
-  <si>
-    <t>美国2 - 新增虚拟隐私信用卡</t>
-  </si>
-  <si>
-    <t>暂停</t>
-  </si>
-  <si>
-    <t>首次充值不足9.99诱导提现bug修复</t>
-  </si>
-  <si>
-    <t>已上线</t>
-  </si>
-  <si>
-    <t>古鹏鹏</t>
-  </si>
-  <si>
-    <t>IGT游戏测试*37</t>
-  </si>
-  <si>
-    <t>测试中</t>
-  </si>
-  <si>
-    <t>墨西哥</t>
-  </si>
-  <si>
-    <t>【评审】墨西哥视讯对接</t>
-  </si>
-  <si>
-    <t>巴西2</t>
-  </si>
-  <si>
-    <t>疯传需求移植</t>
-  </si>
-  <si>
-    <t>墨西哥 - 充100提100：VIP充值返利活动 新起号段全量放开</t>
   </si>
 </sst>
 </file>
@@ -154,7 +163,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -167,6 +176,12 @@
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -700,148 +715,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -852,56 +867,56 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -909,7 +924,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1233,10 +1248,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:N10"/>
+      <selection activeCell="A1" sqref="A1:N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.5" customHeight="1"/>
@@ -1263,329 +1278,405 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:14">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="7">
+      <c r="F2" s="15"/>
+      <c r="G2" s="16">
+        <v>45898</v>
+      </c>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="6">
         <v>16</v>
       </c>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7">
-        <v>2</v>
-      </c>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
     </row>
     <row r="3" customHeight="1" spans="1:14">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="7">
+      <c r="E3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="15"/>
+      <c r="G3" s="16">
+        <v>45895</v>
+      </c>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="6">
+        <v>5</v>
+      </c>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6">
         <v>1</v>
       </c>
-      <c r="M3" s="7">
-        <v>1</v>
-      </c>
-      <c r="N3" s="7"/>
     </row>
     <row r="4" ht="18" customHeight="1" spans="1:14">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="E4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="15">
-        <v>45892</v>
-      </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="7">
-        <v>50</v>
-      </c>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7">
-        <v>4</v>
-      </c>
+      <c r="F4" s="15"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6">
+        <v>3</v>
+      </c>
+      <c r="N4" s="6"/>
     </row>
     <row r="5" customHeight="1" spans="1:14">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="15"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="21">
+        <v>45895.6458333333</v>
+      </c>
+      <c r="L5" s="6">
+        <v>1</v>
+      </c>
+      <c r="M5" s="6">
+        <v>1</v>
+      </c>
+      <c r="N5" s="6"/>
+    </row>
+    <row r="6" ht="18" customHeight="1" spans="1:14">
+      <c r="A6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="B6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-    </row>
-    <row r="6" customHeight="1" spans="1:14">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="13">
-        <v>1</v>
-      </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="7">
-        <v>2</v>
-      </c>
-      <c r="M6" s="7">
-        <v>2</v>
-      </c>
-      <c r="N6" s="7"/>
+      <c r="E6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="G6" s="17">
+        <v>45892</v>
+      </c>
+      <c r="H6" s="17">
+        <v>45892</v>
+      </c>
+      <c r="I6" s="16">
+        <v>45897</v>
+      </c>
+      <c r="J6" s="6"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="6">
+        <v>50</v>
+      </c>
+      <c r="M6" s="6">
+        <v>7</v>
+      </c>
+      <c r="N6" s="6"/>
     </row>
     <row r="7" ht="18" customHeight="1" spans="1:14">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="15"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+    </row>
+    <row r="8" ht="18" customHeight="1" spans="1:14">
+      <c r="A8" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="13">
-        <v>0.85</v>
-      </c>
-      <c r="G7" s="16"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="7">
+      <c r="E8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="15">
+        <v>1</v>
+      </c>
+      <c r="G8" s="18"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16">
+        <v>45895</v>
+      </c>
+      <c r="J8" s="6"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="6">
         <v>8</v>
       </c>
-      <c r="M7" s="7">
-        <v>2</v>
-      </c>
-      <c r="N7" s="7"/>
-    </row>
-    <row r="8" customHeight="1" spans="1:14">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="15">
-        <v>45888</v>
-      </c>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="18">
-        <v>8</v>
-      </c>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
+      <c r="M8" s="6">
+        <v>5</v>
+      </c>
+      <c r="N8" s="6"/>
     </row>
     <row r="9" customHeight="1" spans="1:14">
-      <c r="A9" s="7"/>
-      <c r="B9" s="11" t="s">
+      <c r="A9" s="9"/>
+      <c r="B9" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="19">
-        <v>1</v>
-      </c>
-      <c r="G9" s="15">
-        <v>45887</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="19"/>
+      <c r="G9" s="17"/>
       <c r="H9" s="20"/>
-      <c r="I9" s="20">
-        <v>45890</v>
-      </c>
+      <c r="I9" s="20"/>
       <c r="J9" s="9"/>
-      <c r="K9" s="21">
-        <v>45891.7083333333</v>
-      </c>
-      <c r="L9" s="18">
-        <v>8</v>
-      </c>
-      <c r="M9" s="18">
-        <v>4</v>
-      </c>
-      <c r="N9" s="18"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
     </row>
     <row r="10" customHeight="1" spans="1:14">
-      <c r="A10" s="7"/>
-      <c r="B10" s="11" t="s">
+      <c r="A10" s="9"/>
+      <c r="B10" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="19">
-        <v>1</v>
-      </c>
-      <c r="G10" s="18"/>
+      <c r="D10" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="19"/>
+      <c r="G10" s="17">
+        <v>45899</v>
+      </c>
       <c r="H10" s="20"/>
       <c r="I10" s="20"/>
       <c r="J10" s="9"/>
-      <c r="K10" s="21">
-        <v>45891.6111111111</v>
-      </c>
-      <c r="L10" s="18">
-        <v>1</v>
-      </c>
-      <c r="M10" s="18">
+      <c r="K10" s="20"/>
+      <c r="L10" s="9">
+        <v>8</v>
+      </c>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:14">
+      <c r="A11" s="9"/>
+      <c r="B11" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="19"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="9">
+        <v>8</v>
+      </c>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9">
         <v>1.5</v>
       </c>
-      <c r="N10" s="18"/>
+    </row>
+    <row r="12" customHeight="1" spans="1:14">
+      <c r="A12" s="9"/>
+      <c r="B12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="16">
+        <v>45896</v>
+      </c>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16">
+        <v>45898</v>
+      </c>
+      <c r="J12" s="6"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:14">
+      <c r="A13" s="9"/>
+      <c r="B13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="15"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="N13" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A13"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B11:B1048576" errorStyle="information">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B14:B1048576" errorStyle="information">
       <formula1>"A,B,C,S"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C11:C1048576" errorStyle="information">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C14:C1048576" errorStyle="information">
       <formula1>"美国,美国2,墨西哥,秘鲁,巴西,智利,分包系统,客服OA,运营系统,加拿大,澳大利亚,巴西2"</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="E11:E1048576">
+    <dataValidation type="list" sqref="E14:E1048576">
       <formula1>"测试中,未提测,已上线,已完成"</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="between" allowBlank="1" sqref="G11:I1048576"/>
+    <dataValidation type="date" operator="between" allowBlank="1" sqref="G14:I1048576"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/client/文件上传模版/测试任务更新模版.xlsx
+++ b/client/文件上传模版/测试任务更新模版.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="39">
   <si>
     <t>负责人</t>
   </si>
@@ -80,13 +80,31 @@
     <t>美国2</t>
   </si>
   <si>
+    <t>美国2 - 首次充值后提 $10</t>
+  </si>
+  <si>
+    <t>未提测</t>
+  </si>
+  <si>
     <t>【评审】美国2游戏内引导用户发短信召回</t>
   </si>
   <si>
-    <t>未提测</t>
-  </si>
-  <si>
-    <t>美国二H5 - 非VIP 野牛数值刺激感优化</t>
+    <t>美国二落地页问题修复版本发布</t>
+  </si>
+  <si>
+    <t>已完成</t>
+  </si>
+  <si>
+    <t>评审 - 储蓄罐暂时关闭 - 美国2</t>
+  </si>
+  <si>
+    <t>已上线</t>
+  </si>
+  <si>
+    <t>王然</t>
+  </si>
+  <si>
+    <t>评审 - 产品体验优化0819 - 美国2</t>
   </si>
   <si>
     <t>S</t>
@@ -95,22 +113,10 @@
     <t>美国3</t>
   </si>
   <si>
-    <t>配合美国三产品测试</t>
-  </si>
-  <si>
-    <t>测试中</t>
-  </si>
-  <si>
-    <t>优化周卡功能相关埋点</t>
-  </si>
-  <si>
-    <t>已上线</t>
-  </si>
-  <si>
-    <t>王然</t>
-  </si>
-  <si>
-    <t>美国3 - 新增产品</t>
+    <t>美国3投放需求测试</t>
+  </si>
+  <si>
+    <t>美国二H5 - 7天任务转盘（周任务/清单革命）</t>
   </si>
   <si>
     <t>美国2 - 新增虚拟隐私信用卡</t>
@@ -122,10 +128,7 @@
     <t>古鹏鹏</t>
   </si>
   <si>
-    <t>IGT游戏测试*38</t>
-  </si>
-  <si>
-    <t>iOS工具包归因测试</t>
+    <t>美国二H5 - 调整提现限制</t>
   </si>
   <si>
     <t>墨西哥</t>
@@ -141,15 +144,6 @@
   </si>
   <si>
     <t>评审 - 新增H5内引导用户绑定FB - 美国</t>
-  </si>
-  <si>
-    <t>美国,美国2</t>
-  </si>
-  <si>
-    <t>投放链归因测试</t>
-  </si>
-  <si>
-    <t>已完成</t>
   </si>
 </sst>
 </file>
@@ -163,7 +157,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -176,12 +170,6 @@
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -541,7 +529,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -569,15 +557,6 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -587,9 +566,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -715,152 +692,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -879,43 +856,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -924,7 +892,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1319,352 +1290,348 @@
       <c r="B2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="16">
-        <v>45898</v>
-      </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="6">
-        <v>16</v>
-      </c>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" customHeight="1" spans="1:14">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="16">
-        <v>45895</v>
-      </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="6">
-        <v>5</v>
-      </c>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6">
-        <v>1</v>
-      </c>
+      <c r="F3" s="13"/>
+      <c r="G3" s="14">
+        <v>45898</v>
+      </c>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="4">
+        <v>16</v>
+      </c>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
     </row>
-    <row r="4" ht="18" customHeight="1" spans="1:14">
+    <row r="4" customHeight="1" spans="1:14">
       <c r="A4" s="4"/>
       <c r="B4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6">
-        <v>3</v>
-      </c>
-      <c r="N4" s="6"/>
+      <c r="F4" s="13">
+        <v>1</v>
+      </c>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4">
+        <v>1</v>
+      </c>
+      <c r="N4" s="4"/>
     </row>
     <row r="5" customHeight="1" spans="1:14">
       <c r="A5" s="4"/>
       <c r="B5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="21">
-        <v>45895.6458333333</v>
-      </c>
-      <c r="L5" s="6">
+      <c r="D5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="13">
         <v>1</v>
       </c>
-      <c r="M5" s="6">
-        <v>1</v>
-      </c>
-      <c r="N5" s="6"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4">
+        <v>2</v>
+      </c>
+      <c r="N5" s="4"/>
     </row>
     <row r="6" ht="18" customHeight="1" spans="1:14">
       <c r="A6" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="15">
-        <v>0.6</v>
-      </c>
-      <c r="G6" s="17">
-        <v>45892</v>
-      </c>
-      <c r="H6" s="17">
-        <v>45892</v>
-      </c>
-      <c r="I6" s="16">
-        <v>45897</v>
-      </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="6">
-        <v>50</v>
-      </c>
-      <c r="M6" s="6">
-        <v>7</v>
-      </c>
-      <c r="N6" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="15">
+        <v>45898</v>
+      </c>
+      <c r="H6" s="15"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="4">
+        <v>8</v>
+      </c>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
     </row>
-    <row r="7" ht="18" customHeight="1" spans="1:14">
+    <row r="7" customHeight="1" spans="1:14">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
+      <c r="E7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="13">
+        <v>1</v>
+      </c>
+      <c r="G7" s="15">
+        <v>45892</v>
+      </c>
+      <c r="H7" s="15"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="14">
+        <v>45898</v>
+      </c>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4">
+        <v>5</v>
+      </c>
+      <c r="N7" s="4"/>
     </row>
     <row r="8" ht="18" customHeight="1" spans="1:14">
-      <c r="A8" s="9" t="s">
-        <v>30</v>
-      </c>
+      <c r="A8" s="4"/>
       <c r="B8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="15">
-        <v>1</v>
-      </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16">
-        <v>45895</v>
-      </c>
-      <c r="J8" s="6"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="6">
-        <v>8</v>
-      </c>
-      <c r="M8" s="6">
-        <v>5</v>
-      </c>
-      <c r="N8" s="6"/>
+      <c r="D8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="4">
+        <v>24</v>
+      </c>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
     </row>
     <row r="9" customHeight="1" spans="1:14">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10" t="s">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+    </row>
+    <row r="10" ht="18" customHeight="1" spans="1:14">
+      <c r="A10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-    </row>
-    <row r="10" customHeight="1" spans="1:14">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>33</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>34</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="17">
-        <v>45899</v>
-      </c>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
       <c r="J10" s="9"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="9">
-        <v>8</v>
-      </c>
+      <c r="K10" s="17"/>
+      <c r="L10" s="9"/>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
     </row>
     <row r="11" customHeight="1" spans="1:14">
-      <c r="A11" s="9"/>
-      <c r="B11" s="12" t="s">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>35</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="15">
+        <v>45899</v>
+      </c>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
       <c r="J11" s="9"/>
-      <c r="K11" s="20"/>
+      <c r="K11" s="17"/>
       <c r="L11" s="9">
         <v>8</v>
       </c>
       <c r="M11" s="9"/>
-      <c r="N11" s="9">
-        <v>1.5</v>
-      </c>
+      <c r="N11" s="9"/>
     </row>
     <row r="12" customHeight="1" spans="1:14">
-      <c r="A12" s="9"/>
-      <c r="B12" s="6" t="s">
+      <c r="A12" s="7"/>
+      <c r="B12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="16">
-        <v>45896</v>
-      </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16">
+      <c r="F12" s="16"/>
+      <c r="G12" s="18">
         <v>45898</v>
       </c>
-      <c r="J12" s="6"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6">
-        <v>1.5</v>
-      </c>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="9">
+        <v>8</v>
+      </c>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
     </row>
     <row r="13" customHeight="1" spans="1:14">
-      <c r="A13" s="9"/>
-      <c r="B13" s="6" t="s">
+      <c r="A13" s="7"/>
+      <c r="B13" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="N13" s="6"/>
+      <c r="E13" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="16">
+        <v>1</v>
+      </c>
+      <c r="G13" s="17">
+        <v>45896</v>
+      </c>
+      <c r="H13" s="19">
+        <v>45896.6666666667</v>
+      </c>
+      <c r="I13" s="17">
+        <v>45898</v>
+      </c>
+      <c r="J13" s="9"/>
+      <c r="K13" s="19">
+        <v>45898.6736111111</v>
+      </c>
+      <c r="L13" s="9">
+        <v>6</v>
+      </c>
+      <c r="M13" s="9">
+        <v>6</v>
+      </c>
+      <c r="N13" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B14:B1048576" errorStyle="information">

--- a/client/文件上传模版/测试任务更新模版.xlsx
+++ b/client/文件上传模版/测试任务更新模版.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="51">
   <si>
     <t>负责人</t>
   </si>
@@ -74,10 +74,31 @@
     <t>王雪斌</t>
   </si>
   <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>美国1</t>
+  </si>
+  <si>
+    <t>美国一老包合并到分包</t>
+  </si>
+  <si>
+    <t>测试中</t>
+  </si>
+  <si>
+    <t>美国2</t>
+  </si>
+  <si>
+    <t>野牛免费次数问题修复测试</t>
+  </si>
+  <si>
     <t>B</t>
   </si>
   <si>
-    <t>美国2</t>
+    <t>乾坤大挪移B放开到50%，新起号段，尾号1/3/5/7/9开启</t>
+  </si>
+  <si>
+    <t>已上线</t>
   </si>
   <si>
     <t>美国2 - 首次充值后提 $10</t>
@@ -86,64 +107,79 @@
     <t>未提测</t>
   </si>
   <si>
+    <t>S</t>
+  </si>
+  <si>
     <t>【评审】美国2游戏内引导用户发短信召回</t>
   </si>
   <si>
-    <t>美国二落地页问题修复版本发布</t>
+    <t>王然</t>
+  </si>
+  <si>
+    <t>评审 - 产品体验优化0819 - 美国2</t>
+  </si>
+  <si>
+    <t>为适配产品需求，开发修改，需要重新回归测试弹窗序列相关内容，测试时间预估增加4h</t>
+  </si>
+  <si>
+    <t>【评审】9月礼包促销</t>
+  </si>
+  <si>
+    <t>【评审】美国2野牛非V数值调整</t>
+  </si>
+  <si>
+    <t>美国3</t>
+  </si>
+  <si>
+    <t>美国3非V双钻数值调整</t>
+  </si>
+  <si>
+    <t>美国二H5 - 7天任务转盘（周任务/清单革命）</t>
+  </si>
+  <si>
+    <t>古鹏鹏</t>
+  </si>
+  <si>
+    <t>美国2召回礼包</t>
+  </si>
+  <si>
+    <t>美国二H5 - 调整提现限制</t>
+  </si>
+  <si>
+    <t>VIP礼包需求</t>
+  </si>
+  <si>
+    <t>巴西</t>
+  </si>
+  <si>
+    <t>评审 - 新增H5内引导用户绑定FB - 巴西</t>
+  </si>
+  <si>
+    <t>墨西哥</t>
+  </si>
+  <si>
+    <t>【评审】墨西哥视讯对接</t>
+  </si>
+  <si>
+    <t>暂停</t>
+  </si>
+  <si>
+    <t>美国2疯传优化</t>
+  </si>
+  <si>
+    <t>赵涛涛</t>
+  </si>
+  <si>
+    <t>熟悉美国三产品业务</t>
   </si>
   <si>
     <t>已完成</t>
   </si>
   <si>
-    <t>评审 - 储蓄罐暂时关闭 - 美国2</t>
-  </si>
-  <si>
-    <t>已上线</t>
-  </si>
-  <si>
-    <t>王然</t>
-  </si>
-  <si>
-    <t>评审 - 产品体验优化0819 - 美国2</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>美国3</t>
-  </si>
-  <si>
-    <t>美国3投放需求测试</t>
-  </si>
-  <si>
-    <t>美国二H5 - 7天任务转盘（周任务/清单革命）</t>
-  </si>
-  <si>
-    <t>美国2 - 新增虚拟隐私信用卡</t>
-  </si>
-  <si>
-    <t>暂停</t>
-  </si>
-  <si>
-    <t>古鹏鹏</t>
-  </si>
-  <si>
-    <t>美国二H5 - 调整提现限制</t>
-  </si>
-  <si>
-    <t>墨西哥</t>
-  </si>
-  <si>
-    <t>【评审】墨西哥视讯对接</t>
-  </si>
-  <si>
-    <t>美国2召回礼包</t>
-  </si>
-  <si>
-    <t>美国</t>
-  </si>
-  <si>
-    <t>评审 - 新增H5内引导用户绑定FB - 美国</t>
+    <t>美国三H5 - 体验优化</t>
+  </si>
+  <si>
+    <t>美国 - IOS优化测试</t>
   </si>
 </sst>
 </file>
@@ -157,7 +193,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -170,6 +206,12 @@
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -329,7 +371,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -344,6 +386,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -529,7 +577,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -566,16 +614,14 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -587,6 +633,19 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -692,70 +751,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -770,74 +826,77 @@
     <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -850,26 +909,26 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -877,14 +936,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -892,10 +960,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1219,10 +1284,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:N13"/>
+      <selection activeCell="A1" sqref="A1:N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.5" customHeight="1"/>
@@ -1270,7 +1335,7 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="21" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
@@ -1290,360 +1355,561 @@
       <c r="B2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4">
-        <v>3</v>
-      </c>
+      <c r="F2" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="5">
+        <v>5</v>
+      </c>
+      <c r="M2" s="5">
+        <v>2</v>
+      </c>
+      <c r="N2" s="5"/>
     </row>
     <row r="3" customHeight="1" spans="1:14">
       <c r="A3" s="4"/>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="14">
-        <v>45898</v>
-      </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="4">
-        <v>16</v>
-      </c>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
+      <c r="F3" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="G3" s="16"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5">
+        <v>1</v>
+      </c>
+      <c r="N3" s="5"/>
     </row>
     <row r="4" customHeight="1" spans="1:14">
       <c r="A4" s="4"/>
-      <c r="B4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="B4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="13">
+      <c r="C4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="14">
         <v>1</v>
       </c>
-      <c r="G4" s="15"/>
+      <c r="G4" s="16"/>
       <c r="H4" s="15"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4">
-        <v>1</v>
-      </c>
-      <c r="N4" s="4"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="18">
+        <v>45901.6666666667</v>
+      </c>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="N4" s="5"/>
     </row>
     <row r="5" customHeight="1" spans="1:14">
       <c r="A5" s="4"/>
-      <c r="B5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="13">
-        <v>1</v>
-      </c>
+      <c r="B5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="14"/>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4">
-        <v>2</v>
-      </c>
-      <c r="N5" s="4"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
     </row>
     <row r="6" ht="18" customHeight="1" spans="1:14">
-      <c r="A6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="14"/>
+      <c r="G6" s="15">
+        <v>45903</v>
+      </c>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15">
+        <v>45905</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="5">
         <v>16</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+    </row>
+    <row r="7" ht="18" customHeight="1" spans="1:14">
+      <c r="A7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="15">
+      <c r="F7" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="G7" s="16">
         <v>45898</v>
       </c>
-      <c r="H6" s="15"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="4">
-        <v>8</v>
-      </c>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-    </row>
-    <row r="7" customHeight="1" spans="1:14">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="13">
-        <v>1</v>
-      </c>
-      <c r="G7" s="15">
-        <v>45892</v>
-      </c>
-      <c r="H7" s="15"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="14">
-        <v>45898</v>
-      </c>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4">
-        <v>5</v>
-      </c>
-      <c r="N7" s="4"/>
+      <c r="H7" s="17">
+        <v>45899.6972222222</v>
+      </c>
+      <c r="I7" s="15">
+        <v>45903</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="15"/>
+      <c r="L7" s="5">
+        <v>12</v>
+      </c>
+      <c r="M7" s="5">
+        <v>7</v>
+      </c>
+      <c r="N7" s="5"/>
     </row>
     <row r="8" ht="18" customHeight="1" spans="1:14">
       <c r="A8" s="4"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="4">
-        <v>24</v>
-      </c>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
+      <c r="D8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="G8" s="15">
+        <v>45903</v>
+      </c>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15">
+        <v>45905</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
     </row>
     <row r="9" customHeight="1" spans="1:14">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:14">
-      <c r="A10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="10" t="s">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="16"/>
+      <c r="D10" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="14"/>
       <c r="G10" s="15"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
     </row>
     <row r="11" customHeight="1" spans="1:14">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="10" t="s">
+      <c r="A11" s="4"/>
+      <c r="B11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="14"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="5">
+        <v>24</v>
+      </c>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+    </row>
+    <row r="12" ht="17.6" customHeight="1" spans="1:14">
+      <c r="A12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="15">
-        <v>45899</v>
-      </c>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="9">
+      <c r="F12" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="G12" s="16">
+        <v>45898</v>
+      </c>
+      <c r="H12" s="18">
+        <v>45901.4652777778</v>
+      </c>
+      <c r="I12" s="15">
+        <v>45903</v>
+      </c>
+      <c r="J12" s="5"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="5">
         <v>8</v>
       </c>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-    </row>
-    <row r="12" customHeight="1" spans="1:14">
-      <c r="A12" s="7"/>
-      <c r="B12" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="18">
-        <v>45898</v>
-      </c>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="9">
-        <v>8</v>
-      </c>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
+      <c r="M12" s="5">
+        <v>6</v>
+      </c>
+      <c r="N12" s="5"/>
     </row>
     <row r="13" customHeight="1" spans="1:14">
-      <c r="A13" s="7"/>
-      <c r="B13" s="11" t="s">
+      <c r="A13" s="4"/>
+      <c r="B13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="14"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="18">
+        <v>45901.4652777778</v>
+      </c>
+      <c r="I13" s="15">
+        <v>45903</v>
+      </c>
+      <c r="J13" s="5"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="5">
+        <v>6</v>
+      </c>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+    </row>
+    <row r="14" customHeight="1" spans="1:14">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="14"/>
+      <c r="G14" s="15">
+        <v>45904</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15">
+        <v>45905</v>
+      </c>
+      <c r="J14" s="5"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+    </row>
+    <row r="15" customHeight="1" spans="1:14">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="14"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+    </row>
+    <row r="16" customHeight="1" spans="1:14">
+      <c r="A16" s="4"/>
+      <c r="B16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="14"/>
+      <c r="G16" s="16">
+        <v>45899</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="5">
+        <v>8</v>
+      </c>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+    </row>
+    <row r="17" customHeight="1" spans="1:14">
+      <c r="A17" s="4"/>
+      <c r="B17" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="16">
+      <c r="C17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="14"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+    </row>
+    <row r="18" ht="17.6" customHeight="1" spans="1:14">
+      <c r="A18" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="19">
         <v>1</v>
       </c>
-      <c r="G13" s="17">
-        <v>45896</v>
-      </c>
-      <c r="H13" s="19">
-        <v>45896.6666666667</v>
-      </c>
-      <c r="I13" s="17">
-        <v>45898</v>
-      </c>
-      <c r="J13" s="9"/>
-      <c r="K13" s="19">
-        <v>45898.6736111111</v>
-      </c>
-      <c r="L13" s="9">
-        <v>6</v>
-      </c>
-      <c r="M13" s="9">
-        <v>6</v>
-      </c>
-      <c r="N13" s="9"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4">
+        <v>7</v>
+      </c>
+      <c r="N18" s="4"/>
+    </row>
+    <row r="19" customHeight="1" spans="1:14">
+      <c r="A19" s="10"/>
+      <c r="B19" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="14"/>
+      <c r="G19" s="15">
+        <v>45904</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15">
+        <v>45905</v>
+      </c>
+      <c r="J19" s="5"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+    </row>
+    <row r="20" customHeight="1" spans="1:14">
+      <c r="A20" s="10"/>
+      <c r="B20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="14"/>
+      <c r="G20" s="15">
+        <v>45904</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15">
+        <v>45905</v>
+      </c>
+      <c r="J20" s="5"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="A18:A20"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B14:B1048576" errorStyle="information">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B21:B1048576" errorStyle="information">
       <formula1>"A,B,C,S"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C14:C1048576" errorStyle="information">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C21:C1048576" errorStyle="information">
       <formula1>"美国,美国2,墨西哥,秘鲁,巴西,智利,分包系统,客服OA,运营系统,加拿大,澳大利亚,巴西2"</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="E14:E1048576">
+    <dataValidation type="list" sqref="E21:E1048576">
       <formula1>"测试中,未提测,已上线,已完成"</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="between" allowBlank="1" sqref="G14:I1048576"/>
+    <dataValidation type="date" operator="between" allowBlank="1" sqref="G21:I1048576"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/client/文件上传模版/测试任务更新模版.xlsx
+++ b/client/文件上传模版/测试任务更新模版.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="51">
   <si>
     <t>负责人</t>
   </si>
@@ -83,42 +83,42 @@
     <t>美国一老包合并到分包</t>
   </si>
   <si>
+    <t>已完成</t>
+  </si>
+  <si>
+    <t>美国2</t>
+  </si>
+  <si>
+    <t>野牛免费次数问题修复测试</t>
+  </si>
+  <si>
+    <t>已上线</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>美国2 - 首次充值后提 $10</t>
+  </si>
+  <si>
+    <t>未提测</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>【评审】美国2游戏内引导用户发短信召回</t>
+  </si>
+  <si>
+    <t>王然</t>
+  </si>
+  <si>
+    <t>评审 - 产品体验优化0819 - 美国2</t>
+  </si>
+  <si>
     <t>测试中</t>
   </si>
   <si>
-    <t>美国2</t>
-  </si>
-  <si>
-    <t>野牛免费次数问题修复测试</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>乾坤大挪移B放开到50%，新起号段，尾号1/3/5/7/9开启</t>
-  </si>
-  <si>
-    <t>已上线</t>
-  </si>
-  <si>
-    <t>美国2 - 首次充值后提 $10</t>
-  </si>
-  <si>
-    <t>未提测</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>【评审】美国2游戏内引导用户发短信召回</t>
-  </si>
-  <si>
-    <t>王然</t>
-  </si>
-  <si>
-    <t>评审 - 产品体验优化0819 - 美国2</t>
-  </si>
-  <si>
     <t>为适配产品需求，开发修改，需要重新回归测试弹窗序列相关内容，测试时间预估增加4h</t>
   </si>
   <si>
@@ -170,16 +170,16 @@
     <t>赵涛涛</t>
   </si>
   <si>
-    <t>熟悉美国三产品业务</t>
-  </si>
-  <si>
-    <t>已完成</t>
-  </si>
-  <si>
     <t>美国三H5 - 体验优化</t>
   </si>
   <si>
     <t>美国 - IOS优化测试</t>
+  </si>
+  <si>
+    <t>美国1,美国2,美国3</t>
+  </si>
+  <si>
+    <t>评审 - 新增无需审核版信用卡支付方式 - 美国1/2/3</t>
   </si>
 </sst>
 </file>
@@ -577,7 +577,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -614,17 +614,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color rgb="FF000000"/>
@@ -633,19 +622,6 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -772,7 +748,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -784,34 +760,34 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -927,17 +903,14 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -948,19 +921,22 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1284,10 +1260,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:N20"/>
+      <selection activeCell="A1" sqref="A1:N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.5" customHeight="1"/>
@@ -1348,7 +1324,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" ht="18" customHeight="1" spans="1:14">
+    <row r="2" ht="17.6" customHeight="1" spans="1:14">
       <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
@@ -1364,19 +1340,19 @@
       <c r="E2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="14">
-        <v>0.2</v>
-      </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
+      <c r="F2" s="13">
+        <v>1</v>
+      </c>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
       <c r="J2" s="5"/>
-      <c r="K2" s="15"/>
+      <c r="K2" s="14"/>
       <c r="L2" s="5">
         <v>5</v>
       </c>
       <c r="M2" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N2" s="5"/>
     </row>
@@ -1392,16 +1368,18 @@
         <v>20</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="14">
-        <v>0.9</v>
-      </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
+        <v>21</v>
+      </c>
+      <c r="F3" s="13">
+        <v>1</v>
+      </c>
+      <c r="G3" s="15"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
       <c r="J3" s="5"/>
-      <c r="K3" s="18"/>
+      <c r="K3" s="16">
+        <v>45902.6506944444</v>
+      </c>
       <c r="L3" s="5"/>
       <c r="M3" s="5">
         <v>1</v>
@@ -1411,151 +1389,149 @@
     <row r="4" customHeight="1" spans="1:14">
       <c r="A4" s="4"/>
       <c r="B4" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="14">
-        <v>1</v>
-      </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
+        <v>24</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="18">
-        <v>45901.6666666667</v>
-      </c>
+      <c r="K4" s="14"/>
       <c r="L4" s="5"/>
-      <c r="M4" s="5">
-        <v>1.5</v>
-      </c>
+      <c r="M4" s="5"/>
       <c r="N4" s="5"/>
     </row>
     <row r="5" customHeight="1" spans="1:14">
       <c r="A5" s="4"/>
       <c r="B5" s="7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="14">
+        <v>45903</v>
+      </c>
+      <c r="H5" s="16">
+        <v>45902.6833333333</v>
+      </c>
+      <c r="I5" s="14">
+        <v>45905</v>
+      </c>
       <c r="J5" s="5"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="5"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="5">
+        <v>16</v>
+      </c>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
     </row>
     <row r="6" ht="18" customHeight="1" spans="1:14">
-      <c r="A6" s="4"/>
+      <c r="A6" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="B6" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="14"/>
+        <v>29</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0.9</v>
+      </c>
       <c r="G6" s="15">
+        <v>45898</v>
+      </c>
+      <c r="H6" s="17">
+        <v>45899.6972222222</v>
+      </c>
+      <c r="I6" s="14">
         <v>45903</v>
       </c>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15">
-        <v>45905</v>
-      </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="15"/>
+      <c r="J6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="14"/>
       <c r="L6" s="5">
-        <v>16</v>
-      </c>
-      <c r="M6" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="M6" s="5">
+        <v>5</v>
+      </c>
       <c r="N6" s="5"/>
     </row>
-    <row r="7" ht="18" customHeight="1" spans="1:14">
-      <c r="A7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>21</v>
+    <row r="7" customHeight="1" spans="1:14">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>29</v>
+        <v>16</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="14">
-        <v>0.6</v>
-      </c>
-      <c r="G7" s="16">
-        <v>45898</v>
-      </c>
-      <c r="H7" s="17">
-        <v>45899.6972222222</v>
-      </c>
-      <c r="I7" s="15">
-        <v>45903</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7" s="15"/>
-      <c r="L7" s="5">
-        <v>12</v>
-      </c>
-      <c r="M7" s="5">
-        <v>7</v>
-      </c>
-      <c r="N7" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="15">
+        <v>45901</v>
+      </c>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14">
+        <v>45905</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5">
+        <v>2</v>
+      </c>
     </row>
-    <row r="8" ht="18" customHeight="1" spans="1:14">
+    <row r="8" customHeight="1" spans="1:14">
       <c r="A8" s="4"/>
       <c r="B8" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="15">
-        <v>45903</v>
-      </c>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15">
-        <v>45905</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
       <c r="J8" s="5"/>
-      <c r="K8" s="15"/>
+      <c r="K8" s="14"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
@@ -1563,353 +1539,339 @@
     <row r="9" customHeight="1" spans="1:14">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
+        <v>24</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
       <c r="J9" s="5"/>
-      <c r="K9" s="15"/>
+      <c r="K9" s="14"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
     </row>
-    <row r="10" ht="18" customHeight="1" spans="1:14">
+    <row r="10" customHeight="1" spans="1:14">
       <c r="A10" s="4"/>
-      <c r="B10" s="5" t="s">
-        <v>21</v>
+      <c r="B10" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
+        <v>24</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
       <c r="J10" s="5"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="5"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="5">
+        <v>24</v>
+      </c>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
     </row>
-    <row r="11" customHeight="1" spans="1:14">
-      <c r="A11" s="4"/>
-      <c r="B11" s="7" t="s">
-        <v>21</v>
+    <row r="11" ht="17.6" customHeight="1" spans="1:14">
+      <c r="A11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>35</v>
+      <c r="D11" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
+        <v>29</v>
+      </c>
+      <c r="F11" s="13">
+        <v>0.9</v>
+      </c>
+      <c r="G11" s="15">
+        <v>45898</v>
+      </c>
+      <c r="H11" s="16">
+        <v>45901.4652777778</v>
+      </c>
+      <c r="I11" s="14">
+        <v>45903</v>
+      </c>
       <c r="J11" s="5"/>
-      <c r="K11" s="15"/>
+      <c r="K11" s="14"/>
       <c r="L11" s="5">
-        <v>24</v>
-      </c>
-      <c r="M11" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="M11" s="5">
+        <v>2</v>
+      </c>
       <c r="N11" s="5"/>
     </row>
-    <row r="12" ht="17.6" customHeight="1" spans="1:14">
-      <c r="A12" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>26</v>
+    <row r="12" customHeight="1" spans="1:14">
+      <c r="A12" s="4"/>
+      <c r="B12" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>37</v>
+      <c r="D12" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="14">
+        <v>29</v>
+      </c>
+      <c r="F12" s="13">
         <v>0.9</v>
       </c>
-      <c r="G12" s="16">
-        <v>45898</v>
-      </c>
-      <c r="H12" s="18">
+      <c r="G12" s="15"/>
+      <c r="H12" s="16">
         <v>45901.4652777778</v>
       </c>
-      <c r="I12" s="15">
+      <c r="I12" s="14">
         <v>45903</v>
       </c>
       <c r="J12" s="5"/>
-      <c r="K12" s="15"/>
+      <c r="K12" s="14"/>
       <c r="L12" s="5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M12" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N12" s="5"/>
     </row>
     <row r="13" customHeight="1" spans="1:14">
       <c r="A13" s="4"/>
-      <c r="B13" s="7" t="s">
-        <v>21</v>
+      <c r="B13" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>38</v>
+      <c r="D13" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="18">
-        <v>45901.4652777778</v>
-      </c>
-      <c r="I13" s="15">
-        <v>45903</v>
+        <v>24</v>
+      </c>
+      <c r="F13" s="13"/>
+      <c r="G13" s="14">
+        <v>45904</v>
+      </c>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14">
+        <v>45905</v>
       </c>
       <c r="J13" s="5"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="5">
-        <v>6</v>
-      </c>
+      <c r="K13" s="14"/>
+      <c r="L13" s="5"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
     </row>
     <row r="14" customHeight="1" spans="1:14">
       <c r="A14" s="4"/>
       <c r="B14" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="15">
-        <v>45904</v>
-      </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15">
-        <v>45905</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="F14" s="13"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="16">
+        <v>45902.8472222222</v>
+      </c>
+      <c r="I14" s="14"/>
       <c r="J14" s="5"/>
-      <c r="K14" s="15"/>
+      <c r="K14" s="14"/>
       <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
+      <c r="M14" s="5">
+        <v>1</v>
+      </c>
       <c r="N14" s="5"/>
     </row>
     <row r="15" customHeight="1" spans="1:14">
       <c r="A15" s="4"/>
-      <c r="B15" s="5" t="s">
-        <v>21</v>
+      <c r="B15" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
+        <v>44</v>
+      </c>
+      <c r="F15" s="13"/>
+      <c r="G15" s="15">
+        <v>45899</v>
+      </c>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
       <c r="J15" s="5"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="5"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="5">
+        <v>8</v>
+      </c>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
     </row>
     <row r="16" customHeight="1" spans="1:14">
       <c r="A16" s="4"/>
-      <c r="B16" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="16">
-        <v>45899</v>
-      </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="5">
-        <v>8</v>
-      </c>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
+      <c r="B16" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="18"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
     </row>
-    <row r="17" customHeight="1" spans="1:14">
-      <c r="A17" s="4"/>
-      <c r="B17" s="7" t="s">
+    <row r="17" ht="17.6" customHeight="1" spans="1:14">
+      <c r="A17" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>45</v>
+        <v>33</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
+        <v>24</v>
+      </c>
+      <c r="F17" s="13"/>
+      <c r="G17" s="14">
+        <v>45904</v>
+      </c>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14">
+        <v>45905</v>
+      </c>
       <c r="J17" s="5"/>
-      <c r="K17" s="15"/>
+      <c r="K17" s="14"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
     </row>
-    <row r="18" ht="17.6" customHeight="1" spans="1:14">
-      <c r="A18" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" s="4" t="s">
+    <row r="18" customHeight="1" spans="1:14">
+      <c r="A18" s="12"/>
+      <c r="B18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F18" s="19">
-        <v>1</v>
-      </c>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4">
-        <v>7</v>
-      </c>
-      <c r="N18" s="4"/>
+      <c r="E18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="13"/>
+      <c r="G18" s="14">
+        <v>45904</v>
+      </c>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14">
+        <v>45905</v>
+      </c>
+      <c r="J18" s="5"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5">
+        <v>3</v>
+      </c>
     </row>
     <row r="19" customHeight="1" spans="1:14">
-      <c r="A19" s="10"/>
-      <c r="B19" s="13" t="s">
-        <v>15</v>
+      <c r="A19" s="12"/>
+      <c r="B19" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="15">
+        <v>24</v>
+      </c>
+      <c r="F19" s="13"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14">
         <v>45904</v>
       </c>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15">
-        <v>45905</v>
-      </c>
       <c r="J19" s="5"/>
-      <c r="K19" s="15"/>
+      <c r="K19" s="14"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-    </row>
-    <row r="20" customHeight="1" spans="1:14">
-      <c r="A20" s="10"/>
-      <c r="B20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="15">
-        <v>45904</v>
-      </c>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15">
-        <v>45905</v>
-      </c>
-      <c r="J20" s="5"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
+      <c r="N19" s="5">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="A17:A19"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B21:B1048576" errorStyle="information">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B20:B1048576" errorStyle="information">
       <formula1>"A,B,C,S"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C21:C1048576" errorStyle="information">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C20:C1048576" errorStyle="information">
       <formula1>"美国,美国2,墨西哥,秘鲁,巴西,智利,分包系统,客服OA,运营系统,加拿大,澳大利亚,巴西2"</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="E21:E1048576">
+    <dataValidation type="list" sqref="E20:E1048576">
       <formula1>"测试中,未提测,已上线,已完成"</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="between" allowBlank="1" sqref="G21:I1048576"/>
+    <dataValidation type="date" operator="between" allowBlank="1" sqref="G20:I1048576"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/client/文件上传模版/测试任务更新模版.xlsx
+++ b/client/文件上传模版/测试任务更新模版.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="48">
   <si>
     <t>负责人</t>
   </si>
@@ -74,94 +74,85 @@
     <t>王雪斌</t>
   </si>
   <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>美国2</t>
+  </si>
+  <si>
+    <t>美国2 - 首次充值后提 $10</t>
+  </si>
+  <si>
+    <t>未提测</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>【评审】美国2游戏内引导用户发短信召回</t>
+  </si>
+  <si>
+    <t>测试中</t>
+  </si>
+  <si>
+    <t>王然</t>
+  </si>
+  <si>
+    <t>评审 - 产品体验优化0819 - 美国2</t>
+  </si>
+  <si>
+    <t>已上线</t>
+  </si>
+  <si>
+    <t>为适配产品需求，开发修改，需要重新回归测试弹窗序列相关内容，测试时间预估增加4h</t>
+  </si>
+  <si>
+    <t>美国1</t>
+  </si>
+  <si>
+    <t>【评审】9月礼包促销</t>
+  </si>
+  <si>
+    <t>【评审】美国2野牛非V数值调整</t>
+  </si>
+  <si>
+    <t>美国3</t>
+  </si>
+  <si>
+    <t>美国3非V双钻数值调整</t>
+  </si>
+  <si>
+    <t>美国二H5 - 7天任务转盘（周任务/清单革命）</t>
+  </si>
+  <si>
+    <t>古鹏鹏</t>
+  </si>
+  <si>
+    <t>美国2召回礼包</t>
+  </si>
+  <si>
+    <t>美国二H5 - 调整提现限制</t>
+  </si>
+  <si>
+    <t>VIP礼包需求</t>
+  </si>
+  <si>
+    <t>巴西</t>
+  </si>
+  <si>
+    <t>评审 - 新增H5内引导用户绑定FB - 巴西</t>
+  </si>
+  <si>
+    <t>墨西哥</t>
+  </si>
+  <si>
+    <t>【评审】墨西哥视讯对接</t>
+  </si>
+  <si>
+    <t>暂停</t>
+  </si>
+  <si>
     <t>A</t>
-  </si>
-  <si>
-    <t>美国1</t>
-  </si>
-  <si>
-    <t>美国一老包合并到分包</t>
-  </si>
-  <si>
-    <t>已完成</t>
-  </si>
-  <si>
-    <t>美国2</t>
-  </si>
-  <si>
-    <t>野牛免费次数问题修复测试</t>
-  </si>
-  <si>
-    <t>已上线</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>美国2 - 首次充值后提 $10</t>
-  </si>
-  <si>
-    <t>未提测</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>【评审】美国2游戏内引导用户发短信召回</t>
-  </si>
-  <si>
-    <t>王然</t>
-  </si>
-  <si>
-    <t>评审 - 产品体验优化0819 - 美国2</t>
-  </si>
-  <si>
-    <t>测试中</t>
-  </si>
-  <si>
-    <t>为适配产品需求，开发修改，需要重新回归测试弹窗序列相关内容，测试时间预估增加4h</t>
-  </si>
-  <si>
-    <t>【评审】9月礼包促销</t>
-  </si>
-  <si>
-    <t>【评审】美国2野牛非V数值调整</t>
-  </si>
-  <si>
-    <t>美国3</t>
-  </si>
-  <si>
-    <t>美国3非V双钻数值调整</t>
-  </si>
-  <si>
-    <t>美国二H5 - 7天任务转盘（周任务/清单革命）</t>
-  </si>
-  <si>
-    <t>古鹏鹏</t>
-  </si>
-  <si>
-    <t>美国2召回礼包</t>
-  </si>
-  <si>
-    <t>美国二H5 - 调整提现限制</t>
-  </si>
-  <si>
-    <t>VIP礼包需求</t>
-  </si>
-  <si>
-    <t>巴西</t>
-  </si>
-  <si>
-    <t>评审 - 新增H5内引导用户绑定FB - 巴西</t>
-  </si>
-  <si>
-    <t>墨西哥</t>
-  </si>
-  <si>
-    <t>【评审】墨西哥视讯对接</t>
-  </si>
-  <si>
-    <t>暂停</t>
   </si>
   <si>
     <t>美国2疯传优化</t>
@@ -577,7 +568,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -595,6 +586,17 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -748,7 +750,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -760,34 +762,34 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -872,7 +874,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -885,23 +887,26 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -909,22 +914,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -936,7 +941,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1260,10 +1265,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:N19"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.5" customHeight="1"/>
@@ -1311,7 +1316,7 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="22" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
@@ -1324,554 +1329,522 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" ht="17.6" customHeight="1" spans="1:14">
+    <row r="2" ht="18" customHeight="1" spans="1:14">
       <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="13">
-        <v>1</v>
-      </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="5">
-        <v>5</v>
-      </c>
-      <c r="M2" s="5">
-        <v>5</v>
-      </c>
-      <c r="N2" s="5"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
     </row>
     <row r="3" customHeight="1" spans="1:14">
       <c r="A3" s="4"/>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="G3" s="15">
+        <v>45903</v>
+      </c>
+      <c r="H3" s="16">
+        <v>45902.6833333333</v>
+      </c>
+      <c r="I3" s="15">
+        <v>45905</v>
+      </c>
+      <c r="J3" s="6"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="6">
+        <v>16</v>
+      </c>
+      <c r="M3" s="6">
+        <v>6</v>
+      </c>
+      <c r="N3" s="6"/>
+    </row>
+    <row r="4" ht="18" customHeight="1" spans="1:14">
+      <c r="A4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="13">
-        <v>1</v>
-      </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="16">
-        <v>45902.6506944444</v>
-      </c>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5">
-        <v>1</v>
-      </c>
-      <c r="N3" s="5"/>
-    </row>
-    <row r="4" customHeight="1" spans="1:14">
-      <c r="A4" s="4"/>
-      <c r="B4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="8" t="s">
+      <c r="C4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
+      <c r="F4" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="G4" s="17">
+        <v>45898</v>
+      </c>
+      <c r="H4" s="18">
+        <v>45899.6972222222</v>
+      </c>
+      <c r="I4" s="15">
+        <v>45903</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="15"/>
+      <c r="L4" s="6">
+        <v>12</v>
+      </c>
+      <c r="M4" s="6">
+        <v>4</v>
+      </c>
+      <c r="N4" s="6"/>
     </row>
     <row r="5" customHeight="1" spans="1:14">
-      <c r="A5" s="4"/>
-      <c r="B5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="A5" s="8"/>
+      <c r="B5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="14">
-        <v>45903</v>
+      <c r="D5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="G5" s="17">
+        <v>45901</v>
       </c>
       <c r="H5" s="16">
-        <v>45902.6833333333</v>
-      </c>
-      <c r="I5" s="14">
+        <v>45902.88125</v>
+      </c>
+      <c r="I5" s="15">
         <v>45905</v>
       </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="5">
+      <c r="J5" s="6"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6">
+        <v>3</v>
+      </c>
+      <c r="N5" s="6"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:14">
+      <c r="A6" s="8"/>
+      <c r="B6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-    </row>
-    <row r="6" ht="18" customHeight="1" spans="1:14">
-      <c r="A6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="13">
-        <v>0.9</v>
-      </c>
-      <c r="G6" s="15">
-        <v>45898</v>
+      <c r="E6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="14"/>
+      <c r="G6" s="17">
+        <v>45894</v>
       </c>
       <c r="H6" s="17">
-        <v>45899.6972222222</v>
-      </c>
-      <c r="I6" s="14">
-        <v>45903</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" s="14"/>
-      <c r="L6" s="5">
-        <v>12</v>
-      </c>
-      <c r="M6" s="5">
-        <v>5</v>
-      </c>
-      <c r="N6" s="5"/>
+        <v>45895</v>
+      </c>
+      <c r="I6" s="15"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
     </row>
     <row r="7" customHeight="1" spans="1:14">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>16</v>
+      <c r="A7" s="8"/>
+      <c r="B7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="15">
-        <v>45901</v>
-      </c>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14">
-        <v>45905</v>
-      </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5">
-        <v>2</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
     </row>
     <row r="8" customHeight="1" spans="1:14">
-      <c r="A8" s="4"/>
+      <c r="A8" s="8"/>
       <c r="B8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="6">
+        <v>24</v>
+      </c>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+    </row>
+    <row r="9" ht="17.6" customHeight="1" spans="1:14">
+      <c r="A9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="5" t="s">
+      <c r="C9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-    </row>
-    <row r="9" customHeight="1" spans="1:14">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
+      <c r="F9" s="14">
+        <v>1</v>
+      </c>
+      <c r="G9" s="17">
+        <v>45898</v>
+      </c>
+      <c r="H9" s="16">
+        <v>45901.4652777778</v>
+      </c>
+      <c r="I9" s="15">
+        <v>45903</v>
+      </c>
+      <c r="J9" s="6"/>
+      <c r="K9" s="16">
+        <v>45903.7083333333</v>
+      </c>
+      <c r="L9" s="6">
+        <v>8</v>
+      </c>
+      <c r="M9" s="6">
+        <v>4</v>
+      </c>
+      <c r="N9" s="6"/>
     </row>
     <row r="10" customHeight="1" spans="1:14">
-      <c r="A10" s="4"/>
-      <c r="B10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="5" t="s">
+      <c r="A10" s="8"/>
+      <c r="B10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="14">
+        <v>1</v>
+      </c>
+      <c r="G10" s="17"/>
+      <c r="H10" s="16">
+        <v>45901.4652777778</v>
+      </c>
+      <c r="I10" s="15">
+        <v>45903</v>
+      </c>
+      <c r="J10" s="6"/>
+      <c r="K10" s="16">
+        <v>45903.7083333333</v>
+      </c>
+      <c r="L10" s="6">
+        <v>6</v>
+      </c>
+      <c r="M10" s="6">
+        <v>2</v>
+      </c>
+      <c r="N10" s="6"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:14">
+      <c r="A11" s="8"/>
+      <c r="B11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="C11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="5">
-        <v>24</v>
-      </c>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-    </row>
-    <row r="11" ht="17.6" customHeight="1" spans="1:14">
-      <c r="A11" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="13">
-        <v>0.9</v>
-      </c>
+      <c r="E11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="14"/>
       <c r="G11" s="15">
-        <v>45898</v>
-      </c>
-      <c r="H11" s="16">
-        <v>45901.4652777778</v>
-      </c>
-      <c r="I11" s="14">
-        <v>45903</v>
-      </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="5">
-        <v>8</v>
-      </c>
-      <c r="M11" s="5">
-        <v>2</v>
-      </c>
-      <c r="N11" s="5"/>
+        <v>45904</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15">
+        <v>45905</v>
+      </c>
+      <c r="J11" s="6"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
     </row>
     <row r="12" customHeight="1" spans="1:14">
-      <c r="A12" s="4"/>
-      <c r="B12" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="13">
-        <v>0.9</v>
+      <c r="A12" s="8"/>
+      <c r="B12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="14">
+        <v>0.4</v>
       </c>
       <c r="G12" s="15"/>
       <c r="H12" s="16">
-        <v>45901.4652777778</v>
-      </c>
-      <c r="I12" s="14">
-        <v>45903</v>
-      </c>
-      <c r="J12" s="5"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="5">
-        <v>6</v>
-      </c>
-      <c r="M12" s="5">
-        <v>4</v>
-      </c>
-      <c r="N12" s="5"/>
+        <v>45902.8472222222</v>
+      </c>
+      <c r="I12" s="15"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="N12" s="6"/>
     </row>
     <row r="13" customHeight="1" spans="1:14">
-      <c r="A13" s="4"/>
+      <c r="A13" s="8"/>
       <c r="B13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="14">
-        <v>45904</v>
-      </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14">
-        <v>45905</v>
-      </c>
-      <c r="J13" s="5"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
+      <c r="E13" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="14"/>
+      <c r="G13" s="17">
+        <v>45899</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="6">
+        <v>8</v>
+      </c>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
     </row>
     <row r="14" customHeight="1" spans="1:14">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="9" t="s">
+      <c r="A14" s="8"/>
+      <c r="B14" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="C14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="19"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+    </row>
+    <row r="15" ht="17.6" customHeight="1" spans="1:14">
+      <c r="A15" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="16">
-        <v>45902.8472222222</v>
-      </c>
-      <c r="I14" s="14"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5">
-        <v>1</v>
-      </c>
-      <c r="N14" s="5"/>
-    </row>
-    <row r="15" customHeight="1" spans="1:14">
-      <c r="A15" s="4"/>
-      <c r="B15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="5" t="s">
+      <c r="D15" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="13"/>
+      <c r="E15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="14"/>
       <c r="G15" s="15">
-        <v>45899</v>
-      </c>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="5">
-        <v>8</v>
-      </c>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
+        <v>45904</v>
+      </c>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15">
+        <v>45905</v>
+      </c>
+      <c r="J15" s="6"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" customHeight="1" spans="1:14">
-      <c r="A16" s="4"/>
-      <c r="B16" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="4" t="s">
+      <c r="A16" s="13"/>
+      <c r="B16" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="G16" s="15">
+        <v>45904</v>
+      </c>
+      <c r="H16" s="16">
+        <v>45903.6381944444</v>
+      </c>
+      <c r="I16" s="15">
+        <v>45905</v>
+      </c>
+      <c r="J16" s="6"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6">
+        <v>3</v>
+      </c>
+      <c r="N16" s="6"/>
+    </row>
+    <row r="17" customHeight="1" spans="1:14">
+      <c r="A17" s="13"/>
+      <c r="B17" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-    </row>
-    <row r="17" ht="17.6" customHeight="1" spans="1:14">
-      <c r="A17" s="12" t="s">
+      <c r="C17" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="14">
+      <c r="E17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="G17" s="15"/>
+      <c r="H17" s="16">
+        <v>45903.6381944444</v>
+      </c>
+      <c r="I17" s="15">
         <v>45904</v>
       </c>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14">
-        <v>45905</v>
-      </c>
-      <c r="J17" s="5"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-    </row>
-    <row r="18" customHeight="1" spans="1:14">
-      <c r="A18" s="12"/>
-      <c r="B18" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="14">
-        <v>45904</v>
-      </c>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14">
-        <v>45905</v>
-      </c>
-      <c r="J18" s="5"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" customHeight="1" spans="1:14">
-      <c r="A19" s="12"/>
-      <c r="B19" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="13"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14">
-        <v>45904</v>
-      </c>
-      <c r="J19" s="5"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5">
-        <v>2</v>
-      </c>
+      <c r="J17" s="6"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6">
+        <v>1</v>
+      </c>
+      <c r="N17" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="A15:A17"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B20:B1048576" errorStyle="information">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B18:B1048576" errorStyle="information">
       <formula1>"A,B,C,S"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C20:C1048576" errorStyle="information">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C18:C1048576" errorStyle="information">
       <formula1>"美国,美国2,墨西哥,秘鲁,巴西,智利,分包系统,客服OA,运营系统,加拿大,澳大利亚,巴西2"</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="E20:E1048576">
+    <dataValidation type="list" sqref="E18:E1048576">
       <formula1>"测试中,未提测,已上线,已完成"</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="between" allowBlank="1" sqref="G20:I1048576"/>
+    <dataValidation type="date" operator="between" allowBlank="1" sqref="G18:I1048576"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/client/文件上传模版/测试任务更新模版.xlsx
+++ b/client/文件上传模版/测试任务更新模版.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="22260"/>
+    <workbookView windowHeight="23960"/>
   </bookViews>
   <sheets>
     <sheet name="模版" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="43">
   <si>
     <t>负责人</t>
   </si>
@@ -98,15 +98,6 @@
     <t>王然</t>
   </si>
   <si>
-    <t>评审 - 产品体验优化0819 - 美国2</t>
-  </si>
-  <si>
-    <t>已上线</t>
-  </si>
-  <si>
-    <t>为适配产品需求，开发修改，需要重新回归测试弹窗序列相关内容，测试时间预估增加4h</t>
-  </si>
-  <si>
     <t>美国1</t>
   </si>
   <si>
@@ -126,12 +117,6 @@
   </si>
   <si>
     <t>古鹏鹏</t>
-  </si>
-  <si>
-    <t>美国2召回礼包</t>
-  </si>
-  <si>
-    <t>美国二H5 - 调整提现限制</t>
   </si>
   <si>
     <t>VIP礼包需求</t>
@@ -568,7 +553,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -586,44 +571,9 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -750,7 +700,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -762,34 +712,34 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -874,7 +824,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -887,62 +837,35 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1265,10 +1188,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="A1" sqref="A1:N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.5" customHeight="1"/>
@@ -1276,13 +1199,13 @@
     <col min="3" max="3" width="15.625" customWidth="1"/>
     <col min="4" max="4" width="50.875" customWidth="1"/>
     <col min="5" max="6" width="10" style="1"/>
-    <col min="7" max="7" width="18.2666666666667" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.6" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.025" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.2638888888889" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5972222222222" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.0277777777778" style="1" customWidth="1"/>
     <col min="11" max="11" width="20" customWidth="1"/>
-    <col min="12" max="12" width="24.2666666666667" customWidth="1"/>
-    <col min="13" max="13" width="22.9333333333333" customWidth="1"/>
-    <col min="14" max="14" width="14.8666666666667" customWidth="1"/>
+    <col min="12" max="12" width="24.2638888888889" customWidth="1"/>
+    <col min="13" max="13" width="22.9305555555556" customWidth="1"/>
+    <col min="14" max="14" width="14.8680555555556" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:14">
@@ -1316,7 +1239,7 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
@@ -1345,12 +1268,14 @@
       <c r="E2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="11">
+        <v>45905</v>
+      </c>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
       <c r="J2" s="6"/>
-      <c r="K2" s="15"/>
+      <c r="K2" s="11"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
@@ -1369,482 +1294,380 @@
       <c r="E3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="14">
-        <v>0.6</v>
-      </c>
-      <c r="G3" s="15">
+      <c r="F3" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="G3" s="11">
         <v>45903</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="12">
         <v>45902.6833333333</v>
       </c>
-      <c r="I3" s="15">
+      <c r="I3" s="11">
         <v>45905</v>
       </c>
       <c r="J3" s="6"/>
-      <c r="K3" s="15"/>
+      <c r="K3" s="11"/>
       <c r="L3" s="6">
         <v>16</v>
       </c>
       <c r="M3" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N3" s="6"/>
     </row>
     <row r="4" ht="18" customHeight="1" spans="1:14">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>15</v>
+      <c r="B4" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="7" t="s">
         <v>23</v>
       </c>
+      <c r="D4" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="E4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="14">
+        <v>21</v>
+      </c>
+      <c r="F4" s="10">
         <v>0.9</v>
       </c>
-      <c r="G4" s="17">
-        <v>45898</v>
-      </c>
-      <c r="H4" s="18">
-        <v>45899.6972222222</v>
-      </c>
-      <c r="I4" s="15">
-        <v>45903</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" s="15"/>
-      <c r="L4" s="6">
-        <v>12</v>
-      </c>
+      <c r="G4" s="13">
+        <v>45901</v>
+      </c>
+      <c r="H4" s="12">
+        <v>45902.88125</v>
+      </c>
+      <c r="I4" s="11">
+        <v>45905</v>
+      </c>
+      <c r="J4" s="6"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="6"/>
       <c r="M4" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N4" s="6"/>
     </row>
     <row r="5" customHeight="1" spans="1:14">
-      <c r="A5" s="8"/>
+      <c r="A5" s="4"/>
       <c r="B5" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>27</v>
+        <v>16</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="14">
-        <v>0.4</v>
-      </c>
-      <c r="G5" s="17">
-        <v>45901</v>
-      </c>
-      <c r="H5" s="16">
-        <v>45902.88125</v>
-      </c>
-      <c r="I5" s="15">
-        <v>45905</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="13">
+        <v>45894</v>
+      </c>
+      <c r="H5" s="13">
+        <v>45895</v>
+      </c>
+      <c r="I5" s="11"/>
       <c r="J5" s="6"/>
-      <c r="K5" s="15"/>
+      <c r="K5" s="11"/>
       <c r="L5" s="6"/>
-      <c r="M5" s="6">
-        <v>3</v>
-      </c>
+      <c r="M5" s="6"/>
       <c r="N5" s="6"/>
     </row>
     <row r="6" customHeight="1" spans="1:14">
-      <c r="A6" s="8"/>
+      <c r="A6" s="4"/>
       <c r="B6" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="17">
-        <v>45894</v>
-      </c>
-      <c r="H6" s="17">
-        <v>45895</v>
-      </c>
-      <c r="I6" s="15"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
       <c r="J6" s="6"/>
-      <c r="K6" s="15"/>
+      <c r="K6" s="11"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
     </row>
     <row r="7" customHeight="1" spans="1:14">
-      <c r="A7" s="8"/>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>30</v>
+        <v>16</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
       <c r="J7" s="6"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="6"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="6">
+        <v>24</v>
+      </c>
       <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
+      <c r="N7" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="8" customHeight="1" spans="1:14">
-      <c r="A8" s="8"/>
-      <c r="B8" s="5" t="s">
-        <v>15</v>
+    <row r="8" ht="17.6" customHeight="1" spans="1:14">
+      <c r="A8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>31</v>
+      <c r="D8" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
+        <v>21</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="G8" s="11">
+        <v>45904</v>
+      </c>
+      <c r="H8" s="12">
+        <v>45904.4791666667</v>
+      </c>
+      <c r="I8" s="11">
+        <v>45905</v>
+      </c>
       <c r="J8" s="6"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="6">
-        <v>24</v>
-      </c>
-      <c r="M8" s="6"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6">
+        <v>5</v>
+      </c>
       <c r="N8" s="6"/>
     </row>
-    <row r="9" ht="17.6" customHeight="1" spans="1:14">
-      <c r="A9" s="8" t="s">
+    <row r="9" customHeight="1" spans="1:14">
+      <c r="A9" s="4"/>
+      <c r="B9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>33</v>
-      </c>
       <c r="E9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="14">
-        <v>1</v>
-      </c>
-      <c r="G9" s="17">
-        <v>45898</v>
-      </c>
-      <c r="H9" s="16">
-        <v>45901.4652777778</v>
-      </c>
-      <c r="I9" s="15">
-        <v>45903</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="G9" s="11"/>
+      <c r="H9" s="12">
+        <v>45902.8472222222</v>
+      </c>
+      <c r="I9" s="11"/>
       <c r="J9" s="6"/>
-      <c r="K9" s="16">
-        <v>45903.7083333333</v>
-      </c>
-      <c r="L9" s="6">
-        <v>8</v>
-      </c>
+      <c r="K9" s="11"/>
+      <c r="L9" s="6"/>
       <c r="M9" s="6">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="N9" s="6"/>
     </row>
     <row r="10" customHeight="1" spans="1:14">
-      <c r="A10" s="8"/>
+      <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>34</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="14">
-        <v>1</v>
-      </c>
-      <c r="G10" s="17"/>
-      <c r="H10" s="16">
-        <v>45901.4652777778</v>
-      </c>
-      <c r="I10" s="15">
-        <v>45903</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="13">
+        <v>45899</v>
+      </c>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
       <c r="J10" s="6"/>
-      <c r="K10" s="16">
-        <v>45903.7083333333</v>
-      </c>
+      <c r="K10" s="11"/>
       <c r="L10" s="6">
-        <v>6</v>
-      </c>
-      <c r="M10" s="6">
-        <v>2</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="M10" s="6"/>
       <c r="N10" s="6"/>
     </row>
     <row r="11" customHeight="1" spans="1:14">
-      <c r="A11" s="8"/>
-      <c r="B11" s="6" t="s">
-        <v>19</v>
+      <c r="A11" s="4"/>
+      <c r="B11" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>35</v>
+      <c r="D11" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="15">
-        <v>45904</v>
-      </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15">
-        <v>45905</v>
-      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
       <c r="J11" s="6"/>
-      <c r="K11" s="15"/>
+      <c r="K11" s="11"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
     </row>
-    <row r="12" customHeight="1" spans="1:14">
-      <c r="A12" s="8"/>
+    <row r="12" ht="17.6" customHeight="1" spans="1:14">
+      <c r="A12" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="B12" s="6" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="14">
-        <v>0.4</v>
-      </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="16">
-        <v>45902.8472222222</v>
-      </c>
-      <c r="I12" s="15"/>
+      <c r="F12" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="G12" s="11">
+        <v>45904</v>
+      </c>
+      <c r="H12" s="12">
+        <v>45904.6506944444</v>
+      </c>
+      <c r="I12" s="11">
+        <v>45905</v>
+      </c>
       <c r="J12" s="6"/>
-      <c r="K12" s="15"/>
+      <c r="K12" s="11"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="N12" s="6"/>
     </row>
     <row r="13" customHeight="1" spans="1:14">
-      <c r="A13" s="8"/>
-      <c r="B13" s="5" t="s">
-        <v>15</v>
+      <c r="A13" s="4"/>
+      <c r="B13" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>39</v>
+        <v>23</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="17">
-        <v>45899</v>
-      </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
+        <v>21</v>
+      </c>
+      <c r="F13" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="G13" s="11">
+        <v>45904</v>
+      </c>
+      <c r="H13" s="12">
+        <v>45903.6381944444</v>
+      </c>
+      <c r="I13" s="11">
+        <v>45905</v>
+      </c>
       <c r="J13" s="6"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="6">
-        <v>8</v>
-      </c>
+      <c r="K13" s="11"/>
+      <c r="L13" s="6"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
     </row>
     <row r="14" customHeight="1" spans="1:14">
-      <c r="A14" s="8"/>
-      <c r="B14" s="11" t="s">
+      <c r="A14" s="4"/>
+      <c r="B14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-    </row>
-    <row r="15" ht="17.6" customHeight="1" spans="1:14">
-      <c r="A15" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="15">
+      <c r="E14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="G14" s="11"/>
+      <c r="H14" s="12">
+        <v>45903.6381944444</v>
+      </c>
+      <c r="I14" s="11">
         <v>45904</v>
       </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15">
-        <v>45905</v>
-      </c>
-      <c r="J15" s="6"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" customHeight="1" spans="1:14">
-      <c r="A16" s="13"/>
-      <c r="B16" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="14">
-        <v>0.9</v>
-      </c>
-      <c r="G16" s="15">
-        <v>45904</v>
-      </c>
-      <c r="H16" s="16">
-        <v>45903.6381944444</v>
-      </c>
-      <c r="I16" s="15">
-        <v>45905</v>
-      </c>
-      <c r="J16" s="6"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6">
-        <v>3</v>
-      </c>
-      <c r="N16" s="6"/>
-    </row>
-    <row r="17" customHeight="1" spans="1:14">
-      <c r="A17" s="13"/>
-      <c r="B17" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="14">
-        <v>0.9</v>
-      </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="16">
-        <v>45903.6381944444</v>
-      </c>
-      <c r="I17" s="15">
-        <v>45904</v>
-      </c>
-      <c r="J17" s="6"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6">
-        <v>1</v>
-      </c>
-      <c r="N17" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6">
+        <v>2</v>
+      </c>
+      <c r="N14" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A14"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B18:B1048576" errorStyle="information">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B15:B1048576" errorStyle="information">
       <formula1>"A,B,C,S"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C18:C1048576" errorStyle="information">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C15:C1048576" errorStyle="information">
       <formula1>"美国,美国2,墨西哥,秘鲁,巴西,智利,分包系统,客服OA,运营系统,加拿大,澳大利亚,巴西2"</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="E18:E1048576">
+    <dataValidation type="list" sqref="E15:E1048576">
       <formula1>"测试中,未提测,已上线,已完成"</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="between" allowBlank="1" sqref="G18:I1048576"/>
+    <dataValidation type="date" operator="between" allowBlank="1" sqref="G15:I1048576"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/client/文件上传模版/测试任务更新模版.xlsx
+++ b/client/文件上传模版/测试任务更新模版.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="23960"/>
+    <workbookView windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="模版" sheetId="1" r:id="rId1"/>
@@ -92,7 +92,7 @@
     <t>【评审】美国2游戏内引导用户发短信召回</t>
   </si>
   <si>
-    <t>测试中</t>
+    <t>已上线</t>
   </si>
   <si>
     <t>王然</t>
@@ -1295,7 +1295,7 @@
         <v>21</v>
       </c>
       <c r="F3" s="10">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G3" s="11">
         <v>45903</v>
@@ -1307,7 +1307,9 @@
         <v>45905</v>
       </c>
       <c r="J3" s="6"/>
-      <c r="K3" s="11"/>
+      <c r="K3" s="11">
+        <v>45905</v>
+      </c>
       <c r="L3" s="6">
         <v>16</v>
       </c>
@@ -1333,7 +1335,7 @@
         <v>21</v>
       </c>
       <c r="F4" s="10">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G4" s="13">
         <v>45901</v>
@@ -1345,7 +1347,9 @@
         <v>45905</v>
       </c>
       <c r="J4" s="6"/>
-      <c r="K4" s="11"/>
+      <c r="K4" s="11">
+        <v>45905</v>
+      </c>
       <c r="L4" s="6"/>
       <c r="M4" s="6">
         <v>5</v>
@@ -1429,7 +1433,7 @@
       </c>
       <c r="M7" s="6"/>
       <c r="N7" s="6">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="8" ht="17.6" customHeight="1" spans="1:14">
@@ -1449,7 +1453,7 @@
         <v>21</v>
       </c>
       <c r="F8" s="10">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G8" s="11">
         <v>45904</v>
@@ -1457,14 +1461,16 @@
       <c r="H8" s="12">
         <v>45904.4791666667</v>
       </c>
-      <c r="I8" s="11">
-        <v>45905</v>
+      <c r="I8" s="12">
+        <v>45905.7430555556</v>
       </c>
       <c r="J8" s="6"/>
-      <c r="K8" s="11"/>
+      <c r="K8" s="12">
+        <v>45905.7430555556</v>
+      </c>
       <c r="L8" s="6"/>
       <c r="M8" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N8" s="6"/>
     </row>
@@ -1483,18 +1489,22 @@
         <v>21</v>
       </c>
       <c r="F9" s="10">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="12">
         <v>45902.8472222222</v>
       </c>
-      <c r="I9" s="11"/>
+      <c r="I9" s="12">
+        <v>45905.7451388889</v>
+      </c>
       <c r="J9" s="6"/>
-      <c r="K9" s="11"/>
+      <c r="K9" s="12">
+        <v>45905.7430555556</v>
+      </c>
       <c r="L9" s="6"/>
       <c r="M9" s="6">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="N9" s="6"/>
     </row>
@@ -1567,7 +1577,7 @@
         <v>21</v>
       </c>
       <c r="F12" s="10">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G12" s="11">
         <v>45904</v>
@@ -1579,11 +1589,13 @@
         <v>45905</v>
       </c>
       <c r="J12" s="6"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6">
-        <v>5</v>
-      </c>
+      <c r="K12" s="12">
+        <v>45905.7083333333</v>
+      </c>
+      <c r="L12" s="6">
+        <v>4</v>
+      </c>
+      <c r="M12" s="6"/>
       <c r="N12" s="6"/>
     </row>
     <row r="13" customHeight="1" spans="1:14">
@@ -1601,7 +1613,7 @@
         <v>21</v>
       </c>
       <c r="F13" s="10">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G13" s="11">
         <v>45904</v>
@@ -1613,8 +1625,12 @@
         <v>45905</v>
       </c>
       <c r="J13" s="6"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="6"/>
+      <c r="K13" s="12">
+        <v>45905.7395833333</v>
+      </c>
+      <c r="L13" s="6">
+        <v>5</v>
+      </c>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
     </row>
@@ -1633,7 +1649,7 @@
         <v>21</v>
       </c>
       <c r="F14" s="10">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G14" s="11"/>
       <c r="H14" s="12">
@@ -1643,11 +1659,13 @@
         <v>45904</v>
       </c>
       <c r="J14" s="6"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6">
-        <v>2</v>
-      </c>
+      <c r="K14" s="12">
+        <v>45905.7493055556</v>
+      </c>
+      <c r="L14" s="6">
+        <v>6</v>
+      </c>
+      <c r="M14" s="6"/>
       <c r="N14" s="6"/>
     </row>
   </sheetData>

--- a/client/文件上传模版/测试任务更新模版.xlsx
+++ b/client/文件上传模版/测试任务更新模版.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15540"/>
+    <workbookView windowHeight="22260"/>
   </bookViews>
   <sheets>
     <sheet name="模版" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="54">
   <si>
     <t>负责人</t>
   </si>
@@ -83,79 +83,124 @@
     <t>美国2 - 首次充值后提 $10</t>
   </si>
   <si>
+    <t>测试中</t>
+  </si>
+  <si>
+    <t>美国2调整19.99礼包深挖税收并放开至50%用户</t>
+  </si>
+  <si>
+    <t>王然</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>美国3</t>
+  </si>
+  <si>
+    <t>美国三H5 - 六个功能移植开放</t>
+  </si>
+  <si>
+    <t>两个需求测试完成</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <r>
+      <t>美国三H5 - 服务端数值配置后台</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
     <t>未提测</t>
   </si>
   <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>【评审】美国2游戏内引导用户发短信召回</t>
+    <t>【评审】美国2野牛非V数值调整</t>
+  </si>
+  <si>
+    <t>美国3非V双钻数值调整</t>
+  </si>
+  <si>
+    <t>美国二H5 - 7天任务转盘（周任务/清单革命）</t>
+  </si>
+  <si>
+    <t>暂停</t>
+  </si>
+  <si>
+    <t>古鹏鹏</t>
+  </si>
+  <si>
+    <t>澳大利亚</t>
+  </si>
+  <si>
+    <t>澳大利亚H5 - USDT换汇支付方式接入</t>
+  </si>
+  <si>
+    <t>美国1</t>
+  </si>
+  <si>
+    <t>美国一H5 - 天使用户招募和调研公告</t>
+  </si>
+  <si>
+    <t>美国一H5 - iOS召回手机号登录落地页测试</t>
+  </si>
+  <si>
+    <t>秘鲁</t>
+  </si>
+  <si>
+    <t>新增H5用户绑定fb</t>
+  </si>
+  <si>
+    <t>墨西哥</t>
+  </si>
+  <si>
+    <t>【评审】墨西哥视讯对接</t>
+  </si>
+  <si>
+    <t>美国2疯传优化</t>
+  </si>
+  <si>
+    <t>美国一-iOS强诱导流程测试</t>
+  </si>
+  <si>
+    <t>已完成</t>
+  </si>
+  <si>
+    <t>美国1,美国2,美国3,墨西哥,巴西</t>
+  </si>
+  <si>
+    <t>pg游戏【快钱来了】更新测试</t>
   </si>
   <si>
     <t>已上线</t>
   </si>
   <si>
-    <t>王然</t>
-  </si>
-  <si>
-    <t>美国1</t>
-  </si>
-  <si>
-    <t>【评审】9月礼包促销</t>
-  </si>
-  <si>
-    <t>【评审】美国2野牛非V数值调整</t>
-  </si>
-  <si>
-    <t>美国3</t>
-  </si>
-  <si>
-    <t>美国3非V双钻数值调整</t>
-  </si>
-  <si>
-    <t>美国二H5 - 7天任务转盘（周任务/清单革命）</t>
-  </si>
-  <si>
-    <t>古鹏鹏</t>
-  </si>
-  <si>
-    <t>VIP礼包需求</t>
-  </si>
-  <si>
-    <t>巴西</t>
-  </si>
-  <si>
-    <t>评审 - 新增H5内引导用户绑定FB - 巴西</t>
-  </si>
-  <si>
-    <t>墨西哥</t>
-  </si>
-  <si>
-    <t>【评审】墨西哥视讯对接</t>
-  </si>
-  <si>
-    <t>暂停</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>美国2疯传优化</t>
-  </si>
-  <si>
     <t>赵涛涛</t>
   </si>
   <si>
-    <t>美国三H5 - 体验优化</t>
-  </si>
-  <si>
-    <t>美国 - IOS优化测试</t>
-  </si>
-  <si>
-    <t>美国1,美国2,美国3</t>
-  </si>
-  <si>
-    <t>评审 - 新增无需审核版信用卡支付方式 - 美国1/2/3</t>
+    <t>美国1 - 日常任务活动</t>
+  </si>
+  <si>
+    <t>评审 - 新增USDT(BEP)支付&amp;提款 - 美国2</t>
+  </si>
+  <si>
+    <t>美国2 - 调整代理任务成就为梯度</t>
+  </si>
+  <si>
+    <t>积胜</t>
+  </si>
+  <si>
+    <t>AI古兰 - Salah Mate功能交互细节补充</t>
   </si>
 </sst>
 </file>
@@ -184,12 +229,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="default"/>
@@ -346,8 +385,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -362,12 +407,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -553,7 +592,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -565,6 +604,32 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -679,67 +744,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -754,77 +822,74 @@
     <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -834,37 +899,43 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1188,10 +1259,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:N14"/>
+      <selection activeCell="A1" sqref="A1:O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.5" customHeight="1"/>
@@ -1199,493 +1270,786 @@
     <col min="3" max="3" width="15.625" customWidth="1"/>
     <col min="4" max="4" width="50.875" customWidth="1"/>
     <col min="5" max="6" width="10" style="1"/>
-    <col min="7" max="7" width="18.2638888888889" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5972222222222" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.0277777777778" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.2666666666667" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.025" style="1" customWidth="1"/>
     <col min="11" max="11" width="20" customWidth="1"/>
-    <col min="12" max="12" width="24.2638888888889" customWidth="1"/>
-    <col min="13" max="13" width="22.9305555555556" customWidth="1"/>
-    <col min="14" max="14" width="14.8680555555556" customWidth="1"/>
+    <col min="12" max="12" width="24.2666666666667" customWidth="1"/>
+    <col min="13" max="13" width="22.9333333333333" customWidth="1"/>
+    <col min="14" max="14" width="14.8666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:14">
+    <row r="1" customHeight="1" spans="1:15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" ht="18" customHeight="1" spans="1:14">
-      <c r="A2" s="4" t="s">
+      <c r="O1" s="5"/>
+    </row>
+    <row r="2" ht="18" customHeight="1" spans="1:15">
+      <c r="A2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="11">
+      <c r="F2" s="11">
+        <v>0.7</v>
+      </c>
+      <c r="G2" s="12">
         <v>45905</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-    </row>
-    <row r="3" customHeight="1" spans="1:14">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5" t="s">
+      <c r="H2" s="13">
+        <v>45905.8541666667</v>
+      </c>
+      <c r="I2" s="12">
+        <v>45911</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="5">
+        <v>15</v>
+      </c>
+      <c r="M2" s="5">
+        <v>3</v>
+      </c>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:15">
+      <c r="A3" s="5"/>
+      <c r="B3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="E3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="G3" s="14">
+        <v>45910</v>
+      </c>
+      <c r="H3" s="15">
+        <v>45909.4659722222</v>
+      </c>
+      <c r="I3" s="12">
+        <v>45911</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="5">
+        <v>2</v>
+      </c>
+      <c r="M3" s="5">
+        <v>1</v>
+      </c>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+    </row>
+    <row r="4" ht="18" customHeight="1" spans="1:15">
+      <c r="A4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="G4" s="14">
+        <v>45910</v>
+      </c>
+      <c r="H4" s="15">
+        <v>45908.6875</v>
+      </c>
+      <c r="I4" s="12">
+        <v>45912</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="5">
+        <v>24</v>
+      </c>
+      <c r="M4" s="5">
+        <v>7</v>
+      </c>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:15">
+      <c r="A5" s="5"/>
+      <c r="B5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="14">
+        <v>45912</v>
+      </c>
+      <c r="H5" s="14"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:15">
+      <c r="A6" s="5"/>
+      <c r="B6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="10">
-        <v>1</v>
-      </c>
-      <c r="G3" s="11">
-        <v>45903</v>
-      </c>
-      <c r="H3" s="12">
-        <v>45902.6833333333</v>
-      </c>
-      <c r="I3" s="11">
-        <v>45905</v>
-      </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="11">
-        <v>45905</v>
-      </c>
-      <c r="L3" s="6">
+      <c r="D6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="14">
+        <v>45894</v>
+      </c>
+      <c r="H6" s="14">
+        <v>45895</v>
+      </c>
+      <c r="I6" s="12"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:15">
+      <c r="A7" s="5"/>
+      <c r="B7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:15">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="6">
-        <v>5</v>
-      </c>
-      <c r="N3" s="6"/>
-    </row>
-    <row r="4" ht="18" customHeight="1" spans="1:14">
-      <c r="A4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="8" t="s">
+      <c r="D8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="5">
         <v>24</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="10">
-        <v>1</v>
-      </c>
-      <c r="G4" s="13">
-        <v>45901</v>
-      </c>
-      <c r="H4" s="12">
-        <v>45902.88125</v>
-      </c>
-      <c r="I4" s="11">
-        <v>45905</v>
-      </c>
-      <c r="J4" s="6"/>
-      <c r="K4" s="11">
-        <v>45905</v>
-      </c>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6">
-        <v>5</v>
-      </c>
-      <c r="N4" s="6"/>
-    </row>
-    <row r="5" customHeight="1" spans="1:14">
-      <c r="A5" s="4"/>
-      <c r="B5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="8" t="s">
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+    </row>
+    <row r="9" ht="18" customHeight="1" spans="1:15">
+      <c r="A9" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="13">
-        <v>45894</v>
-      </c>
-      <c r="H5" s="13">
-        <v>45895</v>
-      </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-    </row>
-    <row r="6" customHeight="1" spans="1:14">
-      <c r="A6" s="4"/>
-      <c r="B6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="8" t="s">
+      <c r="C9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-    </row>
-    <row r="7" customHeight="1" spans="1:14">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="6">
-        <v>24</v>
-      </c>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="8" ht="17.6" customHeight="1" spans="1:14">
-      <c r="A8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="10">
-        <v>1</v>
-      </c>
-      <c r="G8" s="11">
-        <v>45904</v>
-      </c>
-      <c r="H8" s="12">
-        <v>45904.4791666667</v>
-      </c>
-      <c r="I8" s="12">
-        <v>45905.7430555556</v>
-      </c>
-      <c r="J8" s="6"/>
-      <c r="K8" s="12">
-        <v>45905.7430555556</v>
-      </c>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6">
-        <v>4</v>
-      </c>
-      <c r="N8" s="6"/>
-    </row>
-    <row r="9" customHeight="1" spans="1:14">
-      <c r="A9" s="4"/>
-      <c r="B9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="10">
-        <v>1</v>
-      </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="12">
-        <v>45902.8472222222</v>
-      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="14">
+        <v>45909</v>
+      </c>
+      <c r="H9" s="12"/>
       <c r="I9" s="12">
-        <v>45905.7451388889</v>
-      </c>
-      <c r="J9" s="6"/>
-      <c r="K9" s="12">
-        <v>45905.7430555556</v>
-      </c>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6">
-        <v>3.5</v>
-      </c>
-      <c r="N9" s="6"/>
-    </row>
-    <row r="10" customHeight="1" spans="1:14">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>33</v>
+        <v>45910</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="5">
+        <v>8</v>
+      </c>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+    </row>
+    <row r="10" ht="18" customHeight="1" spans="1:15">
+      <c r="A10" s="9"/>
+      <c r="B10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="14">
+        <v>45909</v>
+      </c>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:15">
+      <c r="A11" s="9"/>
+      <c r="B11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="13">
-        <v>45899</v>
-      </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="6">
-        <v>8</v>
-      </c>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-    </row>
-    <row r="11" customHeight="1" spans="1:14">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>16</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-    </row>
-    <row r="12" ht="17.6" customHeight="1" spans="1:14">
-      <c r="A12" s="4" t="s">
+      <c r="F11" s="11">
+        <v>0.6</v>
+      </c>
+      <c r="G11" s="14">
+        <v>45909</v>
+      </c>
+      <c r="H11" s="13">
+        <v>45909.7361111111</v>
+      </c>
+      <c r="I11" s="13">
+        <v>45910.625</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="5">
+        <v>6</v>
+      </c>
+      <c r="M11" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+    </row>
+    <row r="12" customHeight="1" spans="1:15">
+      <c r="A12" s="9"/>
+      <c r="B12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="11">
+        <v>0</v>
+      </c>
+      <c r="G12" s="14">
+        <v>45910</v>
+      </c>
+      <c r="H12" s="13">
+        <v>45909.8402777778</v>
+      </c>
+      <c r="I12" s="12"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="5">
+        <v>6</v>
+      </c>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:15">
+      <c r="A13" s="9"/>
+      <c r="B13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="14">
+        <v>45899</v>
+      </c>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="5">
+        <v>8</v>
+      </c>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+    </row>
+    <row r="14" customHeight="1" spans="1:15">
+      <c r="A14" s="9"/>
+      <c r="B14" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="10">
+      <c r="C14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="5">
+        <v>8</v>
+      </c>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+    </row>
+    <row r="15" customHeight="1" spans="1:15">
+      <c r="A15" s="9"/>
+      <c r="B15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="11"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5">
+        <v>3</v>
+      </c>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+    </row>
+    <row r="16" customHeight="1" spans="1:15">
+      <c r="A16" s="9"/>
+      <c r="B16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="11">
         <v>1</v>
       </c>
-      <c r="G12" s="11">
-        <v>45904</v>
-      </c>
-      <c r="H12" s="12">
-        <v>45904.6506944444</v>
-      </c>
-      <c r="I12" s="11">
-        <v>45905</v>
-      </c>
-      <c r="J12" s="6"/>
-      <c r="K12" s="12">
-        <v>45905.7083333333</v>
-      </c>
-      <c r="L12" s="6">
+      <c r="G16" s="14"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5">
+        <v>3</v>
+      </c>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+    </row>
+    <row r="17" ht="18" customHeight="1" spans="1:15">
+      <c r="A17" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="11"/>
+      <c r="G17" s="12">
+        <v>45910</v>
+      </c>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12">
+        <v>45912</v>
+      </c>
+      <c r="J17" s="5"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+    </row>
+    <row r="18" customHeight="1" spans="1:15">
+      <c r="A18" s="9"/>
+      <c r="B18" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="11"/>
+      <c r="G18" s="12">
+        <v>45913</v>
+      </c>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+    </row>
+    <row r="19" customHeight="1" spans="1:15">
+      <c r="A19" s="9"/>
+      <c r="B19" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="11">
+        <v>0.4</v>
+      </c>
+      <c r="G19" s="12">
+        <v>45910</v>
+      </c>
+      <c r="H19" s="15">
+        <v>45909.4659722222</v>
+      </c>
+      <c r="I19" s="12">
+        <v>45912</v>
+      </c>
+      <c r="J19" s="5"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="5">
+        <v>8</v>
+      </c>
+      <c r="M19" s="5">
+        <v>3</v>
+      </c>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+    </row>
+    <row r="20" customHeight="1" spans="1:15">
+      <c r="A20" s="9"/>
+      <c r="B20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="11"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5">
         <v>4</v>
       </c>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-    </row>
-    <row r="13" customHeight="1" spans="1:14">
-      <c r="A13" s="4"/>
-      <c r="B13" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="10">
-        <v>1</v>
-      </c>
-      <c r="G13" s="11">
-        <v>45904</v>
-      </c>
-      <c r="H13" s="12">
-        <v>45903.6381944444</v>
-      </c>
-      <c r="I13" s="11">
-        <v>45905</v>
-      </c>
-      <c r="J13" s="6"/>
-      <c r="K13" s="12">
-        <v>45905.7395833333</v>
-      </c>
-      <c r="L13" s="6">
-        <v>5</v>
-      </c>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-    </row>
-    <row r="14" customHeight="1" spans="1:14">
-      <c r="A14" s="4"/>
-      <c r="B14" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="10">
-        <v>1</v>
-      </c>
-      <c r="G14" s="11"/>
-      <c r="H14" s="12">
-        <v>45903.6381944444</v>
-      </c>
-      <c r="I14" s="11">
-        <v>45904</v>
-      </c>
-      <c r="J14" s="6"/>
-      <c r="K14" s="12">
-        <v>45905.7493055556</v>
-      </c>
-      <c r="L14" s="6">
-        <v>6</v>
-      </c>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
+      <c r="O20" s="5"/>
+    </row>
+    <row r="21" customHeight="1" spans="1:15">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+    </row>
+    <row r="22" customHeight="1" spans="1:15">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+    </row>
+    <row r="23" customHeight="1" spans="1:15">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+    </row>
+    <row r="24" customHeight="1" spans="1:15">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+    </row>
+    <row r="25" customHeight="1" spans="1:15">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+    </row>
+    <row r="26" customHeight="1" spans="1:15">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+    </row>
+    <row r="27" customHeight="1" spans="1:15">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A9:A16"/>
+    <mergeCell ref="A17:A20"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B15:B1048576" errorStyle="information">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B28:B1048576" errorStyle="information">
       <formula1>"A,B,C,S"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C15:C1048576" errorStyle="information">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C28:C1048576" errorStyle="information">
       <formula1>"美国,美国2,墨西哥,秘鲁,巴西,智利,分包系统,客服OA,运营系统,加拿大,澳大利亚,巴西2"</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="E15:E1048576">
+    <dataValidation type="list" sqref="E28:E1048576">
       <formula1>"测试中,未提测,已上线,已完成"</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="between" allowBlank="1" sqref="G15:I1048576"/>
+    <dataValidation type="date" operator="between" allowBlank="1" sqref="G28:I1048576"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/client/文件上传模版/测试任务更新模版.xlsx
+++ b/client/文件上传模版/测试任务更新模版.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="56">
   <si>
     <t>负责人</t>
   </si>
@@ -77,34 +77,46 @@
     <t>B</t>
   </si>
   <si>
+    <t>分包系统</t>
+  </si>
+  <si>
+    <t>分包功能优化</t>
+  </si>
+  <si>
+    <t>已上线</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
     <t>美国2</t>
   </si>
   <si>
-    <t>美国2 - 首次充值后提 $10</t>
+    <t>美国二H5 - 召回添加触发场景和数据池优化</t>
   </si>
   <si>
     <t>测试中</t>
   </si>
   <si>
-    <t>美国2调整19.99礼包深挖税收并放开至50%用户</t>
+    <t>美国3</t>
+  </si>
+  <si>
+    <t>美国3 - VIP礼包移植</t>
+  </si>
+  <si>
+    <t>未提测</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>美国2节假日促销礼包</t>
   </si>
   <si>
     <t>王然</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>美国3</t>
-  </si>
-  <si>
-    <t>美国三H5 - 六个功能移植开放</t>
-  </si>
-  <si>
-    <t>两个需求测试完成</t>
-  </si>
-  <si>
-    <t>S</t>
+    <t>美国三功能移植（互导、VIP阶梯礼包）</t>
   </si>
   <si>
     <r>
@@ -122,7 +134,7 @@
     </r>
   </si>
   <si>
-    <t>未提测</t>
+    <t>美国3-美国2代理裂变迁移至美国3</t>
   </si>
   <si>
     <t>【评审】美国2野牛非V数值调整</t>
@@ -140,67 +152,61 @@
     <t>古鹏鹏</t>
   </si>
   <si>
-    <t>澳大利亚</t>
-  </si>
-  <si>
-    <t>澳大利亚H5 - USDT换汇支付方式接入</t>
+    <t>墨西哥</t>
+  </si>
+  <si>
+    <t>11号Google包疯传功能测试</t>
+  </si>
+  <si>
+    <t>美国3 - 召回礼包移植</t>
+  </si>
+  <si>
+    <t>美国3 - 九月促销礼包移植</t>
+  </si>
+  <si>
+    <t>九月促销礼包迁移至美国2</t>
+  </si>
+  <si>
+    <t>【评审】墨西哥视讯对接</t>
+  </si>
+  <si>
+    <t>美国2疯传优化</t>
+  </si>
+  <si>
+    <t>智利</t>
+  </si>
+  <si>
+    <t>新增H5用户绑定FB</t>
+  </si>
+  <si>
+    <t>赵涛涛</t>
+  </si>
+  <si>
+    <t>美国3 - 阶段体验优化0905</t>
+  </si>
+  <si>
+    <t>美国3 - 阶段体验优化0910</t>
   </si>
   <si>
     <t>美国1</t>
   </si>
   <si>
-    <t>美国一H5 - 天使用户招募和调研公告</t>
-  </si>
-  <si>
-    <t>美国一H5 - iOS召回手机号登录落地页测试</t>
-  </si>
-  <si>
-    <t>秘鲁</t>
-  </si>
-  <si>
-    <t>新增H5用户绑定fb</t>
-  </si>
-  <si>
-    <t>墨西哥</t>
-  </si>
-  <si>
-    <t>【评审】墨西哥视讯对接</t>
-  </si>
-  <si>
-    <t>美国2疯传优化</t>
-  </si>
-  <si>
-    <t>美国一-iOS强诱导流程测试</t>
-  </si>
-  <si>
-    <t>已完成</t>
-  </si>
-  <si>
-    <t>美国1,美国2,美国3,墨西哥,巴西</t>
-  </si>
-  <si>
-    <t>pg游戏【快钱来了】更新测试</t>
-  </si>
-  <si>
-    <t>已上线</t>
-  </si>
-  <si>
-    <t>赵涛涛</t>
-  </si>
-  <si>
-    <t>美国1 - 日常任务活动</t>
+    <t>美国 - IOS留存优化0915</t>
+  </si>
+  <si>
+    <t>美国2周卡迁移至美国1</t>
+  </si>
+  <si>
+    <t>每日礼包修复问题测试上线</t>
   </si>
   <si>
     <t>评审 - 新增USDT(BEP)支付&amp;提款 - 美国2</t>
   </si>
   <si>
-    <t>美国2 - 调整代理任务成就为梯度</t>
-  </si>
-  <si>
     <t>积胜</t>
   </si>
   <si>
-    <t>AI古兰 - Salah Mate功能交互细节补充</t>
+    <t>AI古兰经</t>
   </si>
 </sst>
 </file>
@@ -214,7 +220,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -227,6 +233,12 @@
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -744,152 +756,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -899,44 +911,50 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1259,10 +1277,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:O20"/>
+      <selection activeCell="A1" sqref="A1:O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.5" customHeight="1"/>
@@ -1283,395 +1301,389 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="16" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="5"/>
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:15">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F2" s="11">
-        <v>0.7</v>
-      </c>
-      <c r="G2" s="12">
-        <v>45905</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G2" s="12"/>
       <c r="H2" s="13">
-        <v>45905.8541666667</v>
-      </c>
-      <c r="I2" s="12">
-        <v>45911</v>
-      </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="12"/>
+        <v>45911.6809953704</v>
+      </c>
+      <c r="I2" s="14">
+        <v>45916</v>
+      </c>
+      <c r="J2" s="17"/>
+      <c r="K2" s="14"/>
       <c r="L2" s="5">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="M2" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
     </row>
     <row r="3" customHeight="1" spans="1:15">
-      <c r="A3" s="5"/>
-      <c r="B3" s="8" t="s">
-        <v>15</v>
+      <c r="A3" s="4"/>
+      <c r="B3" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F3" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="G3" s="14">
-        <v>45910</v>
-      </c>
-      <c r="H3" s="15">
-        <v>45909.4659722222</v>
-      </c>
-      <c r="I3" s="12">
-        <v>45911</v>
-      </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="12"/>
+        <v>0.4</v>
+      </c>
+      <c r="G3" s="12">
+        <v>45916</v>
+      </c>
+      <c r="H3" s="13">
+        <v>45916.7083333333</v>
+      </c>
+      <c r="I3" s="14">
+        <v>45918</v>
+      </c>
+      <c r="J3" s="17"/>
+      <c r="K3" s="14"/>
       <c r="L3" s="5">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M3" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
     </row>
-    <row r="4" ht="18" customHeight="1" spans="1:15">
-      <c r="A4" s="5" t="s">
+    <row r="4" customHeight="1" spans="1:15">
+      <c r="A4" s="4"/>
+      <c r="B4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="11"/>
+      <c r="G4" s="12">
+        <v>45918</v>
+      </c>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14">
+        <v>45919</v>
+      </c>
+      <c r="J4" s="17"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="5">
+        <v>4</v>
+      </c>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:15">
+      <c r="A5" s="4"/>
+      <c r="B5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="11">
-        <v>0.8</v>
-      </c>
-      <c r="G4" s="14">
-        <v>45910</v>
-      </c>
-      <c r="H4" s="15">
-        <v>45908.6875</v>
-      </c>
-      <c r="I4" s="12">
-        <v>45912</v>
-      </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="5">
-        <v>24</v>
-      </c>
-      <c r="M4" s="5">
-        <v>7</v>
-      </c>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:15">
-      <c r="A5" s="5"/>
-      <c r="B5" s="8" t="s">
+      <c r="D5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>27</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="14">
-        <v>45912</v>
+        <v>45917</v>
       </c>
       <c r="H5" s="14"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="5"/>
+      <c r="I5" s="14">
+        <v>45919</v>
+      </c>
+      <c r="J5" s="17"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="5">
+        <v>16</v>
+      </c>
       <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
+      <c r="N5" s="5">
+        <v>1</v>
+      </c>
       <c r="O5" s="5"/>
     </row>
-    <row r="6" customHeight="1" spans="1:15">
-      <c r="A6" s="5"/>
+    <row r="6" ht="18" customHeight="1" spans="1:15">
+      <c r="A6" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="B6" s="8" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="11"/>
+        <v>18</v>
+      </c>
+      <c r="F6" s="11">
+        <v>1</v>
+      </c>
       <c r="G6" s="14">
-        <v>45894</v>
-      </c>
-      <c r="H6" s="14">
-        <v>45895</v>
-      </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="12"/>
+        <v>45917</v>
+      </c>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14">
+        <v>45916</v>
+      </c>
+      <c r="J6" s="17"/>
+      <c r="K6" s="14"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
+      <c r="M6" s="5">
+        <v>3</v>
+      </c>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
     </row>
     <row r="7" customHeight="1" spans="1:15">
-      <c r="A7" s="5"/>
-      <c r="B7" s="8" t="s">
-        <v>15</v>
+      <c r="A7" s="4"/>
+      <c r="B7" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="12"/>
+      <c r="F7" s="11">
+        <v>0.4</v>
+      </c>
+      <c r="G7" s="12">
+        <v>45912</v>
+      </c>
       <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
+      <c r="I7" s="14">
+        <v>45916</v>
+      </c>
+      <c r="J7" s="17"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="5">
+        <v>16</v>
+      </c>
+      <c r="M7" s="5">
+        <v>4</v>
+      </c>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
     </row>
     <row r="8" customHeight="1" spans="1:15">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6" t="s">
+      <c r="A8" s="4"/>
+      <c r="B8" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="5">
-        <v>24</v>
-      </c>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
     </row>
-    <row r="9" ht="18" customHeight="1" spans="1:15">
-      <c r="A9" s="9" t="s">
+    <row r="9" customHeight="1" spans="1:15">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>27</v>
-      </c>
       <c r="F9" s="11"/>
-      <c r="G9" s="14">
-        <v>45909</v>
-      </c>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12">
-        <v>45910</v>
-      </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="5">
-        <v>8</v>
-      </c>
+      <c r="G9" s="12">
+        <v>45894</v>
+      </c>
+      <c r="H9" s="12">
+        <v>45895</v>
+      </c>
+      <c r="I9" s="14">
+        <v>45919</v>
+      </c>
+      <c r="J9" s="17"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="5"/>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
     </row>
-    <row r="10" ht="18" customHeight="1" spans="1:15">
-      <c r="A10" s="9"/>
-      <c r="B10" s="6" t="s">
+    <row r="10" customHeight="1" spans="1:15">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>27</v>
-      </c>
       <c r="F10" s="11"/>
-      <c r="G10" s="14">
-        <v>45909</v>
-      </c>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="12"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14">
+        <v>45919</v>
+      </c>
+      <c r="J10" s="17"/>
+      <c r="K10" s="14"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
     </row>
     <row r="11" customHeight="1" spans="1:15">
-      <c r="A11" s="9"/>
-      <c r="B11" s="6" t="s">
-        <v>25</v>
+      <c r="A11" s="4"/>
+      <c r="B11" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="C11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="11">
-        <v>0.6</v>
-      </c>
-      <c r="G11" s="14">
-        <v>45909</v>
-      </c>
-      <c r="H11" s="13">
-        <v>45909.7361111111</v>
-      </c>
-      <c r="I11" s="13">
-        <v>45910.625</v>
-      </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="12"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="14"/>
       <c r="L11" s="5">
-        <v>6</v>
-      </c>
-      <c r="M11" s="5">
-        <v>2.5</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
     </row>
-    <row r="12" customHeight="1" spans="1:15">
-      <c r="A12" s="9"/>
-      <c r="B12" s="6" t="s">
+    <row r="12" ht="18" customHeight="1" spans="1:15">
+      <c r="A12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>39</v>
-      </c>
       <c r="E12" s="5" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="F12" s="11">
-        <v>0</v>
-      </c>
-      <c r="G12" s="14">
-        <v>45910</v>
-      </c>
-      <c r="H12" s="13">
-        <v>45909.8402777778</v>
-      </c>
-      <c r="I12" s="12"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="12"/>
+        <v>0.6</v>
+      </c>
+      <c r="G12" s="12"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="14"/>
       <c r="L12" s="5">
         <v>6</v>
       </c>
@@ -1680,208 +1692,228 @@
       <c r="O12" s="5"/>
     </row>
     <row r="13" customHeight="1" spans="1:15">
-      <c r="A13" s="9"/>
-      <c r="B13" s="6" t="s">
+      <c r="A13" s="4"/>
+      <c r="B13" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>41</v>
+        <v>23</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="14">
-        <v>45899</v>
-      </c>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="12"/>
+        <v>22</v>
+      </c>
+      <c r="F13" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="G13" s="12">
+        <v>45917</v>
+      </c>
+      <c r="H13" s="15">
+        <v>45915.7083333333</v>
+      </c>
+      <c r="I13" s="14">
+        <v>45919</v>
+      </c>
+      <c r="J13" s="17"/>
+      <c r="K13" s="14"/>
       <c r="L13" s="5">
         <v>8</v>
       </c>
-      <c r="M13" s="5"/>
+      <c r="M13" s="5">
+        <v>4</v>
+      </c>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
     </row>
     <row r="14" customHeight="1" spans="1:15">
-      <c r="A14" s="9"/>
-      <c r="B14" s="6" t="s">
-        <v>21</v>
+      <c r="A14" s="4"/>
+      <c r="B14" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>42</v>
+        <v>23</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F14" s="11"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="12"/>
+      <c r="G14" s="12">
+        <v>45918</v>
+      </c>
+      <c r="H14" s="15">
+        <v>45916.8541666667</v>
+      </c>
+      <c r="I14" s="14">
+        <v>45919</v>
+      </c>
+      <c r="J14" s="17"/>
+      <c r="K14" s="14"/>
       <c r="L14" s="5">
         <v>8</v>
       </c>
       <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
+      <c r="N14" s="5">
+        <v>3</v>
+      </c>
       <c r="O14" s="5"/>
     </row>
     <row r="15" customHeight="1" spans="1:15">
-      <c r="A15" s="9"/>
-      <c r="B15" s="6" t="s">
+      <c r="A15" s="4"/>
+      <c r="B15" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>43</v>
+        <v>20</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="F15" s="11"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="12"/>
+      <c r="G15" s="12">
+        <v>45919</v>
+      </c>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="14"/>
       <c r="L15" s="5"/>
-      <c r="M15" s="5">
-        <v>3</v>
-      </c>
+      <c r="M15" s="5"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
     </row>
     <row r="16" customHeight="1" spans="1:15">
-      <c r="A16" s="9"/>
-      <c r="B16" s="6" t="s">
+      <c r="A16" s="4"/>
+      <c r="B16" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>46</v>
+        <v>37</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F16" s="11">
-        <v>1</v>
-      </c>
-      <c r="G16" s="14"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5">
-        <v>3</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="F16" s="11"/>
+      <c r="G16" s="12">
+        <v>45899</v>
+      </c>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="5">
+        <v>8</v>
+      </c>
+      <c r="M16" s="5"/>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
     </row>
-    <row r="17" ht="18" customHeight="1" spans="1:15">
-      <c r="A17" s="9" t="s">
-        <v>48</v>
-      </c>
+    <row r="17" customHeight="1" spans="1:15">
+      <c r="A17" s="4"/>
       <c r="B17" s="8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="11"/>
+      <c r="F17" s="11">
+        <v>0.6</v>
+      </c>
       <c r="G17" s="12">
-        <v>45910</v>
-      </c>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12">
         <v>45912</v>
       </c>
-      <c r="J17" s="5"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="5">
+        <v>8</v>
+      </c>
+      <c r="M17" s="5">
+        <v>1</v>
+      </c>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
     </row>
     <row r="18" customHeight="1" spans="1:15">
-      <c r="A18" s="9"/>
+      <c r="A18" s="4"/>
       <c r="B18" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>50</v>
+        <v>44</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F18" s="11"/>
-      <c r="G18" s="12">
-        <v>45913</v>
-      </c>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="14"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
     </row>
-    <row r="19" customHeight="1" spans="1:15">
-      <c r="A19" s="9"/>
-      <c r="B19" s="8" t="s">
+    <row r="19" ht="18" customHeight="1" spans="1:15">
+      <c r="A19" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>51</v>
+        <v>23</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F19" s="11">
-        <v>0.4</v>
-      </c>
-      <c r="G19" s="12">
-        <v>45910</v>
+        <v>1</v>
+      </c>
+      <c r="G19" s="14">
+        <v>45915</v>
       </c>
       <c r="H19" s="15">
-        <v>45909.4659722222</v>
-      </c>
-      <c r="I19" s="12">
-        <v>45912</v>
-      </c>
-      <c r="J19" s="5"/>
-      <c r="K19" s="12"/>
+        <v>45912.6569444444</v>
+      </c>
+      <c r="I19" s="14">
+        <v>45916</v>
+      </c>
+      <c r="J19" s="17"/>
+      <c r="K19" s="14">
+        <v>45916</v>
+      </c>
       <c r="L19" s="5">
         <v>8</v>
       </c>
       <c r="M19" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
@@ -1889,167 +1921,207 @@
     <row r="20" customHeight="1" spans="1:15">
       <c r="A20" s="9"/>
       <c r="B20" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>53</v>
+        <v>23</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F20" s="11"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="5"/>
+      <c r="G20" s="14">
+        <v>45916</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="14">
+        <v>45918</v>
+      </c>
+      <c r="J20" s="17"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="5">
+        <v>6</v>
+      </c>
       <c r="M20" s="5"/>
       <c r="N20" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O20" s="5"/>
     </row>
     <row r="21" customHeight="1" spans="1:15">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="5"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="F21" s="11"/>
       <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="5"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="5">
+        <v>8</v>
+      </c>
       <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
+      <c r="N21" s="5">
+        <v>2</v>
+      </c>
       <c r="O21" s="5"/>
     </row>
     <row r="22" customHeight="1" spans="1:15">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="5"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="F22" s="11"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="5"/>
+      <c r="G22" s="12">
+        <v>45915</v>
+      </c>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14">
+        <v>45918</v>
+      </c>
+      <c r="J22" s="17"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="5">
+        <v>8</v>
+      </c>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
     </row>
     <row r="23" customHeight="1" spans="1:15">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="11"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="11">
+        <v>0.5</v>
+      </c>
       <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="12"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="14"/>
       <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
+      <c r="M23" s="5">
+        <v>1</v>
+      </c>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
     </row>
     <row r="24" customHeight="1" spans="1:15">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="11">
+        <v>1</v>
+      </c>
+      <c r="G24" s="14">
+        <v>45913</v>
+      </c>
+      <c r="H24" s="15">
+        <v>45912.6986111111</v>
+      </c>
+      <c r="I24" s="14"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="14">
+        <v>45916</v>
+      </c>
+      <c r="L24" s="5">
+        <v>8</v>
+      </c>
+      <c r="M24" s="5">
+        <v>2</v>
+      </c>
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
     </row>
     <row r="25" customHeight="1" spans="1:15">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="5"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="F25" s="11"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="12"/>
+      <c r="G25" s="14">
+        <v>45919</v>
+      </c>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="14"/>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
     </row>
-    <row r="26" customHeight="1" spans="1:15">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-    </row>
-    <row r="27" customHeight="1" spans="1:15">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-    </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A9:A16"/>
-    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="A12:A18"/>
+    <mergeCell ref="A19:A25"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B28:B1048576" errorStyle="information">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B26:B1048576" errorStyle="information">
       <formula1>"A,B,C,S"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C28:C1048576" errorStyle="information">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C26:C1048576" errorStyle="information">
       <formula1>"美国,美国2,墨西哥,秘鲁,巴西,智利,分包系统,客服OA,运营系统,加拿大,澳大利亚,巴西2"</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="E28:E1048576">
+    <dataValidation type="list" sqref="E26:E1048576">
       <formula1>"测试中,未提测,已上线,已完成"</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="between" allowBlank="1" sqref="G28:I1048576"/>
+    <dataValidation type="date" operator="between" allowBlank="1" sqref="G26:I1048576"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/client/文件上传模版/测试任务更新模版.xlsx
+++ b/client/文件上传模版/测试任务更新模版.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="22260"/>
+    <workbookView windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="模版" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="55">
   <si>
     <t>负责人</t>
   </si>
@@ -74,30 +74,21 @@
     <t>王雪斌</t>
   </si>
   <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>美国2</t>
+  </si>
+  <si>
+    <t>美国二H5 - 召回添加触发场景和数据池优化</t>
+  </si>
+  <si>
+    <t>测试中</t>
+  </si>
+  <si>
     <t>B</t>
   </si>
   <si>
-    <t>分包系统</t>
-  </si>
-  <si>
-    <t>分包功能优化</t>
-  </si>
-  <si>
-    <t>已上线</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>美国2</t>
-  </si>
-  <si>
-    <t>美国二H5 - 召回添加触发场景和数据池优化</t>
-  </si>
-  <si>
-    <t>测试中</t>
-  </si>
-  <si>
     <t>美国3</t>
   </si>
   <si>
@@ -114,9 +105,6 @@
   </si>
   <si>
     <t>王然</t>
-  </si>
-  <si>
-    <t>美国三功能移植（互导、VIP阶梯礼包）</t>
   </si>
   <si>
     <r>
@@ -134,6 +122,9 @@
     </r>
   </si>
   <si>
+    <t>已完成</t>
+  </si>
+  <si>
     <t>美国3-美国2代理裂变迁移至美国3</t>
   </si>
   <si>
@@ -149,30 +140,39 @@
     <t>暂停</t>
   </si>
   <si>
+    <t>谷歌包投放链测试</t>
+  </si>
+  <si>
     <t>古鹏鹏</t>
   </si>
   <si>
+    <t>美国3 - 召回礼包移植</t>
+  </si>
+  <si>
+    <t>美国3 - 九月促销礼包移植</t>
+  </si>
+  <si>
+    <t>九月促销礼包迁移至美国2</t>
+  </si>
+  <si>
+    <t>召回礼包弹窗序列调整</t>
+  </si>
+  <si>
+    <t>已上线</t>
+  </si>
+  <si>
+    <t>美国2疯传优化</t>
+  </si>
+  <si>
     <t>墨西哥</t>
   </si>
   <si>
     <t>11号Google包疯传功能测试</t>
   </si>
   <si>
-    <t>美国3 - 召回礼包移植</t>
-  </si>
-  <si>
-    <t>美国3 - 九月促销礼包移植</t>
-  </si>
-  <si>
-    <t>九月促销礼包迁移至美国2</t>
-  </si>
-  <si>
     <t>【评审】墨西哥视讯对接</t>
   </si>
   <si>
-    <t>美国2疯传优化</t>
-  </si>
-  <si>
     <t>智利</t>
   </si>
   <si>
@@ -182,9 +182,6 @@
     <t>赵涛涛</t>
   </si>
   <si>
-    <t>美国3 - 阶段体验优化0905</t>
-  </si>
-  <si>
     <t>美国3 - 阶段体验优化0910</t>
   </si>
   <si>
@@ -200,10 +197,10 @@
     <t>每日礼包修复问题测试上线</t>
   </si>
   <si>
-    <t>评审 - 新增USDT(BEP)支付&amp;提款 - 美国2</t>
-  </si>
-  <si>
-    <t>积胜</t>
+    <t>用户数据分析脚本编写</t>
+  </si>
+  <si>
+    <t>奇胜</t>
   </si>
   <si>
     <t>AI古兰经</t>
@@ -604,7 +601,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -629,19 +626,6 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -777,7 +761,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -789,34 +773,34 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -901,7 +885,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -914,23 +898,23 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -948,12 +932,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1277,10 +1255,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:O25"/>
+      <selection activeCell="A1" sqref="A1:N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.5" customHeight="1"/>
@@ -1297,7 +1275,7 @@
     <col min="14" max="14" width="14.8666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:15">
+    <row r="1" customHeight="1" spans="1:14">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1325,24 +1303,23 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5"/>
-    </row>
-    <row r="2" ht="18" customHeight="1" spans="1:15">
+    </row>
+    <row r="2" ht="17.6" customHeight="1" spans="1:14">
       <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
@@ -1359,769 +1336,693 @@
         <v>18</v>
       </c>
       <c r="F2" s="11">
-        <v>1</v>
-      </c>
-      <c r="G2" s="12"/>
+        <v>0.9</v>
+      </c>
+      <c r="G2" s="12">
+        <v>45916</v>
+      </c>
       <c r="H2" s="13">
-        <v>45911.6809953704</v>
+        <v>45916.7083333333</v>
       </c>
       <c r="I2" s="14">
-        <v>45916</v>
-      </c>
-      <c r="J2" s="17"/>
+        <v>45918</v>
+      </c>
+      <c r="J2" s="5"/>
       <c r="K2" s="14"/>
       <c r="L2" s="5">
+        <v>10</v>
+      </c>
+      <c r="M2" s="5">
         <v>6</v>
       </c>
-      <c r="M2" s="5">
-        <v>2</v>
-      </c>
       <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-    </row>
-    <row r="3" customHeight="1" spans="1:15">
+    </row>
+    <row r="3" customHeight="1" spans="1:14">
       <c r="A3" s="4"/>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="11">
-        <v>0.4</v>
-      </c>
+      <c r="F3" s="11"/>
       <c r="G3" s="12">
-        <v>45916</v>
-      </c>
-      <c r="H3" s="13">
-        <v>45916.7083333333</v>
-      </c>
+        <v>45918</v>
+      </c>
+      <c r="H3" s="14"/>
       <c r="I3" s="14">
-        <v>45918</v>
-      </c>
-      <c r="J3" s="17"/>
+        <v>45919</v>
+      </c>
+      <c r="J3" s="5"/>
       <c r="K3" s="14"/>
       <c r="L3" s="5">
-        <v>10</v>
-      </c>
-      <c r="M3" s="5">
         <v>4</v>
       </c>
+      <c r="M3" s="5"/>
       <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-    </row>
-    <row r="4" customHeight="1" spans="1:15">
+    </row>
+    <row r="4" customHeight="1" spans="1:14">
       <c r="A4" s="4"/>
-      <c r="B4" s="8" t="s">
-        <v>15</v>
+      <c r="B4" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>24</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F4" s="11"/>
-      <c r="G4" s="12">
-        <v>45918</v>
+      <c r="G4" s="14">
+        <v>45917</v>
       </c>
       <c r="H4" s="14"/>
       <c r="I4" s="14">
         <v>45919</v>
       </c>
-      <c r="J4" s="17"/>
+      <c r="J4" s="5"/>
       <c r="K4" s="14"/>
       <c r="L4" s="5">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-    </row>
-    <row r="5" customHeight="1" spans="1:15">
-      <c r="A5" s="4"/>
-      <c r="B5" s="8" t="s">
-        <v>26</v>
+    </row>
+    <row r="5" ht="36" customHeight="1" spans="1:14">
+      <c r="A5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="14">
-        <v>45917</v>
-      </c>
-      <c r="H5" s="14"/>
+      <c r="F5" s="11">
+        <v>1</v>
+      </c>
+      <c r="G5" s="12">
+        <v>45912</v>
+      </c>
+      <c r="H5" s="12"/>
       <c r="I5" s="14">
-        <v>45919</v>
-      </c>
-      <c r="J5" s="17"/>
+        <v>45916</v>
+      </c>
+      <c r="J5" s="5"/>
       <c r="K5" s="14"/>
       <c r="L5" s="5">
         <v>16</v>
       </c>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5">
-        <v>1</v>
-      </c>
-      <c r="O5" s="5"/>
-    </row>
-    <row r="6" ht="18" customHeight="1" spans="1:15">
-      <c r="A6" s="4" t="s">
+      <c r="M5" s="5">
+        <v>5</v>
+      </c>
+      <c r="N5" s="5"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:14">
+      <c r="A6" s="9"/>
+      <c r="B6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="E6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="11">
-        <v>1</v>
-      </c>
-      <c r="G6" s="14">
-        <v>45917</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="12"/>
       <c r="H6" s="14"/>
-      <c r="I6" s="14">
-        <v>45916</v>
-      </c>
-      <c r="J6" s="17"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="5"/>
       <c r="K6" s="14"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="5">
-        <v>3</v>
-      </c>
+      <c r="M6" s="5"/>
       <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-    </row>
-    <row r="7" customHeight="1" spans="1:15">
-      <c r="A7" s="4"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:14">
+      <c r="A7" s="9"/>
       <c r="B7" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>30</v>
+        <v>16</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="11">
-        <v>0.4</v>
-      </c>
+      <c r="F7" s="11"/>
       <c r="G7" s="12">
-        <v>45912</v>
-      </c>
-      <c r="H7" s="12"/>
+        <v>45894</v>
+      </c>
+      <c r="H7" s="12">
+        <v>45895</v>
+      </c>
       <c r="I7" s="14">
-        <v>45916</v>
-      </c>
-      <c r="J7" s="17"/>
+        <v>45919</v>
+      </c>
+      <c r="J7" s="5"/>
       <c r="K7" s="14"/>
-      <c r="L7" s="5">
-        <v>16</v>
-      </c>
-      <c r="M7" s="5">
-        <v>4</v>
-      </c>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
       <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-    </row>
-    <row r="8" customHeight="1" spans="1:15">
-      <c r="A8" s="4"/>
-      <c r="B8" s="8" t="s">
-        <v>15</v>
+    </row>
+    <row r="8" customHeight="1" spans="1:14">
+      <c r="A8" s="9"/>
+      <c r="B8" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>31</v>
+        <v>20</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F8" s="11"/>
-      <c r="G8" s="12"/>
+      <c r="G8" s="14"/>
       <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="17"/>
+      <c r="I8" s="14">
+        <v>45919</v>
+      </c>
+      <c r="J8" s="5"/>
       <c r="K8" s="14"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-    </row>
-    <row r="9" customHeight="1" spans="1:15">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5" t="s">
-        <v>15</v>
+    </row>
+    <row r="9" customHeight="1" spans="1:14">
+      <c r="A9" s="9"/>
+      <c r="B9" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="F9" s="11"/>
-      <c r="G9" s="12">
-        <v>45894</v>
-      </c>
-      <c r="H9" s="12">
-        <v>45895</v>
-      </c>
-      <c r="I9" s="14">
-        <v>45919</v>
-      </c>
-      <c r="J9" s="17"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="5"/>
       <c r="K9" s="14"/>
-      <c r="L9" s="5"/>
+      <c r="L9" s="5">
+        <v>24</v>
+      </c>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-    </row>
-    <row r="10" customHeight="1" spans="1:15">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="6" t="s">
+    </row>
+    <row r="10" customHeight="1" spans="1:14">
+      <c r="A10" s="9"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="8" t="s">
         <v>33</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14">
-        <v>45919</v>
-      </c>
-      <c r="J10" s="17"/>
+        <v>18</v>
+      </c>
+      <c r="F10" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="G10" s="12"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="5"/>
       <c r="K10" s="14"/>
       <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
+      <c r="M10" s="5">
+        <v>4</v>
+      </c>
       <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-    </row>
-    <row r="11" customHeight="1" spans="1:15">
-      <c r="A11" s="4"/>
-      <c r="B11" s="8" t="s">
-        <v>15</v>
+    </row>
+    <row r="11" ht="18" customHeight="1" spans="1:14">
+      <c r="A11" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>34</v>
+      <c r="D11" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="17"/>
+        <v>18</v>
+      </c>
+      <c r="F11" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="G11" s="12">
+        <v>45917</v>
+      </c>
+      <c r="H11" s="15">
+        <v>45915.7083333333</v>
+      </c>
+      <c r="I11" s="14">
+        <v>45919</v>
+      </c>
+      <c r="J11" s="5"/>
       <c r="K11" s="14"/>
       <c r="L11" s="5">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-    </row>
-    <row r="12" ht="18" customHeight="1" spans="1:15">
-      <c r="A12" s="4" t="s">
+    </row>
+    <row r="12" customHeight="1" spans="1:14">
+      <c r="A12" s="9"/>
+      <c r="B12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>38</v>
-      </c>
       <c r="E12" s="5" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="F12" s="11">
-        <v>0.6</v>
-      </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="17"/>
+        <v>0.9</v>
+      </c>
+      <c r="G12" s="12">
+        <v>45918</v>
+      </c>
+      <c r="H12" s="15">
+        <v>45916.8541666667</v>
+      </c>
+      <c r="I12" s="14">
+        <v>45919</v>
+      </c>
+      <c r="J12" s="5"/>
       <c r="K12" s="14"/>
       <c r="L12" s="5">
-        <v>6</v>
-      </c>
-      <c r="M12" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="M12" s="5">
+        <v>5</v>
+      </c>
       <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-    </row>
-    <row r="13" customHeight="1" spans="1:15">
-      <c r="A13" s="4"/>
-      <c r="B13" s="8" t="s">
-        <v>15</v>
+    </row>
+    <row r="13" customHeight="1" spans="1:14">
+      <c r="A13" s="9"/>
+      <c r="B13" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>39</v>
+        <v>16</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="11">
-        <v>0.9</v>
-      </c>
+      <c r="F13" s="11"/>
       <c r="G13" s="12">
-        <v>45917</v>
-      </c>
-      <c r="H13" s="15">
-        <v>45915.7083333333</v>
-      </c>
-      <c r="I13" s="14">
         <v>45919</v>
       </c>
-      <c r="J13" s="17"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="5"/>
       <c r="K13" s="14"/>
-      <c r="L13" s="5">
-        <v>8</v>
-      </c>
-      <c r="M13" s="5">
-        <v>4</v>
-      </c>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
       <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-    </row>
-    <row r="14" customHeight="1" spans="1:15">
-      <c r="A14" s="4"/>
-      <c r="B14" s="8" t="s">
-        <v>26</v>
+    </row>
+    <row r="14" customHeight="1" spans="1:14">
+      <c r="A14" s="9"/>
+      <c r="B14" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="C14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="11">
+        <v>1</v>
+      </c>
+      <c r="G14" s="12"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5">
+        <v>1</v>
+      </c>
+      <c r="N14" s="5"/>
+    </row>
+    <row r="15" customHeight="1" spans="1:14">
+      <c r="A15" s="9"/>
+      <c r="B15" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="C15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="12">
-        <v>45918</v>
-      </c>
-      <c r="H14" s="15">
-        <v>45916.8541666667</v>
-      </c>
-      <c r="I14" s="14">
-        <v>45919</v>
-      </c>
-      <c r="J14" s="17"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="5">
-        <v>8</v>
-      </c>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5">
-        <v>3</v>
-      </c>
-      <c r="O14" s="5"/>
-    </row>
-    <row r="15" customHeight="1" spans="1:15">
-      <c r="A15" s="4"/>
-      <c r="B15" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>41</v>
-      </c>
       <c r="E15" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="11"/>
+        <v>32</v>
+      </c>
+      <c r="F15" s="11">
+        <v>0.6</v>
+      </c>
       <c r="G15" s="12">
-        <v>45919</v>
+        <v>45912</v>
       </c>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
-      <c r="J15" s="17"/>
+      <c r="J15" s="5"/>
       <c r="K15" s="14"/>
-      <c r="L15" s="5"/>
+      <c r="L15" s="5">
+        <v>8</v>
+      </c>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-    </row>
-    <row r="16" customHeight="1" spans="1:15">
-      <c r="A16" s="4"/>
-      <c r="B16" s="8" t="s">
-        <v>15</v>
+    </row>
+    <row r="16" customHeight="1" spans="1:14">
+      <c r="A16" s="9"/>
+      <c r="B16" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>42</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="12">
-        <v>45899</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="F16" s="11">
+        <v>0.6</v>
+      </c>
+      <c r="G16" s="12"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
-      <c r="J16" s="17"/>
+      <c r="J16" s="5"/>
       <c r="K16" s="14"/>
       <c r="L16" s="5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-    </row>
-    <row r="17" customHeight="1" spans="1:15">
-      <c r="A17" s="4"/>
-      <c r="B17" s="8" t="s">
-        <v>26</v>
+    </row>
+    <row r="17" customHeight="1" spans="1:14">
+      <c r="A17" s="9"/>
+      <c r="B17" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>43</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17" s="11">
-        <v>0.6</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="F17" s="11"/>
       <c r="G17" s="12">
-        <v>45912</v>
+        <v>45899</v>
       </c>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
-      <c r="J17" s="17"/>
+      <c r="J17" s="5"/>
       <c r="K17" s="14"/>
       <c r="L17" s="5">
         <v>8</v>
       </c>
-      <c r="M17" s="5">
-        <v>1</v>
-      </c>
+      <c r="M17" s="5"/>
       <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-    </row>
-    <row r="18" customHeight="1" spans="1:15">
-      <c r="A18" s="4"/>
-      <c r="B18" s="8" t="s">
-        <v>15</v>
+    </row>
+    <row r="18" customHeight="1" spans="1:14">
+      <c r="A18" s="9"/>
+      <c r="B18" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="8" t="s">
         <v>45</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="11"/>
+        <v>18</v>
+      </c>
+      <c r="F18" s="11">
+        <v>0.3</v>
+      </c>
       <c r="G18" s="12"/>
-      <c r="H18" s="14"/>
+      <c r="H18" s="15">
+        <v>45917.5</v>
+      </c>
       <c r="I18" s="14"/>
-      <c r="J18" s="17"/>
+      <c r="J18" s="5"/>
       <c r="K18" s="14"/>
       <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
+      <c r="M18" s="5">
+        <v>2</v>
+      </c>
       <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-    </row>
-    <row r="19" ht="18" customHeight="1" spans="1:15">
-      <c r="A19" s="9" t="s">
+    </row>
+    <row r="19" ht="18" customHeight="1" spans="1:14">
+      <c r="A19" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>47</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F19" s="11">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="G19" s="14">
-        <v>45915</v>
+        <v>45916</v>
       </c>
       <c r="H19" s="15">
-        <v>45912.6569444444</v>
+        <v>45917.4411574074</v>
       </c>
       <c r="I19" s="14">
-        <v>45916</v>
-      </c>
-      <c r="J19" s="17"/>
-      <c r="K19" s="14">
-        <v>45916</v>
-      </c>
+        <v>45918</v>
+      </c>
+      <c r="J19" s="5"/>
+      <c r="K19" s="14"/>
       <c r="L19" s="5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M19" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-    </row>
-    <row r="20" customHeight="1" spans="1:15">
-      <c r="A20" s="9"/>
-      <c r="B20" s="5" t="s">
-        <v>19</v>
+    </row>
+    <row r="20" customHeight="1" spans="1:14">
+      <c r="A20" s="4"/>
+      <c r="B20" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="6" t="s">
         <v>48</v>
       </c>
+      <c r="D20" s="8" t="s">
+        <v>49</v>
+      </c>
       <c r="E20" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F20" s="11"/>
-      <c r="G20" s="14">
-        <v>45916</v>
-      </c>
-      <c r="H20" s="15"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="14"/>
       <c r="I20" s="14">
-        <v>45918</v>
-      </c>
-      <c r="J20" s="17"/>
+        <v>45919</v>
+      </c>
+      <c r="J20" s="5"/>
       <c r="K20" s="14"/>
       <c r="L20" s="5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M20" s="5"/>
-      <c r="N20" s="5">
-        <v>1</v>
-      </c>
-      <c r="O20" s="5"/>
-    </row>
-    <row r="21" customHeight="1" spans="1:15">
-      <c r="A21" s="9"/>
-      <c r="B21" s="8" t="s">
-        <v>19</v>
+      <c r="N20" s="5"/>
+    </row>
+    <row r="21" customHeight="1" spans="1:14">
+      <c r="A21" s="4"/>
+      <c r="B21" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>50</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21" s="11"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="17"/>
+        <v>18</v>
+      </c>
+      <c r="F21" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="G21" s="12">
+        <v>45915</v>
+      </c>
+      <c r="H21" s="15">
+        <v>45915.8541666667</v>
+      </c>
+      <c r="I21" s="14">
+        <v>45918</v>
+      </c>
+      <c r="J21" s="5"/>
       <c r="K21" s="14"/>
       <c r="L21" s="5">
         <v>8</v>
       </c>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5">
-        <v>2</v>
-      </c>
-      <c r="O21" s="5"/>
-    </row>
-    <row r="22" customHeight="1" spans="1:15">
-      <c r="A22" s="9"/>
-      <c r="B22" s="8" t="s">
-        <v>19</v>
+      <c r="M21" s="5">
+        <v>4</v>
+      </c>
+      <c r="N21" s="5"/>
+    </row>
+    <row r="22" customHeight="1" spans="1:14">
+      <c r="A22" s="4"/>
+      <c r="B22" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>51</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F22" s="11"/>
-      <c r="G22" s="12">
-        <v>45915</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F22" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="G22" s="12"/>
       <c r="H22" s="14"/>
-      <c r="I22" s="14">
-        <v>45918</v>
-      </c>
-      <c r="J22" s="17"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="5"/>
       <c r="K22" s="14"/>
-      <c r="L22" s="5">
-        <v>8</v>
-      </c>
+      <c r="L22" s="5"/>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-    </row>
-    <row r="23" customHeight="1" spans="1:15">
-      <c r="A23" s="9"/>
-      <c r="B23" s="8" t="s">
-        <v>26</v>
-      </c>
+    </row>
+    <row r="23" customHeight="1" spans="1:14">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5"/>
       <c r="C23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="10" t="s">
         <v>52</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F23" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="G23" s="12"/>
+        <v>1</v>
+      </c>
+      <c r="G23" s="14"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
-      <c r="J23" s="17"/>
+      <c r="J23" s="5"/>
       <c r="K23" s="14"/>
       <c r="L23" s="5"/>
       <c r="M23" s="5">
         <v>1</v>
       </c>
       <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-    </row>
-    <row r="24" customHeight="1" spans="1:15">
-      <c r="A24" s="9"/>
+    </row>
+    <row r="24" customHeight="1" spans="1:14">
+      <c r="A24" s="4"/>
       <c r="B24" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="6" t="s">
         <v>53</v>
       </c>
+      <c r="D24" s="10" t="s">
+        <v>54</v>
+      </c>
       <c r="E24" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24" s="11">
-        <v>1</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="F24" s="11"/>
       <c r="G24" s="14">
-        <v>45913</v>
-      </c>
-      <c r="H24" s="15">
-        <v>45912.6986111111</v>
-      </c>
+        <v>45919</v>
+      </c>
+      <c r="H24" s="14"/>
       <c r="I24" s="14"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="14">
-        <v>45916</v>
-      </c>
-      <c r="L24" s="5">
-        <v>8</v>
-      </c>
-      <c r="M24" s="5">
-        <v>2</v>
-      </c>
+      <c r="J24" s="5"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
       <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-    </row>
-    <row r="25" customHeight="1" spans="1:15">
-      <c r="A25" s="9"/>
-      <c r="B25" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F25" s="11"/>
-      <c r="G25" s="14">
-        <v>45919</v>
-      </c>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="A12:A18"/>
-    <mergeCell ref="A19:A25"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="A11:A18"/>
+    <mergeCell ref="A19:A24"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B26:B1048576" errorStyle="information">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B25:B1048576" errorStyle="information">
       <formula1>"A,B,C,S"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C26:C1048576" errorStyle="information">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C25:C1048576" errorStyle="information">
       <formula1>"美国,美国2,墨西哥,秘鲁,巴西,智利,分包系统,客服OA,运营系统,加拿大,澳大利亚,巴西2"</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="E26:E1048576">
+    <dataValidation type="list" sqref="E25:E1048576">
       <formula1>"测试中,未提测,已上线,已完成"</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="between" allowBlank="1" sqref="G26:I1048576"/>
+    <dataValidation type="date" operator="between" allowBlank="1" sqref="G25:I1048576"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/client/文件上传模版/测试任务更新模版.xlsx
+++ b/client/文件上传模版/测试任务更新模版.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15540"/>
+    <workbookView windowHeight="22260"/>
   </bookViews>
   <sheets>
     <sheet name="模版" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="50">
   <si>
     <t>负责人</t>
   </si>
@@ -74,130 +74,103 @@
     <t>王雪斌</t>
   </si>
   <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>墨西哥</t>
+  </si>
+  <si>
+    <t>墨西哥 - 美国2召回礼包移植到墨西哥</t>
+  </si>
+  <si>
+    <t>测试中</t>
+  </si>
+  <si>
+    <t>美国1</t>
+  </si>
+  <si>
+    <t>【评审】美国 - IOS优化0923</t>
+  </si>
+  <si>
+    <t>未提测</t>
+  </si>
+  <si>
     <t>S</t>
   </si>
   <si>
+    <t>美国1,美国2,美国3</t>
+  </si>
+  <si>
+    <t>【评审】美国1/2/3 - 减少19.99礼包及充值次日10邮件覆盖范围测试</t>
+  </si>
+  <si>
+    <t>王然</t>
+  </si>
+  <si>
+    <t>美国1-数值配置方案调整</t>
+  </si>
+  <si>
+    <t>存在上线风险</t>
+  </si>
+  <si>
+    <t>需求调整重新测试+配合体验</t>
+  </si>
+  <si>
+    <t>美国3</t>
+  </si>
+  <si>
+    <t>美国3-19.99礼包深挖移植（补充调整和入口）</t>
+  </si>
+  <si>
     <t>美国2</t>
   </si>
   <si>
-    <t>美国二H5 - 召回添加触发场景和数据池优化</t>
-  </si>
-  <si>
-    <t>测试中</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>美国3</t>
-  </si>
-  <si>
-    <t>美国3 - VIP礼包移植</t>
-  </si>
-  <si>
-    <t>未提测</t>
+    <t>【评审】美国2野牛非V数值调整</t>
+  </si>
+  <si>
+    <t>需求评审+谷歌包测试+其他</t>
+  </si>
+  <si>
+    <t>已完成</t>
+  </si>
+  <si>
+    <t>古鹏鹏</t>
+  </si>
+  <si>
+    <t>美国2 - 游戏内短信阶段优化0919</t>
+  </si>
+  <si>
+    <t>美国1 - 游戏内短信阶段优化0919</t>
   </si>
   <si>
     <t>A</t>
   </si>
   <si>
-    <t>美国2节假日促销礼包</t>
-  </si>
-  <si>
-    <t>王然</t>
-  </si>
-  <si>
-    <r>
-      <t>美国三H5 - 服务端数值配置后台</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <t>已完成</t>
-  </si>
-  <si>
-    <t>美国3-美国2代理裂变迁移至美国3</t>
-  </si>
-  <si>
-    <t>【评审】美国2野牛非V数值调整</t>
-  </si>
-  <si>
-    <t>美国3非V双钻数值调整</t>
-  </si>
-  <si>
-    <t>美国二H5 - 7天任务转盘（周任务/清单革命）</t>
-  </si>
-  <si>
-    <t>暂停</t>
-  </si>
-  <si>
-    <t>谷歌包投放链测试</t>
-  </si>
-  <si>
-    <t>古鹏鹏</t>
-  </si>
-  <si>
-    <t>美国3 - 召回礼包移植</t>
-  </si>
-  <si>
-    <t>美国3 - 九月促销礼包移植</t>
-  </si>
-  <si>
-    <t>九月促销礼包迁移至美国2</t>
-  </si>
-  <si>
-    <t>召回礼包弹窗序列调整</t>
+    <t>美国二H5 - 首充后复购 - 清单革命（诱导3.0）</t>
+  </si>
+  <si>
+    <t>智利</t>
+  </si>
+  <si>
+    <t>评审 - FC任务条件翻倍 - 智利</t>
+  </si>
+  <si>
+    <t>投放链归因</t>
+  </si>
+  <si>
+    <t>赵涛涛</t>
+  </si>
+  <si>
+    <t>美国3 - 新增messenger客服参数</t>
   </si>
   <si>
     <t>已上线</t>
   </si>
   <si>
-    <t>美国2疯传优化</t>
-  </si>
-  <si>
-    <t>墨西哥</t>
-  </si>
-  <si>
-    <t>11号Google包疯传功能测试</t>
-  </si>
-  <si>
-    <t>【评审】墨西哥视讯对接</t>
-  </si>
-  <si>
-    <t>智利</t>
-  </si>
-  <si>
-    <t>新增H5用户绑定FB</t>
-  </si>
-  <si>
-    <t>赵涛涛</t>
-  </si>
-  <si>
-    <t>美国3 - 阶段体验优化0910</t>
-  </si>
-  <si>
-    <t>美国1</t>
-  </si>
-  <si>
-    <t>美国 - IOS留存优化0915</t>
-  </si>
-  <si>
-    <t>美国2周卡迁移至美国1</t>
-  </si>
-  <si>
-    <t>每日礼包修复问题测试上线</t>
-  </si>
-  <si>
-    <t>用户数据分析脚本编写</t>
+    <t>美国3 - IOS优化+体验优化0917</t>
+  </si>
+  <si>
+    <t>【评审】美国3 - 九月促销礼包重开：小额充提0929</t>
   </si>
   <si>
     <t>奇胜</t>
@@ -217,7 +190,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -394,12 +367,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -601,7 +568,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -635,6 +602,41 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -761,7 +763,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -773,34 +775,34 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -885,7 +887,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -895,29 +897,35 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -925,13 +933,19 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -986,6 +1000,15 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1255,10 +1278,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:N24"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.5" customHeight="1"/>
@@ -1275,38 +1298,38 @@
     <col min="14" max="14" width="14.8666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:14">
+    <row r="1" customHeight="1" spans="1:15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="18" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
@@ -1318,711 +1341,541 @@
       <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="O1" s="7"/>
     </row>
-    <row r="2" ht="17.6" customHeight="1" spans="1:14">
-      <c r="A2" s="4" t="s">
+    <row r="2" ht="18" customHeight="1" spans="1:15">
+      <c r="A2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="11">
-        <v>0.9</v>
-      </c>
-      <c r="G2" s="12">
-        <v>45916</v>
-      </c>
-      <c r="H2" s="13">
-        <v>45916.7083333333</v>
-      </c>
-      <c r="I2" s="14">
-        <v>45918</v>
-      </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="5">
+      <c r="F2" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="G2" s="14">
+        <v>45925</v>
+      </c>
+      <c r="H2" s="15">
+        <v>45925.6916666667</v>
+      </c>
+      <c r="I2" s="17">
+        <v>45926</v>
+      </c>
+      <c r="J2" s="7"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="7">
         <v>10</v>
       </c>
-      <c r="M2" s="5">
-        <v>6</v>
-      </c>
-      <c r="N2" s="5"/>
+      <c r="M2" s="7">
+        <v>2</v>
+      </c>
+      <c r="N2" s="7"/>
+      <c r="O2" s="9"/>
     </row>
-    <row r="3" customHeight="1" spans="1:14">
-      <c r="A3" s="4"/>
-      <c r="B3" s="7" t="s">
+    <row r="3" customHeight="1" spans="1:15">
+      <c r="A3" s="5"/>
+      <c r="B3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="13"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="9"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:15">
+      <c r="A4" s="5"/>
+      <c r="B4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="12">
-        <v>45918</v>
-      </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14">
-        <v>45919</v>
-      </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="5">
-        <v>4</v>
-      </c>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-    </row>
-    <row r="4" customHeight="1" spans="1:14">
-      <c r="A4" s="4"/>
-      <c r="B4" s="7" t="s">
+      <c r="C4" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="13">
+        <v>0.9</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="17">
+        <v>45929</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7">
+        <v>1</v>
+      </c>
+      <c r="N4" s="7"/>
+      <c r="O4" s="9"/>
+    </row>
+    <row r="5" ht="18" customHeight="1" spans="1:15">
+      <c r="A5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="14">
-        <v>45917</v>
-      </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14">
-        <v>45919</v>
-      </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="5">
-        <v>16</v>
-      </c>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-    </row>
-    <row r="5" ht="36" customHeight="1" spans="1:14">
-      <c r="A5" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>20</v>
+      <c r="C5" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="13">
+        <v>0.7</v>
+      </c>
+      <c r="G5" s="14">
+        <v>45923</v>
+      </c>
+      <c r="H5" s="14"/>
+      <c r="I5" s="17">
+        <v>45925</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="11">
+      <c r="K5" s="19"/>
+      <c r="L5" s="7">
+        <v>16</v>
+      </c>
+      <c r="M5" s="7">
+        <v>6</v>
+      </c>
+      <c r="N5" s="7"/>
+      <c r="O5" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:15">
+      <c r="A6" s="10"/>
+      <c r="B6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="9"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:15">
+      <c r="A7" s="10"/>
+      <c r="B7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="14">
+        <v>45894</v>
+      </c>
+      <c r="H7" s="14">
+        <v>45895</v>
+      </c>
+      <c r="I7" s="17">
+        <v>45919</v>
+      </c>
+      <c r="J7" s="7"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="7"/>
+      <c r="M7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="9"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:15">
+      <c r="A8" s="10"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="13">
         <v>1</v>
       </c>
-      <c r="G5" s="12">
-        <v>45912</v>
-      </c>
-      <c r="H5" s="12"/>
-      <c r="I5" s="14">
-        <v>45916</v>
-      </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="5">
+      <c r="G8" s="14"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7">
+        <v>2</v>
+      </c>
+      <c r="N8" s="7"/>
+      <c r="O8" s="9"/>
+    </row>
+    <row r="9" ht="18" customHeight="1" spans="1:15">
+      <c r="A9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="13">
+        <v>0.9</v>
+      </c>
+      <c r="G9" s="14">
+        <v>45924</v>
+      </c>
+      <c r="H9" s="16">
+        <v>45925.875</v>
+      </c>
+      <c r="I9" s="17">
+        <v>45929</v>
+      </c>
+      <c r="J9" s="7"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="7">
+        <v>10</v>
+      </c>
+      <c r="M9" s="7">
+        <v>3</v>
+      </c>
+      <c r="N9" s="7"/>
+      <c r="O9" s="9"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:15">
+      <c r="A10" s="5"/>
+      <c r="B10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="13">
+        <v>0.9</v>
+      </c>
+      <c r="G10" s="14"/>
+      <c r="H10" s="16">
+        <v>45926.9137384259</v>
+      </c>
+      <c r="I10" s="17">
+        <v>45929</v>
+      </c>
+      <c r="J10" s="7"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7">
+        <v>4</v>
+      </c>
+      <c r="N10" s="7"/>
+      <c r="O10" s="9"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:15">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="14">
+        <v>45926</v>
+      </c>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="7">
         <v>16</v>
       </c>
-      <c r="M5" s="5">
-        <v>5</v>
-      </c>
-      <c r="N5" s="5"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="9"/>
     </row>
-    <row r="6" customHeight="1" spans="1:14">
-      <c r="A6" s="9"/>
-      <c r="B6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="5" t="s">
+    <row r="12" customHeight="1" spans="1:15">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="13"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="7">
+        <v>4</v>
+      </c>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="9"/>
+    </row>
+    <row r="13" ht="18" customHeight="1" spans="1:15">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="13"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="N13" s="7"/>
+      <c r="O13" s="9"/>
+    </row>
+    <row r="14" ht="18" customHeight="1" spans="1:15">
+      <c r="A14" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
+      <c r="C14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="13">
+        <v>1</v>
+      </c>
+      <c r="G14" s="14"/>
+      <c r="H14" s="16">
+        <v>45924.625</v>
+      </c>
+      <c r="I14" s="17"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="7">
+        <v>2</v>
+      </c>
+      <c r="M14" s="7">
+        <v>1</v>
+      </c>
+      <c r="N14" s="7"/>
+      <c r="O14" s="9"/>
     </row>
-    <row r="7" customHeight="1" spans="1:14">
-      <c r="A7" s="9"/>
-      <c r="B7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="5" t="s">
+    <row r="15" customHeight="1" spans="1:15">
+      <c r="A15" s="12"/>
+      <c r="B15" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="13">
+        <v>1</v>
+      </c>
+      <c r="G15" s="17">
+        <v>45924</v>
+      </c>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17">
+        <v>45926</v>
+      </c>
+      <c r="J15" s="7"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="7">
         <v>16</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="12">
-        <v>45894</v>
-      </c>
-      <c r="H7" s="12">
-        <v>45895</v>
-      </c>
-      <c r="I7" s="14">
+      <c r="M15" s="7">
+        <v>6</v>
+      </c>
+      <c r="N15" s="7"/>
+      <c r="O15" s="9"/>
+    </row>
+    <row r="16" customHeight="1" spans="1:15">
+      <c r="A16" s="12"/>
+      <c r="B16" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="13">
+        <v>0.9</v>
+      </c>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="17">
+        <v>45929</v>
+      </c>
+      <c r="J16" s="7"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="7">
+        <v>6</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="N16" s="7"/>
+      <c r="O16" s="9"/>
+    </row>
+    <row r="17" customHeight="1" spans="1:15">
+      <c r="A17" s="12"/>
+      <c r="B17" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="13">
+        <v>0.7</v>
+      </c>
+      <c r="G17" s="17">
         <v>45919</v>
       </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-    </row>
-    <row r="8" customHeight="1" spans="1:14">
-      <c r="A8" s="9"/>
-      <c r="B8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14">
-        <v>45919</v>
-      </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-    </row>
-    <row r="9" customHeight="1" spans="1:14">
-      <c r="A9" s="9"/>
-      <c r="B9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="5">
+      <c r="H17" s="15">
+        <v>45928.5416666667</v>
+      </c>
+      <c r="I17" s="17">
+        <v>45925</v>
+      </c>
+      <c r="J17" s="7"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="7">
         <v>24</v>
       </c>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-    </row>
-    <row r="10" customHeight="1" spans="1:14">
-      <c r="A10" s="9"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="11">
-        <v>0.9</v>
-      </c>
-      <c r="G10" s="12"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5">
+      <c r="M17" s="7">
         <v>4</v>
       </c>
-      <c r="N10" s="5"/>
-    </row>
-    <row r="11" ht="18" customHeight="1" spans="1:14">
-      <c r="A11" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="11">
-        <v>0.9</v>
-      </c>
-      <c r="G11" s="12">
-        <v>45917</v>
-      </c>
-      <c r="H11" s="15">
-        <v>45915.7083333333</v>
-      </c>
-      <c r="I11" s="14">
-        <v>45919</v>
-      </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="5">
-        <v>8</v>
-      </c>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-    </row>
-    <row r="12" customHeight="1" spans="1:14">
-      <c r="A12" s="9"/>
-      <c r="B12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="11">
-        <v>0.9</v>
-      </c>
-      <c r="G12" s="12">
-        <v>45918</v>
-      </c>
-      <c r="H12" s="15">
-        <v>45916.8541666667</v>
-      </c>
-      <c r="I12" s="14">
-        <v>45919</v>
-      </c>
-      <c r="J12" s="5"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="5">
-        <v>8</v>
-      </c>
-      <c r="M12" s="5">
-        <v>5</v>
-      </c>
-      <c r="N12" s="5"/>
-    </row>
-    <row r="13" customHeight="1" spans="1:14">
-      <c r="A13" s="9"/>
-      <c r="B13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="12">
-        <v>45919</v>
-      </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-    </row>
-    <row r="14" customHeight="1" spans="1:14">
-      <c r="A14" s="9"/>
-      <c r="B14" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="11">
-        <v>1</v>
-      </c>
-      <c r="G14" s="12"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5">
-        <v>1</v>
-      </c>
-      <c r="N14" s="5"/>
-    </row>
-    <row r="15" customHeight="1" spans="1:14">
-      <c r="A15" s="9"/>
-      <c r="B15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="11">
-        <v>0.6</v>
-      </c>
-      <c r="G15" s="12">
-        <v>45912</v>
-      </c>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="5">
-        <v>8</v>
-      </c>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-    </row>
-    <row r="16" customHeight="1" spans="1:14">
-      <c r="A16" s="9"/>
-      <c r="B16" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" s="11">
-        <v>0.6</v>
-      </c>
-      <c r="G16" s="12"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="5">
-        <v>6</v>
-      </c>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-    </row>
-    <row r="17" customHeight="1" spans="1:14">
-      <c r="A17" s="9"/>
-      <c r="B17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="12">
-        <v>45899</v>
-      </c>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="5">
-        <v>8</v>
-      </c>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-    </row>
-    <row r="18" customHeight="1" spans="1:14">
-      <c r="A18" s="9"/>
-      <c r="B18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="11">
-        <v>0.3</v>
-      </c>
-      <c r="G18" s="12"/>
-      <c r="H18" s="15">
-        <v>45917.5</v>
-      </c>
-      <c r="I18" s="14"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5">
-        <v>2</v>
-      </c>
-      <c r="N18" s="5"/>
-    </row>
-    <row r="19" ht="18" customHeight="1" spans="1:14">
-      <c r="A19" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="11">
-        <v>0.9</v>
-      </c>
-      <c r="G19" s="14">
-        <v>45916</v>
-      </c>
-      <c r="H19" s="15">
-        <v>45917.4411574074</v>
-      </c>
-      <c r="I19" s="14">
-        <v>45918</v>
-      </c>
-      <c r="J19" s="5"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="5">
-        <v>6</v>
-      </c>
-      <c r="M19" s="5">
-        <v>4</v>
-      </c>
-      <c r="N19" s="5"/>
-    </row>
-    <row r="20" customHeight="1" spans="1:14">
-      <c r="A20" s="4"/>
-      <c r="B20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" s="11"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14">
-        <v>45919</v>
-      </c>
-      <c r="J20" s="5"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="5">
-        <v>8</v>
-      </c>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-    </row>
-    <row r="21" customHeight="1" spans="1:14">
-      <c r="A21" s="4"/>
-      <c r="B21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="11">
-        <v>0.9</v>
-      </c>
-      <c r="G21" s="12">
-        <v>45915</v>
-      </c>
-      <c r="H21" s="15">
-        <v>45915.8541666667</v>
-      </c>
-      <c r="I21" s="14">
-        <v>45918</v>
-      </c>
-      <c r="J21" s="5"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="5">
-        <v>8</v>
-      </c>
-      <c r="M21" s="5">
-        <v>4</v>
-      </c>
-      <c r="N21" s="5"/>
-    </row>
-    <row r="22" customHeight="1" spans="1:14">
-      <c r="A22" s="4"/>
-      <c r="B22" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="G22" s="12"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-    </row>
-    <row r="23" customHeight="1" spans="1:14">
-      <c r="A23" s="4"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F23" s="11">
-        <v>1</v>
-      </c>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5">
-        <v>1</v>
-      </c>
-      <c r="N23" s="5"/>
-    </row>
-    <row r="24" customHeight="1" spans="1:14">
-      <c r="A24" s="4"/>
-      <c r="B24" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" s="11"/>
-      <c r="G24" s="14">
-        <v>45919</v>
-      </c>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A10"/>
-    <mergeCell ref="A11:A18"/>
-    <mergeCell ref="A19:A24"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A14:A17"/>
   </mergeCells>
+  <conditionalFormatting sqref="D$1:D$1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B25:B1048576" errorStyle="information">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B18:B1048576" errorStyle="information">
       <formula1>"A,B,C,S"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C25:C1048576" errorStyle="information">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C18:C1048576" errorStyle="information">
       <formula1>"美国,美国2,墨西哥,秘鲁,巴西,智利,分包系统,客服OA,运营系统,加拿大,澳大利亚,巴西2"</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="E25:E1048576">
+    <dataValidation type="list" sqref="E18:E1048576">
       <formula1>"测试中,未提测,已上线,已完成"</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="between" allowBlank="1" sqref="G25:I1048576"/>
+    <dataValidation type="date" operator="between" allowBlank="1" sqref="G18:I1048576"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/client/文件上传模版/测试任务更新模版.xlsx
+++ b/client/文件上传模版/测试任务更新模版.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="22260"/>
+    <workbookView windowHeight="17240"/>
   </bookViews>
   <sheets>
     <sheet name="模版" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="52">
   <si>
     <t>负责人</t>
   </si>
@@ -74,109 +74,115 @@
     <t>王雪斌</t>
   </si>
   <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>澳大利亚</t>
+  </si>
+  <si>
+    <t>澳大利亚H5 - ApplePay / GooglePay / USDT BEP20</t>
+  </si>
+  <si>
+    <t>未提测</t>
+  </si>
+  <si>
+    <t>加拿大</t>
+  </si>
+  <si>
+    <t>加拿大H5 - ApplePay / GooglePay / USDT BEP20</t>
+  </si>
+  <si>
+    <t>捕鱼游戏立项+周会+协助测试+临时发版</t>
+  </si>
+  <si>
+    <t>已完成</t>
+  </si>
+  <si>
+    <t>王然</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>美国1</t>
+  </si>
+  <si>
+    <t>美国一H5 - iOS引导下载工具包测试</t>
+  </si>
+  <si>
+    <t>已上线</t>
+  </si>
+  <si>
     <t>B</t>
   </si>
   <si>
-    <t>墨西哥</t>
-  </si>
-  <si>
-    <t>墨西哥 - 美国2召回礼包移植到墨西哥</t>
+    <t>【评审】美国 - IOS优化0923</t>
+  </si>
+  <si>
+    <t>美国3</t>
+  </si>
+  <si>
+    <t>美国三H5 - Crazy777 - 数值配置后台</t>
+  </si>
+  <si>
+    <t>暂停</t>
+  </si>
+  <si>
+    <t>美国一H5 - 弱时间送转盘活动放开到每天</t>
   </si>
   <si>
     <t>测试中</t>
   </si>
   <si>
-    <t>美国1</t>
-  </si>
-  <si>
-    <t>【评审】美国 - IOS优化0923</t>
-  </si>
-  <si>
-    <t>未提测</t>
-  </si>
-  <si>
-    <t>S</t>
+    <t>美国3-19.99礼包深挖移植（补充调整和入口）</t>
+  </si>
+  <si>
+    <t>美国2</t>
+  </si>
+  <si>
+    <t>【评审】美国2野牛非V数值调整</t>
+  </si>
+  <si>
+    <t>古鹏鹏</t>
+  </si>
+  <si>
+    <t>美国3 - 游戏内引导用户发送短信召回</t>
+  </si>
+  <si>
+    <t>测试时间不足，上线延期</t>
+  </si>
+  <si>
+    <t>美国二H5 - 首充后复购 - 清单革命（诱导3.0）</t>
+  </si>
+  <si>
+    <t>智利</t>
+  </si>
+  <si>
+    <t>评审 - FC任务条件翻倍 - 智利</t>
+  </si>
+  <si>
+    <t>赵涛涛</t>
+  </si>
+  <si>
+    <t>美国三H5 - IGT 34 款游戏上线到美国3</t>
   </si>
   <si>
     <t>美国1,美国2,美国3</t>
   </si>
   <si>
-    <t>【评审】美国1/2/3 - 减少19.99礼包及充值次日10邮件覆盖范围测试</t>
-  </si>
-  <si>
-    <t>王然</t>
-  </si>
-  <si>
-    <t>美国1-数值配置方案调整</t>
-  </si>
-  <si>
-    <t>存在上线风险</t>
-  </si>
-  <si>
-    <t>需求调整重新测试+配合体验</t>
-  </si>
-  <si>
-    <t>美国3</t>
-  </si>
-  <si>
-    <t>美国3-19.99礼包深挖移植（补充调整和入口）</t>
-  </si>
-  <si>
-    <t>美国2</t>
-  </si>
-  <si>
-    <t>【评审】美国2野牛非V数值调整</t>
-  </si>
-  <si>
-    <t>需求评审+谷歌包测试+其他</t>
-  </si>
-  <si>
-    <t>已完成</t>
-  </si>
-  <si>
-    <t>古鹏鹏</t>
-  </si>
-  <si>
-    <t>美国2 - 游戏内短信阶段优化0919</t>
-  </si>
-  <si>
-    <t>美国1 - 游戏内短信阶段优化0919</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>美国二H5 - 首充后复购 - 清单革命（诱导3.0）</t>
-  </si>
-  <si>
-    <t>智利</t>
-  </si>
-  <si>
-    <t>评审 - FC任务条件翻倍 - 智利</t>
-  </si>
-  <si>
-    <t>投放链归因</t>
-  </si>
-  <si>
-    <t>赵涛涛</t>
-  </si>
-  <si>
-    <t>美国3 - 新增messenger客服参数</t>
-  </si>
-  <si>
-    <t>已上线</t>
-  </si>
-  <si>
-    <t>美国3 - IOS优化+体验优化0917</t>
-  </si>
-  <si>
-    <t>【评审】美国3 - 九月促销礼包重开：小额充提0929</t>
-  </si>
-  <si>
-    <t>奇胜</t>
-  </si>
-  <si>
-    <t>AI古兰经</t>
+    <t>IGT游戏所有游戏去除后门工具弹窗</t>
+  </si>
+  <si>
+    <t>美国三H5 - iOS强制收藏功能移植到美国三</t>
+  </si>
+  <si>
+    <t>秘鲁,智利</t>
+  </si>
+  <si>
+    <t>FB临时下线</t>
+  </si>
+  <si>
+    <t>修复之前存在的问题（弹窗逻辑、周卡领取、强诱导弹窗）</t>
   </si>
 </sst>
 </file>
@@ -568,7 +574,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -623,6 +629,30 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -763,7 +793,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -775,34 +805,34 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -887,7 +917,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -900,52 +930,73 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1278,10 +1329,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:AT18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.5" customHeight="1"/>
@@ -1298,7 +1349,7 @@
     <col min="14" max="14" width="14.8666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:15">
+    <row r="1" customHeight="1" spans="1:46">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1308,7 +1359,7 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -1329,7 +1380,7 @@
       <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="22" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
@@ -1341,541 +1392,1108 @@
       <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="7"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26"/>
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="26"/>
+      <c r="AF1" s="26"/>
+      <c r="AG1" s="26"/>
+      <c r="AH1" s="26"/>
+      <c r="AI1" s="26"/>
+      <c r="AJ1" s="26"/>
+      <c r="AK1" s="26"/>
+      <c r="AL1" s="26"/>
+      <c r="AM1" s="26"/>
+      <c r="AN1" s="26"/>
+      <c r="AO1" s="26"/>
+      <c r="AP1" s="26"/>
+      <c r="AQ1" s="26"/>
+      <c r="AR1" s="26"/>
+      <c r="AS1" s="26"/>
+      <c r="AT1" s="26"/>
     </row>
-    <row r="2" ht="18" customHeight="1" spans="1:15">
-      <c r="A2" s="5" t="s">
+    <row r="2" ht="17.6" customHeight="1" spans="1:46">
+      <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="G2" s="14">
-        <v>45925</v>
-      </c>
-      <c r="H2" s="15">
-        <v>45925.6916666667</v>
-      </c>
-      <c r="I2" s="17">
+      <c r="F2" s="15"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6">
+        <v>1</v>
+      </c>
+      <c r="O2" s="6"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26"/>
+      <c r="AF2" s="26"/>
+      <c r="AG2" s="26"/>
+      <c r="AH2" s="26"/>
+      <c r="AI2" s="26"/>
+      <c r="AJ2" s="26"/>
+      <c r="AK2" s="26"/>
+      <c r="AL2" s="26"/>
+      <c r="AM2" s="26"/>
+      <c r="AN2" s="26"/>
+      <c r="AO2" s="26"/>
+      <c r="AP2" s="26"/>
+      <c r="AQ2" s="26"/>
+      <c r="AR2" s="26"/>
+      <c r="AS2" s="26"/>
+      <c r="AT2" s="26"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:46">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="15"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6">
+        <v>1</v>
+      </c>
+      <c r="O3" s="6"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="26"/>
+      <c r="AA3" s="26"/>
+      <c r="AB3" s="26"/>
+      <c r="AC3" s="26"/>
+      <c r="AD3" s="26"/>
+      <c r="AE3" s="26"/>
+      <c r="AF3" s="26"/>
+      <c r="AG3" s="26"/>
+      <c r="AH3" s="26"/>
+      <c r="AI3" s="26"/>
+      <c r="AJ3" s="26"/>
+      <c r="AK3" s="26"/>
+      <c r="AL3" s="26"/>
+      <c r="AM3" s="26"/>
+      <c r="AN3" s="26"/>
+      <c r="AO3" s="26"/>
+      <c r="AP3" s="26"/>
+      <c r="AQ3" s="26"/>
+      <c r="AR3" s="26"/>
+      <c r="AS3" s="26"/>
+      <c r="AT3" s="26"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:46">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="15"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6">
+        <v>5</v>
+      </c>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="26"/>
+      <c r="AA4" s="26"/>
+      <c r="AB4" s="26"/>
+      <c r="AC4" s="26"/>
+      <c r="AD4" s="26"/>
+      <c r="AE4" s="26"/>
+      <c r="AF4" s="26"/>
+      <c r="AG4" s="26"/>
+      <c r="AH4" s="26"/>
+      <c r="AI4" s="26"/>
+      <c r="AJ4" s="26"/>
+      <c r="AK4" s="26"/>
+      <c r="AL4" s="26"/>
+      <c r="AM4" s="26"/>
+      <c r="AN4" s="26"/>
+      <c r="AO4" s="26"/>
+      <c r="AP4" s="26"/>
+      <c r="AQ4" s="26"/>
+      <c r="AR4" s="26"/>
+      <c r="AS4" s="26"/>
+      <c r="AT4" s="26"/>
+    </row>
+    <row r="5" ht="17.6" customHeight="1" spans="1:46">
+      <c r="A5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="15">
+        <v>1</v>
+      </c>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16">
+        <v>45941</v>
+      </c>
+      <c r="J5" s="6"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6">
+        <v>4</v>
+      </c>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="26"/>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="26"/>
+      <c r="Z5" s="26"/>
+      <c r="AA5" s="26"/>
+      <c r="AB5" s="26"/>
+      <c r="AC5" s="26"/>
+      <c r="AD5" s="26"/>
+      <c r="AE5" s="26"/>
+      <c r="AF5" s="26"/>
+      <c r="AG5" s="26"/>
+      <c r="AH5" s="26"/>
+      <c r="AI5" s="26"/>
+      <c r="AJ5" s="26"/>
+      <c r="AK5" s="26"/>
+      <c r="AL5" s="26"/>
+      <c r="AM5" s="26"/>
+      <c r="AN5" s="26"/>
+      <c r="AO5" s="26"/>
+      <c r="AP5" s="26"/>
+      <c r="AQ5" s="26"/>
+      <c r="AR5" s="26"/>
+      <c r="AS5" s="26"/>
+      <c r="AT5" s="26"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:46">
+      <c r="A6" s="8"/>
+      <c r="B6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="15">
+        <v>1</v>
+      </c>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="16">
+        <v>45941</v>
+      </c>
+      <c r="J6" s="6"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6">
+        <v>1</v>
+      </c>
+      <c r="N6" s="6"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="26"/>
+      <c r="W6" s="26"/>
+      <c r="X6" s="26"/>
+      <c r="Y6" s="26"/>
+      <c r="Z6" s="26"/>
+      <c r="AA6" s="26"/>
+      <c r="AB6" s="26"/>
+      <c r="AC6" s="26"/>
+      <c r="AD6" s="26"/>
+      <c r="AE6" s="26"/>
+      <c r="AF6" s="26"/>
+      <c r="AG6" s="26"/>
+      <c r="AH6" s="26"/>
+      <c r="AI6" s="26"/>
+      <c r="AJ6" s="26"/>
+      <c r="AK6" s="26"/>
+      <c r="AL6" s="26"/>
+      <c r="AM6" s="26"/>
+      <c r="AN6" s="26"/>
+      <c r="AO6" s="26"/>
+      <c r="AP6" s="26"/>
+      <c r="AQ6" s="26"/>
+      <c r="AR6" s="26"/>
+      <c r="AS6" s="26"/>
+      <c r="AT6" s="26"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:46">
+      <c r="A7" s="8"/>
+      <c r="B7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="15"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="26"/>
+      <c r="AA7" s="26"/>
+      <c r="AB7" s="26"/>
+      <c r="AC7" s="26"/>
+      <c r="AD7" s="26"/>
+      <c r="AE7" s="26"/>
+      <c r="AF7" s="26"/>
+      <c r="AG7" s="26"/>
+      <c r="AH7" s="26"/>
+      <c r="AI7" s="26"/>
+      <c r="AJ7" s="26"/>
+      <c r="AK7" s="26"/>
+      <c r="AL7" s="26"/>
+      <c r="AM7" s="26"/>
+      <c r="AN7" s="26"/>
+      <c r="AO7" s="26"/>
+      <c r="AP7" s="26"/>
+      <c r="AQ7" s="26"/>
+      <c r="AR7" s="26"/>
+      <c r="AS7" s="26"/>
+      <c r="AT7" s="26"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:46">
+      <c r="A8" s="8"/>
+      <c r="B8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6">
+        <v>1</v>
+      </c>
+      <c r="N8" s="6"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="26"/>
+      <c r="AA8" s="26"/>
+      <c r="AB8" s="26"/>
+      <c r="AC8" s="26"/>
+      <c r="AD8" s="26"/>
+      <c r="AE8" s="26"/>
+      <c r="AF8" s="26"/>
+      <c r="AG8" s="26"/>
+      <c r="AH8" s="26"/>
+      <c r="AI8" s="26"/>
+      <c r="AJ8" s="26"/>
+      <c r="AK8" s="26"/>
+      <c r="AL8" s="26"/>
+      <c r="AM8" s="26"/>
+      <c r="AN8" s="26"/>
+      <c r="AO8" s="26"/>
+      <c r="AP8" s="26"/>
+      <c r="AQ8" s="26"/>
+      <c r="AR8" s="26"/>
+      <c r="AS8" s="26"/>
+      <c r="AT8" s="26"/>
+    </row>
+    <row r="9" customHeight="1" spans="1:46">
+      <c r="A9" s="8"/>
+      <c r="B9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26"/>
+      <c r="W9" s="26"/>
+      <c r="X9" s="26"/>
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="26"/>
+      <c r="AA9" s="26"/>
+      <c r="AB9" s="26"/>
+      <c r="AC9" s="26"/>
+      <c r="AD9" s="26"/>
+      <c r="AE9" s="26"/>
+      <c r="AF9" s="26"/>
+      <c r="AG9" s="26"/>
+      <c r="AH9" s="26"/>
+      <c r="AI9" s="26"/>
+      <c r="AJ9" s="26"/>
+      <c r="AK9" s="26"/>
+      <c r="AL9" s="26"/>
+      <c r="AM9" s="26"/>
+      <c r="AN9" s="26"/>
+      <c r="AO9" s="26"/>
+      <c r="AP9" s="26"/>
+      <c r="AQ9" s="26"/>
+      <c r="AR9" s="26"/>
+      <c r="AS9" s="26"/>
+      <c r="AT9" s="26"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:46">
+      <c r="A10" s="8"/>
+      <c r="B10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="17">
+        <v>45894</v>
+      </c>
+      <c r="H10" s="17">
+        <v>45895</v>
+      </c>
+      <c r="I10" s="16"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="6"/>
+      <c r="M10"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="26"/>
+      <c r="X10" s="26"/>
+      <c r="Y10" s="26"/>
+      <c r="Z10" s="26"/>
+      <c r="AA10" s="26"/>
+      <c r="AB10" s="26"/>
+      <c r="AC10" s="26"/>
+      <c r="AD10" s="26"/>
+      <c r="AE10" s="26"/>
+      <c r="AF10" s="26"/>
+      <c r="AG10" s="26"/>
+      <c r="AH10" s="26"/>
+      <c r="AI10" s="26"/>
+      <c r="AJ10" s="26"/>
+      <c r="AK10" s="26"/>
+      <c r="AL10" s="26"/>
+      <c r="AM10" s="26"/>
+      <c r="AN10" s="26"/>
+      <c r="AO10" s="26"/>
+      <c r="AP10" s="26"/>
+      <c r="AQ10" s="26"/>
+      <c r="AR10" s="26"/>
+      <c r="AS10" s="26"/>
+      <c r="AT10" s="26"/>
+    </row>
+    <row r="11" ht="17.6" customHeight="1" spans="1:46">
+      <c r="A11" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="G11" s="16"/>
+      <c r="H11" s="18">
+        <v>45940.75</v>
+      </c>
+      <c r="I11" s="16">
+        <v>45941</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" s="23"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6">
+        <v>5</v>
+      </c>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="26"/>
+      <c r="W11" s="26"/>
+      <c r="X11" s="26"/>
+      <c r="Y11" s="26"/>
+      <c r="Z11" s="26"/>
+      <c r="AA11" s="26"/>
+      <c r="AB11" s="26"/>
+      <c r="AC11" s="26"/>
+      <c r="AD11" s="26"/>
+      <c r="AE11" s="26"/>
+      <c r="AF11" s="26"/>
+      <c r="AG11" s="26"/>
+      <c r="AH11" s="26"/>
+      <c r="AI11" s="26"/>
+      <c r="AJ11" s="26"/>
+      <c r="AK11" s="26"/>
+      <c r="AL11" s="26"/>
+      <c r="AM11" s="26"/>
+      <c r="AN11" s="26"/>
+      <c r="AO11" s="26"/>
+      <c r="AP11" s="26"/>
+      <c r="AQ11" s="26"/>
+      <c r="AR11" s="26"/>
+      <c r="AS11" s="26"/>
+      <c r="AT11" s="26"/>
+    </row>
+    <row r="12" customHeight="1" spans="1:46">
+      <c r="A12" s="8"/>
+      <c r="B12" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="15">
+        <v>0.85</v>
+      </c>
+      <c r="G12" s="17">
         <v>45926</v>
       </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="7">
-        <v>10</v>
-      </c>
-      <c r="M2" s="7">
+      <c r="H12" s="18">
+        <v>45929.8333333333</v>
+      </c>
+      <c r="I12" s="16"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="6">
+        <v>16</v>
+      </c>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="26"/>
+      <c r="V12" s="26"/>
+      <c r="W12" s="26"/>
+      <c r="X12" s="26"/>
+      <c r="Y12" s="26"/>
+      <c r="Z12" s="26"/>
+      <c r="AA12" s="26"/>
+      <c r="AB12" s="26"/>
+      <c r="AC12" s="26"/>
+      <c r="AD12" s="26"/>
+      <c r="AE12" s="26"/>
+      <c r="AF12" s="26"/>
+      <c r="AG12" s="26"/>
+      <c r="AH12" s="26"/>
+      <c r="AI12" s="26"/>
+      <c r="AJ12" s="26"/>
+      <c r="AK12" s="26"/>
+      <c r="AL12" s="26"/>
+      <c r="AM12" s="26"/>
+      <c r="AN12" s="26"/>
+      <c r="AO12" s="26"/>
+      <c r="AP12" s="26"/>
+      <c r="AQ12" s="26"/>
+      <c r="AR12" s="26"/>
+      <c r="AS12" s="26"/>
+      <c r="AT12" s="26"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:46">
+      <c r="A13" s="8"/>
+      <c r="B13" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="G13" s="17"/>
+      <c r="H13" s="18">
+        <v>45941.7500925926</v>
+      </c>
+      <c r="I13" s="16"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="6">
+        <v>4</v>
+      </c>
+      <c r="M13" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="N13" s="6"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="26"/>
+      <c r="W13" s="26"/>
+      <c r="X13" s="26"/>
+      <c r="Y13" s="26"/>
+      <c r="Z13" s="26"/>
+      <c r="AA13" s="26"/>
+      <c r="AB13" s="26"/>
+      <c r="AC13" s="26"/>
+      <c r="AD13" s="26"/>
+      <c r="AE13" s="26"/>
+      <c r="AF13" s="26"/>
+      <c r="AG13" s="26"/>
+      <c r="AH13" s="26"/>
+      <c r="AI13" s="26"/>
+      <c r="AJ13" s="26"/>
+      <c r="AK13" s="26"/>
+      <c r="AL13" s="26"/>
+      <c r="AM13" s="26"/>
+      <c r="AN13" s="26"/>
+      <c r="AO13" s="26"/>
+      <c r="AP13" s="26"/>
+      <c r="AQ13" s="26"/>
+      <c r="AR13" s="26"/>
+      <c r="AS13" s="26"/>
+      <c r="AT13" s="26"/>
+    </row>
+    <row r="14" ht="17.6" customHeight="1" spans="1:46">
+      <c r="A14" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="19">
+        <v>1</v>
+      </c>
+      <c r="G14" s="20">
+        <v>45924</v>
+      </c>
+      <c r="H14" s="21">
+        <v>45929.375</v>
+      </c>
+      <c r="I14" s="20">
+        <v>45940</v>
+      </c>
+      <c r="J14" s="13"/>
+      <c r="K14" s="18">
+        <v>45941.75</v>
+      </c>
+      <c r="L14" s="6">
+        <v>12</v>
+      </c>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="26"/>
+      <c r="W14" s="26"/>
+      <c r="X14" s="26"/>
+      <c r="Y14" s="26"/>
+      <c r="Z14" s="26"/>
+      <c r="AA14" s="26"/>
+      <c r="AB14" s="26"/>
+      <c r="AC14" s="26"/>
+      <c r="AD14" s="26"/>
+      <c r="AE14" s="26"/>
+      <c r="AF14" s="26"/>
+      <c r="AG14" s="26"/>
+      <c r="AH14" s="26"/>
+      <c r="AI14" s="26"/>
+      <c r="AJ14" s="26"/>
+      <c r="AK14" s="26"/>
+      <c r="AL14" s="26"/>
+      <c r="AM14" s="26"/>
+      <c r="AN14" s="26"/>
+      <c r="AO14" s="26"/>
+      <c r="AP14" s="26"/>
+      <c r="AQ14" s="26"/>
+      <c r="AR14" s="26"/>
+      <c r="AS14" s="26"/>
+      <c r="AT14" s="26"/>
+    </row>
+    <row r="15" customHeight="1" spans="1:46">
+      <c r="A15" s="8"/>
+      <c r="B15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="15">
+        <v>1</v>
+      </c>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16">
+        <v>45940</v>
+      </c>
+      <c r="J15" s="6"/>
+      <c r="K15" s="24">
+        <v>45941.5833333333</v>
+      </c>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13">
+        <v>1</v>
+      </c>
+      <c r="N15" s="13"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="26"/>
+      <c r="W15" s="26"/>
+      <c r="X15" s="26"/>
+      <c r="Y15" s="26"/>
+      <c r="Z15" s="26"/>
+      <c r="AA15" s="26"/>
+      <c r="AB15" s="26"/>
+      <c r="AC15" s="26"/>
+      <c r="AD15" s="26"/>
+      <c r="AE15" s="26"/>
+      <c r="AF15" s="26"/>
+      <c r="AG15" s="26"/>
+      <c r="AH15" s="26"/>
+      <c r="AI15" s="26"/>
+      <c r="AJ15" s="26"/>
+      <c r="AK15" s="26"/>
+      <c r="AL15" s="26"/>
+      <c r="AM15" s="26"/>
+      <c r="AN15" s="26"/>
+      <c r="AO15" s="26"/>
+      <c r="AP15" s="26"/>
+      <c r="AQ15" s="26"/>
+      <c r="AR15" s="26"/>
+      <c r="AS15" s="26"/>
+      <c r="AT15" s="26"/>
+    </row>
+    <row r="16" customHeight="1" spans="1:46">
+      <c r="A16" s="8"/>
+      <c r="B16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="G16" s="16"/>
+      <c r="H16" s="18">
+        <v>45940.875</v>
+      </c>
+      <c r="I16" s="16"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="13">
+        <v>4</v>
+      </c>
+      <c r="M16" s="13">
         <v>2</v>
       </c>
-      <c r="N2" s="7"/>
-      <c r="O2" s="9"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="26"/>
+      <c r="U16" s="26"/>
+      <c r="V16" s="26"/>
+      <c r="W16" s="26"/>
+      <c r="X16" s="26"/>
+      <c r="Y16" s="26"/>
+      <c r="Z16" s="26"/>
+      <c r="AA16" s="26"/>
+      <c r="AB16" s="26"/>
+      <c r="AC16" s="26"/>
+      <c r="AD16" s="26"/>
+      <c r="AE16" s="26"/>
+      <c r="AF16" s="26"/>
+      <c r="AG16" s="26"/>
+      <c r="AH16" s="26"/>
+      <c r="AI16" s="26"/>
+      <c r="AJ16" s="26"/>
+      <c r="AK16" s="26"/>
+      <c r="AL16" s="26"/>
+      <c r="AM16" s="26"/>
+      <c r="AN16" s="26"/>
+      <c r="AO16" s="26"/>
+      <c r="AP16" s="26"/>
+      <c r="AQ16" s="26"/>
+      <c r="AR16" s="26"/>
+      <c r="AS16" s="26"/>
+      <c r="AT16" s="26"/>
     </row>
-    <row r="3" customHeight="1" spans="1:15">
-      <c r="A3" s="5"/>
-      <c r="B3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="9"/>
+    <row r="17" customHeight="1" spans="1:46">
+      <c r="A17" s="8"/>
+      <c r="B17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="15">
+        <v>1</v>
+      </c>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="24">
+        <v>45941.7916666667</v>
+      </c>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="N17" s="13"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="26"/>
+      <c r="V17" s="26"/>
+      <c r="W17" s="26"/>
+      <c r="X17" s="26"/>
+      <c r="Y17" s="26"/>
+      <c r="Z17" s="26"/>
+      <c r="AA17" s="26"/>
+      <c r="AB17" s="26"/>
+      <c r="AC17" s="26"/>
+      <c r="AD17" s="26"/>
+      <c r="AE17" s="26"/>
+      <c r="AF17" s="26"/>
+      <c r="AG17" s="26"/>
+      <c r="AH17" s="26"/>
+      <c r="AI17" s="26"/>
+      <c r="AJ17" s="26"/>
+      <c r="AK17" s="26"/>
+      <c r="AL17" s="26"/>
+      <c r="AM17" s="26"/>
+      <c r="AN17" s="26"/>
+      <c r="AO17" s="26"/>
+      <c r="AP17" s="26"/>
+      <c r="AQ17" s="26"/>
+      <c r="AR17" s="26"/>
+      <c r="AS17" s="26"/>
+      <c r="AT17" s="26"/>
     </row>
-    <row r="4" customHeight="1" spans="1:15">
-      <c r="A4" s="5"/>
-      <c r="B4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="13">
-        <v>0.9</v>
-      </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="17">
-        <v>45929</v>
-      </c>
-      <c r="J4" s="7"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7">
+    <row r="18" customHeight="1" spans="1:46">
+      <c r="A18" s="8"/>
+      <c r="B18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="15">
         <v>1</v>
       </c>
-      <c r="N4" s="7"/>
-      <c r="O4" s="9"/>
-    </row>
-    <row r="5" ht="18" customHeight="1" spans="1:15">
-      <c r="A5" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="13">
-        <v>0.7</v>
-      </c>
-      <c r="G5" s="14">
-        <v>45923</v>
-      </c>
-      <c r="H5" s="14"/>
-      <c r="I5" s="17">
-        <v>45925</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" s="19"/>
-      <c r="L5" s="7">
-        <v>16</v>
-      </c>
-      <c r="M5" s="7">
-        <v>6</v>
-      </c>
-      <c r="N5" s="7"/>
-      <c r="O5" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:15">
-      <c r="A6" s="10"/>
-      <c r="B6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="9"/>
-    </row>
-    <row r="7" customHeight="1" spans="1:15">
-      <c r="A7" s="10"/>
-      <c r="B7" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="14">
-        <v>45894</v>
-      </c>
-      <c r="H7" s="14">
-        <v>45895</v>
-      </c>
-      <c r="I7" s="17">
-        <v>45919</v>
-      </c>
-      <c r="J7" s="7"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="7"/>
-      <c r="M7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="9"/>
-    </row>
-    <row r="8" customHeight="1" spans="1:15">
-      <c r="A8" s="10"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="13">
-        <v>1</v>
-      </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7">
-        <v>2</v>
-      </c>
-      <c r="N8" s="7"/>
-      <c r="O8" s="9"/>
-    </row>
-    <row r="9" ht="18" customHeight="1" spans="1:15">
-      <c r="A9" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="13">
-        <v>0.9</v>
-      </c>
-      <c r="G9" s="14">
-        <v>45924</v>
-      </c>
-      <c r="H9" s="16">
-        <v>45925.875</v>
-      </c>
-      <c r="I9" s="17">
-        <v>45929</v>
-      </c>
-      <c r="J9" s="7"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="7">
-        <v>10</v>
-      </c>
-      <c r="M9" s="7">
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="24">
+        <v>45941.75</v>
+      </c>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13">
         <v>3</v>
       </c>
-      <c r="N9" s="7"/>
-      <c r="O9" s="9"/>
-    </row>
-    <row r="10" customHeight="1" spans="1:15">
-      <c r="A10" s="5"/>
-      <c r="B10" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="13">
-        <v>0.9</v>
-      </c>
-      <c r="G10" s="14"/>
-      <c r="H10" s="16">
-        <v>45926.9137384259</v>
-      </c>
-      <c r="I10" s="17">
-        <v>45929</v>
-      </c>
-      <c r="J10" s="7"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7">
-        <v>4</v>
-      </c>
-      <c r="N10" s="7"/>
-      <c r="O10" s="9"/>
-    </row>
-    <row r="11" customHeight="1" spans="1:15">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="14">
-        <v>45926</v>
-      </c>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="7">
-        <v>16</v>
-      </c>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="9"/>
-    </row>
-    <row r="12" customHeight="1" spans="1:15">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="7">
-        <v>4</v>
-      </c>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="9"/>
-    </row>
-    <row r="13" ht="18" customHeight="1" spans="1:15">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="N13" s="7"/>
-      <c r="O13" s="9"/>
-    </row>
-    <row r="14" ht="18" customHeight="1" spans="1:15">
-      <c r="A14" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="13">
-        <v>1</v>
-      </c>
-      <c r="G14" s="14"/>
-      <c r="H14" s="16">
-        <v>45924.625</v>
-      </c>
-      <c r="I14" s="17"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="7">
-        <v>2</v>
-      </c>
-      <c r="M14" s="7">
-        <v>1</v>
-      </c>
-      <c r="N14" s="7"/>
-      <c r="O14" s="9"/>
-    </row>
-    <row r="15" customHeight="1" spans="1:15">
-      <c r="A15" s="12"/>
-      <c r="B15" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="13">
-        <v>1</v>
-      </c>
-      <c r="G15" s="17">
-        <v>45924</v>
-      </c>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17">
-        <v>45926</v>
-      </c>
-      <c r="J15" s="7"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="7">
-        <v>16</v>
-      </c>
-      <c r="M15" s="7">
-        <v>6</v>
-      </c>
-      <c r="N15" s="7"/>
-      <c r="O15" s="9"/>
-    </row>
-    <row r="16" customHeight="1" spans="1:15">
-      <c r="A16" s="12"/>
-      <c r="B16" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="13">
-        <v>0.9</v>
-      </c>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="17">
-        <v>45929</v>
-      </c>
-      <c r="J16" s="7"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="7">
-        <v>6</v>
-      </c>
-      <c r="M16" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="N16" s="7"/>
-      <c r="O16" s="9"/>
-    </row>
-    <row r="17" customHeight="1" spans="1:15">
-      <c r="A17" s="12"/>
-      <c r="B17" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="13">
-        <v>0.7</v>
-      </c>
-      <c r="G17" s="17">
-        <v>45919</v>
-      </c>
-      <c r="H17" s="15">
-        <v>45928.5416666667</v>
-      </c>
-      <c r="I17" s="17">
-        <v>45925</v>
-      </c>
-      <c r="J17" s="7"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="7">
-        <v>24</v>
-      </c>
-      <c r="M17" s="7">
-        <v>4</v>
-      </c>
-      <c r="N17" s="7"/>
-      <c r="O17" s="9"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="26"/>
+      <c r="U18" s="26"/>
+      <c r="V18" s="26"/>
+      <c r="W18" s="26"/>
+      <c r="X18" s="26"/>
+      <c r="Y18" s="26"/>
+      <c r="Z18" s="26"/>
+      <c r="AA18" s="26"/>
+      <c r="AB18" s="26"/>
+      <c r="AC18" s="26"/>
+      <c r="AD18" s="26"/>
+      <c r="AE18" s="26"/>
+      <c r="AF18" s="26"/>
+      <c r="AG18" s="26"/>
+      <c r="AH18" s="26"/>
+      <c r="AI18" s="26"/>
+      <c r="AJ18" s="26"/>
+      <c r="AK18" s="26"/>
+      <c r="AL18" s="26"/>
+      <c r="AM18" s="26"/>
+      <c r="AN18" s="26"/>
+      <c r="AO18" s="26"/>
+      <c r="AP18" s="26"/>
+      <c r="AQ18" s="26"/>
+      <c r="AR18" s="26"/>
+      <c r="AS18" s="26"/>
+      <c r="AT18" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A18"/>
   </mergeCells>
   <conditionalFormatting sqref="D$1:D$1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B18:B1048576" errorStyle="information">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B19:B1048576" errorStyle="information">
       <formula1>"A,B,C,S"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C18:C1048576" errorStyle="information">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C19:C1048576" errorStyle="information">
       <formula1>"美国,美国2,墨西哥,秘鲁,巴西,智利,分包系统,客服OA,运营系统,加拿大,澳大利亚,巴西2"</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="E18:E1048576">
+    <dataValidation type="list" sqref="E19:E1048576">
       <formula1>"测试中,未提测,已上线,已完成"</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="between" allowBlank="1" sqref="G18:I1048576"/>
+    <dataValidation type="date" operator="between" allowBlank="1" sqref="G19:I1048576"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/client/文件上传模版/测试任务更新模版.xlsx
+++ b/client/文件上传模版/测试任务更新模版.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="60">
   <si>
     <t>负责人</t>
   </si>
@@ -83,127 +83,130 @@
     <t>【评审】美国3 - 新增普通弹窗序列组</t>
   </si>
   <si>
+    <t>测试中</t>
+  </si>
+  <si>
+    <t>美国1,美国2,美国3</t>
+  </si>
+  <si>
+    <t>美国1/2/3 - 万圣节装饰活动</t>
+  </si>
+  <si>
+    <t>已上线</t>
+  </si>
+  <si>
+    <t>美国2</t>
+  </si>
+  <si>
+    <t>美国2 大厅子游戏展示优化</t>
+  </si>
+  <si>
+    <t>美国1</t>
+  </si>
+  <si>
+    <t>美国1 添加service worker</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>【评审】美国3 - 精选版仿谷歌落地页MVP</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>测试工具功能修改补充</t>
+  </si>
+  <si>
+    <t>王然</t>
+  </si>
+  <si>
+    <t>墨西哥,澳大利亚</t>
+  </si>
+  <si>
+    <t>线上订阅地址更换</t>
+  </si>
+  <si>
+    <t>秘鲁、智利已上线</t>
+  </si>
+  <si>
+    <t>美国1,美国2</t>
+  </si>
+  <si>
+    <t>美国1/2 - 同时接入FB和TG客服</t>
+  </si>
+  <si>
+    <t>巴西</t>
+  </si>
+  <si>
+    <t>【评审】巴西 - TG浏览器中间页渠道 + 跳转外部浏览器打开</t>
+  </si>
+  <si>
+    <t>古鹏鹏</t>
+  </si>
+  <si>
+    <t>墨西哥</t>
+  </si>
+  <si>
+    <t>【评审】墨西哥视讯对接</t>
+  </si>
+  <si>
+    <t>美国1,美国3</t>
+  </si>
+  <si>
+    <t>【评审】美国1/3 - 新增USDT(BEP)支付&amp;提款</t>
+  </si>
+  <si>
+    <t>客服OA</t>
+  </si>
+  <si>
+    <t>客服OA - 4.0：新增活动查询页面</t>
+  </si>
+  <si>
+    <t>美国3 - 首充后复购 - 清单革命（诱导3.0）移植</t>
+  </si>
+  <si>
+    <t>需求评审</t>
+  </si>
+  <si>
+    <t>赵涛涛</t>
+  </si>
+  <si>
+    <t>美国三H5 - 自研捕鱼游戏 Mega Fishing</t>
+  </si>
+  <si>
+    <t>美国三H5 - 自研游戏 Keno</t>
+  </si>
+  <si>
+    <t>igt自研游戏*28</t>
+  </si>
+  <si>
+    <t>活动配置后台</t>
+  </si>
+  <si>
     <t>未提测</t>
   </si>
   <si>
-    <t>美国1,美国2,美国3</t>
-  </si>
-  <si>
-    <t>美国1/2/3 - 万圣节装饰活动</t>
-  </si>
-  <si>
-    <t>测试中</t>
-  </si>
-  <si>
-    <t>美国2</t>
-  </si>
-  <si>
-    <t>美国2 大厅子游戏展示优化</t>
-  </si>
-  <si>
-    <t>美国1</t>
-  </si>
-  <si>
-    <t>美国1 添加service worker</t>
-  </si>
-  <si>
-    <t>野牛游戏bug修复测试</t>
-  </si>
-  <si>
-    <t>已上线</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>【评审】美国3 - 精选版仿谷歌落地页MVP</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>测试工具功能修改补充</t>
-  </si>
-  <si>
-    <t>王然</t>
-  </si>
-  <si>
-    <t>墨西哥,秘鲁,智利,澳大利亚</t>
-  </si>
-  <si>
-    <t>线上订阅地址更换</t>
-  </si>
-  <si>
-    <t>美国1、2、3已发布</t>
-  </si>
-  <si>
-    <t>美国三H5 - 同时接入FB和TG客服</t>
-  </si>
-  <si>
-    <t>美国1,美国2</t>
-  </si>
-  <si>
-    <t>美国1/2 - 同时接入FB和TG客服</t>
-  </si>
-  <si>
-    <t>巴西</t>
-  </si>
-  <si>
-    <t>【评审】巴西 - TG浏览器中间页渠道 + 跳转外部浏览器打开</t>
-  </si>
-  <si>
-    <t>谷歌21号包投放链测试</t>
-  </si>
-  <si>
-    <t>已完成</t>
-  </si>
-  <si>
-    <t>古鹏鹏</t>
-  </si>
-  <si>
-    <t>墨西哥</t>
-  </si>
-  <si>
-    <t>【评审】墨西哥视讯对接</t>
-  </si>
-  <si>
-    <t>美国1,美国3</t>
-  </si>
-  <si>
-    <t>【评审】美国1/3 - 新增USDT(BEP)支付&amp;提款</t>
-  </si>
-  <si>
-    <t>美国3 - 首充后复购 - 清单革命（诱导3.0）移植</t>
-  </si>
-  <si>
-    <t>需求评审</t>
-  </si>
-  <si>
-    <t>赵涛涛</t>
-  </si>
-  <si>
-    <t>美国三H5 - 自研捕鱼游戏 Mega Fishing</t>
-  </si>
-  <si>
-    <t>美国三H5 - 自研游戏 Keno</t>
-  </si>
-  <si>
-    <t>igt自研游戏*28</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>美国3 - 新增强诱导功能组</t>
-  </si>
-  <si>
     <t>美国1/2/3破产礼包配置化设计</t>
   </si>
   <si>
     <t>AI古兰经</t>
   </si>
   <si>
+    <t>AI古兰1.0.7 - 新增客服功能和礼拜音效</t>
+  </si>
+  <si>
     <t>AI古兰 - APK投放付费测试方案</t>
+  </si>
+  <si>
+    <t>暂停</t>
+  </si>
+  <si>
+    <t>AI古兰1.0.8 - 订阅方案尾号测试2.0</t>
+  </si>
+  <si>
+    <t>美国三H5 - 自研Crash</t>
   </si>
 </sst>
 </file>
@@ -217,7 +220,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -237,6 +240,12 @@
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -396,7 +405,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -406,6 +415,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D04F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -618,9 +633,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -633,7 +646,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -783,70 +798,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -861,70 +873,73 @@
     <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -938,28 +953,25 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -971,16 +983,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -995,7 +1010,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1331,10 +1346,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:O22"/>
+      <selection activeCell="A1" sqref="A1:O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.5" customHeight="1"/>
@@ -1412,21 +1427,27 @@
       <c r="E2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="14"/>
+      <c r="F2" s="14">
+        <v>0.7</v>
+      </c>
       <c r="G2" s="15">
         <v>45951</v>
       </c>
-      <c r="H2" s="15"/>
+      <c r="H2" s="16">
+        <v>45955.7008796296</v>
+      </c>
       <c r="I2" s="15">
         <v>45953</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="21"/>
-      <c r="L2" s="12">
+      <c r="L2" s="11">
         <v>6</v>
       </c>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
+      <c r="M2" s="11">
+        <v>5</v>
+      </c>
+      <c r="N2" s="11"/>
       <c r="O2" s="5"/>
     </row>
     <row r="3" customHeight="1" spans="1:15">
@@ -1444,7 +1465,7 @@
         <v>21</v>
       </c>
       <c r="F3" s="14">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G3" s="15">
         <v>45950</v>
@@ -1456,12 +1477,14 @@
         <v>45953</v>
       </c>
       <c r="J3" s="5"/>
-      <c r="K3" s="22"/>
+      <c r="K3" s="22">
+        <v>45953</v>
+      </c>
       <c r="L3" s="5">
         <v>3</v>
       </c>
       <c r="M3" s="5">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
@@ -1481,7 +1504,7 @@
         <v>21</v>
       </c>
       <c r="F4" s="14">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G4" s="15">
         <v>45950</v>
@@ -1491,7 +1514,9 @@
       </c>
       <c r="I4" s="15"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="22"/>
+      <c r="K4" s="22">
+        <v>45953</v>
+      </c>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
@@ -1512,7 +1537,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="14">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G5" s="15">
         <v>45950</v>
@@ -1522,7 +1547,9 @@
       </c>
       <c r="I5" s="15"/>
       <c r="J5" s="5"/>
-      <c r="K5" s="22"/>
+      <c r="K5" s="22">
+        <v>45953</v>
+      </c>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
@@ -1531,19 +1558,19 @@
     <row r="6" customHeight="1" spans="1:15">
       <c r="A6" s="3"/>
       <c r="B6" s="4" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F6" s="14">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
@@ -1551,9 +1578,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="22"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="5">
-        <v>2</v>
-      </c>
+      <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
     </row>
@@ -1562,17 +1587,15 @@
       <c r="B7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="C7" s="5"/>
       <c r="D7" s="7" t="s">
         <v>29</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F7" s="14">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
@@ -1580,26 +1603,28 @@
       <c r="J7" s="5"/>
       <c r="K7" s="22"/>
       <c r="L7" s="5"/>
-      <c r="M7" s="5">
-        <v>1</v>
-      </c>
+      <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
     </row>
-    <row r="8" customHeight="1" spans="1:15">
-      <c r="A8" s="3"/>
+    <row r="8" ht="17.6" customHeight="1" spans="1:15">
+      <c r="A8" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="B8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="5"/>
+        <v>26</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="D8" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F8" s="14">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
@@ -1608,458 +1633,493 @@
       <c r="K8" s="22"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-    </row>
-    <row r="9" ht="17.6" customHeight="1" spans="1:15">
-      <c r="A9" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>28</v>
+      <c r="N8"/>
+      <c r="O8" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:15">
+      <c r="A9" s="3"/>
+      <c r="B9" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="7" t="s">
         <v>34</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="15"/>
+      <c r="F9" s="14">
+        <v>1</v>
+      </c>
+      <c r="G9" s="17">
+        <v>45951</v>
+      </c>
       <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
+      <c r="I9" s="15">
+        <v>45953</v>
+      </c>
       <c r="J9" s="5"/>
       <c r="K9" s="22"/>
       <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9"/>
-      <c r="O9" s="5" t="s">
-        <v>35</v>
-      </c>
+      <c r="M9" s="5">
+        <v>5</v>
+      </c>
+      <c r="N9" s="5"/>
+      <c r="O9" s="4"/>
     </row>
     <row r="10" customHeight="1" spans="1:15">
-      <c r="A10" s="8"/>
+      <c r="A10" s="3"/>
       <c r="B10" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="7" t="s">
         <v>36</v>
       </c>
+      <c r="D10" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="E10" s="5" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F10" s="14">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="G10" s="15">
-        <v>45945</v>
+        <v>45953</v>
       </c>
       <c r="H10" s="15"/>
       <c r="I10" s="15">
-        <v>45951</v>
+        <v>45954</v>
       </c>
       <c r="J10" s="5"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="5">
-        <v>16</v>
-      </c>
-      <c r="M10" s="5">
-        <v>6</v>
-      </c>
-      <c r="N10" s="5"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11">
+        <v>3</v>
+      </c>
+      <c r="N10" s="11"/>
       <c r="O10" s="5"/>
     </row>
-    <row r="11" customHeight="1" spans="1:15">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9" t="s">
-        <v>28</v>
+    <row r="11" ht="18" customHeight="1" spans="1:15">
+      <c r="A11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="14"/>
+      <c r="F11" s="14">
+        <v>0.9</v>
+      </c>
       <c r="G11" s="17">
-        <v>45951</v>
+        <v>45899</v>
       </c>
       <c r="H11" s="15"/>
       <c r="I11" s="15">
-        <v>45953</v>
+        <v>45951</v>
       </c>
       <c r="J11" s="5"/>
       <c r="K11" s="22"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
+      <c r="L11" s="5">
+        <v>8</v>
+      </c>
+      <c r="M11" s="5">
+        <v>1</v>
+      </c>
       <c r="N11" s="5"/>
       <c r="O11" s="4"/>
     </row>
     <row r="12" customHeight="1" spans="1:15">
-      <c r="A12" s="8"/>
+      <c r="A12" s="3"/>
       <c r="B12" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="14"/>
+      <c r="F12" s="14">
+        <v>0.9</v>
+      </c>
       <c r="G12" s="15">
+        <v>45950</v>
+      </c>
+      <c r="H12" s="16">
+        <v>45951.6666666667</v>
+      </c>
+      <c r="I12" s="15">
         <v>45953</v>
-      </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15">
-        <v>45954</v>
       </c>
       <c r="J12" s="5"/>
       <c r="K12" s="21"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11">
+        <v>4</v>
+      </c>
+      <c r="N12" s="11"/>
       <c r="O12" s="5"/>
     </row>
     <row r="13" customHeight="1" spans="1:15">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="10" t="s">
-        <v>41</v>
+      <c r="A13" s="3"/>
+      <c r="B13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="F13" s="14">
-        <v>1</v>
-      </c>
-      <c r="G13" s="17"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
+        <v>0.4</v>
+      </c>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15">
+        <v>45953</v>
+      </c>
+      <c r="I13" s="15">
+        <v>45954</v>
+      </c>
       <c r="J13" s="5"/>
       <c r="K13" s="22"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N13" s="5"/>
-      <c r="O13" s="4"/>
-    </row>
-    <row r="14" ht="18" customHeight="1" spans="1:15">
-      <c r="A14" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>15</v>
+      <c r="O13" s="5"/>
+    </row>
+    <row r="14" customHeight="1" spans="1:15">
+      <c r="A14" s="3"/>
+      <c r="B14" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>45</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="14">
-        <v>0.9</v>
-      </c>
-      <c r="G14" s="17">
-        <v>45899</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="F14" s="14"/>
+      <c r="G14" s="15"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="15">
-        <v>45951</v>
-      </c>
+      <c r="I14" s="15"/>
       <c r="J14" s="5"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="5">
-        <v>8</v>
-      </c>
-      <c r="M14" s="5">
-        <v>6</v>
-      </c>
-      <c r="N14" s="5"/>
-      <c r="O14" s="4"/>
-    </row>
-    <row r="15" customHeight="1" spans="1:15">
-      <c r="A15" s="3"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="5"/>
+    </row>
+    <row r="15" ht="17.6" customHeight="1" spans="1:15">
+      <c r="A15" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="B15" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="F15" s="14"/>
       <c r="G15" s="15">
-        <v>45950</v>
+        <v>45947</v>
       </c>
       <c r="H15" s="15"/>
-      <c r="I15" s="15">
-        <v>45953</v>
-      </c>
+      <c r="I15" s="15"/>
       <c r="J15" s="5"/>
       <c r="K15" s="21"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12">
-        <v>1</v>
-      </c>
-      <c r="N15" s="12"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
       <c r="O15" s="5"/>
     </row>
     <row r="16" customHeight="1" spans="1:15">
       <c r="A16" s="3"/>
-      <c r="B16" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="5" t="s">
+      <c r="B16" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="5" t="s">
+      <c r="D16" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
+      <c r="E16" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="18">
+        <v>1</v>
+      </c>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19">
+        <v>45953</v>
+      </c>
+      <c r="J16" s="11"/>
+      <c r="K16" s="23">
+        <v>45953.6666666667</v>
+      </c>
+      <c r="L16" s="11">
+        <v>8</v>
+      </c>
+      <c r="M16" s="11">
+        <v>2</v>
+      </c>
+      <c r="N16" s="11"/>
       <c r="O16" s="5"/>
     </row>
-    <row r="17" ht="17.6" customHeight="1" spans="1:15">
-      <c r="A17" s="3" t="s">
+    <row r="17" customHeight="1" spans="1:15">
+      <c r="A17" s="3"/>
+      <c r="B17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>51</v>
-      </c>
       <c r="E17" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="15">
-        <v>45947</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F17" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="G17" s="15"/>
       <c r="H17" s="15"/>
       <c r="I17" s="15"/>
       <c r="J17" s="5"/>
       <c r="K17" s="21"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
       <c r="O17" s="5"/>
     </row>
     <row r="18" customHeight="1" spans="1:15">
       <c r="A18" s="3"/>
-      <c r="B18" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="13" t="s">
+      <c r="B18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19">
-        <v>45953</v>
-      </c>
-      <c r="J18" s="12"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="5"/>
       <c r="K18" s="21"/>
-      <c r="L18" s="12">
+      <c r="L18" s="11">
         <v>8</v>
       </c>
-      <c r="M18" s="12">
-        <v>4</v>
-      </c>
-      <c r="N18" s="12"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
       <c r="O18" s="5"/>
     </row>
     <row r="19" customHeight="1" spans="1:15">
       <c r="A19" s="3"/>
       <c r="B19" s="4" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>53</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="14">
-        <v>0.9</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="F19" s="14"/>
       <c r="G19" s="15"/>
       <c r="H19" s="15"/>
       <c r="I19" s="15"/>
       <c r="J19" s="5"/>
       <c r="K19" s="21"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
+      <c r="L19" s="11">
+        <v>8</v>
+      </c>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
       <c r="O19" s="5"/>
     </row>
     <row r="20" customHeight="1" spans="1:15">
       <c r="A20" s="3"/>
       <c r="B20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>55</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F20" s="14">
         <v>1</v>
       </c>
-      <c r="G20" s="15">
-        <v>45950</v>
-      </c>
-      <c r="H20" s="16">
-        <v>45950.4166666667</v>
-      </c>
-      <c r="I20" s="15">
-        <v>45951</v>
-      </c>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
       <c r="J20" s="5"/>
-      <c r="K20" s="23">
-        <v>45951.75</v>
-      </c>
-      <c r="L20" s="12">
-        <v>4</v>
-      </c>
-      <c r="M20" s="12">
-        <v>2</v>
-      </c>
-      <c r="N20" s="12"/>
+      <c r="K20" s="21">
+        <v>45953</v>
+      </c>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11">
+        <v>3</v>
+      </c>
+      <c r="N20" s="11"/>
       <c r="O20" s="5"/>
     </row>
     <row r="21" customHeight="1" spans="1:15">
       <c r="A21" s="3"/>
       <c r="B21" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>56</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="14"/>
+        <v>57</v>
+      </c>
+      <c r="F21" s="14">
+        <v>0.9</v>
+      </c>
       <c r="G21" s="15"/>
       <c r="H21" s="15"/>
       <c r="I21" s="15"/>
       <c r="J21" s="5"/>
       <c r="K21" s="21"/>
-      <c r="L21" s="12">
+      <c r="L21" s="11">
         <v>8</v>
       </c>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12">
-        <v>0.5</v>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11">
+        <v>1</v>
       </c>
       <c r="O21" s="5"/>
     </row>
     <row r="22" customHeight="1" spans="1:15">
       <c r="A22" s="3"/>
       <c r="B22" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="13" t="s">
         <v>58</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F22" s="14">
-        <v>0.8</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="F22" s="14"/>
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
       <c r="I22" s="15"/>
       <c r="J22" s="5"/>
       <c r="K22" s="21"/>
-      <c r="L22" s="12">
-        <v>8</v>
-      </c>
-      <c r="M22" s="12">
+      <c r="L22" s="11">
+        <v>6</v>
+      </c>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="O22" s="5"/>
+    </row>
+    <row r="23" customHeight="1" spans="1:15">
+      <c r="A23" s="3"/>
+      <c r="B23" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="14">
+        <v>0.7</v>
+      </c>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11">
         <v>3</v>
       </c>
-      <c r="N22" s="12"/>
-      <c r="O22" s="5"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A23"/>
   </mergeCells>
   <conditionalFormatting sqref="D$1:D$1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B23:B1048576" errorStyle="information">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B24:B1048576" errorStyle="information">
       <formula1>"A,B,C,S"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C23:C1048576" errorStyle="information">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C24:C1048576" errorStyle="information">
       <formula1>"美国,美国2,墨西哥,秘鲁,巴西,智利,分包系统,客服OA,运营系统,加拿大,澳大利亚,巴西2"</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="E23:E1048576">
+    <dataValidation type="list" sqref="E24:E1048576">
       <formula1>"测试中,未提测,已上线,已完成"</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="between" allowBlank="1" sqref="G23:I1048576"/>
+    <dataValidation type="date" operator="between" allowBlank="1" sqref="G24:I1048576"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/client/文件上传模版/测试任务更新模版.xlsx
+++ b/client/文件上传模版/测试任务更新模版.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="53">
   <si>
     <t>负责人</t>
   </si>
@@ -83,130 +83,121 @@
     <t>【评审】美国3 - 新增普通弹窗序列组</t>
   </si>
   <si>
+    <t>已上线</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>【评审】美国3 - 精选版仿谷歌落地页MVP</t>
+  </si>
+  <si>
     <t>测试中</t>
   </si>
   <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>测试工具功能修改补充</t>
+  </si>
+  <si>
+    <t>王然</t>
+  </si>
+  <si>
+    <t>墨西哥,澳大利亚</t>
+  </si>
+  <si>
+    <t>线上订阅地址更换</t>
+  </si>
+  <si>
+    <t>澳大利亚和墨西哥老包已发布</t>
+  </si>
+  <si>
+    <t>巴西</t>
+  </si>
+  <si>
+    <t>【评审】巴西 - TG浏览器中间页渠道 + 跳转外部浏览器打开</t>
+  </si>
+  <si>
+    <t>线上问题修复+mvp下线</t>
+  </si>
+  <si>
+    <t>已完成</t>
+  </si>
+  <si>
+    <t>古鹏鹏</t>
+  </si>
+  <si>
+    <t>墨西哥</t>
+  </si>
+  <si>
+    <t>【评审】墨西哥视讯对接</t>
+  </si>
+  <si>
+    <t>客服OA</t>
+  </si>
+  <si>
+    <t>客服OA - 4.0：新增活动查询页面</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>美国2</t>
+  </si>
+  <si>
+    <r>
+      <t>美国2 - 比赛场 MVP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>未提测</t>
+  </si>
+  <si>
+    <t>赵涛涛</t>
+  </si>
+  <si>
+    <t>美国三H5 - 自研捕鱼游戏 Mega Fishing</t>
+  </si>
+  <si>
+    <t>需求评审</t>
+  </si>
+  <si>
+    <t>美国1</t>
+  </si>
+  <si>
+    <t>igt自研游戏*28</t>
+  </si>
+  <si>
     <t>美国1,美国2,美国3</t>
   </si>
   <si>
-    <t>美国1/2/3 - 万圣节装饰活动</t>
-  </si>
-  <si>
-    <t>已上线</t>
-  </si>
-  <si>
-    <t>美国2</t>
-  </si>
-  <si>
-    <t>美国2 大厅子游戏展示优化</t>
-  </si>
-  <si>
-    <t>美国1</t>
-  </si>
-  <si>
-    <t>美国1 添加service worker</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>【评审】美国3 - 精选版仿谷歌落地页MVP</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>测试工具功能修改补充</t>
-  </si>
-  <si>
-    <t>王然</t>
-  </si>
-  <si>
-    <t>墨西哥,澳大利亚</t>
-  </si>
-  <si>
-    <t>线上订阅地址更换</t>
-  </si>
-  <si>
-    <t>秘鲁、智利已上线</t>
-  </si>
-  <si>
-    <t>美国1,美国2</t>
-  </si>
-  <si>
-    <t>美国1/2 - 同时接入FB和TG客服</t>
-  </si>
-  <si>
-    <t>巴西</t>
-  </si>
-  <si>
-    <t>【评审】巴西 - TG浏览器中间页渠道 + 跳转外部浏览器打开</t>
-  </si>
-  <si>
-    <t>古鹏鹏</t>
-  </si>
-  <si>
-    <t>墨西哥</t>
-  </si>
-  <si>
-    <t>【评审】墨西哥视讯对接</t>
-  </si>
-  <si>
-    <t>美国1,美国3</t>
-  </si>
-  <si>
-    <t>【评审】美国1/3 - 新增USDT(BEP)支付&amp;提款</t>
-  </si>
-  <si>
-    <t>客服OA</t>
-  </si>
-  <si>
-    <t>客服OA - 4.0：新增活动查询页面</t>
-  </si>
-  <si>
-    <t>美国3 - 首充后复购 - 清单革命（诱导3.0）移植</t>
-  </si>
-  <si>
-    <t>需求评审</t>
-  </si>
-  <si>
-    <t>赵涛涛</t>
-  </si>
-  <si>
-    <t>美国三H5 - 自研捕鱼游戏 Mega Fishing</t>
-  </si>
-  <si>
-    <t>美国三H5 - 自研游戏 Keno</t>
-  </si>
-  <si>
-    <t>igt自研游戏*28</t>
-  </si>
-  <si>
     <t>活动配置后台</t>
   </si>
   <si>
-    <t>未提测</t>
-  </si>
-  <si>
     <t>美国1/2/3破产礼包配置化设计</t>
   </si>
   <si>
     <t>AI古兰经</t>
   </si>
   <si>
-    <t>AI古兰1.0.7 - 新增客服功能和礼拜音效</t>
-  </si>
-  <si>
-    <t>AI古兰 - APK投放付费测试方案</t>
-  </si>
-  <si>
-    <t>暂停</t>
-  </si>
-  <si>
     <t>AI古兰1.0.8 - 订阅方案尾号测试2.0</t>
   </si>
   <si>
     <t>美国三H5 - 自研Crash</t>
+  </si>
+  <si>
+    <t>AI古兰 - 学习成就和赞颂安拉</t>
   </si>
 </sst>
 </file>
@@ -220,7 +211,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -403,6 +394,12 @@
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="35">
@@ -665,6 +662,17 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
@@ -682,17 +690,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -943,7 +940,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -974,15 +971,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -998,22 +986,16 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1346,10 +1328,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:O23"/>
+      <selection activeCell="A1" sqref="A1:O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.5" customHeight="1"/>
@@ -1397,7 +1379,7 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="15" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
@@ -1427,353 +1409,327 @@
       <c r="E2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="14">
-        <v>0.7</v>
-      </c>
-      <c r="G2" s="15">
+      <c r="F2" s="11">
+        <v>1</v>
+      </c>
+      <c r="G2" s="12">
         <v>45951</v>
       </c>
-      <c r="H2" s="16">
+      <c r="H2" s="13">
         <v>45955.7008796296</v>
       </c>
-      <c r="I2" s="15">
+      <c r="I2" s="12">
         <v>45953</v>
       </c>
       <c r="J2" s="5"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="11">
+      <c r="K2" s="16">
+        <v>45954</v>
+      </c>
+      <c r="L2" s="17">
         <v>6</v>
       </c>
-      <c r="M2" s="11">
-        <v>5</v>
-      </c>
-      <c r="N2" s="11"/>
+      <c r="M2" s="17">
+        <v>4.5</v>
+      </c>
+      <c r="N2" s="17"/>
       <c r="O2" s="5"/>
     </row>
     <row r="3" customHeight="1" spans="1:15">
       <c r="A3" s="3"/>
       <c r="B3" s="4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="14">
-        <v>1</v>
-      </c>
-      <c r="G3" s="15">
-        <v>45950</v>
-      </c>
-      <c r="H3" s="16">
-        <v>45950.875</v>
-      </c>
-      <c r="I3" s="15">
-        <v>45953</v>
-      </c>
+      <c r="F3" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
       <c r="J3" s="5"/>
-      <c r="K3" s="22">
-        <v>45953</v>
-      </c>
-      <c r="L3" s="5">
-        <v>3</v>
-      </c>
-      <c r="M3" s="5">
-        <v>1.5</v>
-      </c>
+      <c r="K3" s="18"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
     </row>
     <row r="4" customHeight="1" spans="1:15">
       <c r="A4" s="3"/>
       <c r="B4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="5" t="s">
         <v>22</v>
       </c>
+      <c r="C4" s="5"/>
       <c r="D4" s="7" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="14">
-        <v>1</v>
-      </c>
-      <c r="G4" s="15">
-        <v>45950</v>
-      </c>
-      <c r="H4" s="15">
-        <v>45950</v>
-      </c>
-      <c r="I4" s="15"/>
+      <c r="F4" s="11">
+        <v>0.4</v>
+      </c>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="22">
-        <v>45953</v>
-      </c>
+      <c r="K4" s="18"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
     </row>
-    <row r="5" customHeight="1" spans="1:15">
-      <c r="A5" s="3"/>
+    <row r="5" ht="17.6" customHeight="1" spans="1:15">
+      <c r="A5" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="B5" s="4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5">
         <v>1</v>
       </c>
-      <c r="G5" s="15">
-        <v>45950</v>
-      </c>
-      <c r="H5" s="15">
-        <v>45950</v>
-      </c>
-      <c r="I5" s="15"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="22">
-        <v>45953</v>
-      </c>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
+      <c r="N5"/>
+      <c r="O5" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="6" customHeight="1" spans="1:15">
       <c r="A6" s="3"/>
       <c r="B6" s="4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="14">
-        <v>0.9</v>
-      </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
+      <c r="F6" s="11">
+        <v>1</v>
+      </c>
+      <c r="G6" s="12">
+        <v>45953</v>
+      </c>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12">
+        <v>45954</v>
+      </c>
       <c r="J6" s="5"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
+      <c r="K6" s="16">
+        <v>45954</v>
+      </c>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17">
+        <v>4</v>
+      </c>
+      <c r="N6" s="17"/>
       <c r="O6" s="5"/>
     </row>
     <row r="7" customHeight="1" spans="1:15">
       <c r="A7" s="3"/>
-      <c r="B7" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="B7" s="8"/>
       <c r="C7" s="5"/>
-      <c r="D7" s="7" t="s">
-        <v>29</v>
+      <c r="D7" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="14">
-        <v>0.4</v>
-      </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
+        <v>31</v>
+      </c>
+      <c r="F7" s="11">
+        <v>1</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
       <c r="J7" s="5"/>
-      <c r="K7" s="22"/>
+      <c r="K7" s="18"/>
       <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
+      <c r="M7" s="5">
+        <v>2</v>
+      </c>
       <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
+      <c r="O7" s="4"/>
     </row>
-    <row r="8" ht="17.6" customHeight="1" spans="1:15">
+    <row r="8" ht="18" customHeight="1" spans="1:15">
       <c r="A8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
+        <v>21</v>
+      </c>
+      <c r="F8" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="G8" s="14">
+        <v>45899</v>
+      </c>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12">
+        <v>45951</v>
+      </c>
       <c r="J8" s="5"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8"/>
-      <c r="O8" s="5" t="s">
-        <v>33</v>
-      </c>
+      <c r="K8" s="18"/>
+      <c r="L8" s="5">
+        <v>8</v>
+      </c>
+      <c r="M8" s="5">
+        <v>3</v>
+      </c>
+      <c r="N8" s="5"/>
+      <c r="O8" s="4"/>
     </row>
     <row r="9" customHeight="1" spans="1:15">
       <c r="A9" s="3"/>
-      <c r="B9" s="8" t="s">
-        <v>26</v>
+      <c r="B9" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="14">
-        <v>1</v>
-      </c>
-      <c r="G9" s="17">
-        <v>45951</v>
-      </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15">
+      <c r="F9" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12">
         <v>45953</v>
       </c>
+      <c r="I9" s="12">
+        <v>45954</v>
+      </c>
       <c r="J9" s="5"/>
-      <c r="K9" s="22"/>
+      <c r="K9" s="18"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N9" s="5"/>
-      <c r="O9" s="4"/>
+      <c r="O9" s="5"/>
     </row>
     <row r="10" customHeight="1" spans="1:15">
       <c r="A10" s="3"/>
       <c r="B10" s="4" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="14">
-        <v>0.9</v>
-      </c>
-      <c r="G10" s="15">
-        <v>45953</v>
-      </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15">
-        <v>45954</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
       <c r="J10" s="5"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11">
-        <v>3</v>
-      </c>
-      <c r="N10" s="11"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17">
+        <v>2</v>
+      </c>
       <c r="O10" s="5"/>
     </row>
-    <row r="11" ht="18" customHeight="1" spans="1:15">
+    <row r="11" ht="17.6" customHeight="1" spans="1:15">
       <c r="A11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>15</v>
+        <v>41</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>40</v>
+        <v>16</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="14">
-        <v>0.9</v>
-      </c>
-      <c r="G11" s="17">
-        <v>45899</v>
-      </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15">
-        <v>45951</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="12">
+        <v>45947</v>
+      </c>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
       <c r="J11" s="5"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="5">
-        <v>8</v>
-      </c>
-      <c r="M11" s="5">
-        <v>1</v>
-      </c>
-      <c r="N11" s="5"/>
-      <c r="O11" s="4"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="5"/>
     </row>
     <row r="12" customHeight="1" spans="1:15">
       <c r="A12" s="3"/>
       <c r="B12" s="4" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="14">
+        <v>21</v>
+      </c>
+      <c r="F12" s="11">
         <v>0.9</v>
       </c>
-      <c r="G12" s="15">
-        <v>45950</v>
-      </c>
-      <c r="H12" s="16">
-        <v>45951.6666666667</v>
-      </c>
-      <c r="I12" s="15">
-        <v>45953</v>
-      </c>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
       <c r="J12" s="5"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11">
-        <v>4</v>
-      </c>
-      <c r="N12" s="11"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
       <c r="O12" s="5"/>
     </row>
     <row r="13" customHeight="1" spans="1:15">
@@ -1782,344 +1738,168 @@
         <v>15</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="14">
-        <v>0.4</v>
-      </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15">
-        <v>45953</v>
-      </c>
-      <c r="I13" s="15">
-        <v>45954</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
       <c r="J13" s="5"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5">
-        <v>2</v>
-      </c>
-      <c r="N13" s="5"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="17">
+        <v>8</v>
+      </c>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
       <c r="O13" s="5"/>
     </row>
     <row r="14" customHeight="1" spans="1:15">
       <c r="A14" s="3"/>
       <c r="B14" s="4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
+        <v>40</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
       <c r="J14" s="5"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="17">
+        <v>8</v>
+      </c>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
       <c r="O14" s="5"/>
     </row>
-    <row r="15" ht="17.6" customHeight="1" spans="1:15">
-      <c r="A15" s="3" t="s">
-        <v>47</v>
-      </c>
+    <row r="15" customHeight="1" spans="1:15">
+      <c r="A15" s="3"/>
       <c r="B15" s="4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>50</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="15">
-        <v>45947</v>
-      </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
+        <v>18</v>
+      </c>
+      <c r="F15" s="11">
+        <v>1</v>
+      </c>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
       <c r="J15" s="5"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
+      <c r="K15" s="16">
+        <v>45955</v>
+      </c>
+      <c r="L15" s="17">
+        <v>6</v>
+      </c>
+      <c r="M15" s="17">
+        <v>2</v>
+      </c>
+      <c r="N15" s="17"/>
       <c r="O15" s="5"/>
     </row>
     <row r="16" customHeight="1" spans="1:15">
       <c r="A16" s="3"/>
-      <c r="B16" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="11" t="s">
+      <c r="B16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="11" t="s">
+      <c r="D16" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="18">
-        <v>1</v>
-      </c>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19">
-        <v>45953</v>
-      </c>
-      <c r="J16" s="11"/>
-      <c r="K16" s="23">
-        <v>45953.6666666667</v>
-      </c>
-      <c r="L16" s="11">
-        <v>8</v>
-      </c>
-      <c r="M16" s="11">
-        <v>2</v>
-      </c>
-      <c r="N16" s="11"/>
+      <c r="F16" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17">
+        <v>4</v>
+      </c>
+      <c r="N16" s="17"/>
       <c r="O16" s="5"/>
     </row>
     <row r="17" customHeight="1" spans="1:15">
       <c r="A17" s="3"/>
       <c r="B17" s="4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="14">
-        <v>0.9</v>
-      </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
+        <v>40</v>
+      </c>
+      <c r="F17" s="11"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12">
+        <v>45960</v>
+      </c>
+      <c r="I17" s="12"/>
       <c r="J17" s="5"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="17">
+        <v>12</v>
+      </c>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17">
+        <v>2</v>
+      </c>
       <c r="O17" s="5"/>
-    </row>
-    <row r="18" customHeight="1" spans="1:15">
-      <c r="A18" s="3"/>
-      <c r="B18" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="11">
-        <v>8</v>
-      </c>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="5"/>
-    </row>
-    <row r="19" customHeight="1" spans="1:15">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="11">
-        <v>8</v>
-      </c>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="5"/>
-    </row>
-    <row r="20" customHeight="1" spans="1:15">
-      <c r="A20" s="3"/>
-      <c r="B20" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" s="14">
-        <v>1</v>
-      </c>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="21">
-        <v>45953</v>
-      </c>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11">
-        <v>3</v>
-      </c>
-      <c r="N20" s="11"/>
-      <c r="O20" s="5"/>
-    </row>
-    <row r="21" customHeight="1" spans="1:15">
-      <c r="A21" s="3"/>
-      <c r="B21" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" s="14">
-        <v>0.9</v>
-      </c>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="11">
-        <v>8</v>
-      </c>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11">
-        <v>1</v>
-      </c>
-      <c r="O21" s="5"/>
-    </row>
-    <row r="22" customHeight="1" spans="1:15">
-      <c r="A22" s="3"/>
-      <c r="B22" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F22" s="14"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="11">
-        <v>6</v>
-      </c>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="O22" s="5"/>
-    </row>
-    <row r="23" customHeight="1" spans="1:15">
-      <c r="A23" s="3"/>
-      <c r="B23" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23" s="14">
-        <v>0.7</v>
-      </c>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11">
-        <v>3</v>
-      </c>
-      <c r="N23" s="11"/>
-      <c r="O23" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A15:A23"/>
+    <mergeCell ref="A11:A17"/>
   </mergeCells>
   <conditionalFormatting sqref="D$1:D$1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B24:B1048576" errorStyle="information">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B18:B1048576" errorStyle="information">
       <formula1>"A,B,C,S"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C24:C1048576" errorStyle="information">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C18:C1048576" errorStyle="information">
       <formula1>"美国,美国2,墨西哥,秘鲁,巴西,智利,分包系统,客服OA,运营系统,加拿大,澳大利亚,巴西2"</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="E24:E1048576">
+    <dataValidation type="list" sqref="E18:E1048576">
       <formula1>"测试中,未提测,已上线,已完成"</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="between" allowBlank="1" sqref="G24:I1048576"/>
+    <dataValidation type="date" operator="between" allowBlank="1" sqref="G18:I1048576"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/client/文件上传模版/测试任务更新模版.xlsx
+++ b/client/文件上传模版/测试任务更新模版.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="模版" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="70">
   <si>
     <t>负责人</t>
   </si>
@@ -74,130 +75,169 @@
     <t>王雪斌</t>
   </si>
   <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>美国3</t>
+  </si>
+  <si>
+    <t>线上问题复现反馈</t>
+  </si>
+  <si>
+    <t>测试中</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>测试工具功能修改补充</t>
+  </si>
+  <si>
+    <t>王然</t>
+  </si>
+  <si>
+    <t>巴西</t>
+  </si>
+  <si>
+    <t>巴西分包&amp;墨西哥分包 - 同时接入FB和TG客服-王然</t>
+  </si>
+  <si>
+    <t>墨西哥</t>
+  </si>
+  <si>
+    <t>巴西分包&amp;墨西哥分包 - 同时接入FB和TG客服</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>美国三H5 - 数值调整方案</t>
+  </si>
+  <si>
+    <t>谷歌包投放连测试</t>
+  </si>
+  <si>
+    <t>已完成</t>
+  </si>
+  <si>
+    <t>古鹏鹏</t>
+  </si>
+  <si>
     <t>B</t>
   </si>
   <si>
-    <t>美国3</t>
-  </si>
-  <si>
-    <t>【评审】美国3 - 新增普通弹窗序列组</t>
+    <t>美国2</t>
+  </si>
+  <si>
+    <t>自动化回归功能实现</t>
+  </si>
+  <si>
+    <t>美国2 - 比赛场新增视频见证弹框</t>
   </si>
   <si>
     <t>已上线</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>【评审】美国3 - 精选版仿谷歌落地页MVP</t>
-  </si>
-  <si>
-    <t>测试中</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>测试工具功能修改补充</t>
-  </si>
-  <si>
-    <t>王然</t>
-  </si>
-  <si>
-    <t>墨西哥,澳大利亚</t>
-  </si>
-  <si>
-    <t>线上订阅地址更换</t>
-  </si>
-  <si>
-    <t>澳大利亚和墨西哥老包已发布</t>
-  </si>
-  <si>
-    <t>巴西</t>
-  </si>
-  <si>
-    <t>【评审】巴西 - TG浏览器中间页渠道 + 跳转外部浏览器打开</t>
-  </si>
-  <si>
-    <t>线上问题修复+mvp下线</t>
-  </si>
-  <si>
-    <t>已完成</t>
-  </si>
-  <si>
-    <t>古鹏鹏</t>
-  </si>
-  <si>
-    <t>墨西哥</t>
-  </si>
-  <si>
-    <t>【评审】墨西哥视讯对接</t>
-  </si>
-  <si>
-    <t>客服OA</t>
-  </si>
-  <si>
-    <t>客服OA - 4.0：新增活动查询页面</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>美国2</t>
-  </si>
-  <si>
-    <r>
-      <t>美国2 - 比赛场 MVP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
+    <t>美国1&amp;巴西分包 - 谷歌包新增引导用户评论</t>
+  </si>
+  <si>
+    <t>比赛场最小提款手续费问题修改验证</t>
+  </si>
+  <si>
+    <t>比赛场修改</t>
+  </si>
+  <si>
+    <t>需求评审</t>
+  </si>
+  <si>
+    <t>赵涛涛</t>
+  </si>
+  <si>
+    <t>AI古兰经</t>
+  </si>
+  <si>
+    <t>AI古兰 - 学习成就和赞颂安拉</t>
+  </si>
+  <si>
+    <t>美国1,美国2,美国3</t>
+  </si>
+  <si>
+    <t>美国1/2/3充值送转盘活动曝光埋点新增</t>
+  </si>
+  <si>
+    <t>美国1/2/3小额充提礼包配置化需求</t>
+  </si>
+  <si>
+    <t>线上环境游戏入口缩略图检查</t>
+  </si>
+  <si>
+    <t>美国1</t>
+  </si>
+  <si>
+    <t>igt自研游戏*28</t>
+  </si>
+  <si>
+    <t>新增Whatsapp客服</t>
+  </si>
+  <si>
+    <t>订阅方案4.0</t>
+  </si>
+  <si>
+    <t>新增账号系统</t>
+  </si>
+  <si>
+    <t>美国三H5 - 自研捕鱼游戏 Mega Fishing</t>
+  </si>
+  <si>
+    <t>墨西哥活动调整降低提充比，加快回本周期</t>
+  </si>
+  <si>
+    <t>美国1/2/3 - 支付风控优化</t>
+  </si>
+  <si>
+    <t>比赛场新需求评审+测试</t>
+  </si>
+  <si>
+    <t>体验优化 1020</t>
+  </si>
+  <si>
+    <t>分包系统</t>
+  </si>
+  <si>
+    <t>分包后台加入firebase打包</t>
   </si>
   <si>
     <t>未提测</t>
   </si>
   <si>
-    <t>赵涛涛</t>
-  </si>
-  <si>
-    <t>美国三H5 - 自研捕鱼游戏 Mega Fishing</t>
-  </si>
-  <si>
-    <t>需求评审</t>
-  </si>
-  <si>
-    <t>美国1</t>
-  </si>
-  <si>
-    <t>igt自研游戏*28</t>
-  </si>
-  <si>
-    <t>美国1,美国2,美国3</t>
-  </si>
-  <si>
-    <t>活动配置后台</t>
-  </si>
-  <si>
-    <t>美国1/2/3破产礼包配置化设计</t>
-  </si>
-  <si>
-    <t>AI古兰经</t>
-  </si>
-  <si>
-    <t>AI古兰1.0.8 - 订阅方案尾号测试2.0</t>
-  </si>
-  <si>
-    <t>美国三H5 - 自研Crash</t>
-  </si>
-  <si>
-    <t>AI古兰 - 学习成就和赞颂安拉</t>
+    <t>【评审】美国2 - 比赛场增加用户反馈入口</t>
+  </si>
+  <si>
+    <t>美国2 - 比赛场优化：增加活动曝光率、奖金领取率；增加视频宣传；增加单独提款</t>
+  </si>
+  <si>
+    <t>美国二H5 - 比赛场增加用户信任视频入口</t>
+  </si>
+  <si>
+    <t>【评审】美国3 - 代理增加用户在线反馈入口</t>
+  </si>
+  <si>
+    <t>比赛场增加 Keno 和 Crash 比赛</t>
+  </si>
+  <si>
+    <t>视讯测试新增厂商游戏</t>
+  </si>
+  <si>
+    <t>美国1&amp;巴西分包 - 谷歌包新增引导用户评论-古鹏鹏1</t>
+  </si>
+  <si>
+    <t>美国1&amp;巴西分包 - 谷歌包新增引导用户评论-古鹏鹏2</t>
+  </si>
+  <si>
+    <t>美国3 - 互导AB测</t>
+  </si>
+  <si>
+    <t>新增埋点数据</t>
   </si>
 </sst>
 </file>
@@ -211,16 +251,10 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -234,15 +268,15 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF0F1115"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="default"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -395,14 +429,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -412,12 +440,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D04F"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -614,32 +636,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -669,6 +665,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color rgb="FF000000"/>
@@ -687,6 +696,19 @@
         <color rgb="FF000000"/>
       </right>
       <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -795,67 +817,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -870,133 +895,386 @@
     <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <extLst>
+        <ext xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" uri="{F19249F5-4A6E-446B-B59F-E2C9F2DAA1D5}">
+          <etc:displayText val="2"/>
+        </ext>
+      </extLst>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+      <extLst>
+        <ext xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" uri="{F19249F5-4A6E-446B-B59F-E2C9F2DAA1D5}">
+          <etc:displayText val="2"/>
+        </ext>
+      </extLst>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+      <extLst>
+        <ext xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" uri="{F19249F5-4A6E-446B-B59F-E2C9F2DAA1D5}">
+          <etc:displayText val="2"/>
+        </ext>
+      </extLst>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+      <extLst>
+        <ext xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" uri="{F19249F5-4A6E-446B-B59F-E2C9F2DAA1D5}">
+          <etc:displayText val="2"/>
+        </ext>
+      </extLst>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+      <extLst>
+        <ext xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" uri="{F19249F5-4A6E-446B-B59F-E2C9F2DAA1D5}">
+          <etc:displayText val="2"/>
+        </ext>
+      </extLst>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+      <extLst>
+        <ext xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" uri="{F19249F5-4A6E-446B-B59F-E2C9F2DAA1D5}">
+          <etc:displayText val="2"/>
+        </ext>
+      </extLst>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+      <extLst>
+        <ext xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" uri="{F19249F5-4A6E-446B-B59F-E2C9F2DAA1D5}">
+          <etc:displayText val="2"/>
+        </ext>
+      </extLst>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+      <extLst>
+        <ext xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" uri="{F19249F5-4A6E-446B-B59F-E2C9F2DAA1D5}">
+          <etc:displayText val="2"/>
+        </ext>
+      </extLst>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+      <extLst>
+        <ext xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" uri="{F19249F5-4A6E-446B-B59F-E2C9F2DAA1D5}">
+          <etc:displayText val="2"/>
+        </ext>
+      </extLst>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+      <extLst>
+        <ext xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" uri="{F19249F5-4A6E-446B-B59F-E2C9F2DAA1D5}">
+          <etc:displayText val="2"/>
+        </ext>
+      </extLst>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+      <extLst>
+        <ext xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" uri="{F19249F5-4A6E-446B-B59F-E2C9F2DAA1D5}">
+          <etc:displayText val="2"/>
+        </ext>
+      </extLst>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+      <extLst>
+        <ext xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" uri="{F19249F5-4A6E-446B-B59F-E2C9F2DAA1D5}">
+          <etc:displayText val="2"/>
+        </ext>
+      </extLst>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+      <extLst>
+        <ext xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" uri="{F19249F5-4A6E-446B-B59F-E2C9F2DAA1D5}">
+          <etc:displayText val="2"/>
+        </ext>
+      </extLst>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+      <extLst>
+        <ext xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" uri="{F19249F5-4A6E-446B-B59F-E2C9F2DAA1D5}">
+          <etc:displayText val="2"/>
+        </ext>
+      </extLst>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <extLst>
+        <ext xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" uri="{F19249F5-4A6E-446B-B59F-E2C9F2DAA1D5}">
+          <etc:displayText val="2"/>
+        </ext>
+      </extLst>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+      <extLst>
+        <ext xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" uri="{F19249F5-4A6E-446B-B59F-E2C9F2DAA1D5}">
+          <etc:displayText val="2"/>
+        </ext>
+      </extLst>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+      <extLst>
+        <ext xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" uri="{F19249F5-4A6E-446B-B59F-E2C9F2DAA1D5}">
+          <etc:displayText val="2"/>
+        </ext>
+      </extLst>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <extLst>
+        <ext xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" uri="{F19249F5-4A6E-446B-B59F-E2C9F2DAA1D5}">
+          <etc:displayText val="2"/>
+        </ext>
+      </extLst>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <extLst>
+        <ext xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" uri="{F19249F5-4A6E-446B-B59F-E2C9F2DAA1D5}">
+          <etc:displayText val="2"/>
+        </ext>
+      </extLst>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+      <extLst>
+        <ext xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" uri="{F19249F5-4A6E-446B-B59F-E2C9F2DAA1D5}">
+          <etc:displayText val="2"/>
+        </ext>
+      </extLst>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+      <extLst>
+        <ext xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" uri="{F19249F5-4A6E-446B-B59F-E2C9F2DAA1D5}">
+          <etc:displayText val="2"/>
+        </ext>
+      </extLst>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+      <extLst>
+        <ext xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" uri="{F19249F5-4A6E-446B-B59F-E2C9F2DAA1D5}">
+          <etc:displayText val="2"/>
+        </ext>
+      </extLst>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+      <extLst>
+        <ext xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" uri="{F19249F5-4A6E-446B-B59F-E2C9F2DAA1D5}">
+          <etc:displayText val="2"/>
+        </ext>
+      </extLst>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+      <extLst>
+        <ext xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" uri="{F19249F5-4A6E-446B-B59F-E2C9F2DAA1D5}">
+          <etc:displayText val="2"/>
+        </ext>
+      </extLst>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+      <extLst>
+        <ext xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" uri="{F19249F5-4A6E-446B-B59F-E2C9F2DAA1D5}">
+          <etc:displayText val="2"/>
+        </ext>
+      </extLst>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+      <extLst>
+        <ext xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" uri="{F19249F5-4A6E-446B-B59F-E2C9F2DAA1D5}">
+          <etc:displayText val="2"/>
+        </ext>
+      </extLst>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <extLst>
+        <ext xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" uri="{F19249F5-4A6E-446B-B59F-E2C9F2DAA1D5}">
+          <etc:displayText val="2"/>
+        </ext>
+      </extLst>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+      <extLst>
+        <ext xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" uri="{F19249F5-4A6E-446B-B59F-E2C9F2DAA1D5}">
+          <etc:displayText val="2"/>
+        </ext>
+      </extLst>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+      <extLst>
+        <ext xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" uri="{F19249F5-4A6E-446B-B59F-E2C9F2DAA1D5}">
+          <etc:displayText val="2"/>
+        </ext>
+      </extLst>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+      <extLst>
+        <ext xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" uri="{F19249F5-4A6E-446B-B59F-E2C9F2DAA1D5}">
+          <etc:displayText val="2"/>
+        </ext>
+      </extLst>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+      <extLst>
+        <ext xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" uri="{F19249F5-4A6E-446B-B59F-E2C9F2DAA1D5}">
+          <etc:displayText val="2"/>
+        </ext>
+      </extLst>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+      <extLst>
+        <ext xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" uri="{F19249F5-4A6E-446B-B59F-E2C9F2DAA1D5}">
+          <etc:displayText val="2"/>
+        </ext>
+      </extLst>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+      <extLst>
+        <ext xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" uri="{F19249F5-4A6E-446B-B59F-E2C9F2DAA1D5}">
+          <etc:displayText val="2"/>
+        </ext>
+      </extLst>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+      <extLst>
+        <ext xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" uri="{F19249F5-4A6E-446B-B59F-E2C9F2DAA1D5}">
+          <etc:displayText val="2"/>
+        </ext>
+      </extLst>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+      <extLst>
+        <ext xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" uri="{F19249F5-4A6E-446B-B59F-E2C9F2DAA1D5}">
+          <etc:displayText val="2"/>
+        </ext>
+      </extLst>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+      <extLst>
+        <ext xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" uri="{F19249F5-4A6E-446B-B59F-E2C9F2DAA1D5}">
+          <etc:displayText val="2"/>
+        </ext>
+      </extLst>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+      <extLst>
+        <ext xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" uri="{F19249F5-4A6E-446B-B59F-E2C9F2DAA1D5}">
+          <etc:displayText val="2"/>
+        </ext>
+      </extLst>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+      <extLst>
+        <ext xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" uri="{F19249F5-4A6E-446B-B59F-E2C9F2DAA1D5}">
+          <etc:displayText val="2"/>
+        </ext>
+      </extLst>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1328,20 +1606,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:O17"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.5" customHeight="1"/>
   <cols>
     <col min="3" max="3" width="15.625" customWidth="1"/>
     <col min="4" max="4" width="50.875" customWidth="1"/>
-    <col min="5" max="6" width="10" style="1"/>
-    <col min="7" max="7" width="18.2666666666667" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.6" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.025" style="1" customWidth="1"/>
+    <col min="5" max="6" width="10" style="22"/>
+    <col min="7" max="7" width="18.2666666666667" style="22" customWidth="1"/>
+    <col min="8" max="8" width="11.6" style="22" customWidth="1"/>
+    <col min="9" max="9" width="16.025" style="22" customWidth="1"/>
     <col min="11" max="11" width="20" customWidth="1"/>
     <col min="12" max="12" width="24.2666666666667" customWidth="1"/>
     <col min="13" max="13" width="22.9333333333333" customWidth="1"/>
@@ -1349,560 +1627,1568 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:15">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5"/>
-    </row>
-    <row r="2" ht="17.6" customHeight="1" spans="1:15">
-      <c r="A2" s="3" t="s">
+      <c r="O1" s="27"/>
+    </row>
+    <row r="2" ht="18" customHeight="1" spans="1:15">
+      <c r="A2" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="31">
+        <v>0.8</v>
+      </c>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:15">
+      <c r="A3" s="28"/>
+      <c r="B3" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="29"/>
+      <c r="D3" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="31">
+        <v>0.9</v>
+      </c>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27">
+        <v>6</v>
+      </c>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+    </row>
+    <row r="4" ht="18" customHeight="1" spans="1:15">
+      <c r="A4" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="31">
+        <v>0.8</v>
+      </c>
+      <c r="G4" s="32">
+        <v>45968</v>
+      </c>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="36">
+        <v>3</v>
+      </c>
+      <c r="M4" s="36">
+        <v>3</v>
+      </c>
+      <c r="N4" s="36"/>
+      <c r="O4" s="27"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:15">
+      <c r="A5" s="34"/>
+      <c r="B5" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="31">
+        <v>0.8</v>
+      </c>
+      <c r="G5" s="32">
+        <v>45968</v>
+      </c>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="36">
+        <v>3</v>
+      </c>
+      <c r="M5" s="36">
+        <v>3</v>
+      </c>
+      <c r="N5" s="36"/>
+      <c r="O5" s="27"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:15">
+      <c r="A6" s="34"/>
+      <c r="B6" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="31">
+        <v>0.9</v>
+      </c>
+      <c r="G6" s="32">
+        <v>45964</v>
+      </c>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32">
+        <v>45966</v>
+      </c>
+      <c r="J6" s="27"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="27"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:15">
+      <c r="A7" s="34"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="31">
         <v>1</v>
       </c>
-      <c r="G2" s="12">
-        <v>45951</v>
-      </c>
-      <c r="H2" s="13">
-        <v>45955.7008796296</v>
-      </c>
-      <c r="I2" s="12">
-        <v>45953</v>
-      </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="16">
-        <v>45954</v>
-      </c>
-      <c r="L2" s="17">
-        <v>6</v>
-      </c>
-      <c r="M2" s="17">
-        <v>4.5</v>
-      </c>
-      <c r="N2" s="17"/>
-      <c r="O2" s="5"/>
-    </row>
-    <row r="3" customHeight="1" spans="1:15">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36">
+        <v>1.5</v>
+      </c>
+      <c r="N7" s="36"/>
+      <c r="O7" s="27"/>
+    </row>
+    <row r="8" ht="18" customHeight="1" spans="1:15">
+      <c r="A8" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="31">
+        <v>0.15</v>
+      </c>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="27"/>
+    </row>
+    <row r="9" customHeight="1" spans="1:15">
+      <c r="A9" s="28"/>
+      <c r="B9" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="31">
+        <v>1</v>
+      </c>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="36">
+        <v>2</v>
+      </c>
+      <c r="M9" s="36">
+        <v>2</v>
+      </c>
+      <c r="N9" s="36"/>
+      <c r="O9" s="27"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:15">
+      <c r="A10" s="28"/>
+      <c r="B10" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="31">
+        <v>1</v>
+      </c>
+      <c r="G10" s="32">
+        <v>45968</v>
+      </c>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="39">
+        <v>45968.6840277778</v>
+      </c>
+      <c r="L10" s="36">
+        <v>4</v>
+      </c>
+      <c r="M10" s="36">
+        <v>4</v>
+      </c>
+      <c r="N10" s="36"/>
+      <c r="O10" s="27"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:15">
+      <c r="A11" s="28"/>
+      <c r="B11" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="31"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36">
+        <v>1</v>
+      </c>
+      <c r="N11" s="36"/>
+      <c r="O11" s="27"/>
+    </row>
+    <row r="12" customHeight="1" spans="1:15">
+      <c r="A12" s="28"/>
+      <c r="B12" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="31"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="27"/>
+    </row>
+    <row r="13" ht="18" customHeight="1" spans="1:15">
+      <c r="A13" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="31">
+        <v>0.9</v>
+      </c>
+      <c r="G13" s="32">
+        <v>45960</v>
+      </c>
+      <c r="H13" s="32">
+        <v>45967</v>
+      </c>
+      <c r="I13" s="32"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="36">
+        <v>12</v>
+      </c>
+      <c r="M13" s="36">
+        <v>2</v>
+      </c>
+      <c r="N13" s="36"/>
+      <c r="O13" s="27"/>
+    </row>
+    <row r="14" customHeight="1" spans="1:15">
+      <c r="A14" s="34"/>
+      <c r="B14" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="31">
+        <v>1</v>
+      </c>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="35">
+        <v>45968</v>
+      </c>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36">
+        <v>1</v>
+      </c>
+      <c r="N14" s="36"/>
+      <c r="O14" s="27"/>
+    </row>
+    <row r="15" customHeight="1" spans="1:15">
+      <c r="A15" s="34"/>
+      <c r="B15" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="31">
+        <v>1</v>
+      </c>
+      <c r="G15" s="32">
+        <v>45966</v>
+      </c>
+      <c r="H15" s="32">
+        <v>45966</v>
+      </c>
+      <c r="I15" s="32">
+        <v>45968</v>
+      </c>
+      <c r="J15" s="27"/>
+      <c r="K15" s="35">
+        <v>45968</v>
+      </c>
+      <c r="L15" s="36">
+        <v>8</v>
+      </c>
+      <c r="M15" s="36">
+        <v>4</v>
+      </c>
+      <c r="N15" s="36"/>
+      <c r="O15" s="27"/>
+    </row>
+    <row r="16" customHeight="1" spans="1:15">
+      <c r="A16" s="34"/>
+      <c r="B16" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="29"/>
+      <c r="D16" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="31">
+        <v>1</v>
+      </c>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="35">
+        <v>45968</v>
+      </c>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="N16" s="36"/>
+      <c r="O16" s="27"/>
+    </row>
+    <row r="17" customHeight="1" spans="1:15">
+      <c r="A17" s="34"/>
+      <c r="B17" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="31">
+        <v>0.9</v>
+      </c>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="27"/>
+    </row>
+    <row r="18" customHeight="1" spans="1:15">
+      <c r="A18" s="34"/>
+      <c r="B18" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="31">
+        <v>1</v>
+      </c>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32">
+        <v>45967</v>
+      </c>
+      <c r="I18" s="32"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="35">
+        <v>45968</v>
+      </c>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36">
+        <v>1</v>
+      </c>
+      <c r="N18" s="36"/>
+      <c r="O18" s="27"/>
+    </row>
+    <row r="19" customHeight="1" spans="1:15">
+      <c r="A19" s="34"/>
+      <c r="B19" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="31">
+        <v>1</v>
+      </c>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32">
+        <v>45967</v>
+      </c>
+      <c r="I19" s="32"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="35">
+        <v>45968</v>
+      </c>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36">
+        <v>1</v>
+      </c>
+      <c r="N19" s="36"/>
+      <c r="O19" s="27"/>
+    </row>
+    <row r="20" customHeight="1" spans="1:15">
+      <c r="A20" s="34"/>
+      <c r="B20" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="31"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="27"/>
+    </row>
+    <row r="21" customHeight="1" spans="1:15">
+      <c r="A21" s="34"/>
+      <c r="B21" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="11">
-        <v>0.9</v>
-      </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-    </row>
-    <row r="4" customHeight="1" spans="1:15">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="11">
-        <v>0.4</v>
-      </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-    </row>
-    <row r="5" ht="17.6" customHeight="1" spans="1:15">
-      <c r="A5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="11">
-        <v>0.8</v>
-      </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5">
-        <v>1</v>
-      </c>
-      <c r="N5"/>
-      <c r="O5" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:15">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="11">
-        <v>1</v>
-      </c>
-      <c r="G6" s="12">
-        <v>45953</v>
-      </c>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12">
-        <v>45954</v>
-      </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="16">
-        <v>45954</v>
-      </c>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17">
-        <v>4</v>
-      </c>
-      <c r="N6" s="17"/>
-      <c r="O6" s="5"/>
-    </row>
-    <row r="7" customHeight="1" spans="1:15">
-      <c r="A7" s="3"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="11">
-        <v>1</v>
-      </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5">
-        <v>2</v>
-      </c>
-      <c r="N7" s="5"/>
-      <c r="O7" s="4"/>
-    </row>
-    <row r="8" ht="18" customHeight="1" spans="1:15">
-      <c r="A8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="11">
-        <v>0.9</v>
-      </c>
-      <c r="G8" s="14">
-        <v>45899</v>
-      </c>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12">
-        <v>45951</v>
-      </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="5">
-        <v>8</v>
-      </c>
-      <c r="M8" s="5">
-        <v>3</v>
-      </c>
-      <c r="N8" s="5"/>
-      <c r="O8" s="4"/>
-    </row>
-    <row r="9" customHeight="1" spans="1:15">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="11">
-        <v>0.9</v>
-      </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12">
-        <v>45953</v>
-      </c>
-      <c r="I9" s="12">
-        <v>45954</v>
-      </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5">
-        <v>3</v>
-      </c>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-    </row>
-    <row r="10" customHeight="1" spans="1:15">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="7" t="s">
+      <c r="D21" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17">
-        <v>2</v>
-      </c>
-      <c r="O10" s="5"/>
-    </row>
-    <row r="11" ht="17.6" customHeight="1" spans="1:15">
-      <c r="A11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="12">
+      <c r="F21" s="31"/>
+      <c r="G21" s="32">
         <v>45947</v>
       </c>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="5"/>
-    </row>
-    <row r="12" customHeight="1" spans="1:15">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="11">
-        <v>0.9</v>
-      </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="5"/>
-    </row>
-    <row r="13" customHeight="1" spans="1:15">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="17">
-        <v>8</v>
-      </c>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="5"/>
-    </row>
-    <row r="14" customHeight="1" spans="1:15">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="17">
-        <v>8</v>
-      </c>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="5"/>
-    </row>
-    <row r="15" customHeight="1" spans="1:15">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="11">
-        <v>1</v>
-      </c>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="16">
-        <v>45955</v>
-      </c>
-      <c r="L15" s="17">
-        <v>6</v>
-      </c>
-      <c r="M15" s="17">
-        <v>2</v>
-      </c>
-      <c r="N15" s="17"/>
-      <c r="O15" s="5"/>
-    </row>
-    <row r="16" customHeight="1" spans="1:15">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="11">
-        <v>0.9</v>
-      </c>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17">
-        <v>4</v>
-      </c>
-      <c r="N16" s="17"/>
-      <c r="O16" s="5"/>
-    </row>
-    <row r="17" customHeight="1" spans="1:15">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12">
-        <v>45960</v>
-      </c>
-      <c r="I17" s="12"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="17">
-        <v>12</v>
-      </c>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17">
-        <v>2</v>
-      </c>
-      <c r="O17" s="5"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A17"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A13:A21"/>
   </mergeCells>
-  <conditionalFormatting sqref="D$1:D$1048576">
+  <conditionalFormatting sqref="D4:D5">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D3 D6:D1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+  </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B18:B1048576" errorStyle="information">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B22:B1048576" errorStyle="information">
       <formula1>"A,B,C,S"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C18:C1048576" errorStyle="information">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C22:C1048576" errorStyle="information">
       <formula1>"美国,美国2,墨西哥,秘鲁,巴西,智利,分包系统,客服OA,运营系统,加拿大,澳大利亚,巴西2"</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="E18:E1048576">
+    <dataValidation type="list" sqref="E22:E1048576">
       <formula1>"测试中,未提测,已上线,已完成"</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="between" allowBlank="1" sqref="G18:I1048576"/>
+    <dataValidation type="date" operator="between" allowBlank="1" sqref="G22:I1048576"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9:D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="17.6"/>
+  <cols>
+    <col min="4" max="4" width="83.1333333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18" spans="1:15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="4"/>
+    </row>
+    <row r="2" ht="18" spans="1:15">
+      <c r="A2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="G2" s="8">
+        <v>45964</v>
+      </c>
+      <c r="H2" s="8">
+        <v>45965</v>
+      </c>
+      <c r="I2" s="8">
+        <v>45966</v>
+      </c>
+      <c r="J2" s="4"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="10">
+        <v>4</v>
+      </c>
+      <c r="M2" s="10">
+        <v>3</v>
+      </c>
+      <c r="N2" s="10"/>
+      <c r="O2" s="4"/>
+    </row>
+    <row r="3" ht="18" spans="1:15">
+      <c r="A3" s="5"/>
+      <c r="B3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8">
+        <v>45965</v>
+      </c>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="4"/>
+    </row>
+    <row r="4" ht="18" spans="1:15">
+      <c r="A4" s="5"/>
+      <c r="B4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4">
+        <v>1</v>
+      </c>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+    </row>
+    <row r="5" ht="18" spans="1:15">
+      <c r="A5" s="5"/>
+      <c r="B5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="7">
+        <v>1</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4">
+        <v>2</v>
+      </c>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+    </row>
+    <row r="6" ht="18" spans="1:15">
+      <c r="A6" s="5"/>
+      <c r="B6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4">
+        <v>2</v>
+      </c>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+    </row>
+    <row r="7" ht="18" spans="1:15">
+      <c r="A7" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="8">
+        <v>45962</v>
+      </c>
+      <c r="H7" s="8">
+        <v>45962</v>
+      </c>
+      <c r="I7" s="8">
+        <v>45965</v>
+      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="9">
+        <v>45965</v>
+      </c>
+      <c r="L7" s="10">
+        <v>8</v>
+      </c>
+      <c r="M7" s="10">
+        <v>5</v>
+      </c>
+      <c r="N7" s="10"/>
+      <c r="O7" s="4"/>
+    </row>
+    <row r="8" ht="18" spans="1:15">
+      <c r="A8" s="13"/>
+      <c r="B8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="4"/>
+    </row>
+    <row r="9" ht="18" spans="1:15">
+      <c r="A9" s="13"/>
+      <c r="B9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="8">
+        <v>45968</v>
+      </c>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="4"/>
+    </row>
+    <row r="10" ht="18" spans="1:15">
+      <c r="A10" s="13"/>
+      <c r="B10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="8">
+        <v>45968</v>
+      </c>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="4"/>
+    </row>
+    <row r="11" ht="18" spans="1:15">
+      <c r="A11" s="13"/>
+      <c r="B11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="G11" s="8">
+        <v>45964</v>
+      </c>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8">
+        <v>45966</v>
+      </c>
+      <c r="J11" s="4"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10">
+        <v>3</v>
+      </c>
+      <c r="N11" s="10"/>
+      <c r="O11" s="4"/>
+    </row>
+    <row r="12" ht="18" spans="1:15">
+      <c r="A12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="7">
+        <v>1</v>
+      </c>
+      <c r="G12" s="8">
+        <v>45964</v>
+      </c>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8">
+        <v>45965</v>
+      </c>
+      <c r="J12" s="4"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10">
+        <v>2</v>
+      </c>
+      <c r="N12" s="10"/>
+      <c r="O12" s="4"/>
+    </row>
+    <row r="13" ht="18" spans="1:15">
+      <c r="A13" s="5"/>
+      <c r="B13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="7">
+        <v>1</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="16">
+        <v>45965.8958333333</v>
+      </c>
+      <c r="I13" s="8"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10">
+        <v>4</v>
+      </c>
+      <c r="N13" s="10"/>
+      <c r="O13" s="4"/>
+    </row>
+    <row r="14" ht="18" spans="1:15">
+      <c r="A14" s="5"/>
+      <c r="B14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="7">
+        <v>1</v>
+      </c>
+      <c r="G14" s="8">
+        <v>45965</v>
+      </c>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10">
+        <v>1</v>
+      </c>
+      <c r="N14" s="10"/>
+      <c r="O14" s="4"/>
+    </row>
+    <row r="15" ht="18" spans="1:15">
+      <c r="A15" s="5"/>
+      <c r="B15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="7">
+        <v>1</v>
+      </c>
+      <c r="G15" s="8">
+        <v>45964</v>
+      </c>
+      <c r="H15" s="8">
+        <v>45964</v>
+      </c>
+      <c r="I15" s="8">
+        <v>45965</v>
+      </c>
+      <c r="J15" s="4"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10">
+        <v>1</v>
+      </c>
+      <c r="N15" s="10"/>
+      <c r="O15" s="4"/>
+    </row>
+    <row r="16" ht="18" spans="1:15">
+      <c r="A16" s="5"/>
+      <c r="B16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8">
+        <v>45960</v>
+      </c>
+      <c r="J16" s="4"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="4"/>
+    </row>
+    <row r="17" ht="18" spans="1:15">
+      <c r="A17" s="5"/>
+      <c r="B17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="4"/>
+    </row>
+    <row r="18" ht="18" spans="1:15">
+      <c r="A18" s="5"/>
+      <c r="B18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="8">
+        <v>45968</v>
+      </c>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="4"/>
+    </row>
+    <row r="19" ht="18" spans="1:15">
+      <c r="A19" s="5"/>
+      <c r="B19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="8">
+        <v>45968</v>
+      </c>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="4"/>
+    </row>
+    <row r="20" ht="18" spans="1:15">
+      <c r="A20" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="8">
+        <v>45960</v>
+      </c>
+      <c r="H20" s="17"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="10">
+        <v>12</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="4"/>
+    </row>
+    <row r="21" ht="18" spans="1:15">
+      <c r="A21" s="13"/>
+      <c r="B21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="8">
+        <v>45966</v>
+      </c>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8">
+        <v>45968</v>
+      </c>
+      <c r="J21" s="4"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="10">
+        <v>8</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="4"/>
+    </row>
+    <row r="22" ht="18" spans="1:15">
+      <c r="A22" s="13"/>
+      <c r="B22" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="4"/>
+    </row>
+    <row r="23" ht="18" spans="1:15">
+      <c r="A23" s="13"/>
+      <c r="B23" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" s="7">
+        <v>1</v>
+      </c>
+      <c r="G23" s="8">
+        <v>45961</v>
+      </c>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="9">
+        <v>45965</v>
+      </c>
+      <c r="L23" s="10">
+        <v>2</v>
+      </c>
+      <c r="M23" s="10">
+        <v>4</v>
+      </c>
+      <c r="N23" s="10"/>
+      <c r="O23" s="4"/>
+    </row>
+    <row r="24" ht="18" spans="1:15">
+      <c r="A24" s="13"/>
+      <c r="B24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10">
+        <v>1</v>
+      </c>
+      <c r="O24" s="4"/>
+    </row>
+    <row r="25" ht="18" spans="1:15">
+      <c r="A25" s="13"/>
+      <c r="B25" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10">
+        <v>1</v>
+      </c>
+      <c r="O25" s="4"/>
+    </row>
+    <row r="26" ht="18" spans="1:15">
+      <c r="A26" s="13"/>
+      <c r="B26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26" s="7"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="4"/>
+    </row>
+    <row r="27" ht="18" spans="1:15">
+      <c r="A27" s="13"/>
+      <c r="B27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27" s="7"/>
+      <c r="G27" s="8">
+        <v>45947</v>
+      </c>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="4"/>
+    </row>
+    <row r="28" ht="18" spans="1:15">
+      <c r="A28" s="13"/>
+      <c r="B28" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F28" s="20">
+        <v>1</v>
+      </c>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="9">
+        <v>45965</v>
+      </c>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10">
+        <v>2</v>
+      </c>
+      <c r="N28" s="10"/>
+      <c r="O28" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A20:A28"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D1:D28">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/client/文件上传模版/测试任务更新模版.xlsx
+++ b/client/文件上传模版/测试任务更新模版.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="23960"/>
+    <workbookView windowHeight="22060"/>
   </bookViews>
   <sheets>
     <sheet name="模版" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="74">
   <si>
     <t>负责人</t>
   </si>
@@ -75,71 +75,56 @@
     <t>王雪斌</t>
   </si>
   <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>欧洲</t>
-  </si>
-  <si>
-    <t>欧洲 - 次日登录目标引导强化移植</t>
+    <t>A</t>
+  </si>
+  <si>
+    <t>美国3</t>
+  </si>
+  <si>
+    <t>美国3 - 红蓝对抗1.1：新增NFL对抗充值活动</t>
   </si>
   <si>
     <t>测试中</t>
   </si>
   <si>
-    <t>欧洲 - 节假日礼包移植</t>
+    <t>美国1</t>
+  </si>
+  <si>
+    <t>美国1破产礼包自动化衰减需求</t>
   </si>
   <si>
     <t>未提测</t>
   </si>
   <si>
-    <t>欧洲 - 引导非VIP用户绑定FB</t>
+    <t>美国1召回礼包自动化衰减需求</t>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
-    <t>谷歌包归因自动化脚本实现</t>
+    <t>谷歌包归因自动化脚本优化</t>
   </si>
   <si>
     <t>王然</t>
   </si>
   <si>
-    <t>美国4</t>
-  </si>
-  <si>
-    <t>王然-美国4 金币场方案</t>
-  </si>
-  <si>
-    <t>欧洲 - IPA包新增引导AppStore评论</t>
-  </si>
-  <si>
-    <t>美国1</t>
-  </si>
-  <si>
-    <t>美国1数值优化+线上问题跟进+投放链接测试</t>
+    <t>巴西</t>
+  </si>
+  <si>
+    <t>巴西分包 - 互导配置化+IOS打开优化</t>
   </si>
   <si>
     <t>已上线</t>
   </si>
   <si>
-    <t>古鹏鹏</t>
-  </si>
-  <si>
-    <t>美国4 金币场方案</t>
-  </si>
-  <si>
-    <t>赵涛涛</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>巴西</t>
+    <t>客服OA</t>
+  </si>
+  <si>
+    <t>客服OA - 新增提款审核聚合页面</t>
   </si>
   <si>
     <r>
-      <t>巴西老包&amp;分包 - TG绑定放大</t>
+      <t>美国3 - CashApp BTC 小额充值促销</t>
     </r>
     <r>
       <rPr>
@@ -153,19 +138,73 @@
     </r>
   </si>
   <si>
-    <t>美国3</t>
-  </si>
-  <si>
-    <t>美国3 - 新增碎片充值活动</t>
-  </si>
-  <si>
-    <t>欧洲 - 转盘礼包移植</t>
-  </si>
-  <si>
-    <t>欧洲 - 盲盒礼包移植</t>
-  </si>
-  <si>
-    <t>欧洲 - 阶梯礼包礼包移植</t>
+    <r>
+      <t>美国3 - 裂变抽奖活动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>古鹏鹏</t>
+  </si>
+  <si>
+    <t>美国2</t>
+  </si>
+  <si>
+    <t>美国2 - 比赛场五人赛增加快速结算机制</t>
+  </si>
+  <si>
+    <r>
+      <t>美国2 - 比赛场首充和复购优化</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>墨西哥</t>
+  </si>
+  <si>
+    <t>墨西哥分包 - 互导配置化+IOS打开优化</t>
+  </si>
+  <si>
+    <t>赵涛涛</t>
+  </si>
+  <si>
+    <t>墨西哥分包 - 新增引导用户绑定TG账号</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>美国1,美国2,美国3</t>
+  </si>
+  <si>
+    <t>美国1、2、3 - 信用卡充值风控</t>
+  </si>
+  <si>
+    <t>跟进PWA外跳问题修复进度</t>
+  </si>
+  <si>
+    <t>澳大利亚</t>
+  </si>
+  <si>
+    <t>playwright 实现澳洲主流程UI自动化回归</t>
   </si>
   <si>
     <t>加拿大</t>
@@ -174,9 +213,6 @@
     <t>加拿大H5 - ApplePay / GooglePay / USDT BEP20</t>
   </si>
   <si>
-    <t>澳大利亚</t>
-  </si>
-  <si>
     <t>澳大利亚H5 - ApplePay / GooglePay / USDT BEP20</t>
   </si>
   <si>
@@ -192,9 +228,6 @@
     <t>预发验证发现客服oa没有用户信息</t>
   </si>
   <si>
-    <t>墨西哥</t>
-  </si>
-  <si>
     <t>巴西分包&amp;墨西哥分包 - 同时接入FB和TG客服</t>
   </si>
   <si>
@@ -219,9 +252,6 @@
     <t>B</t>
   </si>
   <si>
-    <t>美国2</t>
-  </si>
-  <si>
     <t>自动化回归功能实现</t>
   </si>
   <si>
@@ -238,9 +268,6 @@
   </si>
   <si>
     <t>【评审】美国2 - 联运产品对方客服链接接入时增加ID参数</t>
-  </si>
-  <si>
-    <t>美国1,美国2,美国3</t>
   </si>
   <si>
     <t>线上送转盘问题跟进修复</t>
@@ -663,7 +690,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -754,21 +781,6 @@
       </right>
       <top/>
       <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
@@ -897,7 +909,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -909,34 +921,34 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1021,7 +1033,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1170,6 +1182,14 @@
         </ext>
       </extLst>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+      <extLst>
+        <ext xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" uri="{F19249F5-4A6E-446B-B59F-E2C9F2DAA1D5}">
+          <etc:displayText val="2"/>
+        </ext>
+      </extLst>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
       <extLst>
@@ -1178,15 +1198,7 @@
         </ext>
       </extLst>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-      <extLst>
-        <ext xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" uri="{F19249F5-4A6E-446B-B59F-E2C9F2DAA1D5}">
-          <etc:displayText val="2"/>
-        </ext>
-      </extLst>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
       <extLst>
         <ext xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" uri="{F19249F5-4A6E-446B-B59F-E2C9F2DAA1D5}">
@@ -1226,7 +1238,7 @@
         </ext>
       </extLst>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
       <extLst>
         <ext xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" uri="{F19249F5-4A6E-446B-B59F-E2C9F2DAA1D5}">
@@ -1242,7 +1254,15 @@
         </ext>
       </extLst>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+      <extLst>
+        <ext xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" uri="{F19249F5-4A6E-446B-B59F-E2C9F2DAA1D5}">
+          <etc:displayText val="2"/>
+        </ext>
+      </extLst>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
       <extLst>
         <ext xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" uri="{F19249F5-4A6E-446B-B59F-E2C9F2DAA1D5}">
@@ -1250,22 +1270,8 @@
         </ext>
       </extLst>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-      <extLst>
-        <ext xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" uri="{F19249F5-4A6E-446B-B59F-E2C9F2DAA1D5}">
-          <etc:displayText val="2"/>
-        </ext>
-      </extLst>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
       <extLst>
         <ext xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" uri="{F19249F5-4A6E-446B-B59F-E2C9F2DAA1D5}">
           <etc:displayText val="2"/>
@@ -1602,10 +1608,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:N14"/>
+      <selection activeCell="A1" sqref="A1:N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.5" customHeight="1"/>
@@ -1626,43 +1632,43 @@
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="L1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="M1" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="N1" s="22" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1684,20 +1690,20 @@
       </c>
       <c r="F2" s="26"/>
       <c r="G2" s="27">
-        <v>46022</v>
-      </c>
-      <c r="H2" s="27">
-        <v>46022</v>
-      </c>
+        <v>46036</v>
+      </c>
+      <c r="H2" s="27"/>
       <c r="I2" s="27">
-        <v>46028</v>
+        <v>46038</v>
       </c>
       <c r="J2" s="24"/>
-      <c r="K2" s="27"/>
+      <c r="K2" s="28"/>
       <c r="L2" s="24">
-        <v>6</v>
-      </c>
-      <c r="M2" s="24"/>
+        <v>10</v>
+      </c>
+      <c r="M2" s="24">
+        <v>3</v>
+      </c>
       <c r="N2" s="24"/>
     </row>
     <row r="3" customHeight="1" spans="1:14">
@@ -1706,25 +1712,21 @@
         <v>15</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="25" t="s">
         <v>19</v>
       </c>
+      <c r="D3" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="E3" s="24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3" s="26"/>
       <c r="G3" s="27"/>
       <c r="H3" s="27"/>
-      <c r="I3" s="27">
-        <v>46029</v>
-      </c>
+      <c r="I3" s="27"/>
       <c r="J3" s="24"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="24">
-        <v>6</v>
-      </c>
+      <c r="K3" s="28"/>
+      <c r="L3" s="24"/>
       <c r="M3" s="24"/>
       <c r="N3" s="24"/>
     </row>
@@ -1734,36 +1736,32 @@
         <v>15</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="24" t="s">
         <v>21</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>20</v>
       </c>
       <c r="F4" s="26"/>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
-      <c r="I4" s="27">
-        <v>46029</v>
-      </c>
+      <c r="I4" s="27"/>
       <c r="J4" s="24"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="24">
-        <v>6</v>
-      </c>
+      <c r="K4" s="28"/>
+      <c r="L4" s="24"/>
       <c r="M4" s="24"/>
       <c r="N4" s="24"/>
     </row>
     <row r="5" customHeight="1" spans="1:14">
       <c r="A5" s="23"/>
-      <c r="B5" s="28" t="s">
-        <v>22</v>
+      <c r="B5" s="24" t="s">
+        <v>23</v>
       </c>
       <c r="C5" s="24"/>
       <c r="D5" s="29" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5" s="24" t="s">
         <v>18</v>
@@ -1775,165 +1773,175 @@
       <c r="H5" s="27"/>
       <c r="I5" s="27"/>
       <c r="J5" s="24"/>
-      <c r="K5" s="30"/>
+      <c r="K5" s="28"/>
       <c r="L5" s="24"/>
       <c r="M5" s="24"/>
       <c r="N5" s="24"/>
     </row>
-    <row r="6" ht="18.75" customHeight="1" spans="1:14">
-      <c r="A6" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="28" t="s">
+    <row r="6" ht="18" customHeight="1" spans="1:14">
+      <c r="A6" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="24" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="31" t="s">
         <v>26</v>
       </c>
+      <c r="D6" s="29" t="s">
+        <v>27</v>
+      </c>
       <c r="E6" s="24" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F6" s="26">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="G6" s="27">
-        <v>46020</v>
-      </c>
-      <c r="H6" s="27">
-        <v>46020</v>
-      </c>
+        <v>46037</v>
+      </c>
+      <c r="H6" s="27"/>
       <c r="I6" s="27">
-        <v>46030</v>
+        <v>46038</v>
       </c>
       <c r="J6" s="24"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
+      <c r="K6" s="28">
+        <v>46038</v>
+      </c>
+      <c r="L6" s="24">
+        <v>6</v>
+      </c>
+      <c r="M6" s="24">
+        <v>4</v>
+      </c>
       <c r="N6" s="24"/>
     </row>
     <row r="7" customHeight="1" spans="1:14">
-      <c r="A7" s="23"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="24" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F7" s="26"/>
       <c r="G7" s="27">
-        <v>46022</v>
-      </c>
-      <c r="H7" s="27">
-        <v>46022</v>
-      </c>
-      <c r="I7" s="27">
-        <v>46028</v>
-      </c>
+        <v>46042</v>
+      </c>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
       <c r="J7" s="24"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="24"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="24">
+        <v>5</v>
+      </c>
       <c r="M7" s="24"/>
       <c r="N7" s="24"/>
     </row>
     <row r="8" customHeight="1" spans="1:14">
-      <c r="A8" s="23"/>
-      <c r="B8" s="28"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="24" t="s">
+        <v>15</v>
+      </c>
       <c r="C8" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>29</v>
+        <v>16</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>31</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="26">
-        <v>1</v>
-      </c>
-      <c r="G8" s="27"/>
+        <v>21</v>
+      </c>
+      <c r="F8" s="26"/>
+      <c r="G8" s="27">
+        <v>46036</v>
+      </c>
       <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
+      <c r="I8" s="27">
+        <v>46038</v>
+      </c>
       <c r="J8" s="24"/>
-      <c r="K8" s="30">
-        <v>46026</v>
-      </c>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24">
-        <v>8</v>
-      </c>
+      <c r="K8" s="28"/>
+      <c r="L8" s="24">
+        <v>12</v>
+      </c>
+      <c r="M8" s="24"/>
       <c r="N8" s="24"/>
     </row>
     <row r="9" customHeight="1" spans="1:14">
-      <c r="A9" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="28" t="s">
+      <c r="A9" s="30"/>
+      <c r="B9" s="24" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="25" t="s">
         <v>32</v>
       </c>
       <c r="E9" s="24" t="s">
         <v>18</v>
       </c>
       <c r="F9" s="26">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="G9" s="27">
-        <v>46020</v>
+        <v>46036</v>
       </c>
       <c r="H9" s="27">
-        <v>46020</v>
+        <v>46038</v>
       </c>
       <c r="I9" s="27">
-        <v>46030</v>
+        <v>46038</v>
       </c>
       <c r="J9" s="24"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="24"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="24">
+        <v>12</v>
+      </c>
       <c r="M9" s="24">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N9" s="24"/>
     </row>
-    <row r="10" ht="36" customHeight="1" spans="1:14">
-      <c r="A10" s="34" t="s">
+    <row r="10" ht="18" customHeight="1" spans="1:14">
+      <c r="A10" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="D10" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="25" t="s">
-        <v>36</v>
-      </c>
       <c r="E10" s="24" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F10" s="26">
-        <v>0.9</v>
-      </c>
-      <c r="G10" s="27"/>
+        <v>1</v>
+      </c>
+      <c r="G10" s="27">
+        <v>46031</v>
+      </c>
       <c r="H10" s="27">
-        <v>46022</v>
-      </c>
-      <c r="I10" s="27"/>
+        <v>46031</v>
+      </c>
+      <c r="I10" s="27">
+        <v>46036</v>
+      </c>
       <c r="J10" s="24"/>
-      <c r="K10" s="27"/>
+      <c r="K10" s="31">
+        <v>46038.6666666667</v>
+      </c>
       <c r="L10" s="24">
         <v>8</v>
       </c>
@@ -1943,145 +1951,198 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" customHeight="1" spans="1:14">
-      <c r="A11" s="34"/>
-      <c r="B11" s="28" t="s">
+      <c r="A11" s="30"/>
+      <c r="B11" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="24" t="s">
-        <v>37</v>
-      </c>
       <c r="D11" s="25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="26">
-        <v>1</v>
-      </c>
-      <c r="G11" s="27">
-        <v>46020</v>
-      </c>
-      <c r="H11" s="27"/>
+        <v>18</v>
+      </c>
+      <c r="F11" s="26"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="32">
+        <v>46038.7291666667</v>
+      </c>
       <c r="I11" s="27">
-        <v>46027</v>
+        <v>46038</v>
       </c>
       <c r="J11" s="24"/>
-      <c r="K11" s="27">
-        <v>46026</v>
-      </c>
+      <c r="K11" s="28"/>
       <c r="L11" s="24">
-        <v>8</v>
-      </c>
-      <c r="M11" s="24">
-        <v>4</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="M11" s="24"/>
       <c r="N11" s="24"/>
     </row>
     <row r="12" customHeight="1" spans="1:14">
-      <c r="A12" s="34"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="24" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>39</v>
+        <v>37</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>38</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="26"/>
+        <v>18</v>
+      </c>
+      <c r="F12" s="26">
+        <v>0.9</v>
+      </c>
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
-      <c r="I12" s="27">
-        <v>46029</v>
-      </c>
+      <c r="I12" s="27"/>
       <c r="J12" s="24"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="24">
-        <v>6</v>
-      </c>
-      <c r="M12" s="24"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24">
+        <v>2</v>
+      </c>
       <c r="N12" s="24"/>
     </row>
-    <row r="13" customHeight="1" spans="1:14">
-      <c r="A13" s="34"/>
+    <row r="13" ht="18" customHeight="1" spans="1:14">
+      <c r="A13" s="30" t="s">
+        <v>39</v>
+      </c>
       <c r="B13" s="24" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="D13" s="25" t="s">
         <v>40</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="26"/>
+        <v>28</v>
+      </c>
+      <c r="F13" s="26">
+        <v>1</v>
+      </c>
       <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
+      <c r="H13" s="27">
+        <v>46037</v>
+      </c>
       <c r="I13" s="27">
-        <v>46029</v>
+        <v>46038</v>
       </c>
       <c r="J13" s="24"/>
-      <c r="K13" s="27"/>
+      <c r="K13" s="28"/>
       <c r="L13" s="24">
         <v>6</v>
       </c>
-      <c r="M13" s="24"/>
+      <c r="M13" s="24">
+        <v>3</v>
+      </c>
       <c r="N13" s="24"/>
     </row>
     <row r="14" customHeight="1" spans="1:14">
-      <c r="A14" s="34"/>
+      <c r="A14" s="30"/>
       <c r="B14" s="24" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>43</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="26"/>
+        <v>28</v>
+      </c>
+      <c r="F14" s="26">
+        <v>1</v>
+      </c>
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
-      <c r="I14" s="27">
-        <v>46028</v>
-      </c>
+      <c r="I14" s="27"/>
       <c r="J14" s="24"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="24">
-        <v>6</v>
-      </c>
-      <c r="M14" s="24"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24">
+        <v>3</v>
+      </c>
       <c r="N14" s="24"/>
     </row>
+    <row r="15" customHeight="1" spans="1:14">
+      <c r="A15" s="30"/>
+      <c r="B15" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="24"/>
+      <c r="D15" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="26"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+    </row>
+    <row r="16" customHeight="1" spans="1:14">
+      <c r="A16" s="30"/>
+      <c r="B16" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="26">
+        <v>0.8</v>
+      </c>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24">
+        <v>2</v>
+      </c>
+      <c r="N16" s="24"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A16"/>
   </mergeCells>
   <conditionalFormatting sqref="D$1:D$1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="6"/>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B15:B1048576" errorStyle="information">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B17:B1048576" errorStyle="information">
       <formula1>"A,B,C,S"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C15:C1048576" errorStyle="information">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C17:C1048576" errorStyle="information">
       <formula1>"美国,美国2,墨西哥,秘鲁,巴西,智利,分包系统,客服OA,运营系统,加拿大,澳大利亚,巴西2"</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="E15:E1048576">
+    <dataValidation type="list" sqref="E17:E1048576">
       <formula1>"测试中,未提测,已上线,已完成"</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="between" allowBlank="1" sqref="G15:I1048576"/>
+    <dataValidation type="date" operator="between" allowBlank="1" sqref="G17:I1048576"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2162,13 +2223,13 @@
         <v>14</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>18</v>
@@ -2195,13 +2256,13 @@
     <row r="3" customHeight="1" spans="1:15">
       <c r="A3" s="7"/>
       <c r="B3" s="8" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>18</v>
@@ -2228,16 +2289,16 @@
     <row r="4" customHeight="1" spans="1:15">
       <c r="A4" s="7"/>
       <c r="B4" s="6" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="C4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>30</v>
       </c>
       <c r="F4" s="10">
         <v>1</v>
@@ -2257,11 +2318,11 @@
     <row r="5" customHeight="1" spans="1:15">
       <c r="A5" s="7"/>
       <c r="B5" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="9" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>18</v>
@@ -2283,19 +2344,19 @@
     </row>
     <row r="6" ht="18" customHeight="1" spans="1:15">
       <c r="A6" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="10">
         <v>1</v>
@@ -2308,7 +2369,7 @@
         <v>45971</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K6" s="15"/>
       <c r="L6" s="16">
@@ -2323,16 +2384,16 @@
     <row r="7" customHeight="1" spans="1:15">
       <c r="A7" s="13"/>
       <c r="B7" s="6" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F7" s="10">
         <v>1</v>
@@ -2345,7 +2406,7 @@
         <v>45971</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K7" s="15"/>
       <c r="L7" s="16">
@@ -2360,16 +2421,16 @@
     <row r="8" customHeight="1" spans="1:15">
       <c r="A8" s="13"/>
       <c r="B8" s="6" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F8" s="10">
         <v>1</v>
@@ -2389,13 +2450,13 @@
     <row r="9" customHeight="1" spans="1:15">
       <c r="A9" s="13"/>
       <c r="B9" s="6" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>18</v>
@@ -2418,16 +2479,16 @@
     <row r="10" customHeight="1" spans="1:15">
       <c r="A10" s="13"/>
       <c r="B10" s="6" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="11"/>
@@ -2443,13 +2504,13 @@
     <row r="11" customHeight="1" spans="1:15">
       <c r="A11" s="13"/>
       <c r="B11" s="6" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>18</v>
@@ -2471,16 +2532,16 @@
     </row>
     <row r="12" ht="18" customHeight="1" spans="1:15">
       <c r="A12" s="13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>18</v>
@@ -2501,16 +2562,16 @@
     <row r="13" customHeight="1" spans="1:15">
       <c r="A13" s="13"/>
       <c r="B13" s="6" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F13" s="10">
         <v>1</v>
@@ -2532,16 +2593,16 @@
     <row r="14" customHeight="1" spans="1:15">
       <c r="A14" s="13"/>
       <c r="B14" s="6" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F14" s="10">
         <v>1</v>
@@ -2567,16 +2628,16 @@
     <row r="15" customHeight="1" spans="1:15">
       <c r="A15" s="13"/>
       <c r="B15" s="6" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="10">
         <v>1</v>
@@ -2604,16 +2665,16 @@
     <row r="16" customHeight="1" spans="1:15">
       <c r="A16" s="13"/>
       <c r="B16" s="6" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="11"/>
@@ -2628,19 +2689,19 @@
     </row>
     <row r="17" ht="36" customHeight="1" spans="1:15">
       <c r="A17" s="13" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>59</v>
-      </c>
       <c r="D17" s="18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F17" s="10">
         <v>1</v>
@@ -2666,16 +2727,16 @@
     <row r="18" customHeight="1" spans="1:15">
       <c r="A18" s="13"/>
       <c r="B18" s="6" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F18" s="10">
         <v>1</v>
@@ -2697,13 +2758,13 @@
     <row r="19" customHeight="1" spans="1:15">
       <c r="A19" s="13"/>
       <c r="B19" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>18</v>
@@ -2726,16 +2787,16 @@
     <row r="20" customHeight="1" spans="1:15">
       <c r="A20" s="13"/>
       <c r="B20" s="6" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="11">
@@ -2755,16 +2816,16 @@
     <row r="21" customHeight="1" spans="1:15">
       <c r="A21" s="13"/>
       <c r="B21" s="6" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="11">
@@ -2782,13 +2843,13 @@
     <row r="22" customHeight="1" spans="1:15">
       <c r="A22" s="13"/>
       <c r="B22" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>18</v>
